--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="192">
   <si>
     <t>ReachName</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Pools- Deep Pools</t>
+  </si>
+  <si>
+    <t>Predators- Adults</t>
   </si>
   <si>
     <t>Predators- Juveniles</t>
@@ -738,19 +741,22 @@
       <c r="AH1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
@@ -821,17 +827,17 @@
       <c r="AA2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB2" t="n">
-        <v>5.0</v>
+      <c r="AB2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF2" t="n">
         <v>5.0</v>
@@ -840,21 +846,24 @@
         <v>5.0</v>
       </c>
       <c r="AH2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI2" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
@@ -925,17 +934,17 @@
       <c r="AA3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB3" t="n">
-        <v>5.0</v>
+      <c r="AB3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF3" t="n">
         <v>5.0</v>
@@ -944,21 +953,24 @@
         <v>5.0</v>
       </c>
       <c r="AH3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI3" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -1029,40 +1041,43 @@
       <c r="AA4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB4" t="n">
-        <v>5.0</v>
+      <c r="AB4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG4" t="n">
         <v>3.0</v>
       </c>
       <c r="AH4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI4" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -1133,17 +1148,17 @@
       <c r="AA5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB5" t="n">
-        <v>5.0</v>
+      <c r="AB5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF5" t="n">
         <v>5.0</v>
@@ -1152,21 +1167,24 @@
         <v>5.0</v>
       </c>
       <c r="AH5" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI5" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -1237,17 +1255,17 @@
       <c r="AA6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB6" t="n">
-        <v>5.0</v>
+      <c r="AB6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF6" t="n">
         <v>5.0</v>
@@ -1256,21 +1274,24 @@
         <v>5.0</v>
       </c>
       <c r="AH6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI6" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -1341,17 +1362,17 @@
       <c r="AA7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB7" t="n">
-        <v>5.0</v>
+      <c r="AB7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF7" t="n">
         <v>5.0</v>
@@ -1360,21 +1381,24 @@
         <v>5.0</v>
       </c>
       <c r="AH7" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI7" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -1445,17 +1469,17 @@
       <c r="AA8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB8" t="n">
-        <v>5.0</v>
+      <c r="AB8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF8" t="n">
         <v>5.0</v>
@@ -1464,21 +1488,24 @@
         <v>5.0</v>
       </c>
       <c r="AH8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -1549,17 +1576,17 @@
       <c r="AA9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB9" t="n">
-        <v>5.0</v>
+      <c r="AB9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF9" t="n">
         <v>5.0</v>
@@ -1568,21 +1595,24 @@
         <v>5.0</v>
       </c>
       <c r="AH9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI9" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E10" t="n">
         <v>2.0</v>
@@ -1653,40 +1683,43 @@
       <c r="AA10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB10" t="n">
-        <v>5.0</v>
+      <c r="AB10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG10" t="n">
         <v>1.0</v>
       </c>
       <c r="AH10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI10" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E11" t="e">
         <v>#N/A</v>
@@ -1760,14 +1793,14 @@
       <c r="AB11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>5.0</v>
+      <c r="AC11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF11" t="n">
         <v>5.0</v>
@@ -1776,21 +1809,24 @@
         <v>5.0</v>
       </c>
       <c r="AH11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI11" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -1861,40 +1897,43 @@
       <c r="AA12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB12" t="n">
-        <v>5.0</v>
+      <c r="AB12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG12" t="n">
         <v>3.0</v>
       </c>
       <c r="AH12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI12" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -1965,40 +2004,43 @@
       <c r="AA13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB13" t="n">
-        <v>5.0</v>
+      <c r="AB13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG13" t="n">
         <v>3.0</v>
       </c>
       <c r="AH13" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI13" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -2069,17 +2111,17 @@
       <c r="AA14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB14" t="n">
-        <v>5.0</v>
+      <c r="AB14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF14" t="n">
         <v>5.0</v>
@@ -2088,21 +2130,24 @@
         <v>5.0</v>
       </c>
       <c r="AH14" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI14" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -2173,17 +2218,17 @@
       <c r="AA15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB15" t="n">
-        <v>5.0</v>
+      <c r="AB15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF15" t="n">
         <v>5.0</v>
@@ -2192,21 +2237,24 @@
         <v>5.0</v>
       </c>
       <c r="AH15" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI15" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -2277,17 +2325,17 @@
       <c r="AA16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB16" t="n">
-        <v>5.0</v>
+      <c r="AB16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF16" t="n">
         <v>5.0</v>
@@ -2296,21 +2344,24 @@
         <v>5.0</v>
       </c>
       <c r="AH16" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI16" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -2381,17 +2432,17 @@
       <c r="AA17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB17" t="n">
-        <v>5.0</v>
+      <c r="AB17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF17" t="n">
         <v>5.0</v>
@@ -2400,21 +2451,24 @@
         <v>5.0</v>
       </c>
       <c r="AH17" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI17" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -2485,17 +2539,17 @@
       <c r="AA18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB18" t="n">
-        <v>5.0</v>
+      <c r="AB18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF18" t="n">
         <v>5.0</v>
@@ -2504,21 +2558,24 @@
         <v>5.0</v>
       </c>
       <c r="AH18" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI18" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -2589,17 +2646,17 @@
       <c r="AA19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB19" t="n">
-        <v>5.0</v>
+      <c r="AB19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF19" t="n">
         <v>5.0</v>
@@ -2608,21 +2665,24 @@
         <v>5.0</v>
       </c>
       <c r="AH19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI19" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -2693,17 +2753,17 @@
       <c r="AA20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB20" t="n">
-        <v>5.0</v>
+      <c r="AB20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF20" t="n">
         <v>5.0</v>
@@ -2712,21 +2772,24 @@
         <v>5.0</v>
       </c>
       <c r="AH20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI20" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -2797,40 +2860,43 @@
       <c r="AA21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB21" t="n">
-        <v>5.0</v>
+      <c r="AB21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG21" t="n">
         <v>1.0</v>
       </c>
       <c r="AH21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI21" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -2901,17 +2967,17 @@
       <c r="AA22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB22" t="n">
-        <v>5.0</v>
+      <c r="AB22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF22" t="n">
         <v>5.0</v>
@@ -2920,21 +2986,24 @@
         <v>5.0</v>
       </c>
       <c r="AH22" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI22" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -3005,17 +3074,17 @@
       <c r="AA23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB23" t="n">
-        <v>5.0</v>
+      <c r="AB23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF23" t="n">
         <v>5.0</v>
@@ -3024,21 +3093,24 @@
         <v>5.0</v>
       </c>
       <c r="AH23" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI23" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E24" t="n">
         <v>2.0</v>
@@ -3109,40 +3181,43 @@
       <c r="AA24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB24" t="n">
-        <v>5.0</v>
+      <c r="AB24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG24" t="n">
         <v>3.0</v>
       </c>
       <c r="AH24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI24" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E25" t="n">
         <v>2.0</v>
@@ -3213,40 +3288,43 @@
       <c r="AA25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB25" t="n">
-        <v>5.0</v>
+      <c r="AB25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG25" t="n">
         <v>3.0</v>
       </c>
       <c r="AH25" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI25" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E26" t="n">
         <v>2.0</v>
@@ -3317,40 +3395,43 @@
       <c r="AA26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB26" t="n">
-        <v>5.0</v>
+      <c r="AB26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG26" t="n">
         <v>3.0</v>
       </c>
       <c r="AH26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI26" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E27" t="n">
         <v>2.0</v>
@@ -3421,17 +3502,17 @@
       <c r="AA27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB27" t="n">
-        <v>5.0</v>
+      <c r="AB27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF27" t="n">
         <v>5.0</v>
@@ -3440,21 +3521,24 @@
         <v>5.0</v>
       </c>
       <c r="AH27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI27" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E28" t="n">
         <v>2.0</v>
@@ -3525,17 +3609,17 @@
       <c r="AA28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB28" t="n">
-        <v>5.0</v>
+      <c r="AB28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF28" t="n">
         <v>5.0</v>
@@ -3544,21 +3628,24 @@
         <v>5.0</v>
       </c>
       <c r="AH28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI28" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E29" t="n">
         <v>2.0</v>
@@ -3638,31 +3725,34 @@
       <c r="AD29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AE29" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="AF29" t="e">
-        <v>#N/A</v>
+      <c r="AE29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>5.0</v>
       </c>
       <c r="AG29" t="e">
         <v>#N/A</v>
       </c>
       <c r="AH29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AI29" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E30" t="n">
         <v>2.0</v>
@@ -3733,17 +3823,17 @@
       <c r="AA30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB30" t="n">
-        <v>5.0</v>
+      <c r="AB30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF30" t="n">
         <v>5.0</v>
@@ -3752,21 +3842,24 @@
         <v>5.0</v>
       </c>
       <c r="AH30" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI30" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E31" t="n">
         <v>2.0</v>
@@ -3837,40 +3930,43 @@
       <c r="AA31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB31" t="n">
-        <v>5.0</v>
+      <c r="AB31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF31" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG31" t="n">
         <v>1.0</v>
       </c>
       <c r="AH31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI31" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E32" t="n">
         <v>2.0</v>
@@ -3941,40 +4037,43 @@
       <c r="AA32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB32" t="n">
-        <v>5.0</v>
+      <c r="AB32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF32" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG32" t="n">
         <v>1.0</v>
       </c>
       <c r="AH32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI32" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E33" t="n">
         <v>2.0</v>
@@ -4045,17 +4144,17 @@
       <c r="AA33" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB33" t="n">
-        <v>5.0</v>
+      <c r="AB33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF33" t="n">
         <v>5.0</v>
@@ -4064,21 +4163,24 @@
         <v>5.0</v>
       </c>
       <c r="AH33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI33" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E34" t="n">
         <v>2.0</v>
@@ -4149,17 +4251,17 @@
       <c r="AA34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB34" t="n">
-        <v>5.0</v>
+      <c r="AB34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF34" t="n">
         <v>5.0</v>
@@ -4168,21 +4270,24 @@
         <v>5.0</v>
       </c>
       <c r="AH34" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI34" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E35" t="n">
         <v>2.0</v>
@@ -4253,17 +4358,17 @@
       <c r="AA35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB35" t="n">
-        <v>5.0</v>
+      <c r="AB35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF35" t="n">
         <v>5.0</v>
@@ -4272,21 +4377,24 @@
         <v>5.0</v>
       </c>
       <c r="AH35" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI35" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E36" t="n">
         <v>2.0</v>
@@ -4357,40 +4465,43 @@
       <c r="AA36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB36" t="n">
-        <v>5.0</v>
+      <c r="AB36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG36" t="n">
         <v>1.0</v>
       </c>
       <c r="AH36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI36" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E37" t="n">
         <v>2.0</v>
@@ -4461,40 +4572,43 @@
       <c r="AA37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB37" t="n">
-        <v>5.0</v>
+      <c r="AB37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF37" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG37" t="n">
         <v>3.0</v>
       </c>
       <c r="AH37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI37" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E38" t="n">
         <v>2.0</v>
@@ -4565,40 +4679,43 @@
       <c r="AA38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB38" t="n">
-        <v>5.0</v>
+      <c r="AB38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF38" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG38" t="n">
         <v>3.0</v>
       </c>
       <c r="AH38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI38" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E39" t="n">
         <v>2.0</v>
@@ -4669,17 +4786,17 @@
       <c r="AA39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB39" t="n">
-        <v>5.0</v>
+      <c r="AB39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF39" t="n">
         <v>5.0</v>
@@ -4688,21 +4805,24 @@
         <v>5.0</v>
       </c>
       <c r="AH39" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI39" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E40" t="n">
         <v>2.0</v>
@@ -4773,40 +4893,43 @@
       <c r="AA40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB40" t="n">
-        <v>5.0</v>
+      <c r="AB40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG40" t="n">
         <v>1.0</v>
       </c>
       <c r="AH40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI40" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E41" t="n">
         <v>2.0</v>
@@ -4877,17 +5000,17 @@
       <c r="AA41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB41" t="n">
-        <v>5.0</v>
+      <c r="AB41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF41" t="n">
         <v>5.0</v>
@@ -4896,21 +5019,24 @@
         <v>5.0</v>
       </c>
       <c r="AH41" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI41" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E42" t="n">
         <v>2.0</v>
@@ -4981,40 +5107,43 @@
       <c r="AA42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB42" t="n">
-        <v>5.0</v>
+      <c r="AB42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF42" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG42" t="n">
         <v>1.0</v>
       </c>
       <c r="AH42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI42" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E43" t="n">
         <v>2.0</v>
@@ -5085,17 +5214,17 @@
       <c r="AA43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB43" t="n">
-        <v>5.0</v>
+      <c r="AB43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF43" t="n">
         <v>5.0</v>
@@ -5104,21 +5233,24 @@
         <v>5.0</v>
       </c>
       <c r="AH43" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI43" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E44" t="n">
         <v>2.0</v>
@@ -5189,17 +5321,17 @@
       <c r="AA44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB44" t="n">
-        <v>5.0</v>
+      <c r="AB44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF44" t="n">
         <v>5.0</v>
@@ -5208,21 +5340,24 @@
         <v>5.0</v>
       </c>
       <c r="AH44" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI44" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E45" t="n">
         <v>2.0</v>
@@ -5293,40 +5428,43 @@
       <c r="AA45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB45" t="n">
-        <v>5.0</v>
+      <c r="AB45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF45" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG45" t="n">
         <v>3.0</v>
       </c>
       <c r="AH45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI45" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E46" t="n">
         <v>2.0</v>
@@ -5397,40 +5535,43 @@
       <c r="AA46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB46" t="n">
-        <v>5.0</v>
+      <c r="AB46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC46" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF46" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG46" t="n">
         <v>3.0</v>
       </c>
       <c r="AH46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI46" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E47" t="n">
         <v>2.0</v>
@@ -5501,40 +5642,43 @@
       <c r="AA47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB47" t="n">
-        <v>5.0</v>
+      <c r="AB47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC47" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF47" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG47" t="n">
         <v>1.0</v>
       </c>
       <c r="AH47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI47" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E48" t="n">
         <v>2.0</v>
@@ -5605,17 +5749,17 @@
       <c r="AA48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB48" t="n">
-        <v>5.0</v>
+      <c r="AB48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF48" t="n">
         <v>5.0</v>
@@ -5624,21 +5768,24 @@
         <v>5.0</v>
       </c>
       <c r="AH48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI48" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E49" t="n">
         <v>2.0</v>
@@ -5709,17 +5856,17 @@
       <c r="AA49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB49" t="n">
-        <v>5.0</v>
+      <c r="AB49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF49" t="n">
         <v>5.0</v>
@@ -5728,21 +5875,24 @@
         <v>5.0</v>
       </c>
       <c r="AH49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI49" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E50" t="n">
         <v>2.0</v>
@@ -5813,40 +5963,43 @@
       <c r="AA50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB50" t="n">
-        <v>5.0</v>
+      <c r="AB50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC50" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG50" t="n">
         <v>1.0</v>
       </c>
       <c r="AH50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI50" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E51" t="n">
         <v>2.0</v>
@@ -5917,40 +6070,43 @@
       <c r="AA51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB51" t="n">
-        <v>3.0</v>
+      <c r="AB51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF51" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG51" t="n">
         <v>1.0</v>
       </c>
       <c r="AH51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI51" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E52" t="n">
         <v>2.0</v>
@@ -6021,40 +6177,43 @@
       <c r="AA52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB52" t="n">
-        <v>5.0</v>
+      <c r="AB52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC52" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF52" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG52" t="n">
         <v>3.0</v>
       </c>
       <c r="AH52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI52" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E53" t="n">
         <v>2.0</v>
@@ -6125,40 +6284,43 @@
       <c r="AA53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB53" t="n">
-        <v>3.0</v>
+      <c r="AB53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF53" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG53" t="n">
         <v>1.0</v>
       </c>
       <c r="AH53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI53" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E54" t="n">
         <v>2.0</v>
@@ -6229,40 +6391,43 @@
       <c r="AA54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB54" t="n">
-        <v>5.0</v>
+      <c r="AB54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF54" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG54" t="n">
         <v>3.0</v>
       </c>
       <c r="AH54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI54" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E55" t="n">
         <v>2.0</v>
@@ -6333,40 +6498,43 @@
       <c r="AA55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB55" t="n">
-        <v>5.0</v>
+      <c r="AB55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC55" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF55" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG55" t="n">
         <v>1.0</v>
       </c>
       <c r="AH55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI55" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E56" t="n">
         <v>2.0</v>
@@ -6437,17 +6605,17 @@
       <c r="AA56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB56" t="n">
-        <v>5.0</v>
+      <c r="AB56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC56" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF56" t="n">
         <v>5.0</v>
@@ -6456,21 +6624,24 @@
         <v>5.0</v>
       </c>
       <c r="AH56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI56" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E57" t="n">
         <v>2.0</v>
@@ -6541,40 +6712,43 @@
       <c r="AA57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB57" t="n">
-        <v>5.0</v>
+      <c r="AB57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF57" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG57" t="n">
         <v>3.0</v>
       </c>
       <c r="AH57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI57" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E58" t="n">
         <v>2.0</v>
@@ -6645,17 +6819,17 @@
       <c r="AA58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB58" t="n">
-        <v>5.0</v>
+      <c r="AB58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC58" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF58" t="n">
         <v>5.0</v>
@@ -6664,21 +6838,24 @@
         <v>5.0</v>
       </c>
       <c r="AH58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI58" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E59" t="n">
         <v>2.0</v>
@@ -6749,40 +6926,43 @@
       <c r="AA59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB59" t="n">
-        <v>5.0</v>
+      <c r="AB59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF59" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG59" t="n">
         <v>1.0</v>
       </c>
       <c r="AH59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI59" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E60" t="n">
         <v>2.0</v>
@@ -6853,17 +7033,17 @@
       <c r="AA60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB60" t="n">
-        <v>5.0</v>
+      <c r="AB60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF60" t="n">
         <v>5.0</v>
@@ -6872,21 +7052,24 @@
         <v>5.0</v>
       </c>
       <c r="AH60" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI60" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E61" t="n">
         <v>2.0</v>
@@ -6957,17 +7140,17 @@
       <c r="AA61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB61" t="n">
-        <v>5.0</v>
+      <c r="AB61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF61" t="n">
         <v>5.0</v>
@@ -6976,21 +7159,24 @@
         <v>5.0</v>
       </c>
       <c r="AH61" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI61" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E62" t="n">
         <v>2.0</v>
@@ -7061,40 +7247,43 @@
       <c r="AA62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB62" t="n">
-        <v>5.0</v>
+      <c r="AB62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE62" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF62" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG62" t="n">
         <v>3.0</v>
       </c>
       <c r="AH62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI62" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E63" t="n">
         <v>2.0</v>
@@ -7165,40 +7354,43 @@
       <c r="AA63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB63" t="n">
-        <v>5.0</v>
+      <c r="AB63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF63" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG63" t="n">
         <v>3.0</v>
       </c>
       <c r="AH63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI63" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E64" t="n">
         <v>2.0</v>
@@ -7269,40 +7461,43 @@
       <c r="AA64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB64" t="n">
-        <v>5.0</v>
+      <c r="AB64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF64" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG64" t="n">
         <v>1.0</v>
       </c>
       <c r="AH64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI64" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E65" t="n">
         <v>2.0</v>
@@ -7373,17 +7568,17 @@
       <c r="AA65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB65" t="n">
-        <v>5.0</v>
+      <c r="AB65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF65" t="n">
         <v>5.0</v>
@@ -7392,21 +7587,24 @@
         <v>5.0</v>
       </c>
       <c r="AH65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI65" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E66" t="n">
         <v>2.0</v>
@@ -7477,40 +7675,43 @@
       <c r="AA66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB66" t="n">
-        <v>5.0</v>
+      <c r="AB66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF66" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG66" t="n">
         <v>3.0</v>
       </c>
       <c r="AH66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI66" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E67" t="n">
         <v>2.0</v>
@@ -7581,17 +7782,17 @@
       <c r="AA67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB67" t="n">
-        <v>5.0</v>
+      <c r="AB67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC67" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE67" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF67" t="n">
         <v>5.0</v>
@@ -7600,21 +7801,24 @@
         <v>5.0</v>
       </c>
       <c r="AH67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI67" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E68" t="n">
         <v>2.0</v>
@@ -7685,40 +7889,43 @@
       <c r="AA68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB68" t="n">
-        <v>5.0</v>
+      <c r="AB68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF68" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG68" t="n">
         <v>3.0</v>
       </c>
       <c r="AH68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI68" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E69" t="n">
         <v>2.0</v>
@@ -7789,40 +7996,43 @@
       <c r="AA69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB69" t="n">
-        <v>5.0</v>
+      <c r="AB69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF69" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG69" t="n">
         <v>1.0</v>
       </c>
       <c r="AH69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI69" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E70" t="n">
         <v>2.0</v>
@@ -7896,37 +8106,40 @@
       <c r="AB70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC70" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE70" t="n">
-        <v>5.0</v>
+      <c r="AC70" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF70" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG70" t="n">
         <v>1.0</v>
       </c>
       <c r="AH70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI70" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E71" t="n">
         <v>2.0</v>
@@ -8000,37 +8213,40 @@
       <c r="AB71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC71" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE71" t="n">
-        <v>5.0</v>
+      <c r="AC71" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF71" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG71" t="n">
         <v>1.0</v>
       </c>
       <c r="AH71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI71" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E72" t="n">
         <v>2.0</v>
@@ -8101,40 +8317,43 @@
       <c r="AA72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB72" t="n">
-        <v>5.0</v>
+      <c r="AB72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF72" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG72" t="n">
         <v>3.0</v>
       </c>
       <c r="AH72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI72" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E73" t="n">
         <v>2.0</v>
@@ -8205,17 +8424,17 @@
       <c r="AA73" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB73" t="n">
-        <v>5.0</v>
+      <c r="AB73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE73" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF73" t="n">
         <v>5.0</v>
@@ -8224,21 +8443,24 @@
         <v>5.0</v>
       </c>
       <c r="AH73" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI73" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E74" t="n">
         <v>2.0</v>
@@ -8309,17 +8531,17 @@
       <c r="AA74" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB74" t="n">
-        <v>5.0</v>
+      <c r="AB74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE74" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF74" t="n">
         <v>5.0</v>
@@ -8328,21 +8550,24 @@
         <v>5.0</v>
       </c>
       <c r="AH74" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI74" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E75" t="n">
         <v>2.0</v>
@@ -8413,17 +8638,17 @@
       <c r="AA75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB75" t="n">
-        <v>5.0</v>
+      <c r="AB75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF75" t="n">
         <v>5.0</v>
@@ -8432,21 +8657,24 @@
         <v>5.0</v>
       </c>
       <c r="AH75" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI75" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E76" t="n">
         <v>2.0</v>
@@ -8517,17 +8745,17 @@
       <c r="AA76" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB76" t="n">
-        <v>5.0</v>
+      <c r="AB76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC76" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF76" t="n">
         <v>5.0</v>
@@ -8536,21 +8764,24 @@
         <v>5.0</v>
       </c>
       <c r="AH76" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI76" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E77" t="n">
         <v>2.0</v>
@@ -8621,8 +8852,8 @@
       <c r="AA77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB77" t="n">
-        <v>5.0</v>
+      <c r="AB77" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC77" t="n">
         <v>5.0</v>
@@ -8630,31 +8861,34 @@
       <c r="AD77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AE77" t="n">
-        <v>5.0</v>
+      <c r="AE77" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF77" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG77" t="n">
         <v>3.0</v>
       </c>
       <c r="AH77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI77" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -8725,17 +8959,17 @@
       <c r="AA78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB78" t="n">
-        <v>5.0</v>
+      <c r="AB78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC78" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE78" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF78" t="n">
         <v>5.0</v>
@@ -8744,21 +8978,24 @@
         <v>5.0</v>
       </c>
       <c r="AH78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI78" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -8829,17 +9066,17 @@
       <c r="AA79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB79" t="n">
-        <v>5.0</v>
+      <c r="AB79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC79" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF79" t="n">
         <v>5.0</v>
@@ -8848,21 +9085,24 @@
         <v>5.0</v>
       </c>
       <c r="AH79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI79" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E80" t="n">
         <v>2.0</v>
@@ -8933,17 +9173,17 @@
       <c r="AA80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB80" t="n">
-        <v>5.0</v>
+      <c r="AB80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC80" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE80" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF80" t="n">
         <v>5.0</v>
@@ -8952,21 +9192,24 @@
         <v>5.0</v>
       </c>
       <c r="AH80" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI80" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E81" t="n">
         <v>2.0</v>
@@ -9037,17 +9280,17 @@
       <c r="AA81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB81" t="n">
-        <v>5.0</v>
+      <c r="AB81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF81" t="n">
         <v>5.0</v>
@@ -9056,21 +9299,24 @@
         <v>5.0</v>
       </c>
       <c r="AH81" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI81" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E82" t="n">
         <v>2.0</v>
@@ -9141,17 +9387,17 @@
       <c r="AA82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB82" t="n">
-        <v>5.0</v>
+      <c r="AB82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC82" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF82" t="n">
         <v>5.0</v>
@@ -9160,21 +9406,24 @@
         <v>5.0</v>
       </c>
       <c r="AH82" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI82" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E83" t="n">
         <v>2.0</v>
@@ -9245,17 +9494,17 @@
       <c r="AA83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB83" t="n">
-        <v>5.0</v>
+      <c r="AB83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE83" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF83" t="n">
         <v>5.0</v>
@@ -9264,21 +9513,24 @@
         <v>5.0</v>
       </c>
       <c r="AH83" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI83" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E84" t="n">
         <v>2.0</v>
@@ -9349,40 +9601,43 @@
       <c r="AA84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB84" t="n">
-        <v>5.0</v>
+      <c r="AB84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC84" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF84" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG84" t="n">
         <v>3.0</v>
       </c>
       <c r="AH84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI84" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E85" t="n">
         <v>2.0</v>
@@ -9453,40 +9708,43 @@
       <c r="AA85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB85" t="n">
-        <v>5.0</v>
+      <c r="AB85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC85" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF85" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG85" t="n">
         <v>3.0</v>
       </c>
       <c r="AH85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI85" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E86" t="n">
         <v>2.0</v>
@@ -9557,40 +9815,43 @@
       <c r="AA86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB86" t="n">
-        <v>5.0</v>
+      <c r="AB86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC86" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF86" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG86" t="n">
         <v>3.0</v>
       </c>
       <c r="AH86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI86" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -9661,40 +9922,43 @@
       <c r="AA87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB87" t="n">
-        <v>5.0</v>
+      <c r="AB87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC87" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF87" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG87" t="n">
         <v>3.0</v>
       </c>
       <c r="AH87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI87" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -9765,40 +10029,43 @@
       <c r="AA88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB88" t="n">
-        <v>5.0</v>
+      <c r="AB88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC88" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF88" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG88" t="n">
         <v>1.0</v>
       </c>
       <c r="AH88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI88" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -9869,17 +10136,17 @@
       <c r="AA89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB89" t="n">
-        <v>5.0</v>
+      <c r="AB89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC89" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF89" t="n">
         <v>5.0</v>
@@ -9888,21 +10155,24 @@
         <v>5.0</v>
       </c>
       <c r="AH89" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI89" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -9973,40 +10243,43 @@
       <c r="AA90" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB90" t="n">
-        <v>5.0</v>
+      <c r="AB90" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC90" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE90" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF90" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG90" t="n">
         <v>3.0</v>
       </c>
       <c r="AH90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI90" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -10077,17 +10350,17 @@
       <c r="AA91" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB91" t="n">
-        <v>5.0</v>
+      <c r="AB91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC91" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE91" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF91" t="n">
         <v>5.0</v>
@@ -10096,21 +10369,24 @@
         <v>5.0</v>
       </c>
       <c r="AH91" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI91" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -10181,17 +10457,17 @@
       <c r="AA92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB92" t="n">
-        <v>5.0</v>
+      <c r="AB92" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC92" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE92" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE92" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF92" t="n">
         <v>5.0</v>
@@ -10200,21 +10476,24 @@
         <v>5.0</v>
       </c>
       <c r="AH92" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI92" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -10285,17 +10564,17 @@
       <c r="AA93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB93" t="n">
-        <v>5.0</v>
+      <c r="AB93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE93" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF93" t="n">
         <v>5.0</v>
@@ -10304,21 +10583,24 @@
         <v>5.0</v>
       </c>
       <c r="AH93" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI93" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -10389,17 +10671,17 @@
       <c r="AA94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB94" t="n">
-        <v>5.0</v>
+      <c r="AB94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC94" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE94" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF94" t="n">
         <v>5.0</v>
@@ -10408,21 +10690,24 @@
         <v>5.0</v>
       </c>
       <c r="AH94" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI94" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -10493,40 +10778,43 @@
       <c r="AA95" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB95" t="n">
-        <v>5.0</v>
+      <c r="AB95" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE95" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE95" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF95" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG95" t="n">
         <v>3.0</v>
       </c>
       <c r="AH95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI95" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -10597,40 +10885,43 @@
       <c r="AA96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB96" t="n">
-        <v>5.0</v>
+      <c r="AB96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC96" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD96" t="e">
-        <v>#N/A</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.0</v>
       </c>
       <c r="AE96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AF96" t="n">
-        <v>3.0</v>
+      <c r="AF96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AG96" t="n">
         <v>3.0</v>
       </c>
       <c r="AH96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI96" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -10701,17 +10992,17 @@
       <c r="AA97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB97" t="n">
-        <v>5.0</v>
+      <c r="AB97" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC97" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE97" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE97" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF97" t="n">
         <v>5.0</v>
@@ -10720,21 +11011,24 @@
         <v>5.0</v>
       </c>
       <c r="AH97" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI97" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -10805,17 +11099,17 @@
       <c r="AA98" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB98" t="n">
-        <v>5.0</v>
+      <c r="AB98" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC98" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE98" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF98" t="n">
         <v>5.0</v>
@@ -10824,21 +11118,24 @@
         <v>5.0</v>
       </c>
       <c r="AH98" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI98" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -10909,17 +11206,17 @@
       <c r="AA99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB99" t="n">
-        <v>5.0</v>
+      <c r="AB99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE99" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF99" t="n">
         <v>5.0</v>
@@ -10928,21 +11225,24 @@
         <v>5.0</v>
       </c>
       <c r="AH99" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI99" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -11013,40 +11313,43 @@
       <c r="AA100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB100" t="n">
-        <v>5.0</v>
+      <c r="AB100" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC100" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE100" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE100" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF100" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG100" t="n">
         <v>3.0</v>
       </c>
       <c r="AH100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI100" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -11117,17 +11420,17 @@
       <c r="AA101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB101" t="n">
-        <v>5.0</v>
+      <c r="AB101" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC101" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE101" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF101" t="n">
         <v>5.0</v>
@@ -11136,21 +11439,24 @@
         <v>5.0</v>
       </c>
       <c r="AH101" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI101" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -11221,17 +11527,17 @@
       <c r="AA102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB102" t="n">
-        <v>5.0</v>
+      <c r="AB102" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC102" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE102" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF102" t="n">
         <v>5.0</v>
@@ -11240,21 +11546,24 @@
         <v>5.0</v>
       </c>
       <c r="AH102" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI102" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B103" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -11325,17 +11634,17 @@
       <c r="AA103" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB103" t="n">
-        <v>5.0</v>
+      <c r="AB103" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC103" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE103" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF103" t="n">
         <v>5.0</v>
@@ -11344,21 +11653,24 @@
         <v>5.0</v>
       </c>
       <c r="AH103" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI103" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -11429,17 +11741,17 @@
       <c r="AA104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB104" t="n">
-        <v>5.0</v>
+      <c r="AB104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC104" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE104" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF104" t="n">
         <v>5.0</v>
@@ -11448,21 +11760,24 @@
         <v>5.0</v>
       </c>
       <c r="AH104" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI104" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -11533,17 +11848,17 @@
       <c r="AA105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB105" t="n">
-        <v>5.0</v>
+      <c r="AB105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC105" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF105" t="n">
         <v>5.0</v>
@@ -11552,21 +11867,24 @@
         <v>5.0</v>
       </c>
       <c r="AH105" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI105" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -11637,17 +11955,17 @@
       <c r="AA106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB106" t="n">
-        <v>5.0</v>
+      <c r="AB106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC106" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF106" t="n">
         <v>5.0</v>
@@ -11656,21 +11974,24 @@
         <v>5.0</v>
       </c>
       <c r="AH106" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI106" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -11741,17 +12062,17 @@
       <c r="AA107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB107" t="n">
-        <v>5.0</v>
+      <c r="AB107" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC107" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE107" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF107" t="n">
         <v>5.0</v>
@@ -11760,21 +12081,24 @@
         <v>5.0</v>
       </c>
       <c r="AH107" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI107" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -11845,17 +12169,17 @@
       <c r="AA108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB108" t="n">
-        <v>5.0</v>
+      <c r="AB108" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC108" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE108" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE108" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF108" t="n">
         <v>5.0</v>
@@ -11864,21 +12188,24 @@
         <v>5.0</v>
       </c>
       <c r="AH108" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI108" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C109" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -11949,40 +12276,43 @@
       <c r="AA109" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB109" t="n">
-        <v>5.0</v>
+      <c r="AB109" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC109" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD109" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE109" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE109" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF109" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG109" t="n">
         <v>1.0</v>
       </c>
       <c r="AH109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI109" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -12053,40 +12383,43 @@
       <c r="AA110" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB110" t="n">
-        <v>5.0</v>
+      <c r="AB110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC110" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD110" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE110" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF110" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG110" t="n">
         <v>3.0</v>
       </c>
       <c r="AH110" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI110" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D111" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -12157,40 +12490,43 @@
       <c r="AA111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB111" t="n">
-        <v>5.0</v>
+      <c r="AB111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC111" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD111" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE111" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF111" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG111" t="n">
         <v>1.0</v>
       </c>
       <c r="AH111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI111" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -12261,40 +12597,43 @@
       <c r="AA112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB112" t="n">
-        <v>5.0</v>
+      <c r="AB112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD112" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF112" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG112" t="n">
         <v>1.0</v>
       </c>
       <c r="AH112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI112" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -12365,40 +12704,43 @@
       <c r="AA113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB113" t="n">
-        <v>5.0</v>
+      <c r="AB113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC113" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD113" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF113" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG113" t="n">
         <v>3.0</v>
       </c>
       <c r="AH113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI113" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D114" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E114" t="n">
         <v>3.0</v>
@@ -12472,14 +12814,14 @@
       <c r="AB114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AC114" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE114" t="n">
-        <v>5.0</v>
+      <c r="AC114" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE114" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF114" t="n">
         <v>5.0</v>
@@ -12488,21 +12830,24 @@
         <v>5.0</v>
       </c>
       <c r="AH114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI114" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E115" t="n">
         <v>2.0</v>
@@ -12573,17 +12918,17 @@
       <c r="AA115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB115" t="n">
-        <v>5.0</v>
+      <c r="AB115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC115" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD115" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE115" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF115" t="n">
         <v>5.0</v>
@@ -12592,21 +12937,24 @@
         <v>5.0</v>
       </c>
       <c r="AH115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI115" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D116" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E116" t="n">
         <v>2.0</v>
@@ -12677,40 +13025,43 @@
       <c r="AA116" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB116" t="n">
-        <v>5.0</v>
+      <c r="AB116" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC116" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD116" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE116" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF116" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG116" t="n">
         <v>3.0</v>
       </c>
       <c r="AH116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI116" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D117" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E117" t="n">
         <v>2.0</v>
@@ -12781,40 +13132,43 @@
       <c r="AA117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB117" t="n">
-        <v>5.0</v>
+      <c r="AB117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC117" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD117" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF117" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG117" t="n">
         <v>3.0</v>
       </c>
       <c r="AH117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI117" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E118" t="n">
         <v>2.0</v>
@@ -12885,40 +13239,43 @@
       <c r="AA118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB118" t="n">
-        <v>5.0</v>
+      <c r="AB118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC118" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD118" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE118" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF118" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG118" t="n">
         <v>3.0</v>
       </c>
       <c r="AH118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI118" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C119" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D119" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E119" t="n">
         <v>2.0</v>
@@ -12989,40 +13346,43 @@
       <c r="AA119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB119" t="n">
-        <v>5.0</v>
+      <c r="AB119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC119" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD119" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE119" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF119" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG119" t="n">
         <v>3.0</v>
       </c>
       <c r="AH119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI119" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C120" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D120" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E120" t="n">
         <v>2.0</v>
@@ -13093,40 +13453,43 @@
       <c r="AA120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB120" t="n">
-        <v>5.0</v>
+      <c r="AB120" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC120" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="AD120" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AE120" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF120" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG120" t="n">
         <v>3.0</v>
       </c>
       <c r="AH120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AI120" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E121" t="n">
         <v>3.0</v>
@@ -13197,17 +13560,17 @@
       <c r="AA121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB121" t="n">
-        <v>5.0</v>
+      <c r="AB121" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC121" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD121" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE121" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE121" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF121" t="n">
         <v>5.0</v>
@@ -13216,21 +13579,24 @@
         <v>5.0</v>
       </c>
       <c r="AH121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI121" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B122" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D122" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E122" t="n">
         <v>3.0</v>
@@ -13301,17 +13667,17 @@
       <c r="AA122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB122" t="n">
-        <v>5.0</v>
+      <c r="AB122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC122" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD122" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE122" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF122" t="n">
         <v>5.0</v>
@@ -13320,21 +13686,24 @@
         <v>5.0</v>
       </c>
       <c r="AH122" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI122" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C123" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D123" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E123" t="n">
         <v>3.0</v>
@@ -13405,17 +13774,17 @@
       <c r="AA123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB123" t="n">
-        <v>5.0</v>
+      <c r="AB123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC123" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD123" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF123" t="n">
         <v>5.0</v>
@@ -13424,21 +13793,24 @@
         <v>5.0</v>
       </c>
       <c r="AH123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI123" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D124" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E124" t="n">
         <v>3.0</v>
@@ -13509,17 +13881,17 @@
       <c r="AA124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB124" t="n">
-        <v>5.0</v>
+      <c r="AB124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC124" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD124" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE124" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF124" t="n">
         <v>5.0</v>
@@ -13528,21 +13900,24 @@
         <v>5.0</v>
       </c>
       <c r="AH124" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI124" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E125" t="n">
         <v>3.0</v>
@@ -13613,40 +13988,43 @@
       <c r="AA125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB125" t="n">
-        <v>5.0</v>
+      <c r="AB125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC125" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF125" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG125" t="n">
         <v>1.0</v>
       </c>
       <c r="AH125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI125" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E126" t="n">
         <v>3.0</v>
@@ -13717,40 +14095,43 @@
       <c r="AA126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB126" t="n">
-        <v>5.0</v>
+      <c r="AB126" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC126" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD126" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE126" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF126" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG126" t="n">
         <v>1.0</v>
       </c>
       <c r="AH126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI126" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E127" t="n">
         <v>3.0</v>
@@ -13821,40 +14202,43 @@
       <c r="AA127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB127" t="n">
-        <v>5.0</v>
+      <c r="AB127" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC127" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="AD127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>5.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AE127" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF127" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="AG127" t="n">
         <v>1.0</v>
       </c>
       <c r="AH127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AI127" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D128" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E128" t="n">
         <v>3.0</v>
@@ -13925,8 +14309,8 @@
       <c r="AA128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB128" t="n">
-        <v>5.0</v>
+      <c r="AB128" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC128" t="n">
         <v>5.0</v>
@@ -13934,8 +14318,8 @@
       <c r="AD128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AE128" t="n">
-        <v>5.0</v>
+      <c r="AE128" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF128" t="n">
         <v>5.0</v>
@@ -13944,21 +14328,24 @@
         <v>5.0</v>
       </c>
       <c r="AH128" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI128" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D129" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E129" t="n">
         <v>3.0</v>
@@ -14029,8 +14416,8 @@
       <c r="AA129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB129" t="n">
-        <v>5.0</v>
+      <c r="AB129" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AC129" t="n">
         <v>5.0</v>
@@ -14038,8 +14425,8 @@
       <c r="AD129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AE129" t="n">
-        <v>5.0</v>
+      <c r="AE129" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AF129" t="n">
         <v>5.0</v>
@@ -14048,6 +14435,9 @@
         <v>5.0</v>
       </c>
       <c r="AH129" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI129" t="n">
         <v>5.0</v>
       </c>
     </row>

--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="193">
   <si>
     <t>ReachName</t>
   </si>
@@ -32,7 +32,7 @@
     <t>AU Protection Rank</t>
   </si>
   <si>
-    <t>Unconfined_Pct</t>
+    <t>Confinement_Score</t>
   </si>
   <si>
     <t>SH_Life_Stage_Sum</t>
@@ -146,7 +146,7 @@
     <t>Bonaparte 16-1</t>
   </si>
   <si>
-    <t>Chiliwist Creek 16-1</t>
+    <t>Chiliwist 16-1</t>
   </si>
   <si>
     <t>Johnson 16-1</t>
@@ -546,6 +546,9 @@
   </si>
   <si>
     <t>Okanogan-Haynes Creek South</t>
+  </si>
+  <si>
+    <t>Omak Creek-Lower DS</t>
   </si>
   <si>
     <t>Omak Creek-Lower US</t>
@@ -753,10 +756,10 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
@@ -765,10 +768,10 @@
         <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -860,10 +863,10 @@
         <v>163</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
@@ -872,7 +875,7 @@
         <v>2.0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.11074735154661</v>
+        <v>5.0</v>
       </c>
       <c r="H3" t="n">
         <v>6.0</v>
@@ -967,10 +970,10 @@
         <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E4" t="n">
         <v>1.0</v>
@@ -979,10 +982,10 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="n">
-        <v>87.69054724587362</v>
+        <v>5.0</v>
       </c>
       <c r="H4" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I4" t="n">
         <v>0.28950341871856905</v>
@@ -1074,10 +1077,10 @@
         <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E5" t="n">
         <v>1.0</v>
@@ -1086,10 +1089,10 @@
         <v>1.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I5" t="n">
         <v>0.09920323955957226</v>
@@ -1181,10 +1184,10 @@
         <v>164</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E6" t="n">
         <v>1.0</v>
@@ -1193,10 +1196,10 @@
         <v>1.0</v>
       </c>
       <c r="G6" t="n">
-        <v>13.974187243197933</v>
+        <v>5.0</v>
       </c>
       <c r="H6" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I6" t="n">
         <v>0.0814431770666794</v>
@@ -1288,10 +1291,10 @@
         <v>164</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E7" t="n">
         <v>1.0</v>
@@ -1300,10 +1303,10 @@
         <v>1.0</v>
       </c>
       <c r="G7" t="n">
-        <v>96.8009640988758</v>
+        <v>5.0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I7" t="n">
         <v>0.06349152129765878</v>
@@ -1395,10 +1398,10 @@
         <v>164</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E8" t="n">
         <v>1.0</v>
@@ -1407,10 +1410,10 @@
         <v>1.0</v>
       </c>
       <c r="G8" t="n">
-        <v>92.80119616863257</v>
+        <v>5.0</v>
       </c>
       <c r="H8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I8" t="n">
         <v>0.09475057900380908</v>
@@ -1502,10 +1505,10 @@
         <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" t="n">
         <v>1.0</v>
@@ -1514,7 +1517,7 @@
         <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.370099081128805</v>
+        <v>5.0</v>
       </c>
       <c r="H9" t="n">
         <v>6.0</v>
@@ -1609,10 +1612,10 @@
         <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10" t="n">
         <v>2.0</v>
@@ -1621,10 +1624,10 @@
         <v>1.0</v>
       </c>
       <c r="G10" t="n">
-        <v>90.51805989634846</v>
+        <v>5.0</v>
       </c>
       <c r="H10" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I10" t="n">
         <v>0.3862562604391875</v>
@@ -1716,10 +1719,10 @@
         <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E11" t="e">
         <v>#N/A</v>
@@ -1728,10 +1731,10 @@
         <v>#N/A</v>
       </c>
       <c r="G11" t="n">
-        <v>68.7749926275435</v>
+        <v>5.0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="I11" t="e">
         <v>#N/A</v>
@@ -1823,10 +1826,10 @@
         <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -1835,10 +1838,10 @@
         <v>2.0</v>
       </c>
       <c r="G12" t="n">
-        <v>11.88660691792071</v>
+        <v>5.0</v>
       </c>
       <c r="H12" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -1930,10 +1933,10 @@
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -1942,10 +1945,10 @@
         <v>2.0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.88660691792071</v>
+        <v>5.0</v>
       </c>
       <c r="H13" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -2037,10 +2040,10 @@
         <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -2049,10 +2052,10 @@
         <v>2.0</v>
       </c>
       <c r="G14" t="n">
-        <v>43.95840148014883</v>
+        <v>5.0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -2144,10 +2147,10 @@
         <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -2156,10 +2159,10 @@
         <v>2.0</v>
       </c>
       <c r="G15" t="n">
-        <v>76.0478848176009</v>
+        <v>5.0</v>
       </c>
       <c r="H15" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
@@ -2251,10 +2254,10 @@
         <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -2263,10 +2266,10 @@
         <v>2.0</v>
       </c>
       <c r="G16" t="n">
-        <v>88.06274346224264</v>
+        <v>5.0</v>
       </c>
       <c r="H16" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -2358,10 +2361,10 @@
         <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -2370,10 +2373,10 @@
         <v>2.0</v>
       </c>
       <c r="G17" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -2465,10 +2468,10 @@
         <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -2477,10 +2480,10 @@
         <v>2.0</v>
       </c>
       <c r="G18" t="n">
-        <v>96.60193334674028</v>
+        <v>5.0</v>
       </c>
       <c r="H18" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -2572,10 +2575,10 @@
         <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -2584,10 +2587,10 @@
         <v>2.0</v>
       </c>
       <c r="G19" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H19" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -2679,10 +2682,10 @@
         <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -2691,10 +2694,10 @@
         <v>2.0</v>
       </c>
       <c r="G20" t="n">
-        <v>77.88038065355639</v>
+        <v>5.0</v>
       </c>
       <c r="H20" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -2786,10 +2789,10 @@
         <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E21" t="n">
         <v>1.0</v>
@@ -2798,10 +2801,10 @@
         <v>1.0</v>
       </c>
       <c r="G21" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H21" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I21" t="n">
         <v>0.4138216126098745</v>
@@ -2893,10 +2896,10 @@
         <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E22" t="n">
         <v>1.0</v>
@@ -2905,10 +2908,10 @@
         <v>1.0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.75055372087164</v>
+        <v>5.0</v>
       </c>
       <c r="H22" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I22" t="n">
         <v>0.4864045032829818</v>
@@ -3000,10 +3003,10 @@
         <v>168</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E23" t="n">
         <v>1.0</v>
@@ -3012,7 +3015,7 @@
         <v>1.0</v>
       </c>
       <c r="G23" t="n">
-        <v>42.15656814548602</v>
+        <v>5.0</v>
       </c>
       <c r="H23" t="n">
         <v>6.0</v>
@@ -3107,10 +3110,10 @@
         <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E24" t="n">
         <v>2.0</v>
@@ -3119,10 +3122,10 @@
         <v>2.0</v>
       </c>
       <c r="G24" t="n">
-        <v>66.17416337596592</v>
+        <v>5.0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I24" t="n">
         <v>0.6978993027953038</v>
@@ -3214,10 +3217,10 @@
         <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E25" t="n">
         <v>2.0</v>
@@ -3226,10 +3229,10 @@
         <v>2.0</v>
       </c>
       <c r="G25" t="n">
-        <v>29.06850168380519</v>
+        <v>5.0</v>
       </c>
       <c r="H25" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I25" t="n">
         <v>0.6733852550862345</v>
@@ -3321,10 +3324,10 @@
         <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E26" t="n">
         <v>2.0</v>
@@ -3333,10 +3336,10 @@
         <v>2.0</v>
       </c>
       <c r="G26" t="n">
-        <v>91.70545040852208</v>
+        <v>5.0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I26" t="n">
         <v>0.3258978151422804</v>
@@ -3428,10 +3431,10 @@
         <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" t="n">
         <v>2.0</v>
@@ -3440,10 +3443,10 @@
         <v>2.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H27" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I27" t="n">
         <v>0.5465568866351114</v>
@@ -3535,10 +3538,10 @@
         <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E28" t="n">
         <v>2.0</v>
@@ -3547,10 +3550,10 @@
         <v>2.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I28" t="n">
         <v>0.8164988044197183</v>
@@ -3642,10 +3645,10 @@
         <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E29" t="n">
         <v>2.0</v>
@@ -3653,8 +3656,8 @@
       <c r="F29" t="n">
         <v>1.0</v>
       </c>
-      <c r="G29" t="e">
-        <v>#N/A</v>
+      <c r="G29" t="n">
+        <v>1.0</v>
       </c>
       <c r="H29" t="e">
         <v>#N/A</v>
@@ -3749,10 +3752,10 @@
         <v>171</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E30" t="n">
         <v>2.0</v>
@@ -3761,10 +3764,10 @@
         <v>3.0</v>
       </c>
       <c r="G30" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H30" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I30" t="e">
         <v>#N/A</v>
@@ -3856,10 +3859,10 @@
         <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E31" t="n">
         <v>2.0</v>
@@ -3868,7 +3871,7 @@
         <v>3.0</v>
       </c>
       <c r="G31" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H31" t="n">
         <v>7.0</v>
@@ -3963,10 +3966,10 @@
         <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E32" t="n">
         <v>2.0</v>
@@ -3975,10 +3978,10 @@
         <v>3.0</v>
       </c>
       <c r="G32" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H32" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I32" t="e">
         <v>#N/A</v>
@@ -4070,10 +4073,10 @@
         <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E33" t="n">
         <v>2.0</v>
@@ -4082,10 +4085,10 @@
         <v>3.0</v>
       </c>
       <c r="G33" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H33" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I33" t="e">
         <v>#N/A</v>
@@ -4177,10 +4180,10 @@
         <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E34" t="n">
         <v>2.0</v>
@@ -4189,10 +4192,10 @@
         <v>3.0</v>
       </c>
       <c r="G34" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H34" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I34" t="e">
         <v>#N/A</v>
@@ -4284,10 +4287,10 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E35" t="n">
         <v>2.0</v>
@@ -4296,10 +4299,10 @@
         <v>3.0</v>
       </c>
       <c r="G35" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H35" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I35" t="e">
         <v>#N/A</v>
@@ -4391,10 +4394,10 @@
         <v>172</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E36" t="n">
         <v>2.0</v>
@@ -4403,7 +4406,7 @@
         <v>3.0</v>
       </c>
       <c r="G36" t="n">
-        <v>98.23218196430169</v>
+        <v>5.0</v>
       </c>
       <c r="H36" t="n">
         <v>5.0</v>
@@ -4498,10 +4501,10 @@
         <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E37" t="n">
         <v>2.0</v>
@@ -4510,7 +4513,7 @@
         <v>3.0</v>
       </c>
       <c r="G37" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H37" t="n">
         <v>7.0</v>
@@ -4605,10 +4608,10 @@
         <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E38" t="n">
         <v>2.0</v>
@@ -4617,7 +4620,7 @@
         <v>3.0</v>
       </c>
       <c r="G38" t="n">
-        <v>99.11410018986908</v>
+        <v>5.0</v>
       </c>
       <c r="H38" t="n">
         <v>7.0</v>
@@ -4712,10 +4715,10 @@
         <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E39" t="n">
         <v>2.0</v>
@@ -4724,10 +4727,10 @@
         <v>3.0</v>
       </c>
       <c r="G39" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I39" t="e">
         <v>#N/A</v>
@@ -4819,10 +4822,10 @@
         <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E40" t="n">
         <v>2.0</v>
@@ -4831,10 +4834,10 @@
         <v>3.0</v>
       </c>
       <c r="G40" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H40" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I40" t="e">
         <v>#N/A</v>
@@ -4926,10 +4929,10 @@
         <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E41" t="n">
         <v>2.0</v>
@@ -4938,10 +4941,10 @@
         <v>3.0</v>
       </c>
       <c r="G41" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I41" t="e">
         <v>#N/A</v>
@@ -5033,10 +5036,10 @@
         <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E42" t="n">
         <v>2.0</v>
@@ -5045,7 +5048,7 @@
         <v>3.0</v>
       </c>
       <c r="G42" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H42" t="n">
         <v>7.0</v>
@@ -5140,10 +5143,10 @@
         <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E43" t="n">
         <v>2.0</v>
@@ -5152,10 +5155,10 @@
         <v>3.0</v>
       </c>
       <c r="G43" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H43" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I43" t="e">
         <v>#N/A</v>
@@ -5247,10 +5250,10 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E44" t="n">
         <v>2.0</v>
@@ -5259,10 +5262,10 @@
         <v>3.0</v>
       </c>
       <c r="G44" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H44" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I44" t="e">
         <v>#N/A</v>
@@ -5354,10 +5357,10 @@
         <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E45" t="n">
         <v>2.0</v>
@@ -5366,10 +5369,10 @@
         <v>3.0</v>
       </c>
       <c r="G45" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H45" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I45" t="e">
         <v>#N/A</v>
@@ -5461,10 +5464,10 @@
         <v>174</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E46" t="n">
         <v>2.0</v>
@@ -5473,10 +5476,10 @@
         <v>3.0</v>
       </c>
       <c r="G46" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I46" t="e">
         <v>#N/A</v>
@@ -5568,10 +5571,10 @@
         <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E47" t="n">
         <v>2.0</v>
@@ -5580,7 +5583,7 @@
         <v>3.0</v>
       </c>
       <c r="G47" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H47" t="n">
         <v>7.0</v>
@@ -5675,10 +5678,10 @@
         <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E48" t="n">
         <v>2.0</v>
@@ -5687,10 +5690,10 @@
         <v>3.0</v>
       </c>
       <c r="G48" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H48" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I48" t="e">
         <v>#N/A</v>
@@ -5782,10 +5785,10 @@
         <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E49" t="n">
         <v>2.0</v>
@@ -5794,10 +5797,10 @@
         <v>3.0</v>
       </c>
       <c r="G49" t="n">
-        <v>87.15747834395128</v>
+        <v>5.0</v>
       </c>
       <c r="H49" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I49" t="e">
         <v>#N/A</v>
@@ -5889,10 +5892,10 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E50" t="n">
         <v>2.0</v>
@@ -5901,10 +5904,10 @@
         <v>3.0</v>
       </c>
       <c r="G50" t="n">
-        <v>85.40120611410205</v>
+        <v>5.0</v>
       </c>
       <c r="H50" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="I50" t="e">
         <v>#N/A</v>
@@ -5996,10 +5999,10 @@
         <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E51" t="n">
         <v>2.0</v>
@@ -6008,7 +6011,7 @@
         <v>3.0</v>
       </c>
       <c r="G51" t="n">
-        <v>31.161534392382546</v>
+        <v>5.0</v>
       </c>
       <c r="H51" t="n">
         <v>7.0</v>
@@ -6103,10 +6106,10 @@
         <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E52" t="n">
         <v>2.0</v>
@@ -6115,10 +6118,10 @@
         <v>3.0</v>
       </c>
       <c r="G52" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H52" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I52" t="e">
         <v>#N/A</v>
@@ -6210,10 +6213,10 @@
         <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E53" t="n">
         <v>2.0</v>
@@ -6222,7 +6225,7 @@
         <v>3.0</v>
       </c>
       <c r="G53" t="n">
-        <v>93.591743497141</v>
+        <v>5.0</v>
       </c>
       <c r="H53" t="n">
         <v>7.0</v>
@@ -6317,10 +6320,10 @@
         <v>175</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E54" t="n">
         <v>2.0</v>
@@ -6329,7 +6332,7 @@
         <v>3.0</v>
       </c>
       <c r="G54" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H54" t="n">
         <v>7.0</v>
@@ -6424,10 +6427,10 @@
         <v>175</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E55" t="n">
         <v>2.0</v>
@@ -6436,7 +6439,7 @@
         <v>3.0</v>
       </c>
       <c r="G55" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H55" t="n">
         <v>7.0</v>
@@ -6531,10 +6534,10 @@
         <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E56" t="n">
         <v>2.0</v>
@@ -6543,10 +6546,10 @@
         <v>3.0</v>
       </c>
       <c r="G56" t="n">
-        <v>90.22524416115124</v>
+        <v>5.0</v>
       </c>
       <c r="H56" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="I56" t="e">
         <v>#N/A</v>
@@ -6638,10 +6641,10 @@
         <v>176</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E57" t="n">
         <v>2.0</v>
@@ -6650,10 +6653,10 @@
         <v>2.0</v>
       </c>
       <c r="G57" t="n">
-        <v>86.31347904723951</v>
+        <v>5.0</v>
       </c>
       <c r="H57" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I57" t="e">
         <v>#N/A</v>
@@ -6745,10 +6748,10 @@
         <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E58" t="n">
         <v>2.0</v>
@@ -6757,7 +6760,7 @@
         <v>2.0</v>
       </c>
       <c r="G58" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H58" t="n">
         <v>5.0</v>
@@ -6852,10 +6855,10 @@
         <v>176</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E59" t="n">
         <v>2.0</v>
@@ -6864,10 +6867,10 @@
         <v>2.0</v>
       </c>
       <c r="G59" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H59" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I59" t="e">
         <v>#N/A</v>
@@ -6959,10 +6962,10 @@
         <v>176</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E60" t="n">
         <v>2.0</v>
@@ -6971,10 +6974,10 @@
         <v>2.0</v>
       </c>
       <c r="G60" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H60" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I60" t="e">
         <v>#N/A</v>
@@ -7066,10 +7069,10 @@
         <v>176</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E61" t="n">
         <v>2.0</v>
@@ -7078,7 +7081,7 @@
         <v>2.0</v>
       </c>
       <c r="G61" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H61" t="n">
         <v>5.0</v>
@@ -7173,10 +7176,10 @@
         <v>176</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E62" t="n">
         <v>2.0</v>
@@ -7185,7 +7188,7 @@
         <v>2.0</v>
       </c>
       <c r="G62" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H62" t="n">
         <v>7.0</v>
@@ -7280,10 +7283,10 @@
         <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E63" t="n">
         <v>2.0</v>
@@ -7292,10 +7295,10 @@
         <v>3.0</v>
       </c>
       <c r="G63" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H63" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I63" t="e">
         <v>#N/A</v>
@@ -7387,10 +7390,10 @@
         <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E64" t="n">
         <v>2.0</v>
@@ -7399,7 +7402,7 @@
         <v>2.0</v>
       </c>
       <c r="G64" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H64" t="n">
         <v>7.0</v>
@@ -7494,10 +7497,10 @@
         <v>176</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E65" t="n">
         <v>2.0</v>
@@ -7506,7 +7509,7 @@
         <v>2.0</v>
       </c>
       <c r="G65" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H65" t="n">
         <v>7.0</v>
@@ -7601,10 +7604,10 @@
         <v>176</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E66" t="n">
         <v>2.0</v>
@@ -7613,7 +7616,7 @@
         <v>2.0</v>
       </c>
       <c r="G66" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H66" t="n">
         <v>5.0</v>
@@ -7708,10 +7711,10 @@
         <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E67" t="n">
         <v>2.0</v>
@@ -7720,7 +7723,7 @@
         <v>2.0</v>
       </c>
       <c r="G67" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H67" t="n">
         <v>7.0</v>
@@ -7815,10 +7818,10 @@
         <v>177</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E68" t="n">
         <v>2.0</v>
@@ -7827,7 +7830,7 @@
         <v>2.0</v>
       </c>
       <c r="G68" t="n">
-        <v>99.20201733125505</v>
+        <v>5.0</v>
       </c>
       <c r="H68" t="n">
         <v>7.0</v>
@@ -7922,10 +7925,10 @@
         <v>177</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E69" t="n">
         <v>2.0</v>
@@ -7934,7 +7937,7 @@
         <v>2.0</v>
       </c>
       <c r="G69" t="n">
-        <v>97.99062882527947</v>
+        <v>5.0</v>
       </c>
       <c r="H69" t="n">
         <v>7.0</v>
@@ -8029,10 +8032,10 @@
         <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E70" t="n">
         <v>2.0</v>
@@ -8041,7 +8044,7 @@
         <v>1.0</v>
       </c>
       <c r="G70" t="n">
-        <v>87.53463932595848</v>
+        <v>5.0</v>
       </c>
       <c r="H70" t="n">
         <v>5.0</v>
@@ -8136,10 +8139,10 @@
         <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E71" t="n">
         <v>2.0</v>
@@ -8148,7 +8151,7 @@
         <v>1.0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H71" t="n">
         <v>5.0</v>
@@ -8243,10 +8246,10 @@
         <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E72" t="n">
         <v>2.0</v>
@@ -8255,10 +8258,10 @@
         <v>3.0</v>
       </c>
       <c r="G72" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H72" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I72" t="e">
         <v>#N/A</v>
@@ -8350,10 +8353,10 @@
         <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E73" t="n">
         <v>2.0</v>
@@ -8362,10 +8365,10 @@
         <v>3.0</v>
       </c>
       <c r="G73" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H73" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I73" t="e">
         <v>#N/A</v>
@@ -8457,10 +8460,10 @@
         <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E74" t="n">
         <v>2.0</v>
@@ -8469,10 +8472,10 @@
         <v>3.0</v>
       </c>
       <c r="G74" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H74" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I74" t="e">
         <v>#N/A</v>
@@ -8564,10 +8567,10 @@
         <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E75" t="n">
         <v>2.0</v>
@@ -8576,7 +8579,7 @@
         <v>3.0</v>
       </c>
       <c r="G75" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H75" t="n">
         <v>4.0</v>
@@ -8671,10 +8674,10 @@
         <v>172</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E76" t="n">
         <v>2.0</v>
@@ -8683,7 +8686,7 @@
         <v>3.0</v>
       </c>
       <c r="G76" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H76" t="n">
         <v>5.0</v>
@@ -8778,10 +8781,10 @@
         <v>177</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E77" t="n">
         <v>2.0</v>
@@ -8790,7 +8793,7 @@
         <v>2.0</v>
       </c>
       <c r="G77" t="n">
-        <v>44.76354572291717</v>
+        <v>5.0</v>
       </c>
       <c r="H77" t="n">
         <v>5.0</v>
@@ -8885,10 +8888,10 @@
         <v>178</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E78" t="n">
         <v>1.0</v>
@@ -8897,10 +8900,10 @@
         <v>1.0</v>
       </c>
       <c r="G78" t="n">
-        <v>94.17482327351821</v>
+        <v>5.0</v>
       </c>
       <c r="H78" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I78" t="n">
         <v>0.13145274065325843</v>
@@ -8989,13 +8992,13 @@
         <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E79" t="n">
         <v>1.0</v>
@@ -9004,10 +9007,10 @@
         <v>1.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H79" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
@@ -9096,13 +9099,13 @@
         <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E80" t="n">
         <v>2.0</v>
@@ -9111,10 +9114,10 @@
         <v>2.0</v>
       </c>
       <c r="G80" t="n">
-        <v>31.236780622175942</v>
+        <v>5.0</v>
       </c>
       <c r="H80" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I80" t="n">
         <v>0.0</v>
@@ -9203,13 +9206,13 @@
         <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E81" t="n">
         <v>2.0</v>
@@ -9218,10 +9221,10 @@
         <v>2.0</v>
       </c>
       <c r="G81" t="n">
-        <v>95.1269550800705</v>
+        <v>5.0</v>
       </c>
       <c r="H81" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I81" t="n">
         <v>0.0</v>
@@ -9310,13 +9313,13 @@
         <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E82" t="n">
         <v>2.0</v>
@@ -9325,10 +9328,10 @@
         <v>2.0</v>
       </c>
       <c r="G82" t="n">
-        <v>80.16105967401754</v>
+        <v>5.0</v>
       </c>
       <c r="H82" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I82" t="n">
         <v>0.0</v>
@@ -9417,13 +9420,13 @@
         <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E83" t="n">
         <v>2.0</v>
@@ -9432,10 +9435,10 @@
         <v>2.0</v>
       </c>
       <c r="G83" t="n">
-        <v>86.33550358604806</v>
+        <v>5.0</v>
       </c>
       <c r="H83" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
@@ -9524,13 +9527,13 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E84" t="n">
         <v>2.0</v>
@@ -9539,10 +9542,10 @@
         <v>2.0</v>
       </c>
       <c r="G84" t="n">
-        <v>74.82735835260601</v>
+        <v>5.0</v>
       </c>
       <c r="H84" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
@@ -9631,13 +9634,13 @@
         <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E85" t="n">
         <v>2.0</v>
@@ -9646,10 +9649,10 @@
         <v>2.0</v>
       </c>
       <c r="G85" t="n">
-        <v>56.057156718826725</v>
+        <v>5.0</v>
       </c>
       <c r="H85" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
@@ -9738,13 +9741,13 @@
         <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E86" t="n">
         <v>2.0</v>
@@ -9753,10 +9756,10 @@
         <v>2.0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.7496260605466457</v>
+        <v>5.0</v>
       </c>
       <c r="H86" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I86" t="n">
         <v>0.0</v>
@@ -9848,10 +9851,10 @@
         <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E87" t="n">
         <v>1.0</v>
@@ -9860,10 +9863,10 @@
         <v>1.0</v>
       </c>
       <c r="G87" t="n">
-        <v>13.432014776982628</v>
+        <v>5.0</v>
       </c>
       <c r="H87" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I87" t="n">
         <v>0.19295574844949473</v>
@@ -9955,10 +9958,10 @@
         <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E88" t="n">
         <v>1.0</v>
@@ -9967,10 +9970,10 @@
         <v>1.0</v>
       </c>
       <c r="G88" t="n">
-        <v>70.840154356099</v>
+        <v>5.0</v>
       </c>
       <c r="H88" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I88" t="n">
         <v>0.20590925466775356</v>
@@ -10062,10 +10065,10 @@
         <v>178</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E89" t="n">
         <v>1.0</v>
@@ -10074,10 +10077,10 @@
         <v>1.0</v>
       </c>
       <c r="G89" t="n">
-        <v>73.37991847600033</v>
+        <v>5.0</v>
       </c>
       <c r="H89" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I89" t="n">
         <v>0.2334430075895929</v>
@@ -10166,13 +10169,13 @@
         <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E90" t="n">
         <v>1.0</v>
@@ -10181,10 +10184,10 @@
         <v>1.0</v>
       </c>
       <c r="G90" t="n">
-        <v>16.378486688829593</v>
+        <v>5.0</v>
       </c>
       <c r="H90" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -10273,13 +10276,13 @@
         <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E91" t="n">
         <v>1.0</v>
@@ -10288,10 +10291,10 @@
         <v>1.0</v>
       </c>
       <c r="G91" t="n">
-        <v>5.200579157604852</v>
+        <v>5.0</v>
       </c>
       <c r="H91" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
@@ -10380,13 +10383,13 @@
         <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E92" t="n">
         <v>1.0</v>
@@ -10395,10 +10398,10 @@
         <v>1.0</v>
       </c>
       <c r="G92" t="n">
-        <v>29.18204219003546</v>
+        <v>5.0</v>
       </c>
       <c r="H92" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I92" t="n">
         <v>0.0</v>
@@ -10487,13 +10490,13 @@
         <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E93" t="n">
         <v>1.0</v>
@@ -10502,10 +10505,10 @@
         <v>1.0</v>
       </c>
       <c r="G93" t="n">
-        <v>57.39958642383489</v>
+        <v>5.0</v>
       </c>
       <c r="H93" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I93" t="n">
         <v>0.0</v>
@@ -10594,13 +10597,13 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E94" t="n">
         <v>1.0</v>
@@ -10609,10 +10612,10 @@
         <v>1.0</v>
       </c>
       <c r="G94" t="n">
-        <v>18.593668900694034</v>
+        <v>5.0</v>
       </c>
       <c r="H94" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I94" t="n">
         <v>0.0</v>
@@ -10701,13 +10704,13 @@
         <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E95" t="n">
         <v>1.0</v>
@@ -10716,10 +10719,10 @@
         <v>1.0</v>
       </c>
       <c r="G95" t="n">
-        <v>49.91330716910571</v>
+        <v>5.0</v>
       </c>
       <c r="H95" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I95" t="n">
         <v>0.05815697795035625</v>
@@ -10808,13 +10811,13 @@
         <v>129</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E96" t="n">
         <v>1.0</v>
@@ -10822,11 +10825,11 @@
       <c r="F96" t="n">
         <v>1.0</v>
       </c>
-      <c r="G96" t="e">
-        <v>#N/A</v>
+      <c r="G96" t="n">
+        <v>5.0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="I96" t="n">
         <v>0.6266179214205709</v>
@@ -10915,13 +10918,13 @@
         <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E97" t="n">
         <v>1.0</v>
@@ -10930,10 +10933,10 @@
         <v>1.0</v>
       </c>
       <c r="G97" t="n">
-        <v>39.111394329323076</v>
+        <v>5.0</v>
       </c>
       <c r="H97" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I97" t="n">
         <v>0.872302720070069</v>
@@ -11022,13 +11025,13 @@
         <v>131</v>
       </c>
       <c r="B98" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E98" t="n">
         <v>1.0</v>
@@ -11037,10 +11040,10 @@
         <v>1.0</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H98" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I98" t="n">
         <v>0.43658472227490314</v>
@@ -11129,13 +11132,13 @@
         <v>132</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E99" t="n">
         <v>1.0</v>
@@ -11144,7 +11147,7 @@
         <v>1.0</v>
       </c>
       <c r="G99" t="n">
-        <v>50.195899330652814</v>
+        <v>5.0</v>
       </c>
       <c r="H99" t="n">
         <v>6.0</v>
@@ -11236,13 +11239,13 @@
         <v>133</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E100" t="n">
         <v>1.0</v>
@@ -11251,10 +11254,10 @@
         <v>1.0</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H100" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I100" t="n">
         <v>0.04208469405198125</v>
@@ -11343,13 +11346,13 @@
         <v>134</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E101" t="n">
         <v>1.0</v>
@@ -11358,10 +11361,10 @@
         <v>1.0</v>
       </c>
       <c r="G101" t="n">
-        <v>42.29866038169604</v>
+        <v>5.0</v>
       </c>
       <c r="H101" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I101" t="n">
         <v>0.045998287969587444</v>
@@ -11450,13 +11453,13 @@
         <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E102" t="n">
         <v>1.0</v>
@@ -11465,10 +11468,10 @@
         <v>1.0</v>
       </c>
       <c r="G102" t="n">
-        <v>61.21972936706004</v>
+        <v>5.0</v>
       </c>
       <c r="H102" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I102" t="n">
         <v>0.678840842271688</v>
@@ -11557,13 +11560,13 @@
         <v>136</v>
       </c>
       <c r="B103" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E103" t="n">
         <v>1.0</v>
@@ -11572,10 +11575,10 @@
         <v>1.0</v>
       </c>
       <c r="G103" t="n">
-        <v>38.574039491973224</v>
+        <v>5.0</v>
       </c>
       <c r="H103" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I103" t="n">
         <v>0.681008576206181</v>
@@ -11664,13 +11667,13 @@
         <v>137</v>
       </c>
       <c r="B104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E104" t="n">
         <v>1.0</v>
@@ -11679,10 +11682,10 @@
         <v>1.0</v>
       </c>
       <c r="G104" t="n">
-        <v>86.71407722197918</v>
+        <v>5.0</v>
       </c>
       <c r="H104" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I104" t="n">
         <v>0.7830164640163568</v>
@@ -11771,13 +11774,13 @@
         <v>138</v>
       </c>
       <c r="B105" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E105" t="n">
         <v>1.0</v>
@@ -11786,10 +11789,10 @@
         <v>1.0</v>
       </c>
       <c r="G105" t="n">
-        <v>9.40098230509123</v>
+        <v>5.0</v>
       </c>
       <c r="H105" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I105" t="n">
         <v>0.5280329377860712</v>
@@ -11878,13 +11881,13 @@
         <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E106" t="n">
         <v>1.0</v>
@@ -11893,10 +11896,10 @@
         <v>1.0</v>
       </c>
       <c r="G106" t="n">
-        <v>17.98763439738011</v>
+        <v>5.0</v>
       </c>
       <c r="H106" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I106" t="n">
         <v>0.6988250208433527</v>
@@ -11985,13 +11988,13 @@
         <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E107" t="n">
         <v>1.0</v>
@@ -12000,10 +12003,10 @@
         <v>1.0</v>
       </c>
       <c r="G107" t="n">
-        <v>68.77662469825343</v>
+        <v>5.0</v>
       </c>
       <c r="H107" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I107" t="n">
         <v>0.7892917935080431</v>
@@ -12092,13 +12095,13 @@
         <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E108" t="n">
         <v>1.0</v>
@@ -12107,7 +12110,7 @@
         <v>1.0</v>
       </c>
       <c r="G108" t="n">
-        <v>89.5476576784067</v>
+        <v>5.0</v>
       </c>
       <c r="H108" t="n">
         <v>7.0</v>
@@ -12199,13 +12202,13 @@
         <v>142</v>
       </c>
       <c r="B109" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E109" t="n">
         <v>1.0</v>
@@ -12214,7 +12217,7 @@
         <v>1.0</v>
       </c>
       <c r="G109" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H109" t="n">
         <v>7.0</v>
@@ -12306,13 +12309,13 @@
         <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E110" t="n">
         <v>1.0</v>
@@ -12321,7 +12324,7 @@
         <v>1.0</v>
       </c>
       <c r="G110" t="n">
-        <v>93.12987408131754</v>
+        <v>5.0</v>
       </c>
       <c r="H110" t="n">
         <v>7.0</v>
@@ -12413,13 +12416,13 @@
         <v>144</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E111" t="n">
         <v>1.0</v>
@@ -12428,7 +12431,7 @@
         <v>1.0</v>
       </c>
       <c r="G111" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H111" t="n">
         <v>7.0</v>
@@ -12520,13 +12523,13 @@
         <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D112" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E112" t="n">
         <v>1.0</v>
@@ -12535,7 +12538,7 @@
         <v>1.0</v>
       </c>
       <c r="G112" t="n">
-        <v>35.026803793505586</v>
+        <v>5.0</v>
       </c>
       <c r="H112" t="n">
         <v>7.0</v>
@@ -12627,13 +12630,13 @@
         <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E113" t="n">
         <v>1.0</v>
@@ -12642,7 +12645,7 @@
         <v>1.0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H113" t="n">
         <v>7.0</v>
@@ -12734,13 +12737,13 @@
         <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D114" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E114" t="n">
         <v>3.0</v>
@@ -12749,10 +12752,10 @@
         <v>3.0</v>
       </c>
       <c r="G114" t="n">
-        <v>14.471708040908164</v>
+        <v>5.0</v>
       </c>
       <c r="H114" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I114" t="e">
         <v>#N/A</v>
@@ -12841,13 +12844,13 @@
         <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D115" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E115" t="n">
         <v>2.0</v>
@@ -12856,10 +12859,10 @@
         <v>2.0</v>
       </c>
       <c r="G115" t="n">
-        <v>87.49896525800975</v>
+        <v>5.0</v>
       </c>
       <c r="H115" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="I115" t="n">
         <v>0.0</v>
@@ -12948,10 +12951,10 @@
         <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D116" t="s">
         <v>191</v>
@@ -12963,10 +12966,10 @@
         <v>2.0</v>
       </c>
       <c r="G116" t="n">
-        <v>7.248582524683575</v>
+        <v>5.0</v>
       </c>
       <c r="H116" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="I116" t="n">
         <v>0.0</v>
@@ -13055,13 +13058,13 @@
         <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D117" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E117" t="n">
         <v>2.0</v>
@@ -13070,10 +13073,10 @@
         <v>2.0</v>
       </c>
       <c r="G117" t="n">
-        <v>46.80029200326811</v>
+        <v>5.0</v>
       </c>
       <c r="H117" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="I117" t="n">
         <v>0.0</v>
@@ -13162,13 +13165,13 @@
         <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D118" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E118" t="n">
         <v>2.0</v>
@@ -13177,10 +13180,10 @@
         <v>1.0</v>
       </c>
       <c r="G118" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H118" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="I118" t="n">
         <v>0.2873809654869016</v>
@@ -13269,13 +13272,13 @@
         <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D119" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E119" t="n">
         <v>2.0</v>
@@ -13284,7 +13287,7 @@
         <v>1.0</v>
       </c>
       <c r="G119" t="n">
-        <v>21.877686837515093</v>
+        <v>5.0</v>
       </c>
       <c r="H119" t="n">
         <v>6.0</v>
@@ -13376,13 +13379,13 @@
         <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E120" t="n">
         <v>2.0</v>
@@ -13391,10 +13394,10 @@
         <v>2.0</v>
       </c>
       <c r="G120" t="n">
-        <v>30.130163814164916</v>
+        <v>5.0</v>
       </c>
       <c r="H120" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="I120" t="n">
         <v>0.0</v>
@@ -13483,13 +13486,13 @@
         <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D121" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E121" t="n">
         <v>3.0</v>
@@ -13498,7 +13501,7 @@
         <v>2.0</v>
       </c>
       <c r="G121" t="n">
-        <v>75.4337955493836</v>
+        <v>5.0</v>
       </c>
       <c r="H121" t="n">
         <v>6.0</v>
@@ -13590,13 +13593,13 @@
         <v>155</v>
       </c>
       <c r="B122" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C122" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D122" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E122" t="n">
         <v>3.0</v>
@@ -13605,7 +13608,7 @@
         <v>2.0</v>
       </c>
       <c r="G122" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H122" t="n">
         <v>7.0</v>
@@ -13697,13 +13700,13 @@
         <v>156</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E123" t="n">
         <v>3.0</v>
@@ -13712,7 +13715,7 @@
         <v>2.0</v>
       </c>
       <c r="G123" t="n">
-        <v>100.0</v>
+        <v>5.0</v>
       </c>
       <c r="H123" t="n">
         <v>7.0</v>
@@ -13804,13 +13807,13 @@
         <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D124" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E124" t="n">
         <v>3.0</v>
@@ -13819,10 +13822,10 @@
         <v>2.0</v>
       </c>
       <c r="G124" t="n">
-        <v>54.89764777432619</v>
+        <v>5.0</v>
       </c>
       <c r="H124" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I124" t="n">
         <v>0.03340771279965227</v>
@@ -13911,13 +13914,13 @@
         <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D125" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E125" t="n">
         <v>3.0</v>
@@ -13926,10 +13929,10 @@
         <v>3.0</v>
       </c>
       <c r="G125" t="n">
-        <v>82.17595986043956</v>
+        <v>5.0</v>
       </c>
       <c r="H125" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I125" t="e">
         <v>#N/A</v>
@@ -14018,13 +14021,13 @@
         <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D126" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E126" t="n">
         <v>3.0</v>
@@ -14033,10 +14036,10 @@
         <v>3.0</v>
       </c>
       <c r="G126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H126" t="n">
         <v>0.0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1.0</v>
       </c>
       <c r="I126" t="e">
         <v>#N/A</v>
@@ -14125,13 +14128,13 @@
         <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D127" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E127" t="n">
         <v>3.0</v>
@@ -14140,10 +14143,10 @@
         <v>3.0</v>
       </c>
       <c r="G127" t="n">
-        <v>77.00732037260781</v>
+        <v>5.0</v>
       </c>
       <c r="H127" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="e">
         <v>#N/A</v>
@@ -14232,10 +14235,10 @@
         <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D128" t="s">
         <v>191</v>
@@ -14247,7 +14250,7 @@
         <v>3.0</v>
       </c>
       <c r="G128" t="n">
-        <v>29.172566785646893</v>
+        <v>5.0</v>
       </c>
       <c r="H128" t="n">
         <v>7.0</v>
@@ -14339,10 +14342,10 @@
         <v>162</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D129" t="s">
         <v>191</v>
@@ -14354,10 +14357,10 @@
         <v>3.0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="H129" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="I129" t="n">
         <v>0.0</v>

--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -785,8 +785,8 @@
       <c r="L2" t="n">
         <v>1.0</v>
       </c>
-      <c r="M2" t="e">
-        <v>#N/A</v>
+      <c r="M2" t="n">
+        <v>5.0</v>
       </c>
       <c r="N2" t="n">
         <v>5.0</v>
@@ -818,8 +818,8 @@
       <c r="W2" t="n">
         <v>5.0</v>
       </c>
-      <c r="X2" t="e">
-        <v>#N/A</v>
+      <c r="X2" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y2" t="e">
         <v>#N/A</v>
@@ -830,8 +830,8 @@
       <c r="AA2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB2" t="e">
-        <v>#N/A</v>
+      <c r="AB2" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC2" t="n">
         <v>5.0</v>
@@ -846,13 +846,13 @@
         <v>5.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -892,8 +892,8 @@
       <c r="L3" t="n">
         <v>5.0</v>
       </c>
-      <c r="M3" t="e">
-        <v>#N/A</v>
+      <c r="M3" t="n">
+        <v>3.0</v>
       </c>
       <c r="N3" t="n">
         <v>5.0</v>
@@ -925,8 +925,8 @@
       <c r="W3" t="n">
         <v>5.0</v>
       </c>
-      <c r="X3" t="e">
-        <v>#N/A</v>
+      <c r="X3" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y3" t="e">
         <v>#N/A</v>
@@ -937,8 +937,8 @@
       <c r="AA3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB3" t="e">
-        <v>#N/A</v>
+      <c r="AB3" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC3" t="n">
         <v>5.0</v>
@@ -953,13 +953,13 @@
         <v>5.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -999,11 +999,11 @@
       <c r="L4" t="n">
         <v>3.0</v>
       </c>
-      <c r="M4" t="e">
-        <v>#N/A</v>
+      <c r="M4" t="n">
+        <v>5.0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O4" t="e">
         <v>#N/A</v>
@@ -1032,8 +1032,8 @@
       <c r="W4" t="n">
         <v>5.0</v>
       </c>
-      <c r="X4" t="e">
-        <v>#N/A</v>
+      <c r="X4" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y4" t="e">
         <v>#N/A</v>
@@ -1044,8 +1044,8 @@
       <c r="AA4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB4" t="e">
-        <v>#N/A</v>
+      <c r="AB4" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC4" t="n">
         <v>5.0</v>
@@ -1060,13 +1060,13 @@
         <v>5.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -1106,11 +1106,11 @@
       <c r="L5" t="n">
         <v>5.0</v>
       </c>
-      <c r="M5" t="e">
-        <v>#N/A</v>
+      <c r="M5" t="n">
+        <v>3.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O5" t="e">
         <v>#N/A</v>
@@ -1139,8 +1139,8 @@
       <c r="W5" t="n">
         <v>5.0</v>
       </c>
-      <c r="X5" t="e">
-        <v>#N/A</v>
+      <c r="X5" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y5" t="e">
         <v>#N/A</v>
@@ -1151,8 +1151,8 @@
       <c r="AA5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB5" t="e">
-        <v>#N/A</v>
+      <c r="AB5" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC5" t="n">
         <v>5.0</v>
@@ -1167,13 +1167,13 @@
         <v>5.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1213,11 +1213,11 @@
       <c r="L6" t="n">
         <v>5.0</v>
       </c>
-      <c r="M6" t="e">
-        <v>#N/A</v>
+      <c r="M6" t="n">
+        <v>5.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O6" t="e">
         <v>#N/A</v>
@@ -1246,8 +1246,8 @@
       <c r="W6" t="n">
         <v>5.0</v>
       </c>
-      <c r="X6" t="e">
-        <v>#N/A</v>
+      <c r="X6" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y6" t="e">
         <v>#N/A</v>
@@ -1258,8 +1258,8 @@
       <c r="AA6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB6" t="e">
-        <v>#N/A</v>
+      <c r="AB6" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC6" t="n">
         <v>5.0</v>
@@ -1274,13 +1274,13 @@
         <v>5.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1320,8 +1320,8 @@
       <c r="L7" t="n">
         <v>5.0</v>
       </c>
-      <c r="M7" t="e">
-        <v>#N/A</v>
+      <c r="M7" t="n">
+        <v>3.0</v>
       </c>
       <c r="N7" t="n">
         <v>5.0</v>
@@ -1353,8 +1353,8 @@
       <c r="W7" t="n">
         <v>5.0</v>
       </c>
-      <c r="X7" t="e">
-        <v>#N/A</v>
+      <c r="X7" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y7" t="e">
         <v>#N/A</v>
@@ -1365,8 +1365,8 @@
       <c r="AA7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB7" t="e">
-        <v>#N/A</v>
+      <c r="AB7" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC7" t="n">
         <v>5.0</v>
@@ -1381,13 +1381,13 @@
         <v>5.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1427,8 +1427,8 @@
       <c r="L8" t="n">
         <v>5.0</v>
       </c>
-      <c r="M8" t="e">
-        <v>#N/A</v>
+      <c r="M8" t="n">
+        <v>5.0</v>
       </c>
       <c r="N8" t="n">
         <v>5.0</v>
@@ -1460,8 +1460,8 @@
       <c r="W8" t="n">
         <v>5.0</v>
       </c>
-      <c r="X8" t="e">
-        <v>#N/A</v>
+      <c r="X8" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y8" t="e">
         <v>#N/A</v>
@@ -1472,8 +1472,8 @@
       <c r="AA8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB8" t="e">
-        <v>#N/A</v>
+      <c r="AB8" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC8" t="n">
         <v>5.0</v>
@@ -1488,13 +1488,13 @@
         <v>5.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1534,8 +1534,8 @@
       <c r="L9" t="n">
         <v>5.0</v>
       </c>
-      <c r="M9" t="e">
-        <v>#N/A</v>
+      <c r="M9" t="n">
+        <v>5.0</v>
       </c>
       <c r="N9" t="n">
         <v>5.0</v>
@@ -1567,8 +1567,8 @@
       <c r="W9" t="n">
         <v>5.0</v>
       </c>
-      <c r="X9" t="e">
-        <v>#N/A</v>
+      <c r="X9" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y9" t="e">
         <v>#N/A</v>
@@ -1579,8 +1579,8 @@
       <c r="AA9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB9" t="e">
-        <v>#N/A</v>
+      <c r="AB9" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC9" t="n">
         <v>5.0</v>
@@ -1595,13 +1595,13 @@
         <v>5.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1641,11 +1641,11 @@
       <c r="L10" t="n">
         <v>3.0</v>
       </c>
-      <c r="M10" t="e">
-        <v>#N/A</v>
+      <c r="M10" t="n">
+        <v>5.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O10" t="e">
         <v>#N/A</v>
@@ -1674,8 +1674,8 @@
       <c r="W10" t="n">
         <v>5.0</v>
       </c>
-      <c r="X10" t="e">
-        <v>#N/A</v>
+      <c r="X10" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y10" t="e">
         <v>#N/A</v>
@@ -1686,8 +1686,8 @@
       <c r="AA10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB10" t="e">
-        <v>#N/A</v>
+      <c r="AB10" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC10" t="n">
         <v>5.0</v>
@@ -1748,11 +1748,11 @@
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M11" t="e">
-        <v>#N/A</v>
+      <c r="M11" t="n">
+        <v>1.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O11" t="e">
         <v>#N/A</v>
@@ -1772,8 +1772,8 @@
       <c r="T11" t="n">
         <v>1.0</v>
       </c>
-      <c r="U11" t="e">
-        <v>#N/A</v>
+      <c r="U11" t="n">
+        <v>5.0</v>
       </c>
       <c r="V11" t="n">
         <v>5.0</v>
@@ -1781,8 +1781,8 @@
       <c r="W11" t="n">
         <v>5.0</v>
       </c>
-      <c r="X11" t="e">
-        <v>#N/A</v>
+      <c r="X11" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y11" t="e">
         <v>#N/A</v>
@@ -1793,11 +1793,11 @@
       <c r="AA11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC11" t="e">
-        <v>#N/A</v>
+      <c r="AB11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>5.0</v>
       </c>
       <c r="AD11" t="n">
         <v>1.0</v>
@@ -1809,13 +1809,13 @@
         <v>5.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1855,11 +1855,11 @@
       <c r="L12" t="n">
         <v>1.0</v>
       </c>
-      <c r="M12" t="e">
-        <v>#N/A</v>
+      <c r="M12" t="n">
+        <v>5.0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O12" t="e">
         <v>#N/A</v>
@@ -1888,8 +1888,8 @@
       <c r="W12" t="n">
         <v>5.0</v>
       </c>
-      <c r="X12" t="e">
-        <v>#N/A</v>
+      <c r="X12" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y12" t="e">
         <v>#N/A</v>
@@ -1900,8 +1900,8 @@
       <c r="AA12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB12" t="e">
-        <v>#N/A</v>
+      <c r="AB12" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC12" t="n">
         <v>5.0</v>
@@ -1916,13 +1916,13 @@
         <v>5.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1962,11 +1962,11 @@
       <c r="L13" t="n">
         <v>1.0</v>
       </c>
-      <c r="M13" t="e">
-        <v>#N/A</v>
+      <c r="M13" t="n">
+        <v>5.0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O13" t="e">
         <v>#N/A</v>
@@ -1995,8 +1995,8 @@
       <c r="W13" t="n">
         <v>5.0</v>
       </c>
-      <c r="X13" t="e">
-        <v>#N/A</v>
+      <c r="X13" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y13" t="e">
         <v>#N/A</v>
@@ -2007,8 +2007,8 @@
       <c r="AA13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB13" t="e">
-        <v>#N/A</v>
+      <c r="AB13" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC13" t="n">
         <v>5.0</v>
@@ -2023,13 +2023,13 @@
         <v>5.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -2069,8 +2069,8 @@
       <c r="L14" t="n">
         <v>5.0</v>
       </c>
-      <c r="M14" t="e">
-        <v>#N/A</v>
+      <c r="M14" t="n">
+        <v>3.0</v>
       </c>
       <c r="N14" t="n">
         <v>5.0</v>
@@ -2102,8 +2102,8 @@
       <c r="W14" t="n">
         <v>5.0</v>
       </c>
-      <c r="X14" t="e">
-        <v>#N/A</v>
+      <c r="X14" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y14" t="e">
         <v>#N/A</v>
@@ -2114,8 +2114,8 @@
       <c r="AA14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB14" t="e">
-        <v>#N/A</v>
+      <c r="AB14" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC14" t="n">
         <v>5.0</v>
@@ -2130,13 +2130,13 @@
         <v>5.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -2176,8 +2176,8 @@
       <c r="L15" t="n">
         <v>5.0</v>
       </c>
-      <c r="M15" t="e">
-        <v>#N/A</v>
+      <c r="M15" t="n">
+        <v>1.0</v>
       </c>
       <c r="N15" t="n">
         <v>5.0</v>
@@ -2209,8 +2209,8 @@
       <c r="W15" t="n">
         <v>5.0</v>
       </c>
-      <c r="X15" t="e">
-        <v>#N/A</v>
+      <c r="X15" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y15" t="e">
         <v>#N/A</v>
@@ -2221,8 +2221,8 @@
       <c r="AA15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB15" t="e">
-        <v>#N/A</v>
+      <c r="AB15" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC15" t="n">
         <v>5.0</v>
@@ -2237,13 +2237,13 @@
         <v>5.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -2283,8 +2283,8 @@
       <c r="L16" t="n">
         <v>5.0</v>
       </c>
-      <c r="M16" t="e">
-        <v>#N/A</v>
+      <c r="M16" t="n">
+        <v>3.0</v>
       </c>
       <c r="N16" t="n">
         <v>5.0</v>
@@ -2328,8 +2328,8 @@
       <c r="AA16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB16" t="e">
-        <v>#N/A</v>
+      <c r="AB16" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC16" t="n">
         <v>5.0</v>
@@ -2344,13 +2344,13 @@
         <v>5.0</v>
       </c>
       <c r="AG16" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH16" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -2390,8 +2390,8 @@
       <c r="L17" t="n">
         <v>3.0</v>
       </c>
-      <c r="M17" t="e">
-        <v>#N/A</v>
+      <c r="M17" t="n">
+        <v>3.0</v>
       </c>
       <c r="N17" t="n">
         <v>5.0</v>
@@ -2423,8 +2423,8 @@
       <c r="W17" t="n">
         <v>5.0</v>
       </c>
-      <c r="X17" t="e">
-        <v>#N/A</v>
+      <c r="X17" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y17" t="e">
         <v>#N/A</v>
@@ -2435,8 +2435,8 @@
       <c r="AA17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB17" t="e">
-        <v>#N/A</v>
+      <c r="AB17" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC17" t="n">
         <v>5.0</v>
@@ -2451,13 +2451,13 @@
         <v>5.0</v>
       </c>
       <c r="AG17" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH17" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI17" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -2497,11 +2497,11 @@
       <c r="L18" t="n">
         <v>3.0</v>
       </c>
-      <c r="M18" t="e">
-        <v>#N/A</v>
+      <c r="M18" t="n">
+        <v>3.0</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O18" t="e">
         <v>#N/A</v>
@@ -2530,8 +2530,8 @@
       <c r="W18" t="n">
         <v>5.0</v>
       </c>
-      <c r="X18" t="e">
-        <v>#N/A</v>
+      <c r="X18" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y18" t="e">
         <v>#N/A</v>
@@ -2542,8 +2542,8 @@
       <c r="AA18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB18" t="e">
-        <v>#N/A</v>
+      <c r="AB18" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC18" t="n">
         <v>5.0</v>
@@ -2558,13 +2558,13 @@
         <v>5.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH18" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI18" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -2604,8 +2604,8 @@
       <c r="L19" t="n">
         <v>5.0</v>
       </c>
-      <c r="M19" t="e">
-        <v>#N/A</v>
+      <c r="M19" t="n">
+        <v>3.0</v>
       </c>
       <c r="N19" t="n">
         <v>5.0</v>
@@ -2637,8 +2637,8 @@
       <c r="W19" t="n">
         <v>5.0</v>
       </c>
-      <c r="X19" t="e">
-        <v>#N/A</v>
+      <c r="X19" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y19" t="e">
         <v>#N/A</v>
@@ -2649,8 +2649,8 @@
       <c r="AA19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB19" t="e">
-        <v>#N/A</v>
+      <c r="AB19" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC19" t="n">
         <v>5.0</v>
@@ -2665,13 +2665,13 @@
         <v>5.0</v>
       </c>
       <c r="AG19" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI19" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -2711,8 +2711,8 @@
       <c r="L20" t="n">
         <v>3.0</v>
       </c>
-      <c r="M20" t="e">
-        <v>#N/A</v>
+      <c r="M20" t="n">
+        <v>3.0</v>
       </c>
       <c r="N20" t="n">
         <v>5.0</v>
@@ -2744,8 +2744,8 @@
       <c r="W20" t="n">
         <v>5.0</v>
       </c>
-      <c r="X20" t="e">
-        <v>#N/A</v>
+      <c r="X20" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y20" t="e">
         <v>#N/A</v>
@@ -2756,8 +2756,8 @@
       <c r="AA20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB20" t="e">
-        <v>#N/A</v>
+      <c r="AB20" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC20" t="n">
         <v>5.0</v>
@@ -2772,13 +2772,13 @@
         <v>5.0</v>
       </c>
       <c r="AG20" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH20" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI20" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -2818,11 +2818,11 @@
       <c r="L21" t="n">
         <v>1.0</v>
       </c>
-      <c r="M21" t="e">
-        <v>#N/A</v>
+      <c r="M21" t="n">
+        <v>5.0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O21" t="e">
         <v>#N/A</v>
@@ -2863,8 +2863,8 @@
       <c r="AA21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB21" t="e">
-        <v>#N/A</v>
+      <c r="AB21" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC21" t="n">
         <v>5.0</v>
@@ -2925,11 +2925,11 @@
       <c r="L22" t="n">
         <v>5.0</v>
       </c>
-      <c r="M22" t="e">
-        <v>#N/A</v>
+      <c r="M22" t="n">
+        <v>5.0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O22" t="e">
         <v>#N/A</v>
@@ -2958,8 +2958,8 @@
       <c r="W22" t="n">
         <v>5.0</v>
       </c>
-      <c r="X22" t="e">
-        <v>#N/A</v>
+      <c r="X22" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y22" t="e">
         <v>#N/A</v>
@@ -2970,8 +2970,8 @@
       <c r="AA22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB22" t="e">
-        <v>#N/A</v>
+      <c r="AB22" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC22" t="n">
         <v>5.0</v>
@@ -2986,13 +2986,13 @@
         <v>5.0</v>
       </c>
       <c r="AG22" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH22" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI22" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -3032,11 +3032,11 @@
       <c r="L23" t="n">
         <v>5.0</v>
       </c>
-      <c r="M23" t="e">
-        <v>#N/A</v>
+      <c r="M23" t="n">
+        <v>5.0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O23" t="e">
         <v>#N/A</v>
@@ -3065,8 +3065,8 @@
       <c r="W23" t="n">
         <v>5.0</v>
       </c>
-      <c r="X23" t="e">
-        <v>#N/A</v>
+      <c r="X23" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y23" t="e">
         <v>#N/A</v>
@@ -3077,8 +3077,8 @@
       <c r="AA23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB23" t="e">
-        <v>#N/A</v>
+      <c r="AB23" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC23" t="n">
         <v>5.0</v>
@@ -3093,13 +3093,13 @@
         <v>5.0</v>
       </c>
       <c r="AG23" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH23" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI23" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -3139,11 +3139,11 @@
       <c r="L24" t="n">
         <v>5.0</v>
       </c>
-      <c r="M24" t="e">
-        <v>#N/A</v>
+      <c r="M24" t="n">
+        <v>1.0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O24" t="e">
         <v>#N/A</v>
@@ -3172,8 +3172,8 @@
       <c r="W24" t="n">
         <v>5.0</v>
       </c>
-      <c r="X24" t="e">
-        <v>#N/A</v>
+      <c r="X24" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y24" t="e">
         <v>#N/A</v>
@@ -3184,8 +3184,8 @@
       <c r="AA24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB24" t="e">
-        <v>#N/A</v>
+      <c r="AB24" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC24" t="n">
         <v>5.0</v>
@@ -3200,13 +3200,13 @@
         <v>5.0</v>
       </c>
       <c r="AG24" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI24" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -3246,11 +3246,11 @@
       <c r="L25" t="n">
         <v>5.0</v>
       </c>
-      <c r="M25" t="e">
-        <v>#N/A</v>
+      <c r="M25" t="n">
+        <v>1.0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O25" t="e">
         <v>#N/A</v>
@@ -3279,8 +3279,8 @@
       <c r="W25" t="n">
         <v>5.0</v>
       </c>
-      <c r="X25" t="e">
-        <v>#N/A</v>
+      <c r="X25" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y25" t="e">
         <v>#N/A</v>
@@ -3291,8 +3291,8 @@
       <c r="AA25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB25" t="e">
-        <v>#N/A</v>
+      <c r="AB25" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC25" t="n">
         <v>5.0</v>
@@ -3307,13 +3307,13 @@
         <v>5.0</v>
       </c>
       <c r="AG25" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH25" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -3353,11 +3353,11 @@
       <c r="L26" t="n">
         <v>5.0</v>
       </c>
-      <c r="M26" t="e">
-        <v>#N/A</v>
+      <c r="M26" t="n">
+        <v>1.0</v>
       </c>
       <c r="N26" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O26" t="e">
         <v>#N/A</v>
@@ -3386,8 +3386,8 @@
       <c r="W26" t="n">
         <v>5.0</v>
       </c>
-      <c r="X26" t="e">
-        <v>#N/A</v>
+      <c r="X26" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y26" t="e">
         <v>#N/A</v>
@@ -3398,8 +3398,8 @@
       <c r="AA26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB26" t="e">
-        <v>#N/A</v>
+      <c r="AB26" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC26" t="n">
         <v>5.0</v>
@@ -3414,13 +3414,13 @@
         <v>5.0</v>
       </c>
       <c r="AG26" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH26" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI26" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -3460,11 +3460,11 @@
       <c r="L27" t="n">
         <v>5.0</v>
       </c>
-      <c r="M27" t="e">
-        <v>#N/A</v>
+      <c r="M27" t="n">
+        <v>1.0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O27" t="e">
         <v>#N/A</v>
@@ -3493,8 +3493,8 @@
       <c r="W27" t="n">
         <v>5.0</v>
       </c>
-      <c r="X27" t="e">
-        <v>#N/A</v>
+      <c r="X27" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y27" t="e">
         <v>#N/A</v>
@@ -3505,8 +3505,8 @@
       <c r="AA27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB27" t="e">
-        <v>#N/A</v>
+      <c r="AB27" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC27" t="n">
         <v>5.0</v>
@@ -3521,13 +3521,13 @@
         <v>5.0</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH27" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -3567,11 +3567,11 @@
       <c r="L28" t="n">
         <v>5.0</v>
       </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
+      <c r="M28" t="n">
+        <v>1.0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O28" t="e">
         <v>#N/A</v>
@@ -3600,8 +3600,8 @@
       <c r="W28" t="n">
         <v>5.0</v>
       </c>
-      <c r="X28" t="e">
-        <v>#N/A</v>
+      <c r="X28" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y28" t="e">
         <v>#N/A</v>
@@ -3612,8 +3612,8 @@
       <c r="AA28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB28" t="e">
-        <v>#N/A</v>
+      <c r="AB28" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC28" t="n">
         <v>5.0</v>
@@ -3628,13 +3628,13 @@
         <v>5.0</v>
       </c>
       <c r="AG28" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH28" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI28" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -3659,8 +3659,8 @@
       <c r="G29" t="n">
         <v>1.0</v>
       </c>
-      <c r="H29" t="e">
-        <v>#N/A</v>
+      <c r="H29" t="n">
+        <v>5.0</v>
       </c>
       <c r="I29" t="e">
         <v>#N/A</v>
@@ -3674,8 +3674,8 @@
       <c r="L29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M29" t="e">
-        <v>#N/A</v>
+      <c r="M29" t="n">
+        <v>1.0</v>
       </c>
       <c r="N29" t="n">
         <v>5.0</v>
@@ -3698,8 +3698,8 @@
       <c r="T29" t="n">
         <v>1.0</v>
       </c>
-      <c r="U29" t="e">
-        <v>#N/A</v>
+      <c r="U29" t="n">
+        <v>5.0</v>
       </c>
       <c r="V29" t="n">
         <v>5.0</v>
@@ -3719,11 +3719,11 @@
       <c r="AA29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC29" t="e">
-        <v>#N/A</v>
+      <c r="AB29" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>5.0</v>
       </c>
       <c r="AD29" t="e">
         <v>#N/A</v>
@@ -3781,8 +3781,8 @@
       <c r="L30" t="n">
         <v>5.0</v>
       </c>
-      <c r="M30" t="e">
-        <v>#N/A</v>
+      <c r="M30" t="n">
+        <v>1.0</v>
       </c>
       <c r="N30" t="n">
         <v>5.0</v>
@@ -3814,8 +3814,8 @@
       <c r="W30" t="n">
         <v>5.0</v>
       </c>
-      <c r="X30" t="e">
-        <v>#N/A</v>
+      <c r="X30" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y30" t="e">
         <v>#N/A</v>
@@ -3826,8 +3826,8 @@
       <c r="AA30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB30" t="e">
-        <v>#N/A</v>
+      <c r="AB30" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC30" t="n">
         <v>5.0</v>
@@ -3842,13 +3842,13 @@
         <v>5.0</v>
       </c>
       <c r="AG30" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI30" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -3888,11 +3888,11 @@
       <c r="L31" t="n">
         <v>5.0</v>
       </c>
-      <c r="M31" t="e">
-        <v>#N/A</v>
+      <c r="M31" t="n">
+        <v>1.0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O31" t="e">
         <v>#N/A</v>
@@ -3921,8 +3921,8 @@
       <c r="W31" t="n">
         <v>5.0</v>
       </c>
-      <c r="X31" t="e">
-        <v>#N/A</v>
+      <c r="X31" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y31" t="e">
         <v>#N/A</v>
@@ -3933,8 +3933,8 @@
       <c r="AA31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB31" t="e">
-        <v>#N/A</v>
+      <c r="AB31" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC31" t="n">
         <v>5.0</v>
@@ -3995,11 +3995,11 @@
       <c r="L32" t="n">
         <v>5.0</v>
       </c>
-      <c r="M32" t="e">
-        <v>#N/A</v>
+      <c r="M32" t="n">
+        <v>1.0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O32" t="e">
         <v>#N/A</v>
@@ -4040,8 +4040,8 @@
       <c r="AA32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB32" t="e">
-        <v>#N/A</v>
+      <c r="AB32" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC32" t="n">
         <v>5.0</v>
@@ -4102,8 +4102,8 @@
       <c r="L33" t="n">
         <v>5.0</v>
       </c>
-      <c r="M33" t="e">
-        <v>#N/A</v>
+      <c r="M33" t="n">
+        <v>1.0</v>
       </c>
       <c r="N33" t="n">
         <v>5.0</v>
@@ -4147,8 +4147,8 @@
       <c r="AA33" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB33" t="e">
-        <v>#N/A</v>
+      <c r="AB33" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC33" t="n">
         <v>5.0</v>
@@ -4163,13 +4163,13 @@
         <v>5.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH33" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI33" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -4209,8 +4209,8 @@
       <c r="L34" t="n">
         <v>5.0</v>
       </c>
-      <c r="M34" t="e">
-        <v>#N/A</v>
+      <c r="M34" t="n">
+        <v>1.0</v>
       </c>
       <c r="N34" t="n">
         <v>5.0</v>
@@ -4242,8 +4242,8 @@
       <c r="W34" t="n">
         <v>5.0</v>
       </c>
-      <c r="X34" t="e">
-        <v>#N/A</v>
+      <c r="X34" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y34" t="e">
         <v>#N/A</v>
@@ -4254,8 +4254,8 @@
       <c r="AA34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB34" t="e">
-        <v>#N/A</v>
+      <c r="AB34" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC34" t="n">
         <v>5.0</v>
@@ -4270,13 +4270,13 @@
         <v>5.0</v>
       </c>
       <c r="AG34" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH34" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI34" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -4316,8 +4316,8 @@
       <c r="L35" t="n">
         <v>5.0</v>
       </c>
-      <c r="M35" t="e">
-        <v>#N/A</v>
+      <c r="M35" t="n">
+        <v>1.0</v>
       </c>
       <c r="N35" t="n">
         <v>5.0</v>
@@ -4361,8 +4361,8 @@
       <c r="AA35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB35" t="e">
-        <v>#N/A</v>
+      <c r="AB35" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC35" t="n">
         <v>5.0</v>
@@ -4377,13 +4377,13 @@
         <v>5.0</v>
       </c>
       <c r="AG35" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH35" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI35" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
@@ -4423,8 +4423,8 @@
       <c r="L36" t="n">
         <v>5.0</v>
       </c>
-      <c r="M36" t="e">
-        <v>#N/A</v>
+      <c r="M36" t="n">
+        <v>1.0</v>
       </c>
       <c r="N36" t="n">
         <v>5.0</v>
@@ -4456,8 +4456,8 @@
       <c r="W36" t="n">
         <v>5.0</v>
       </c>
-      <c r="X36" t="e">
-        <v>#N/A</v>
+      <c r="X36" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y36" t="e">
         <v>#N/A</v>
@@ -4468,8 +4468,8 @@
       <c r="AA36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB36" t="e">
-        <v>#N/A</v>
+      <c r="AB36" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC36" t="n">
         <v>5.0</v>
@@ -4530,8 +4530,8 @@
       <c r="L37" t="n">
         <v>5.0</v>
       </c>
-      <c r="M37" t="e">
-        <v>#N/A</v>
+      <c r="M37" t="n">
+        <v>1.0</v>
       </c>
       <c r="N37" t="n">
         <v>1.0</v>
@@ -4575,8 +4575,8 @@
       <c r="AA37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB37" t="e">
-        <v>#N/A</v>
+      <c r="AB37" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC37" t="n">
         <v>5.0</v>
@@ -4591,13 +4591,13 @@
         <v>5.0</v>
       </c>
       <c r="AG37" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH37" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI37" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -4637,8 +4637,8 @@
       <c r="L38" t="n">
         <v>5.0</v>
       </c>
-      <c r="M38" t="e">
-        <v>#N/A</v>
+      <c r="M38" t="n">
+        <v>1.0</v>
       </c>
       <c r="N38" t="n">
         <v>1.0</v>
@@ -4670,8 +4670,8 @@
       <c r="W38" t="n">
         <v>5.0</v>
       </c>
-      <c r="X38" t="e">
-        <v>#N/A</v>
+      <c r="X38" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y38" t="e">
         <v>#N/A</v>
@@ -4682,8 +4682,8 @@
       <c r="AA38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB38" t="e">
-        <v>#N/A</v>
+      <c r="AB38" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC38" t="n">
         <v>5.0</v>
@@ -4698,13 +4698,13 @@
         <v>5.0</v>
       </c>
       <c r="AG38" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH38" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI38" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -4744,8 +4744,8 @@
       <c r="L39" t="n">
         <v>1.0</v>
       </c>
-      <c r="M39" t="e">
-        <v>#N/A</v>
+      <c r="M39" t="n">
+        <v>1.0</v>
       </c>
       <c r="N39" t="n">
         <v>1.0</v>
@@ -4777,8 +4777,8 @@
       <c r="W39" t="n">
         <v>5.0</v>
       </c>
-      <c r="X39" t="e">
-        <v>#N/A</v>
+      <c r="X39" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y39" t="e">
         <v>#N/A</v>
@@ -4789,8 +4789,8 @@
       <c r="AA39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB39" t="e">
-        <v>#N/A</v>
+      <c r="AB39" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC39" t="n">
         <v>5.0</v>
@@ -4805,13 +4805,13 @@
         <v>5.0</v>
       </c>
       <c r="AG39" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH39" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI39" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -4851,8 +4851,8 @@
       <c r="L40" t="n">
         <v>1.0</v>
       </c>
-      <c r="M40" t="e">
-        <v>#N/A</v>
+      <c r="M40" t="n">
+        <v>1.0</v>
       </c>
       <c r="N40" t="n">
         <v>1.0</v>
@@ -4884,8 +4884,8 @@
       <c r="W40" t="n">
         <v>5.0</v>
       </c>
-      <c r="X40" t="e">
-        <v>#N/A</v>
+      <c r="X40" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y40" t="e">
         <v>#N/A</v>
@@ -4896,8 +4896,8 @@
       <c r="AA40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB40" t="e">
-        <v>#N/A</v>
+      <c r="AB40" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC40" t="n">
         <v>5.0</v>
@@ -4958,8 +4958,8 @@
       <c r="L41" t="n">
         <v>5.0</v>
       </c>
-      <c r="M41" t="e">
-        <v>#N/A</v>
+      <c r="M41" t="n">
+        <v>1.0</v>
       </c>
       <c r="N41" t="n">
         <v>5.0</v>
@@ -4991,8 +4991,8 @@
       <c r="W41" t="n">
         <v>5.0</v>
       </c>
-      <c r="X41" t="e">
-        <v>#N/A</v>
+      <c r="X41" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y41" t="e">
         <v>#N/A</v>
@@ -5003,8 +5003,8 @@
       <c r="AA41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB41" t="e">
-        <v>#N/A</v>
+      <c r="AB41" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC41" t="n">
         <v>5.0</v>
@@ -5019,13 +5019,13 @@
         <v>5.0</v>
       </c>
       <c r="AG41" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH41" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI41" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42">
@@ -5065,8 +5065,8 @@
       <c r="L42" t="n">
         <v>5.0</v>
       </c>
-      <c r="M42" t="e">
-        <v>#N/A</v>
+      <c r="M42" t="n">
+        <v>1.0</v>
       </c>
       <c r="N42" t="n">
         <v>5.0</v>
@@ -5110,8 +5110,8 @@
       <c r="AA42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB42" t="e">
-        <v>#N/A</v>
+      <c r="AB42" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC42" t="n">
         <v>5.0</v>
@@ -5172,8 +5172,8 @@
       <c r="L43" t="n">
         <v>5.0</v>
       </c>
-      <c r="M43" t="e">
-        <v>#N/A</v>
+      <c r="M43" t="n">
+        <v>1.0</v>
       </c>
       <c r="N43" t="n">
         <v>5.0</v>
@@ -5205,8 +5205,8 @@
       <c r="W43" t="n">
         <v>5.0</v>
       </c>
-      <c r="X43" t="e">
-        <v>#N/A</v>
+      <c r="X43" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y43" t="e">
         <v>#N/A</v>
@@ -5217,8 +5217,8 @@
       <c r="AA43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB43" t="e">
-        <v>#N/A</v>
+      <c r="AB43" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC43" t="n">
         <v>5.0</v>
@@ -5233,13 +5233,13 @@
         <v>5.0</v>
       </c>
       <c r="AG43" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI43" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -5279,8 +5279,8 @@
       <c r="L44" t="n">
         <v>5.0</v>
       </c>
-      <c r="M44" t="e">
-        <v>#N/A</v>
+      <c r="M44" t="n">
+        <v>1.0</v>
       </c>
       <c r="N44" t="n">
         <v>5.0</v>
@@ -5324,8 +5324,8 @@
       <c r="AA44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB44" t="e">
-        <v>#N/A</v>
+      <c r="AB44" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC44" t="n">
         <v>5.0</v>
@@ -5340,13 +5340,13 @@
         <v>5.0</v>
       </c>
       <c r="AG44" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH44" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI44" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -5386,11 +5386,11 @@
       <c r="L45" t="n">
         <v>5.0</v>
       </c>
-      <c r="M45" t="e">
-        <v>#N/A</v>
+      <c r="M45" t="n">
+        <v>1.0</v>
       </c>
       <c r="N45" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O45" t="e">
         <v>#N/A</v>
@@ -5431,8 +5431,8 @@
       <c r="AA45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB45" t="e">
-        <v>#N/A</v>
+      <c r="AB45" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC45" t="n">
         <v>5.0</v>
@@ -5447,13 +5447,13 @@
         <v>5.0</v>
       </c>
       <c r="AG45" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH45" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI45" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -5493,8 +5493,8 @@
       <c r="L46" t="n">
         <v>3.0</v>
       </c>
-      <c r="M46" t="e">
-        <v>#N/A</v>
+      <c r="M46" t="n">
+        <v>1.0</v>
       </c>
       <c r="N46" t="n">
         <v>1.0</v>
@@ -5526,8 +5526,8 @@
       <c r="W46" t="n">
         <v>5.0</v>
       </c>
-      <c r="X46" t="e">
-        <v>#N/A</v>
+      <c r="X46" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y46" t="e">
         <v>#N/A</v>
@@ -5538,8 +5538,8 @@
       <c r="AA46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB46" t="e">
-        <v>#N/A</v>
+      <c r="AB46" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC46" t="n">
         <v>5.0</v>
@@ -5554,13 +5554,13 @@
         <v>5.0</v>
       </c>
       <c r="AG46" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH46" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI46" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47">
@@ -5600,11 +5600,11 @@
       <c r="L47" t="n">
         <v>1.0</v>
       </c>
-      <c r="M47" t="e">
-        <v>#N/A</v>
+      <c r="M47" t="n">
+        <v>1.0</v>
       </c>
       <c r="N47" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O47" t="e">
         <v>#N/A</v>
@@ -5633,8 +5633,8 @@
       <c r="W47" t="n">
         <v>5.0</v>
       </c>
-      <c r="X47" t="e">
-        <v>#N/A</v>
+      <c r="X47" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y47" t="e">
         <v>#N/A</v>
@@ -5645,8 +5645,8 @@
       <c r="AA47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB47" t="e">
-        <v>#N/A</v>
+      <c r="AB47" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC47" t="n">
         <v>5.0</v>
@@ -5707,11 +5707,11 @@
       <c r="L48" t="n">
         <v>5.0</v>
       </c>
-      <c r="M48" t="e">
-        <v>#N/A</v>
+      <c r="M48" t="n">
+        <v>1.0</v>
       </c>
       <c r="N48" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O48" t="e">
         <v>#N/A</v>
@@ -5740,8 +5740,8 @@
       <c r="W48" t="n">
         <v>5.0</v>
       </c>
-      <c r="X48" t="e">
-        <v>#N/A</v>
+      <c r="X48" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y48" t="e">
         <v>#N/A</v>
@@ -5752,8 +5752,8 @@
       <c r="AA48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB48" t="e">
-        <v>#N/A</v>
+      <c r="AB48" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC48" t="n">
         <v>5.0</v>
@@ -5768,13 +5768,13 @@
         <v>5.0</v>
       </c>
       <c r="AG48" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH48" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI48" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
@@ -5814,8 +5814,8 @@
       <c r="L49" t="n">
         <v>5.0</v>
       </c>
-      <c r="M49" t="e">
-        <v>#N/A</v>
+      <c r="M49" t="n">
+        <v>1.0</v>
       </c>
       <c r="N49" t="n">
         <v>5.0</v>
@@ -5847,8 +5847,8 @@
       <c r="W49" t="n">
         <v>5.0</v>
       </c>
-      <c r="X49" t="e">
-        <v>#N/A</v>
+      <c r="X49" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y49" t="e">
         <v>#N/A</v>
@@ -5859,8 +5859,8 @@
       <c r="AA49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB49" t="e">
-        <v>#N/A</v>
+      <c r="AB49" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC49" t="n">
         <v>5.0</v>
@@ -5875,13 +5875,13 @@
         <v>5.0</v>
       </c>
       <c r="AG49" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH49" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI49" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -5921,8 +5921,8 @@
       <c r="L50" t="n">
         <v>3.0</v>
       </c>
-      <c r="M50" t="e">
-        <v>#N/A</v>
+      <c r="M50" t="n">
+        <v>1.0</v>
       </c>
       <c r="N50" t="n">
         <v>5.0</v>
@@ -5954,8 +5954,8 @@
       <c r="W50" t="n">
         <v>5.0</v>
       </c>
-      <c r="X50" t="e">
-        <v>#N/A</v>
+      <c r="X50" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y50" t="e">
         <v>#N/A</v>
@@ -5966,8 +5966,8 @@
       <c r="AA50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB50" t="e">
-        <v>#N/A</v>
+      <c r="AB50" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC50" t="n">
         <v>5.0</v>
@@ -6028,8 +6028,8 @@
       <c r="L51" t="n">
         <v>3.0</v>
       </c>
-      <c r="M51" t="e">
-        <v>#N/A</v>
+      <c r="M51" t="n">
+        <v>1.0</v>
       </c>
       <c r="N51" t="n">
         <v>5.0</v>
@@ -6061,8 +6061,8 @@
       <c r="W51" t="n">
         <v>5.0</v>
       </c>
-      <c r="X51" t="e">
-        <v>#N/A</v>
+      <c r="X51" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y51" t="e">
         <v>#N/A</v>
@@ -6073,8 +6073,8 @@
       <c r="AA51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB51" t="e">
-        <v>#N/A</v>
+      <c r="AB51" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC51" t="n">
         <v>3.0</v>
@@ -6135,8 +6135,8 @@
       <c r="L52" t="n">
         <v>5.0</v>
       </c>
-      <c r="M52" t="e">
-        <v>#N/A</v>
+      <c r="M52" t="n">
+        <v>1.0</v>
       </c>
       <c r="N52" t="n">
         <v>1.0</v>
@@ -6180,8 +6180,8 @@
       <c r="AA52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB52" t="e">
-        <v>#N/A</v>
+      <c r="AB52" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC52" t="n">
         <v>5.0</v>
@@ -6196,13 +6196,13 @@
         <v>5.0</v>
       </c>
       <c r="AG52" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH52" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI52" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -6242,8 +6242,8 @@
       <c r="L53" t="n">
         <v>3.0</v>
       </c>
-      <c r="M53" t="e">
-        <v>#N/A</v>
+      <c r="M53" t="n">
+        <v>1.0</v>
       </c>
       <c r="N53" t="n">
         <v>5.0</v>
@@ -6287,8 +6287,8 @@
       <c r="AA53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB53" t="e">
-        <v>#N/A</v>
+      <c r="AB53" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC53" t="n">
         <v>3.0</v>
@@ -6349,8 +6349,8 @@
       <c r="L54" t="n">
         <v>5.0</v>
       </c>
-      <c r="M54" t="e">
-        <v>#N/A</v>
+      <c r="M54" t="n">
+        <v>1.0</v>
       </c>
       <c r="N54" t="n">
         <v>5.0</v>
@@ -6382,8 +6382,8 @@
       <c r="W54" t="n">
         <v>5.0</v>
       </c>
-      <c r="X54" t="e">
-        <v>#N/A</v>
+      <c r="X54" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y54" t="e">
         <v>#N/A</v>
@@ -6394,8 +6394,8 @@
       <c r="AA54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB54" t="e">
-        <v>#N/A</v>
+      <c r="AB54" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC54" t="n">
         <v>5.0</v>
@@ -6410,13 +6410,13 @@
         <v>5.0</v>
       </c>
       <c r="AG54" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH54" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI54" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="55">
@@ -6456,11 +6456,11 @@
       <c r="L55" t="n">
         <v>3.0</v>
       </c>
-      <c r="M55" t="e">
-        <v>#N/A</v>
+      <c r="M55" t="n">
+        <v>1.0</v>
       </c>
       <c r="N55" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O55" t="e">
         <v>#N/A</v>
@@ -6501,8 +6501,8 @@
       <c r="AA55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB55" t="e">
-        <v>#N/A</v>
+      <c r="AB55" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC55" t="n">
         <v>5.0</v>
@@ -6563,11 +6563,11 @@
       <c r="L56" t="n">
         <v>5.0</v>
       </c>
-      <c r="M56" t="e">
-        <v>#N/A</v>
+      <c r="M56" t="n">
+        <v>1.0</v>
       </c>
       <c r="N56" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O56" t="e">
         <v>#N/A</v>
@@ -6596,8 +6596,8 @@
       <c r="W56" t="n">
         <v>5.0</v>
       </c>
-      <c r="X56" t="e">
-        <v>#N/A</v>
+      <c r="X56" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y56" t="e">
         <v>#N/A</v>
@@ -6608,8 +6608,8 @@
       <c r="AA56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB56" t="e">
-        <v>#N/A</v>
+      <c r="AB56" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC56" t="n">
         <v>5.0</v>
@@ -6624,13 +6624,13 @@
         <v>5.0</v>
       </c>
       <c r="AG56" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH56" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI56" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="57">
@@ -6670,11 +6670,11 @@
       <c r="L57" t="n">
         <v>5.0</v>
       </c>
-      <c r="M57" t="e">
-        <v>#N/A</v>
+      <c r="M57" t="n">
+        <v>1.0</v>
       </c>
       <c r="N57" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O57" t="e">
         <v>#N/A</v>
@@ -6703,8 +6703,8 @@
       <c r="W57" t="n">
         <v>5.0</v>
       </c>
-      <c r="X57" t="e">
-        <v>#N/A</v>
+      <c r="X57" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y57" t="e">
         <v>#N/A</v>
@@ -6715,8 +6715,8 @@
       <c r="AA57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB57" t="e">
-        <v>#N/A</v>
+      <c r="AB57" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC57" t="n">
         <v>5.0</v>
@@ -6731,13 +6731,13 @@
         <v>5.0</v>
       </c>
       <c r="AG57" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH57" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI57" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
@@ -6777,11 +6777,11 @@
       <c r="L58" t="n">
         <v>1.0</v>
       </c>
-      <c r="M58" t="e">
-        <v>#N/A</v>
+      <c r="M58" t="n">
+        <v>1.0</v>
       </c>
       <c r="N58" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O58" t="e">
         <v>#N/A</v>
@@ -6810,8 +6810,8 @@
       <c r="W58" t="n">
         <v>5.0</v>
       </c>
-      <c r="X58" t="e">
-        <v>#N/A</v>
+      <c r="X58" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y58" t="e">
         <v>#N/A</v>
@@ -6822,8 +6822,8 @@
       <c r="AA58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB58" t="e">
-        <v>#N/A</v>
+      <c r="AB58" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC58" t="n">
         <v>5.0</v>
@@ -6838,13 +6838,13 @@
         <v>5.0</v>
       </c>
       <c r="AG58" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH58" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI58" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="59">
@@ -6884,8 +6884,8 @@
       <c r="L59" t="n">
         <v>5.0</v>
       </c>
-      <c r="M59" t="e">
-        <v>#N/A</v>
+      <c r="M59" t="n">
+        <v>1.0</v>
       </c>
       <c r="N59" t="n">
         <v>5.0</v>
@@ -6917,8 +6917,8 @@
       <c r="W59" t="n">
         <v>5.0</v>
       </c>
-      <c r="X59" t="e">
-        <v>#N/A</v>
+      <c r="X59" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y59" t="e">
         <v>#N/A</v>
@@ -6929,8 +6929,8 @@
       <c r="AA59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB59" t="e">
-        <v>#N/A</v>
+      <c r="AB59" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC59" t="n">
         <v>5.0</v>
@@ -6991,8 +6991,8 @@
       <c r="L60" t="n">
         <v>5.0</v>
       </c>
-      <c r="M60" t="e">
-        <v>#N/A</v>
+      <c r="M60" t="n">
+        <v>1.0</v>
       </c>
       <c r="N60" t="n">
         <v>5.0</v>
@@ -7036,8 +7036,8 @@
       <c r="AA60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB60" t="e">
-        <v>#N/A</v>
+      <c r="AB60" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC60" t="n">
         <v>5.0</v>
@@ -7052,13 +7052,13 @@
         <v>5.0</v>
       </c>
       <c r="AG60" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH60" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI60" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="61">
@@ -7098,8 +7098,8 @@
       <c r="L61" t="n">
         <v>5.0</v>
       </c>
-      <c r="M61" t="e">
-        <v>#N/A</v>
+      <c r="M61" t="n">
+        <v>1.0</v>
       </c>
       <c r="N61" t="n">
         <v>5.0</v>
@@ -7131,8 +7131,8 @@
       <c r="W61" t="n">
         <v>5.0</v>
       </c>
-      <c r="X61" t="e">
-        <v>#N/A</v>
+      <c r="X61" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y61" t="e">
         <v>#N/A</v>
@@ -7143,8 +7143,8 @@
       <c r="AA61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB61" t="e">
-        <v>#N/A</v>
+      <c r="AB61" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC61" t="n">
         <v>5.0</v>
@@ -7159,13 +7159,13 @@
         <v>5.0</v>
       </c>
       <c r="AG61" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH61" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI61" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62">
@@ -7205,8 +7205,8 @@
       <c r="L62" t="n">
         <v>5.0</v>
       </c>
-      <c r="M62" t="e">
-        <v>#N/A</v>
+      <c r="M62" t="n">
+        <v>1.0</v>
       </c>
       <c r="N62" t="n">
         <v>5.0</v>
@@ -7250,8 +7250,8 @@
       <c r="AA62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB62" t="e">
-        <v>#N/A</v>
+      <c r="AB62" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC62" t="n">
         <v>5.0</v>
@@ -7266,13 +7266,13 @@
         <v>5.0</v>
       </c>
       <c r="AG62" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH62" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI62" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63">
@@ -7312,8 +7312,8 @@
       <c r="L63" t="n">
         <v>5.0</v>
       </c>
-      <c r="M63" t="e">
-        <v>#N/A</v>
+      <c r="M63" t="n">
+        <v>1.0</v>
       </c>
       <c r="N63" t="n">
         <v>1.0</v>
@@ -7357,8 +7357,8 @@
       <c r="AA63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB63" t="e">
-        <v>#N/A</v>
+      <c r="AB63" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC63" t="n">
         <v>5.0</v>
@@ -7373,13 +7373,13 @@
         <v>5.0</v>
       </c>
       <c r="AG63" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH63" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI63" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="64">
@@ -7419,8 +7419,8 @@
       <c r="L64" t="n">
         <v>5.0</v>
       </c>
-      <c r="M64" t="e">
-        <v>#N/A</v>
+      <c r="M64" t="n">
+        <v>1.0</v>
       </c>
       <c r="N64" t="n">
         <v>5.0</v>
@@ -7452,8 +7452,8 @@
       <c r="W64" t="n">
         <v>5.0</v>
       </c>
-      <c r="X64" t="e">
-        <v>#N/A</v>
+      <c r="X64" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y64" t="e">
         <v>#N/A</v>
@@ -7464,8 +7464,8 @@
       <c r="AA64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB64" t="e">
-        <v>#N/A</v>
+      <c r="AB64" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC64" t="n">
         <v>5.0</v>
@@ -7526,8 +7526,8 @@
       <c r="L65" t="n">
         <v>5.0</v>
       </c>
-      <c r="M65" t="e">
-        <v>#N/A</v>
+      <c r="M65" t="n">
+        <v>1.0</v>
       </c>
       <c r="N65" t="n">
         <v>5.0</v>
@@ -7559,8 +7559,8 @@
       <c r="W65" t="n">
         <v>5.0</v>
       </c>
-      <c r="X65" t="e">
-        <v>#N/A</v>
+      <c r="X65" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y65" t="e">
         <v>#N/A</v>
@@ -7571,8 +7571,8 @@
       <c r="AA65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB65" t="e">
-        <v>#N/A</v>
+      <c r="AB65" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC65" t="n">
         <v>5.0</v>
@@ -7587,13 +7587,13 @@
         <v>5.0</v>
       </c>
       <c r="AG65" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH65" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI65" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66">
@@ -7633,8 +7633,8 @@
       <c r="L66" t="n">
         <v>5.0</v>
       </c>
-      <c r="M66" t="e">
-        <v>#N/A</v>
+      <c r="M66" t="n">
+        <v>1.0</v>
       </c>
       <c r="N66" t="n">
         <v>5.0</v>
@@ -7678,8 +7678,8 @@
       <c r="AA66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB66" t="e">
-        <v>#N/A</v>
+      <c r="AB66" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC66" t="n">
         <v>5.0</v>
@@ -7694,13 +7694,13 @@
         <v>5.0</v>
       </c>
       <c r="AG66" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH66" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI66" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
@@ -7740,8 +7740,8 @@
       <c r="L67" t="n">
         <v>3.0</v>
       </c>
-      <c r="M67" t="e">
-        <v>#N/A</v>
+      <c r="M67" t="n">
+        <v>1.0</v>
       </c>
       <c r="N67" t="n">
         <v>5.0</v>
@@ -7773,8 +7773,8 @@
       <c r="W67" t="n">
         <v>5.0</v>
       </c>
-      <c r="X67" t="e">
-        <v>#N/A</v>
+      <c r="X67" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y67" t="e">
         <v>#N/A</v>
@@ -7785,8 +7785,8 @@
       <c r="AA67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB67" t="e">
-        <v>#N/A</v>
+      <c r="AB67" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC67" t="n">
         <v>5.0</v>
@@ -7801,13 +7801,13 @@
         <v>5.0</v>
       </c>
       <c r="AG67" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH67" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI67" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -7847,8 +7847,8 @@
       <c r="L68" t="n">
         <v>5.0</v>
       </c>
-      <c r="M68" t="e">
-        <v>#N/A</v>
+      <c r="M68" t="n">
+        <v>1.0</v>
       </c>
       <c r="N68" t="n">
         <v>1.0</v>
@@ -7880,8 +7880,8 @@
       <c r="W68" t="n">
         <v>5.0</v>
       </c>
-      <c r="X68" t="e">
-        <v>#N/A</v>
+      <c r="X68" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y68" t="e">
         <v>#N/A</v>
@@ -7892,8 +7892,8 @@
       <c r="AA68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB68" t="e">
-        <v>#N/A</v>
+      <c r="AB68" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC68" t="n">
         <v>5.0</v>
@@ -7908,13 +7908,13 @@
         <v>5.0</v>
       </c>
       <c r="AG68" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH68" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI68" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69">
@@ -7954,8 +7954,8 @@
       <c r="L69" t="n">
         <v>5.0</v>
       </c>
-      <c r="M69" t="e">
-        <v>#N/A</v>
+      <c r="M69" t="n">
+        <v>1.0</v>
       </c>
       <c r="N69" t="n">
         <v>1.0</v>
@@ -7999,8 +7999,8 @@
       <c r="AA69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB69" t="e">
-        <v>#N/A</v>
+      <c r="AB69" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC69" t="n">
         <v>5.0</v>
@@ -8061,11 +8061,11 @@
       <c r="L70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M70" t="e">
-        <v>#N/A</v>
+      <c r="M70" t="n">
+        <v>1.0</v>
       </c>
       <c r="N70" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O70" t="e">
         <v>#N/A</v>
@@ -8085,8 +8085,8 @@
       <c r="T70" t="n">
         <v>1.0</v>
       </c>
-      <c r="U70" t="e">
-        <v>#N/A</v>
+      <c r="U70" t="n">
+        <v>5.0</v>
       </c>
       <c r="V70" t="n">
         <v>5.0</v>
@@ -8094,8 +8094,8 @@
       <c r="W70" t="n">
         <v>5.0</v>
       </c>
-      <c r="X70" t="e">
-        <v>#N/A</v>
+      <c r="X70" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y70" t="e">
         <v>#N/A</v>
@@ -8106,11 +8106,11 @@
       <c r="AA70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC70" t="e">
-        <v>#N/A</v>
+      <c r="AB70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>5.0</v>
       </c>
       <c r="AD70" t="n">
         <v>1.0</v>
@@ -8168,11 +8168,11 @@
       <c r="L71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M71" t="e">
-        <v>#N/A</v>
+      <c r="M71" t="n">
+        <v>1.0</v>
       </c>
       <c r="N71" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O71" t="e">
         <v>#N/A</v>
@@ -8192,8 +8192,8 @@
       <c r="T71" t="n">
         <v>5.0</v>
       </c>
-      <c r="U71" t="e">
-        <v>#N/A</v>
+      <c r="U71" t="n">
+        <v>5.0</v>
       </c>
       <c r="V71" t="n">
         <v>5.0</v>
@@ -8213,11 +8213,11 @@
       <c r="AA71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC71" t="e">
-        <v>#N/A</v>
+      <c r="AB71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>5.0</v>
       </c>
       <c r="AD71" t="n">
         <v>1.0</v>
@@ -8275,8 +8275,8 @@
       <c r="L72" t="n">
         <v>5.0</v>
       </c>
-      <c r="M72" t="e">
-        <v>#N/A</v>
+      <c r="M72" t="n">
+        <v>1.0</v>
       </c>
       <c r="N72" t="n">
         <v>1.0</v>
@@ -8308,8 +8308,8 @@
       <c r="W72" t="n">
         <v>5.0</v>
       </c>
-      <c r="X72" t="e">
-        <v>#N/A</v>
+      <c r="X72" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y72" t="e">
         <v>#N/A</v>
@@ -8320,8 +8320,8 @@
       <c r="AA72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB72" t="e">
-        <v>#N/A</v>
+      <c r="AB72" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC72" t="n">
         <v>5.0</v>
@@ -8336,13 +8336,13 @@
         <v>5.0</v>
       </c>
       <c r="AG72" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH72" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI72" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
@@ -8382,8 +8382,8 @@
       <c r="L73" t="n">
         <v>5.0</v>
       </c>
-      <c r="M73" t="e">
-        <v>#N/A</v>
+      <c r="M73" t="n">
+        <v>1.0</v>
       </c>
       <c r="N73" t="n">
         <v>5.0</v>
@@ -8427,8 +8427,8 @@
       <c r="AA73" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB73" t="e">
-        <v>#N/A</v>
+      <c r="AB73" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC73" t="n">
         <v>5.0</v>
@@ -8443,13 +8443,13 @@
         <v>5.0</v>
       </c>
       <c r="AG73" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH73" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI73" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="74">
@@ -8489,8 +8489,8 @@
       <c r="L74" t="n">
         <v>5.0</v>
       </c>
-      <c r="M74" t="e">
-        <v>#N/A</v>
+      <c r="M74" t="n">
+        <v>1.0</v>
       </c>
       <c r="N74" t="n">
         <v>5.0</v>
@@ -8522,8 +8522,8 @@
       <c r="W74" t="n">
         <v>5.0</v>
       </c>
-      <c r="X74" t="e">
-        <v>#N/A</v>
+      <c r="X74" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y74" t="e">
         <v>#N/A</v>
@@ -8534,8 +8534,8 @@
       <c r="AA74" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB74" t="e">
-        <v>#N/A</v>
+      <c r="AB74" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC74" t="n">
         <v>5.0</v>
@@ -8550,13 +8550,13 @@
         <v>5.0</v>
       </c>
       <c r="AG74" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH74" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI74" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="75">
@@ -8596,11 +8596,11 @@
       <c r="L75" t="n">
         <v>5.0</v>
       </c>
-      <c r="M75" t="e">
-        <v>#N/A</v>
+      <c r="M75" t="n">
+        <v>1.0</v>
       </c>
       <c r="N75" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O75" t="e">
         <v>#N/A</v>
@@ -8629,8 +8629,8 @@
       <c r="W75" t="n">
         <v>5.0</v>
       </c>
-      <c r="X75" t="e">
-        <v>#N/A</v>
+      <c r="X75" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y75" t="e">
         <v>#N/A</v>
@@ -8641,8 +8641,8 @@
       <c r="AA75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB75" t="e">
-        <v>#N/A</v>
+      <c r="AB75" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC75" t="n">
         <v>5.0</v>
@@ -8657,13 +8657,13 @@
         <v>5.0</v>
       </c>
       <c r="AG75" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH75" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI75" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
@@ -8703,11 +8703,11 @@
       <c r="L76" t="n">
         <v>5.0</v>
       </c>
-      <c r="M76" t="e">
-        <v>#N/A</v>
+      <c r="M76" t="n">
+        <v>1.0</v>
       </c>
       <c r="N76" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O76" t="e">
         <v>#N/A</v>
@@ -8736,8 +8736,8 @@
       <c r="W76" t="n">
         <v>5.0</v>
       </c>
-      <c r="X76" t="e">
-        <v>#N/A</v>
+      <c r="X76" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y76" t="e">
         <v>#N/A</v>
@@ -8748,8 +8748,8 @@
       <c r="AA76" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB76" t="e">
-        <v>#N/A</v>
+      <c r="AB76" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC76" t="n">
         <v>5.0</v>
@@ -8764,13 +8764,13 @@
         <v>5.0</v>
       </c>
       <c r="AG76" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH76" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI76" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
@@ -8810,8 +8810,8 @@
       <c r="L77" t="n">
         <v>5.0</v>
       </c>
-      <c r="M77" t="e">
-        <v>#N/A</v>
+      <c r="M77" t="n">
+        <v>1.0</v>
       </c>
       <c r="N77" t="n">
         <v>1.0</v>
@@ -8843,8 +8843,8 @@
       <c r="W77" t="n">
         <v>5.0</v>
       </c>
-      <c r="X77" t="e">
-        <v>#N/A</v>
+      <c r="X77" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y77" t="e">
         <v>#N/A</v>
@@ -8855,8 +8855,8 @@
       <c r="AA77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB77" t="e">
-        <v>#N/A</v>
+      <c r="AB77" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC77" t="n">
         <v>5.0</v>
@@ -8917,8 +8917,8 @@
       <c r="L78" t="n">
         <v>5.0</v>
       </c>
-      <c r="M78" t="e">
-        <v>#N/A</v>
+      <c r="M78" t="n">
+        <v>3.0</v>
       </c>
       <c r="N78" t="n">
         <v>1.0</v>
@@ -8950,8 +8950,8 @@
       <c r="W78" t="n">
         <v>5.0</v>
       </c>
-      <c r="X78" t="e">
-        <v>#N/A</v>
+      <c r="X78" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y78" t="e">
         <v>#N/A</v>
@@ -8962,8 +8962,8 @@
       <c r="AA78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB78" t="e">
-        <v>#N/A</v>
+      <c r="AB78" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC78" t="n">
         <v>5.0</v>
@@ -8978,13 +8978,13 @@
         <v>5.0</v>
       </c>
       <c r="AG78" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH78" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI78" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79">
@@ -9024,8 +9024,8 @@
       <c r="L79" t="n">
         <v>5.0</v>
       </c>
-      <c r="M79" t="e">
-        <v>#N/A</v>
+      <c r="M79" t="n">
+        <v>5.0</v>
       </c>
       <c r="N79" t="n">
         <v>5.0</v>
@@ -9057,8 +9057,8 @@
       <c r="W79" t="n">
         <v>5.0</v>
       </c>
-      <c r="X79" t="e">
-        <v>#N/A</v>
+      <c r="X79" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y79" t="e">
         <v>#N/A</v>
@@ -9069,8 +9069,8 @@
       <c r="AA79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB79" t="e">
-        <v>#N/A</v>
+      <c r="AB79" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC79" t="n">
         <v>5.0</v>
@@ -9085,13 +9085,13 @@
         <v>5.0</v>
       </c>
       <c r="AG79" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH79" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI79" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80">
@@ -9131,8 +9131,8 @@
       <c r="L80" t="n">
         <v>5.0</v>
       </c>
-      <c r="M80" t="e">
-        <v>#N/A</v>
+      <c r="M80" t="n">
+        <v>1.0</v>
       </c>
       <c r="N80" t="n">
         <v>5.0</v>
@@ -9164,8 +9164,8 @@
       <c r="W80" t="n">
         <v>5.0</v>
       </c>
-      <c r="X80" t="e">
-        <v>#N/A</v>
+      <c r="X80" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y80" t="e">
         <v>#N/A</v>
@@ -9176,8 +9176,8 @@
       <c r="AA80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB80" t="e">
-        <v>#N/A</v>
+      <c r="AB80" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC80" t="n">
         <v>5.0</v>
@@ -9192,13 +9192,13 @@
         <v>5.0</v>
       </c>
       <c r="AG80" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH80" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI80" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="81">
@@ -9238,8 +9238,8 @@
       <c r="L81" t="n">
         <v>5.0</v>
       </c>
-      <c r="M81" t="e">
-        <v>#N/A</v>
+      <c r="M81" t="n">
+        <v>1.0</v>
       </c>
       <c r="N81" t="n">
         <v>5.0</v>
@@ -9271,8 +9271,8 @@
       <c r="W81" t="n">
         <v>5.0</v>
       </c>
-      <c r="X81" t="e">
-        <v>#N/A</v>
+      <c r="X81" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y81" t="e">
         <v>#N/A</v>
@@ -9283,8 +9283,8 @@
       <c r="AA81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB81" t="e">
-        <v>#N/A</v>
+      <c r="AB81" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC81" t="n">
         <v>5.0</v>
@@ -9299,13 +9299,13 @@
         <v>5.0</v>
       </c>
       <c r="AG81" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH81" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI81" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="82">
@@ -9345,8 +9345,8 @@
       <c r="L82" t="n">
         <v>5.0</v>
       </c>
-      <c r="M82" t="e">
-        <v>#N/A</v>
+      <c r="M82" t="n">
+        <v>1.0</v>
       </c>
       <c r="N82" t="n">
         <v>5.0</v>
@@ -9378,8 +9378,8 @@
       <c r="W82" t="n">
         <v>5.0</v>
       </c>
-      <c r="X82" t="e">
-        <v>#N/A</v>
+      <c r="X82" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y82" t="e">
         <v>#N/A</v>
@@ -9390,8 +9390,8 @@
       <c r="AA82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB82" t="e">
-        <v>#N/A</v>
+      <c r="AB82" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC82" t="n">
         <v>5.0</v>
@@ -9406,13 +9406,13 @@
         <v>5.0</v>
       </c>
       <c r="AG82" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH82" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI82" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="83">
@@ -9452,8 +9452,8 @@
       <c r="L83" t="n">
         <v>5.0</v>
       </c>
-      <c r="M83" t="e">
-        <v>#N/A</v>
+      <c r="M83" t="n">
+        <v>1.0</v>
       </c>
       <c r="N83" t="n">
         <v>5.0</v>
@@ -9485,8 +9485,8 @@
       <c r="W83" t="n">
         <v>5.0</v>
       </c>
-      <c r="X83" t="e">
-        <v>#N/A</v>
+      <c r="X83" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y83" t="e">
         <v>#N/A</v>
@@ -9497,8 +9497,8 @@
       <c r="AA83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB83" t="e">
-        <v>#N/A</v>
+      <c r="AB83" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC83" t="n">
         <v>5.0</v>
@@ -9513,13 +9513,13 @@
         <v>5.0</v>
       </c>
       <c r="AG83" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH83" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI83" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="84">
@@ -9559,8 +9559,8 @@
       <c r="L84" t="n">
         <v>5.0</v>
       </c>
-      <c r="M84" t="e">
-        <v>#N/A</v>
+      <c r="M84" t="n">
+        <v>1.0</v>
       </c>
       <c r="N84" t="n">
         <v>5.0</v>
@@ -9592,8 +9592,8 @@
       <c r="W84" t="n">
         <v>5.0</v>
       </c>
-      <c r="X84" t="e">
-        <v>#N/A</v>
+      <c r="X84" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y84" t="e">
         <v>#N/A</v>
@@ -9604,8 +9604,8 @@
       <c r="AA84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB84" t="e">
-        <v>#N/A</v>
+      <c r="AB84" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC84" t="n">
         <v>5.0</v>
@@ -9666,8 +9666,8 @@
       <c r="L85" t="n">
         <v>5.0</v>
       </c>
-      <c r="M85" t="e">
-        <v>#N/A</v>
+      <c r="M85" t="n">
+        <v>1.0</v>
       </c>
       <c r="N85" t="n">
         <v>5.0</v>
@@ -9699,8 +9699,8 @@
       <c r="W85" t="n">
         <v>5.0</v>
       </c>
-      <c r="X85" t="e">
-        <v>#N/A</v>
+      <c r="X85" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y85" t="e">
         <v>#N/A</v>
@@ -9711,8 +9711,8 @@
       <c r="AA85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB85" t="e">
-        <v>#N/A</v>
+      <c r="AB85" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC85" t="n">
         <v>5.0</v>
@@ -9773,8 +9773,8 @@
       <c r="L86" t="n">
         <v>5.0</v>
       </c>
-      <c r="M86" t="e">
-        <v>#N/A</v>
+      <c r="M86" t="n">
+        <v>1.0</v>
       </c>
       <c r="N86" t="n">
         <v>5.0</v>
@@ -9806,8 +9806,8 @@
       <c r="W86" t="n">
         <v>5.0</v>
       </c>
-      <c r="X86" t="e">
-        <v>#N/A</v>
+      <c r="X86" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y86" t="e">
         <v>#N/A</v>
@@ -9818,8 +9818,8 @@
       <c r="AA86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB86" t="e">
-        <v>#N/A</v>
+      <c r="AB86" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC86" t="n">
         <v>5.0</v>
@@ -9880,8 +9880,8 @@
       <c r="L87" t="n">
         <v>5.0</v>
       </c>
-      <c r="M87" t="e">
-        <v>#N/A</v>
+      <c r="M87" t="n">
+        <v>5.0</v>
       </c>
       <c r="N87" t="n">
         <v>5.0</v>
@@ -9925,8 +9925,8 @@
       <c r="AA87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB87" t="e">
-        <v>#N/A</v>
+      <c r="AB87" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC87" t="n">
         <v>5.0</v>
@@ -9941,13 +9941,13 @@
         <v>5.0</v>
       </c>
       <c r="AG87" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH87" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI87" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="88">
@@ -9987,8 +9987,8 @@
       <c r="L88" t="n">
         <v>5.0</v>
       </c>
-      <c r="M88" t="e">
-        <v>#N/A</v>
+      <c r="M88" t="n">
+        <v>3.0</v>
       </c>
       <c r="N88" t="n">
         <v>5.0</v>
@@ -10032,8 +10032,8 @@
       <c r="AA88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB88" t="e">
-        <v>#N/A</v>
+      <c r="AB88" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC88" t="n">
         <v>5.0</v>
@@ -10094,8 +10094,8 @@
       <c r="L89" t="n">
         <v>5.0</v>
       </c>
-      <c r="M89" t="e">
-        <v>#N/A</v>
+      <c r="M89" t="n">
+        <v>3.0</v>
       </c>
       <c r="N89" t="n">
         <v>5.0</v>
@@ -10139,8 +10139,8 @@
       <c r="AA89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB89" t="e">
-        <v>#N/A</v>
+      <c r="AB89" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC89" t="n">
         <v>5.0</v>
@@ -10155,13 +10155,13 @@
         <v>5.0</v>
       </c>
       <c r="AG89" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH89" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI89" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
@@ -10201,8 +10201,8 @@
       <c r="L90" t="n">
         <v>5.0</v>
       </c>
-      <c r="M90" t="e">
-        <v>#N/A</v>
+      <c r="M90" t="n">
+        <v>5.0</v>
       </c>
       <c r="N90" t="n">
         <v>5.0</v>
@@ -10234,8 +10234,8 @@
       <c r="W90" t="n">
         <v>5.0</v>
       </c>
-      <c r="X90" t="e">
-        <v>#N/A</v>
+      <c r="X90" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y90" t="e">
         <v>#N/A</v>
@@ -10246,8 +10246,8 @@
       <c r="AA90" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB90" t="e">
-        <v>#N/A</v>
+      <c r="AB90" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC90" t="n">
         <v>5.0</v>
@@ -10262,13 +10262,13 @@
         <v>5.0</v>
       </c>
       <c r="AG90" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH90" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI90" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
@@ -10308,8 +10308,8 @@
       <c r="L91" t="n">
         <v>5.0</v>
       </c>
-      <c r="M91" t="e">
-        <v>#N/A</v>
+      <c r="M91" t="n">
+        <v>5.0</v>
       </c>
       <c r="N91" t="n">
         <v>5.0</v>
@@ -10341,8 +10341,8 @@
       <c r="W91" t="n">
         <v>5.0</v>
       </c>
-      <c r="X91" t="e">
-        <v>#N/A</v>
+      <c r="X91" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y91" t="e">
         <v>#N/A</v>
@@ -10353,8 +10353,8 @@
       <c r="AA91" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB91" t="e">
-        <v>#N/A</v>
+      <c r="AB91" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC91" t="n">
         <v>5.0</v>
@@ -10369,13 +10369,13 @@
         <v>5.0</v>
       </c>
       <c r="AG91" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH91" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI91" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="92">
@@ -10415,8 +10415,8 @@
       <c r="L92" t="n">
         <v>5.0</v>
       </c>
-      <c r="M92" t="e">
-        <v>#N/A</v>
+      <c r="M92" t="n">
+        <v>5.0</v>
       </c>
       <c r="N92" t="n">
         <v>5.0</v>
@@ -10460,8 +10460,8 @@
       <c r="AA92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB92" t="e">
-        <v>#N/A</v>
+      <c r="AB92" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC92" t="n">
         <v>5.0</v>
@@ -10476,13 +10476,13 @@
         <v>5.0</v>
       </c>
       <c r="AG92" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH92" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI92" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="93">
@@ -10522,8 +10522,8 @@
       <c r="L93" t="n">
         <v>5.0</v>
       </c>
-      <c r="M93" t="e">
-        <v>#N/A</v>
+      <c r="M93" t="n">
+        <v>5.0</v>
       </c>
       <c r="N93" t="n">
         <v>5.0</v>
@@ -10555,8 +10555,8 @@
       <c r="W93" t="n">
         <v>5.0</v>
       </c>
-      <c r="X93" t="e">
-        <v>#N/A</v>
+      <c r="X93" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y93" t="e">
         <v>#N/A</v>
@@ -10567,8 +10567,8 @@
       <c r="AA93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB93" t="e">
-        <v>#N/A</v>
+      <c r="AB93" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC93" t="n">
         <v>5.0</v>
@@ -10583,13 +10583,13 @@
         <v>5.0</v>
       </c>
       <c r="AG93" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH93" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI93" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
@@ -10629,8 +10629,8 @@
       <c r="L94" t="n">
         <v>5.0</v>
       </c>
-      <c r="M94" t="e">
-        <v>#N/A</v>
+      <c r="M94" t="n">
+        <v>3.0</v>
       </c>
       <c r="N94" t="n">
         <v>5.0</v>
@@ -10674,8 +10674,8 @@
       <c r="AA94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB94" t="e">
-        <v>#N/A</v>
+      <c r="AB94" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC94" t="n">
         <v>5.0</v>
@@ -10690,13 +10690,13 @@
         <v>5.0</v>
       </c>
       <c r="AG94" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH94" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI94" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="95">
@@ -10736,8 +10736,8 @@
       <c r="L95" t="n">
         <v>5.0</v>
       </c>
-      <c r="M95" t="e">
-        <v>#N/A</v>
+      <c r="M95" t="n">
+        <v>5.0</v>
       </c>
       <c r="N95" t="n">
         <v>5.0</v>
@@ -10769,8 +10769,8 @@
       <c r="W95" t="n">
         <v>5.0</v>
       </c>
-      <c r="X95" t="e">
-        <v>#N/A</v>
+      <c r="X95" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y95" t="e">
         <v>#N/A</v>
@@ -10781,8 +10781,8 @@
       <c r="AA95" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB95" t="e">
-        <v>#N/A</v>
+      <c r="AB95" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC95" t="n">
         <v>5.0</v>
@@ -10797,13 +10797,13 @@
         <v>5.0</v>
       </c>
       <c r="AG95" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH95" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI95" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="96">
@@ -10843,8 +10843,8 @@
       <c r="L96" t="n">
         <v>5.0</v>
       </c>
-      <c r="M96" t="e">
-        <v>#N/A</v>
+      <c r="M96" t="n">
+        <v>3.0</v>
       </c>
       <c r="N96" t="n">
         <v>5.0</v>
@@ -10862,7 +10862,7 @@
         <v>5.0</v>
       </c>
       <c r="S96" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T96" t="n">
         <v>1.0</v>
@@ -10876,8 +10876,8 @@
       <c r="W96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X96" t="e">
-        <v>#N/A</v>
+      <c r="X96" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y96" t="e">
         <v>#N/A</v>
@@ -10888,8 +10888,8 @@
       <c r="AA96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB96" t="e">
-        <v>#N/A</v>
+      <c r="AB96" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC96" t="n">
         <v>5.0</v>
@@ -10904,13 +10904,13 @@
         <v>#N/A</v>
       </c>
       <c r="AG96" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH96" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI96" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="97">
@@ -10950,8 +10950,8 @@
       <c r="L97" t="n">
         <v>5.0</v>
       </c>
-      <c r="M97" t="e">
-        <v>#N/A</v>
+      <c r="M97" t="n">
+        <v>5.0</v>
       </c>
       <c r="N97" t="n">
         <v>5.0</v>
@@ -10983,8 +10983,8 @@
       <c r="W97" t="n">
         <v>5.0</v>
       </c>
-      <c r="X97" t="e">
-        <v>#N/A</v>
+      <c r="X97" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y97" t="e">
         <v>#N/A</v>
@@ -10995,8 +10995,8 @@
       <c r="AA97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB97" t="e">
-        <v>#N/A</v>
+      <c r="AB97" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC97" t="n">
         <v>5.0</v>
@@ -11011,13 +11011,13 @@
         <v>5.0</v>
       </c>
       <c r="AG97" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH97" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI97" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="98">
@@ -11057,8 +11057,8 @@
       <c r="L98" t="n">
         <v>5.0</v>
       </c>
-      <c r="M98" t="e">
-        <v>#N/A</v>
+      <c r="M98" t="n">
+        <v>5.0</v>
       </c>
       <c r="N98" t="n">
         <v>5.0</v>
@@ -11090,8 +11090,8 @@
       <c r="W98" t="n">
         <v>5.0</v>
       </c>
-      <c r="X98" t="e">
-        <v>#N/A</v>
+      <c r="X98" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y98" t="e">
         <v>#N/A</v>
@@ -11102,8 +11102,8 @@
       <c r="AA98" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB98" t="e">
-        <v>#N/A</v>
+      <c r="AB98" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC98" t="n">
         <v>5.0</v>
@@ -11118,13 +11118,13 @@
         <v>5.0</v>
       </c>
       <c r="AG98" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH98" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI98" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="99">
@@ -11164,8 +11164,8 @@
       <c r="L99" t="n">
         <v>5.0</v>
       </c>
-      <c r="M99" t="e">
-        <v>#N/A</v>
+      <c r="M99" t="n">
+        <v>3.0</v>
       </c>
       <c r="N99" t="n">
         <v>5.0</v>
@@ -11183,7 +11183,7 @@
         <v>5.0</v>
       </c>
       <c r="S99" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="T99" t="n">
         <v>1.0</v>
@@ -11197,8 +11197,8 @@
       <c r="W99" t="n">
         <v>5.0</v>
       </c>
-      <c r="X99" t="e">
-        <v>#N/A</v>
+      <c r="X99" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y99" t="e">
         <v>#N/A</v>
@@ -11209,8 +11209,8 @@
       <c r="AA99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB99" t="e">
-        <v>#N/A</v>
+      <c r="AB99" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC99" t="n">
         <v>5.0</v>
@@ -11225,13 +11225,13 @@
         <v>5.0</v>
       </c>
       <c r="AG99" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH99" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI99" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="100">
@@ -11271,8 +11271,8 @@
       <c r="L100" t="n">
         <v>3.0</v>
       </c>
-      <c r="M100" t="e">
-        <v>#N/A</v>
+      <c r="M100" t="n">
+        <v>5.0</v>
       </c>
       <c r="N100" t="n">
         <v>5.0</v>
@@ -11304,8 +11304,8 @@
       <c r="W100" t="n">
         <v>5.0</v>
       </c>
-      <c r="X100" t="e">
-        <v>#N/A</v>
+      <c r="X100" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y100" t="e">
         <v>#N/A</v>
@@ -11316,8 +11316,8 @@
       <c r="AA100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB100" t="e">
-        <v>#N/A</v>
+      <c r="AB100" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC100" t="n">
         <v>5.0</v>
@@ -11332,13 +11332,13 @@
         <v>5.0</v>
       </c>
       <c r="AG100" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH100" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI100" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="101">
@@ -11378,8 +11378,8 @@
       <c r="L101" t="n">
         <v>5.0</v>
       </c>
-      <c r="M101" t="e">
-        <v>#N/A</v>
+      <c r="M101" t="n">
+        <v>3.0</v>
       </c>
       <c r="N101" t="n">
         <v>5.0</v>
@@ -11397,7 +11397,7 @@
         <v>5.0</v>
       </c>
       <c r="S101" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T101" t="n">
         <v>1.0</v>
@@ -11411,8 +11411,8 @@
       <c r="W101" t="n">
         <v>5.0</v>
       </c>
-      <c r="X101" t="e">
-        <v>#N/A</v>
+      <c r="X101" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y101" t="e">
         <v>#N/A</v>
@@ -11423,8 +11423,8 @@
       <c r="AA101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB101" t="e">
-        <v>#N/A</v>
+      <c r="AB101" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC101" t="n">
         <v>5.0</v>
@@ -11439,13 +11439,13 @@
         <v>5.0</v>
       </c>
       <c r="AG101" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH101" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI101" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="102">
@@ -11485,8 +11485,8 @@
       <c r="L102" t="n">
         <v>5.0</v>
       </c>
-      <c r="M102" t="e">
-        <v>#N/A</v>
+      <c r="M102" t="n">
+        <v>3.0</v>
       </c>
       <c r="N102" t="n">
         <v>5.0</v>
@@ -11518,8 +11518,8 @@
       <c r="W102" t="n">
         <v>5.0</v>
       </c>
-      <c r="X102" t="e">
-        <v>#N/A</v>
+      <c r="X102" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y102" t="e">
         <v>#N/A</v>
@@ -11530,8 +11530,8 @@
       <c r="AA102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB102" t="e">
-        <v>#N/A</v>
+      <c r="AB102" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC102" t="n">
         <v>5.0</v>
@@ -11546,13 +11546,13 @@
         <v>5.0</v>
       </c>
       <c r="AG102" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH102" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI102" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="103">
@@ -11592,8 +11592,8 @@
       <c r="L103" t="n">
         <v>5.0</v>
       </c>
-      <c r="M103" t="e">
-        <v>#N/A</v>
+      <c r="M103" t="n">
+        <v>3.0</v>
       </c>
       <c r="N103" t="n">
         <v>5.0</v>
@@ -11625,8 +11625,8 @@
       <c r="W103" t="n">
         <v>5.0</v>
       </c>
-      <c r="X103" t="e">
-        <v>#N/A</v>
+      <c r="X103" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y103" t="e">
         <v>#N/A</v>
@@ -11637,8 +11637,8 @@
       <c r="AA103" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB103" t="e">
-        <v>#N/A</v>
+      <c r="AB103" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC103" t="n">
         <v>5.0</v>
@@ -11653,13 +11653,13 @@
         <v>5.0</v>
       </c>
       <c r="AG103" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH103" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI103" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="104">
@@ -11699,8 +11699,8 @@
       <c r="L104" t="n">
         <v>5.0</v>
       </c>
-      <c r="M104" t="e">
-        <v>#N/A</v>
+      <c r="M104" t="n">
+        <v>3.0</v>
       </c>
       <c r="N104" t="n">
         <v>5.0</v>
@@ -11732,8 +11732,8 @@
       <c r="W104" t="n">
         <v>5.0</v>
       </c>
-      <c r="X104" t="e">
-        <v>#N/A</v>
+      <c r="X104" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y104" t="e">
         <v>#N/A</v>
@@ -11744,8 +11744,8 @@
       <c r="AA104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB104" t="e">
-        <v>#N/A</v>
+      <c r="AB104" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC104" t="n">
         <v>5.0</v>
@@ -11760,13 +11760,13 @@
         <v>5.0</v>
       </c>
       <c r="AG104" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH104" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI104" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="105">
@@ -11806,8 +11806,8 @@
       <c r="L105" t="n">
         <v>5.0</v>
       </c>
-      <c r="M105" t="e">
-        <v>#N/A</v>
+      <c r="M105" t="n">
+        <v>3.0</v>
       </c>
       <c r="N105" t="n">
         <v>5.0</v>
@@ -11839,8 +11839,8 @@
       <c r="W105" t="n">
         <v>5.0</v>
       </c>
-      <c r="X105" t="e">
-        <v>#N/A</v>
+      <c r="X105" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y105" t="e">
         <v>#N/A</v>
@@ -11851,8 +11851,8 @@
       <c r="AA105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB105" t="e">
-        <v>#N/A</v>
+      <c r="AB105" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC105" t="n">
         <v>5.0</v>
@@ -11867,13 +11867,13 @@
         <v>5.0</v>
       </c>
       <c r="AG105" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH105" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI105" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="106">
@@ -11913,8 +11913,8 @@
       <c r="L106" t="n">
         <v>5.0</v>
       </c>
-      <c r="M106" t="e">
-        <v>#N/A</v>
+      <c r="M106" t="n">
+        <v>3.0</v>
       </c>
       <c r="N106" t="n">
         <v>5.0</v>
@@ -11946,8 +11946,8 @@
       <c r="W106" t="n">
         <v>5.0</v>
       </c>
-      <c r="X106" t="e">
-        <v>#N/A</v>
+      <c r="X106" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y106" t="e">
         <v>#N/A</v>
@@ -11958,8 +11958,8 @@
       <c r="AA106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB106" t="e">
-        <v>#N/A</v>
+      <c r="AB106" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC106" t="n">
         <v>5.0</v>
@@ -11974,13 +11974,13 @@
         <v>5.0</v>
       </c>
       <c r="AG106" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH106" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI106" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="107">
@@ -12020,8 +12020,8 @@
       <c r="L107" t="n">
         <v>5.0</v>
       </c>
-      <c r="M107" t="e">
-        <v>#N/A</v>
+      <c r="M107" t="n">
+        <v>3.0</v>
       </c>
       <c r="N107" t="n">
         <v>5.0</v>
@@ -12053,8 +12053,8 @@
       <c r="W107" t="n">
         <v>5.0</v>
       </c>
-      <c r="X107" t="e">
-        <v>#N/A</v>
+      <c r="X107" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y107" t="e">
         <v>#N/A</v>
@@ -12065,8 +12065,8 @@
       <c r="AA107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB107" t="e">
-        <v>#N/A</v>
+      <c r="AB107" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC107" t="n">
         <v>5.0</v>
@@ -12081,13 +12081,13 @@
         <v>5.0</v>
       </c>
       <c r="AG107" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH107" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI107" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
@@ -12127,8 +12127,8 @@
       <c r="L108" t="n">
         <v>5.0</v>
       </c>
-      <c r="M108" t="e">
-        <v>#N/A</v>
+      <c r="M108" t="n">
+        <v>1.0</v>
       </c>
       <c r="N108" t="n">
         <v>5.0</v>
@@ -12172,8 +12172,8 @@
       <c r="AA108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB108" t="e">
-        <v>#N/A</v>
+      <c r="AB108" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC108" t="n">
         <v>5.0</v>
@@ -12188,13 +12188,13 @@
         <v>5.0</v>
       </c>
       <c r="AG108" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH108" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI108" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="109">
@@ -12234,8 +12234,8 @@
       <c r="L109" t="n">
         <v>5.0</v>
       </c>
-      <c r="M109" t="e">
-        <v>#N/A</v>
+      <c r="M109" t="n">
+        <v>1.0</v>
       </c>
       <c r="N109" t="n">
         <v>1.0</v>
@@ -12279,8 +12279,8 @@
       <c r="AA109" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB109" t="e">
-        <v>#N/A</v>
+      <c r="AB109" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC109" t="n">
         <v>5.0</v>
@@ -12341,8 +12341,8 @@
       <c r="L110" t="n">
         <v>1.0</v>
       </c>
-      <c r="M110" t="e">
-        <v>#N/A</v>
+      <c r="M110" t="n">
+        <v>3.0</v>
       </c>
       <c r="N110" t="n">
         <v>5.0</v>
@@ -12374,8 +12374,8 @@
       <c r="W110" t="n">
         <v>5.0</v>
       </c>
-      <c r="X110" t="e">
-        <v>#N/A</v>
+      <c r="X110" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y110" t="e">
         <v>#N/A</v>
@@ -12386,8 +12386,8 @@
       <c r="AA110" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB110" t="e">
-        <v>#N/A</v>
+      <c r="AB110" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC110" t="n">
         <v>5.0</v>
@@ -12402,13 +12402,13 @@
         <v>5.0</v>
       </c>
       <c r="AG110" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH110" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI110" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="111">
@@ -12448,8 +12448,8 @@
       <c r="L111" t="n">
         <v>5.0</v>
       </c>
-      <c r="M111" t="e">
-        <v>#N/A</v>
+      <c r="M111" t="n">
+        <v>1.0</v>
       </c>
       <c r="N111" t="n">
         <v>5.0</v>
@@ -12481,8 +12481,8 @@
       <c r="W111" t="n">
         <v>5.0</v>
       </c>
-      <c r="X111" t="e">
-        <v>#N/A</v>
+      <c r="X111" t="n">
+        <v>1.0</v>
       </c>
       <c r="Y111" t="e">
         <v>#N/A</v>
@@ -12493,8 +12493,8 @@
       <c r="AA111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB111" t="e">
-        <v>#N/A</v>
+      <c r="AB111" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC111" t="n">
         <v>5.0</v>
@@ -12555,8 +12555,8 @@
       <c r="L112" t="n">
         <v>5.0</v>
       </c>
-      <c r="M112" t="e">
-        <v>#N/A</v>
+      <c r="M112" t="n">
+        <v>3.0</v>
       </c>
       <c r="N112" t="n">
         <v>5.0</v>
@@ -12588,8 +12588,8 @@
       <c r="W112" t="n">
         <v>5.0</v>
       </c>
-      <c r="X112" t="e">
-        <v>#N/A</v>
+      <c r="X112" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y112" t="e">
         <v>#N/A</v>
@@ -12600,8 +12600,8 @@
       <c r="AA112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB112" t="e">
-        <v>#N/A</v>
+      <c r="AB112" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC112" t="n">
         <v>5.0</v>
@@ -12662,8 +12662,8 @@
       <c r="L113" t="n">
         <v>5.0</v>
       </c>
-      <c r="M113" t="e">
-        <v>#N/A</v>
+      <c r="M113" t="n">
+        <v>3.0</v>
       </c>
       <c r="N113" t="n">
         <v>5.0</v>
@@ -12695,8 +12695,8 @@
       <c r="W113" t="n">
         <v>5.0</v>
       </c>
-      <c r="X113" t="e">
-        <v>#N/A</v>
+      <c r="X113" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y113" t="e">
         <v>#N/A</v>
@@ -12707,8 +12707,8 @@
       <c r="AA113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB113" t="e">
-        <v>#N/A</v>
+      <c r="AB113" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC113" t="n">
         <v>5.0</v>
@@ -12723,13 +12723,13 @@
         <v>5.0</v>
       </c>
       <c r="AG113" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH113" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI113" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
@@ -12769,11 +12769,11 @@
       <c r="L114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M114" t="e">
-        <v>#N/A</v>
+      <c r="M114" t="n">
+        <v>1.0</v>
       </c>
       <c r="N114" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O114" t="e">
         <v>#N/A</v>
@@ -12793,8 +12793,8 @@
       <c r="T114" t="n">
         <v>1.0</v>
       </c>
-      <c r="U114" t="e">
-        <v>#N/A</v>
+      <c r="U114" t="n">
+        <v>5.0</v>
       </c>
       <c r="V114" t="n">
         <v>5.0</v>
@@ -12802,8 +12802,8 @@
       <c r="W114" t="n">
         <v>5.0</v>
       </c>
-      <c r="X114" t="e">
-        <v>#N/A</v>
+      <c r="X114" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y114" t="e">
         <v>#N/A</v>
@@ -12814,11 +12814,11 @@
       <c r="AA114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AC114" t="e">
-        <v>#N/A</v>
+      <c r="AB114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>5.0</v>
       </c>
       <c r="AD114" t="n">
         <v>1.0</v>
@@ -12830,13 +12830,13 @@
         <v>5.0</v>
       </c>
       <c r="AG114" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH114" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI114" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="115">
@@ -12876,8 +12876,8 @@
       <c r="L115" t="n">
         <v>3.0</v>
       </c>
-      <c r="M115" t="e">
-        <v>#N/A</v>
+      <c r="M115" t="n">
+        <v>1.0</v>
       </c>
       <c r="N115" t="n">
         <v>5.0</v>
@@ -12895,7 +12895,7 @@
         <v>5.0</v>
       </c>
       <c r="S115" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T115" t="n">
         <v>1.0</v>
@@ -12909,8 +12909,8 @@
       <c r="W115" t="n">
         <v>5.0</v>
       </c>
-      <c r="X115" t="e">
-        <v>#N/A</v>
+      <c r="X115" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y115" t="e">
         <v>#N/A</v>
@@ -12921,8 +12921,8 @@
       <c r="AA115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB115" t="e">
-        <v>#N/A</v>
+      <c r="AB115" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC115" t="n">
         <v>5.0</v>
@@ -12937,13 +12937,13 @@
         <v>5.0</v>
       </c>
       <c r="AG115" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH115" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI115" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="116">
@@ -12983,8 +12983,8 @@
       <c r="L116" t="n">
         <v>5.0</v>
       </c>
-      <c r="M116" t="e">
-        <v>#N/A</v>
+      <c r="M116" t="n">
+        <v>1.0</v>
       </c>
       <c r="N116" t="n">
         <v>5.0</v>
@@ -13016,8 +13016,8 @@
       <c r="W116" t="n">
         <v>5.0</v>
       </c>
-      <c r="X116" t="e">
-        <v>#N/A</v>
+      <c r="X116" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y116" t="e">
         <v>#N/A</v>
@@ -13028,8 +13028,8 @@
       <c r="AA116" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB116" t="e">
-        <v>#N/A</v>
+      <c r="AB116" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC116" t="n">
         <v>5.0</v>
@@ -13090,8 +13090,8 @@
       <c r="L117" t="n">
         <v>5.0</v>
       </c>
-      <c r="M117" t="e">
-        <v>#N/A</v>
+      <c r="M117" t="n">
+        <v>1.0</v>
       </c>
       <c r="N117" t="n">
         <v>5.0</v>
@@ -13123,8 +13123,8 @@
       <c r="W117" t="n">
         <v>5.0</v>
       </c>
-      <c r="X117" t="e">
-        <v>#N/A</v>
+      <c r="X117" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y117" t="e">
         <v>#N/A</v>
@@ -13135,8 +13135,8 @@
       <c r="AA117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB117" t="e">
-        <v>#N/A</v>
+      <c r="AB117" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC117" t="n">
         <v>5.0</v>
@@ -13197,11 +13197,11 @@
       <c r="L118" t="n">
         <v>5.0</v>
       </c>
-      <c r="M118" t="e">
-        <v>#N/A</v>
+      <c r="M118" t="n">
+        <v>3.0</v>
       </c>
       <c r="N118" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O118" t="e">
         <v>#N/A</v>
@@ -13230,8 +13230,8 @@
       <c r="W118" t="n">
         <v>5.0</v>
       </c>
-      <c r="X118" t="e">
-        <v>#N/A</v>
+      <c r="X118" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y118" t="e">
         <v>#N/A</v>
@@ -13242,8 +13242,8 @@
       <c r="AA118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB118" t="e">
-        <v>#N/A</v>
+      <c r="AB118" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC118" t="n">
         <v>5.0</v>
@@ -13258,13 +13258,13 @@
         <v>5.0</v>
       </c>
       <c r="AG118" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH118" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI118" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="119">
@@ -13304,11 +13304,11 @@
       <c r="L119" t="n">
         <v>5.0</v>
       </c>
-      <c r="M119" t="e">
-        <v>#N/A</v>
+      <c r="M119" t="n">
+        <v>3.0</v>
       </c>
       <c r="N119" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O119" t="e">
         <v>#N/A</v>
@@ -13337,8 +13337,8 @@
       <c r="W119" t="n">
         <v>5.0</v>
       </c>
-      <c r="X119" t="e">
-        <v>#N/A</v>
+      <c r="X119" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y119" t="e">
         <v>#N/A</v>
@@ -13349,8 +13349,8 @@
       <c r="AA119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB119" t="e">
-        <v>#N/A</v>
+      <c r="AB119" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC119" t="n">
         <v>5.0</v>
@@ -13365,13 +13365,13 @@
         <v>5.0</v>
       </c>
       <c r="AG119" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH119" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI119" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="120">
@@ -13411,8 +13411,8 @@
       <c r="L120" t="n">
         <v>5.0</v>
       </c>
-      <c r="M120" t="e">
-        <v>#N/A</v>
+      <c r="M120" t="n">
+        <v>1.0</v>
       </c>
       <c r="N120" t="n">
         <v>5.0</v>
@@ -13430,7 +13430,7 @@
         <v>5.0</v>
       </c>
       <c r="S120" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="T120" t="n">
         <v>3.0</v>
@@ -13444,8 +13444,8 @@
       <c r="W120" t="n">
         <v>5.0</v>
       </c>
-      <c r="X120" t="e">
-        <v>#N/A</v>
+      <c r="X120" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y120" t="e">
         <v>#N/A</v>
@@ -13456,8 +13456,8 @@
       <c r="AA120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB120" t="e">
-        <v>#N/A</v>
+      <c r="AB120" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC120" t="n">
         <v>5.0</v>
@@ -13518,11 +13518,11 @@
       <c r="L121" t="n">
         <v>5.0</v>
       </c>
-      <c r="M121" t="e">
-        <v>#N/A</v>
+      <c r="M121" t="n">
+        <v>1.0</v>
       </c>
       <c r="N121" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="O121" t="e">
         <v>#N/A</v>
@@ -13551,8 +13551,8 @@
       <c r="W121" t="n">
         <v>5.0</v>
       </c>
-      <c r="X121" t="e">
-        <v>#N/A</v>
+      <c r="X121" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y121" t="e">
         <v>#N/A</v>
@@ -13563,8 +13563,8 @@
       <c r="AA121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB121" t="e">
-        <v>#N/A</v>
+      <c r="AB121" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC121" t="n">
         <v>5.0</v>
@@ -13579,13 +13579,13 @@
         <v>5.0</v>
       </c>
       <c r="AG121" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH121" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI121" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
@@ -13625,8 +13625,8 @@
       <c r="L122" t="n">
         <v>5.0</v>
       </c>
-      <c r="M122" t="e">
-        <v>#N/A</v>
+      <c r="M122" t="n">
+        <v>1.0</v>
       </c>
       <c r="N122" t="n">
         <v>5.0</v>
@@ -13670,8 +13670,8 @@
       <c r="AA122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB122" t="e">
-        <v>#N/A</v>
+      <c r="AB122" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC122" t="n">
         <v>5.0</v>
@@ -13686,13 +13686,13 @@
         <v>5.0</v>
       </c>
       <c r="AG122" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH122" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI122" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="123">
@@ -13732,8 +13732,8 @@
       <c r="L123" t="n">
         <v>5.0</v>
       </c>
-      <c r="M123" t="e">
-        <v>#N/A</v>
+      <c r="M123" t="n">
+        <v>1.0</v>
       </c>
       <c r="N123" t="n">
         <v>5.0</v>
@@ -13777,8 +13777,8 @@
       <c r="AA123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB123" t="e">
-        <v>#N/A</v>
+      <c r="AB123" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC123" t="n">
         <v>5.0</v>
@@ -13793,13 +13793,13 @@
         <v>5.0</v>
       </c>
       <c r="AG123" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH123" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI123" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -13839,8 +13839,8 @@
       <c r="L124" t="n">
         <v>5.0</v>
       </c>
-      <c r="M124" t="e">
-        <v>#N/A</v>
+      <c r="M124" t="n">
+        <v>1.0</v>
       </c>
       <c r="N124" t="n">
         <v>5.0</v>
@@ -13872,8 +13872,8 @@
       <c r="W124" t="n">
         <v>5.0</v>
       </c>
-      <c r="X124" t="e">
-        <v>#N/A</v>
+      <c r="X124" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y124" t="e">
         <v>#N/A</v>
@@ -13884,8 +13884,8 @@
       <c r="AA124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB124" t="e">
-        <v>#N/A</v>
+      <c r="AB124" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC124" t="n">
         <v>5.0</v>
@@ -13900,13 +13900,13 @@
         <v>5.0</v>
       </c>
       <c r="AG124" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AH124" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="AI124" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
@@ -13946,8 +13946,8 @@
       <c r="L125" t="n">
         <v>5.0</v>
       </c>
-      <c r="M125" t="e">
-        <v>#N/A</v>
+      <c r="M125" t="n">
+        <v>1.0</v>
       </c>
       <c r="N125" t="n">
         <v>5.0</v>
@@ -13991,8 +13991,8 @@
       <c r="AA125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB125" t="e">
-        <v>#N/A</v>
+      <c r="AB125" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC125" t="n">
         <v>5.0</v>
@@ -14053,8 +14053,8 @@
       <c r="L126" t="n">
         <v>5.0</v>
       </c>
-      <c r="M126" t="e">
-        <v>#N/A</v>
+      <c r="M126" t="n">
+        <v>1.0</v>
       </c>
       <c r="N126" t="n">
         <v>5.0</v>
@@ -14098,8 +14098,8 @@
       <c r="AA126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB126" t="e">
-        <v>#N/A</v>
+      <c r="AB126" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC126" t="n">
         <v>5.0</v>
@@ -14160,8 +14160,8 @@
       <c r="L127" t="n">
         <v>5.0</v>
       </c>
-      <c r="M127" t="e">
-        <v>#N/A</v>
+      <c r="M127" t="n">
+        <v>1.0</v>
       </c>
       <c r="N127" t="n">
         <v>5.0</v>
@@ -14205,8 +14205,8 @@
       <c r="AA127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB127" t="e">
-        <v>#N/A</v>
+      <c r="AB127" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC127" t="n">
         <v>5.0</v>
@@ -14267,8 +14267,8 @@
       <c r="L128" t="n">
         <v>5.0</v>
       </c>
-      <c r="M128" t="e">
-        <v>#N/A</v>
+      <c r="M128" t="n">
+        <v>1.0</v>
       </c>
       <c r="N128" t="n">
         <v>5.0</v>
@@ -14300,8 +14300,8 @@
       <c r="W128" t="n">
         <v>5.0</v>
       </c>
-      <c r="X128" t="e">
-        <v>#N/A</v>
+      <c r="X128" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y128" t="e">
         <v>#N/A</v>
@@ -14312,8 +14312,8 @@
       <c r="AA128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB128" t="e">
-        <v>#N/A</v>
+      <c r="AB128" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC128" t="n">
         <v>5.0</v>
@@ -14374,8 +14374,8 @@
       <c r="L129" t="n">
         <v>5.0</v>
       </c>
-      <c r="M129" t="e">
-        <v>#N/A</v>
+      <c r="M129" t="n">
+        <v>1.0</v>
       </c>
       <c r="N129" t="n">
         <v>5.0</v>
@@ -14407,8 +14407,8 @@
       <c r="W129" t="n">
         <v>5.0</v>
       </c>
-      <c r="X129" t="e">
-        <v>#N/A</v>
+      <c r="X129" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y129" t="e">
         <v>#N/A</v>
@@ -14419,8 +14419,8 @@
       <c r="AA129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="AB129" t="e">
-        <v>#N/A</v>
+      <c r="AB129" t="n">
+        <v>5.0</v>
       </c>
       <c r="AC129" t="n">
         <v>5.0</v>

--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -786,7 +786,7 @@
         <v>1.0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N2" t="n">
         <v>5.0</v>
@@ -824,8 +824,8 @@
       <c r="Y2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z2" t="e">
-        <v>#N/A</v>
+      <c r="Z2" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA2" t="e">
         <v>#N/A</v>
@@ -893,7 +893,7 @@
         <v>5.0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="N3" t="n">
         <v>5.0</v>
@@ -931,8 +931,8 @@
       <c r="Y3" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z3" t="e">
-        <v>#N/A</v>
+      <c r="Z3" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA3" t="e">
         <v>#N/A</v>
@@ -1000,7 +1000,7 @@
         <v>3.0</v>
       </c>
       <c r="M4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N4" t="n">
         <v>5.0</v>
@@ -1038,8 +1038,8 @@
       <c r="Y4" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z4" t="e">
-        <v>#N/A</v>
+      <c r="Z4" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA4" t="e">
         <v>#N/A</v>
@@ -1145,8 +1145,8 @@
       <c r="Y5" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z5" t="e">
-        <v>#N/A</v>
+      <c r="Z5" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA5" t="e">
         <v>#N/A</v>
@@ -1214,7 +1214,7 @@
         <v>5.0</v>
       </c>
       <c r="M6" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N6" t="n">
         <v>5.0</v>
@@ -1252,8 +1252,8 @@
       <c r="Y6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z6" t="e">
-        <v>#N/A</v>
+      <c r="Z6" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA6" t="e">
         <v>#N/A</v>
@@ -1359,8 +1359,8 @@
       <c r="Y7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z7" t="e">
-        <v>#N/A</v>
+      <c r="Z7" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA7" t="e">
         <v>#N/A</v>
@@ -1428,7 +1428,7 @@
         <v>5.0</v>
       </c>
       <c r="M8" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N8" t="n">
         <v>5.0</v>
@@ -1466,8 +1466,8 @@
       <c r="Y8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z8" t="e">
-        <v>#N/A</v>
+      <c r="Z8" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA8" t="e">
         <v>#N/A</v>
@@ -1535,7 +1535,7 @@
         <v>5.0</v>
       </c>
       <c r="M9" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N9" t="n">
         <v>5.0</v>
@@ -1573,8 +1573,8 @@
       <c r="Y9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z9" t="e">
-        <v>#N/A</v>
+      <c r="Z9" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA9" t="e">
         <v>#N/A</v>
@@ -1642,7 +1642,7 @@
         <v>3.0</v>
       </c>
       <c r="M10" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N10" t="n">
         <v>5.0</v>
@@ -1680,8 +1680,8 @@
       <c r="Y10" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z10" t="e">
-        <v>#N/A</v>
+      <c r="Z10" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA10" t="e">
         <v>#N/A</v>
@@ -1749,7 +1749,7 @@
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N11" t="n">
         <v>5.0</v>
@@ -1787,8 +1787,8 @@
       <c r="Y11" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z11" t="e">
-        <v>#N/A</v>
+      <c r="Z11" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA11" t="e">
         <v>#N/A</v>
@@ -1856,7 +1856,7 @@
         <v>1.0</v>
       </c>
       <c r="M12" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N12" t="n">
         <v>5.0</v>
@@ -1894,8 +1894,8 @@
       <c r="Y12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z12" t="e">
-        <v>#N/A</v>
+      <c r="Z12" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA12" t="e">
         <v>#N/A</v>
@@ -1963,7 +1963,7 @@
         <v>1.0</v>
       </c>
       <c r="M13" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N13" t="n">
         <v>5.0</v>
@@ -2001,8 +2001,8 @@
       <c r="Y13" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z13" t="e">
-        <v>#N/A</v>
+      <c r="Z13" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA13" t="e">
         <v>#N/A</v>
@@ -2108,8 +2108,8 @@
       <c r="Y14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z14" t="e">
-        <v>#N/A</v>
+      <c r="Z14" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA14" t="e">
         <v>#N/A</v>
@@ -2215,8 +2215,8 @@
       <c r="Y15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z15" t="e">
-        <v>#N/A</v>
+      <c r="Z15" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA15" t="e">
         <v>#N/A</v>
@@ -2322,8 +2322,8 @@
       <c r="Y16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z16" t="e">
-        <v>#N/A</v>
+      <c r="Z16" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA16" t="e">
         <v>#N/A</v>
@@ -2429,8 +2429,8 @@
       <c r="Y17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z17" t="e">
-        <v>#N/A</v>
+      <c r="Z17" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA17" t="e">
         <v>#N/A</v>
@@ -2536,8 +2536,8 @@
       <c r="Y18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z18" t="e">
-        <v>#N/A</v>
+      <c r="Z18" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA18" t="e">
         <v>#N/A</v>
@@ -2643,8 +2643,8 @@
       <c r="Y19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z19" t="e">
-        <v>#N/A</v>
+      <c r="Z19" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA19" t="e">
         <v>#N/A</v>
@@ -2750,8 +2750,8 @@
       <c r="Y20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z20" t="e">
-        <v>#N/A</v>
+      <c r="Z20" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA20" t="e">
         <v>#N/A</v>
@@ -2819,7 +2819,7 @@
         <v>1.0</v>
       </c>
       <c r="M21" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N21" t="n">
         <v>5.0</v>
@@ -2857,8 +2857,8 @@
       <c r="Y21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z21" t="e">
-        <v>#N/A</v>
+      <c r="Z21" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA21" t="e">
         <v>#N/A</v>
@@ -2926,7 +2926,7 @@
         <v>5.0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N22" t="n">
         <v>5.0</v>
@@ -2964,8 +2964,8 @@
       <c r="Y22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z22" t="e">
-        <v>#N/A</v>
+      <c r="Z22" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA22" t="e">
         <v>#N/A</v>
@@ -3033,7 +3033,7 @@
         <v>5.0</v>
       </c>
       <c r="M23" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N23" t="n">
         <v>5.0</v>
@@ -3071,8 +3071,8 @@
       <c r="Y23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z23" t="e">
-        <v>#N/A</v>
+      <c r="Z23" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA23" t="e">
         <v>#N/A</v>
@@ -3140,7 +3140,7 @@
         <v>5.0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N24" t="n">
         <v>5.0</v>
@@ -3178,8 +3178,8 @@
       <c r="Y24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z24" t="e">
-        <v>#N/A</v>
+      <c r="Z24" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA24" t="e">
         <v>#N/A</v>
@@ -3247,7 +3247,7 @@
         <v>5.0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N25" t="n">
         <v>5.0</v>
@@ -3285,8 +3285,8 @@
       <c r="Y25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z25" t="e">
-        <v>#N/A</v>
+      <c r="Z25" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA25" t="e">
         <v>#N/A</v>
@@ -3354,7 +3354,7 @@
         <v>5.0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N26" t="n">
         <v>5.0</v>
@@ -3392,8 +3392,8 @@
       <c r="Y26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z26" t="e">
-        <v>#N/A</v>
+      <c r="Z26" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA26" t="e">
         <v>#N/A</v>
@@ -3461,7 +3461,7 @@
         <v>5.0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N27" t="n">
         <v>5.0</v>
@@ -3499,8 +3499,8 @@
       <c r="Y27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z27" t="e">
-        <v>#N/A</v>
+      <c r="Z27" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA27" t="e">
         <v>#N/A</v>
@@ -3568,7 +3568,7 @@
         <v>5.0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N28" t="n">
         <v>5.0</v>
@@ -3606,8 +3606,8 @@
       <c r="Y28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z28" t="e">
-        <v>#N/A</v>
+      <c r="Z28" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA28" t="e">
         <v>#N/A</v>
@@ -3713,8 +3713,8 @@
       <c r="Y29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z29" t="e">
-        <v>#N/A</v>
+      <c r="Z29" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA29" t="e">
         <v>#N/A</v>
@@ -3820,8 +3820,8 @@
       <c r="Y30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z30" t="e">
-        <v>#N/A</v>
+      <c r="Z30" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA30" t="e">
         <v>#N/A</v>
@@ -3927,8 +3927,8 @@
       <c r="Y31" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z31" t="e">
-        <v>#N/A</v>
+      <c r="Z31" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA31" t="e">
         <v>#N/A</v>
@@ -4034,8 +4034,8 @@
       <c r="Y32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z32" t="e">
-        <v>#N/A</v>
+      <c r="Z32" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA32" t="e">
         <v>#N/A</v>
@@ -4103,7 +4103,7 @@
         <v>5.0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N33" t="n">
         <v>5.0</v>
@@ -4141,8 +4141,8 @@
       <c r="Y33" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z33" t="e">
-        <v>#N/A</v>
+      <c r="Z33" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA33" t="e">
         <v>#N/A</v>
@@ -4210,7 +4210,7 @@
         <v>5.0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N34" t="n">
         <v>5.0</v>
@@ -4248,8 +4248,8 @@
       <c r="Y34" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z34" t="e">
-        <v>#N/A</v>
+      <c r="Z34" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA34" t="e">
         <v>#N/A</v>
@@ -4355,8 +4355,8 @@
       <c r="Y35" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z35" t="e">
-        <v>#N/A</v>
+      <c r="Z35" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA35" t="e">
         <v>#N/A</v>
@@ -4462,8 +4462,8 @@
       <c r="Y36" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z36" t="e">
-        <v>#N/A</v>
+      <c r="Z36" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA36" t="e">
         <v>#N/A</v>
@@ -4569,8 +4569,8 @@
       <c r="Y37" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z37" t="e">
-        <v>#N/A</v>
+      <c r="Z37" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA37" t="e">
         <v>#N/A</v>
@@ -4638,7 +4638,7 @@
         <v>5.0</v>
       </c>
       <c r="M38" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N38" t="n">
         <v>1.0</v>
@@ -4676,8 +4676,8 @@
       <c r="Y38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z38" t="e">
-        <v>#N/A</v>
+      <c r="Z38" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA38" t="e">
         <v>#N/A</v>
@@ -4783,8 +4783,8 @@
       <c r="Y39" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z39" t="e">
-        <v>#N/A</v>
+      <c r="Z39" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA39" t="e">
         <v>#N/A</v>
@@ -4890,8 +4890,8 @@
       <c r="Y40" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z40" t="e">
-        <v>#N/A</v>
+      <c r="Z40" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA40" t="e">
         <v>#N/A</v>
@@ -4997,8 +4997,8 @@
       <c r="Y41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z41" t="e">
-        <v>#N/A</v>
+      <c r="Z41" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA41" t="e">
         <v>#N/A</v>
@@ -5066,7 +5066,7 @@
         <v>5.0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N42" t="n">
         <v>5.0</v>
@@ -5104,8 +5104,8 @@
       <c r="Y42" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z42" t="e">
-        <v>#N/A</v>
+      <c r="Z42" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA42" t="e">
         <v>#N/A</v>
@@ -5211,8 +5211,8 @@
       <c r="Y43" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z43" t="e">
-        <v>#N/A</v>
+      <c r="Z43" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA43" t="e">
         <v>#N/A</v>
@@ -5318,8 +5318,8 @@
       <c r="Y44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z44" t="e">
-        <v>#N/A</v>
+      <c r="Z44" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA44" t="e">
         <v>#N/A</v>
@@ -5425,8 +5425,8 @@
       <c r="Y45" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z45" t="e">
-        <v>#N/A</v>
+      <c r="Z45" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA45" t="e">
         <v>#N/A</v>
@@ -5532,8 +5532,8 @@
       <c r="Y46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z46" t="e">
-        <v>#N/A</v>
+      <c r="Z46" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA46" t="e">
         <v>#N/A</v>
@@ -5601,7 +5601,7 @@
         <v>1.0</v>
       </c>
       <c r="M47" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N47" t="n">
         <v>5.0</v>
@@ -5639,8 +5639,8 @@
       <c r="Y47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z47" t="e">
-        <v>#N/A</v>
+      <c r="Z47" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA47" t="e">
         <v>#N/A</v>
@@ -5746,8 +5746,8 @@
       <c r="Y48" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z48" t="e">
-        <v>#N/A</v>
+      <c r="Z48" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA48" t="e">
         <v>#N/A</v>
@@ -5853,8 +5853,8 @@
       <c r="Y49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z49" t="e">
-        <v>#N/A</v>
+      <c r="Z49" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA49" t="e">
         <v>#N/A</v>
@@ -5960,8 +5960,8 @@
       <c r="Y50" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z50" t="e">
-        <v>#N/A</v>
+      <c r="Z50" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA50" t="e">
         <v>#N/A</v>
@@ -6029,7 +6029,7 @@
         <v>3.0</v>
       </c>
       <c r="M51" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N51" t="n">
         <v>5.0</v>
@@ -6067,8 +6067,8 @@
       <c r="Y51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z51" t="e">
-        <v>#N/A</v>
+      <c r="Z51" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA51" t="e">
         <v>#N/A</v>
@@ -6174,8 +6174,8 @@
       <c r="Y52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z52" t="e">
-        <v>#N/A</v>
+      <c r="Z52" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA52" t="e">
         <v>#N/A</v>
@@ -6281,8 +6281,8 @@
       <c r="Y53" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z53" t="e">
-        <v>#N/A</v>
+      <c r="Z53" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA53" t="e">
         <v>#N/A</v>
@@ -6388,8 +6388,8 @@
       <c r="Y54" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z54" t="e">
-        <v>#N/A</v>
+      <c r="Z54" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA54" t="e">
         <v>#N/A</v>
@@ -6457,7 +6457,7 @@
         <v>3.0</v>
       </c>
       <c r="M55" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N55" t="n">
         <v>5.0</v>
@@ -6495,8 +6495,8 @@
       <c r="Y55" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z55" t="e">
-        <v>#N/A</v>
+      <c r="Z55" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA55" t="e">
         <v>#N/A</v>
@@ -6564,7 +6564,7 @@
         <v>5.0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N56" t="n">
         <v>5.0</v>
@@ -6602,8 +6602,8 @@
       <c r="Y56" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z56" t="e">
-        <v>#N/A</v>
+      <c r="Z56" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA56" t="e">
         <v>#N/A</v>
@@ -6709,8 +6709,8 @@
       <c r="Y57" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z57" t="e">
-        <v>#N/A</v>
+      <c r="Z57" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA57" t="e">
         <v>#N/A</v>
@@ -6816,8 +6816,8 @@
       <c r="Y58" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z58" t="e">
-        <v>#N/A</v>
+      <c r="Z58" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA58" t="e">
         <v>#N/A</v>
@@ -6923,8 +6923,8 @@
       <c r="Y59" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z59" t="e">
-        <v>#N/A</v>
+      <c r="Z59" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA59" t="e">
         <v>#N/A</v>
@@ -7030,8 +7030,8 @@
       <c r="Y60" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z60" t="e">
-        <v>#N/A</v>
+      <c r="Z60" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA60" t="e">
         <v>#N/A</v>
@@ -7137,8 +7137,8 @@
       <c r="Y61" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z61" t="e">
-        <v>#N/A</v>
+      <c r="Z61" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA61" t="e">
         <v>#N/A</v>
@@ -7244,8 +7244,8 @@
       <c r="Y62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z62" t="e">
-        <v>#N/A</v>
+      <c r="Z62" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA62" t="e">
         <v>#N/A</v>
@@ -7351,8 +7351,8 @@
       <c r="Y63" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z63" t="e">
-        <v>#N/A</v>
+      <c r="Z63" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA63" t="e">
         <v>#N/A</v>
@@ -7458,8 +7458,8 @@
       <c r="Y64" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z64" t="e">
-        <v>#N/A</v>
+      <c r="Z64" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA64" t="e">
         <v>#N/A</v>
@@ -7565,8 +7565,8 @@
       <c r="Y65" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z65" t="e">
-        <v>#N/A</v>
+      <c r="Z65" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA65" t="e">
         <v>#N/A</v>
@@ -7672,8 +7672,8 @@
       <c r="Y66" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z66" t="e">
-        <v>#N/A</v>
+      <c r="Z66" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA66" t="e">
         <v>#N/A</v>
@@ -7741,7 +7741,7 @@
         <v>3.0</v>
       </c>
       <c r="M67" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N67" t="n">
         <v>5.0</v>
@@ -7779,8 +7779,8 @@
       <c r="Y67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z67" t="e">
-        <v>#N/A</v>
+      <c r="Z67" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA67" t="e">
         <v>#N/A</v>
@@ -7886,8 +7886,8 @@
       <c r="Y68" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z68" t="e">
-        <v>#N/A</v>
+      <c r="Z68" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA68" t="e">
         <v>#N/A</v>
@@ -7993,8 +7993,8 @@
       <c r="Y69" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z69" t="e">
-        <v>#N/A</v>
+      <c r="Z69" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA69" t="e">
         <v>#N/A</v>
@@ -8100,8 +8100,8 @@
       <c r="Y70" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z70" t="e">
-        <v>#N/A</v>
+      <c r="Z70" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA70" t="e">
         <v>#N/A</v>
@@ -8207,8 +8207,8 @@
       <c r="Y71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z71" t="e">
-        <v>#N/A</v>
+      <c r="Z71" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA71" t="e">
         <v>#N/A</v>
@@ -8314,8 +8314,8 @@
       <c r="Y72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z72" t="e">
-        <v>#N/A</v>
+      <c r="Z72" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA72" t="e">
         <v>#N/A</v>
@@ -8421,8 +8421,8 @@
       <c r="Y73" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z73" t="e">
-        <v>#N/A</v>
+      <c r="Z73" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA73" t="e">
         <v>#N/A</v>
@@ -8528,8 +8528,8 @@
       <c r="Y74" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z74" t="e">
-        <v>#N/A</v>
+      <c r="Z74" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA74" t="e">
         <v>#N/A</v>
@@ -8635,8 +8635,8 @@
       <c r="Y75" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z75" t="e">
-        <v>#N/A</v>
+      <c r="Z75" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA75" t="e">
         <v>#N/A</v>
@@ -8704,7 +8704,7 @@
         <v>5.0</v>
       </c>
       <c r="M76" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N76" t="n">
         <v>5.0</v>
@@ -8742,8 +8742,8 @@
       <c r="Y76" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z76" t="e">
-        <v>#N/A</v>
+      <c r="Z76" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA76" t="e">
         <v>#N/A</v>
@@ -8849,8 +8849,8 @@
       <c r="Y77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z77" t="e">
-        <v>#N/A</v>
+      <c r="Z77" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA77" t="e">
         <v>#N/A</v>
@@ -8956,8 +8956,8 @@
       <c r="Y78" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z78" t="e">
-        <v>#N/A</v>
+      <c r="Z78" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA78" t="e">
         <v>#N/A</v>
@@ -9025,7 +9025,7 @@
         <v>5.0</v>
       </c>
       <c r="M79" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N79" t="n">
         <v>5.0</v>
@@ -9063,8 +9063,8 @@
       <c r="Y79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z79" t="e">
-        <v>#N/A</v>
+      <c r="Z79" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA79" t="e">
         <v>#N/A</v>
@@ -9132,7 +9132,7 @@
         <v>5.0</v>
       </c>
       <c r="M80" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N80" t="n">
         <v>5.0</v>
@@ -9170,8 +9170,8 @@
       <c r="Y80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z80" t="e">
-        <v>#N/A</v>
+      <c r="Z80" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA80" t="e">
         <v>#N/A</v>
@@ -9277,8 +9277,8 @@
       <c r="Y81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z81" t="e">
-        <v>#N/A</v>
+      <c r="Z81" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA81" t="e">
         <v>#N/A</v>
@@ -9384,8 +9384,8 @@
       <c r="Y82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z82" t="e">
-        <v>#N/A</v>
+      <c r="Z82" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA82" t="e">
         <v>#N/A</v>
@@ -9491,8 +9491,8 @@
       <c r="Y83" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z83" t="e">
-        <v>#N/A</v>
+      <c r="Z83" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA83" t="e">
         <v>#N/A</v>
@@ -9598,8 +9598,8 @@
       <c r="Y84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z84" t="e">
-        <v>#N/A</v>
+      <c r="Z84" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA84" t="e">
         <v>#N/A</v>
@@ -9667,7 +9667,7 @@
         <v>5.0</v>
       </c>
       <c r="M85" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N85" t="n">
         <v>5.0</v>
@@ -9705,8 +9705,8 @@
       <c r="Y85" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z85" t="e">
-        <v>#N/A</v>
+      <c r="Z85" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA85" t="e">
         <v>#N/A</v>
@@ -9774,7 +9774,7 @@
         <v>5.0</v>
       </c>
       <c r="M86" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N86" t="n">
         <v>5.0</v>
@@ -9812,8 +9812,8 @@
       <c r="Y86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z86" t="e">
-        <v>#N/A</v>
+      <c r="Z86" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA86" t="e">
         <v>#N/A</v>
@@ -9881,7 +9881,7 @@
         <v>5.0</v>
       </c>
       <c r="M87" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N87" t="n">
         <v>5.0</v>
@@ -9919,8 +9919,8 @@
       <c r="Y87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z87" t="e">
-        <v>#N/A</v>
+      <c r="Z87" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA87" t="e">
         <v>#N/A</v>
@@ -10026,8 +10026,8 @@
       <c r="Y88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z88" t="e">
-        <v>#N/A</v>
+      <c r="Z88" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA88" t="e">
         <v>#N/A</v>
@@ -10133,8 +10133,8 @@
       <c r="Y89" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z89" t="e">
-        <v>#N/A</v>
+      <c r="Z89" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA89" t="e">
         <v>#N/A</v>
@@ -10202,7 +10202,7 @@
         <v>5.0</v>
       </c>
       <c r="M90" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N90" t="n">
         <v>5.0</v>
@@ -10240,8 +10240,8 @@
       <c r="Y90" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z90" t="e">
-        <v>#N/A</v>
+      <c r="Z90" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA90" t="e">
         <v>#N/A</v>
@@ -10309,7 +10309,7 @@
         <v>5.0</v>
       </c>
       <c r="M91" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N91" t="n">
         <v>5.0</v>
@@ -10347,8 +10347,8 @@
       <c r="Y91" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z91" t="e">
-        <v>#N/A</v>
+      <c r="Z91" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA91" t="e">
         <v>#N/A</v>
@@ -10416,7 +10416,7 @@
         <v>5.0</v>
       </c>
       <c r="M92" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N92" t="n">
         <v>5.0</v>
@@ -10454,8 +10454,8 @@
       <c r="Y92" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z92" t="e">
-        <v>#N/A</v>
+      <c r="Z92" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA92" t="e">
         <v>#N/A</v>
@@ -10523,7 +10523,7 @@
         <v>5.0</v>
       </c>
       <c r="M93" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N93" t="n">
         <v>5.0</v>
@@ -10561,8 +10561,8 @@
       <c r="Y93" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z93" t="e">
-        <v>#N/A</v>
+      <c r="Z93" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA93" t="e">
         <v>#N/A</v>
@@ -10668,8 +10668,8 @@
       <c r="Y94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z94" t="e">
-        <v>#N/A</v>
+      <c r="Z94" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA94" t="e">
         <v>#N/A</v>
@@ -10737,7 +10737,7 @@
         <v>5.0</v>
       </c>
       <c r="M95" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N95" t="n">
         <v>5.0</v>
@@ -10775,8 +10775,8 @@
       <c r="Y95" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z95" t="e">
-        <v>#N/A</v>
+      <c r="Z95" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA95" t="e">
         <v>#N/A</v>
@@ -10882,8 +10882,8 @@
       <c r="Y96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z96" t="e">
-        <v>#N/A</v>
+      <c r="Z96" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA96" t="e">
         <v>#N/A</v>
@@ -10951,7 +10951,7 @@
         <v>5.0</v>
       </c>
       <c r="M97" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N97" t="n">
         <v>5.0</v>
@@ -10989,8 +10989,8 @@
       <c r="Y97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z97" t="e">
-        <v>#N/A</v>
+      <c r="Z97" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA97" t="e">
         <v>#N/A</v>
@@ -11058,7 +11058,7 @@
         <v>5.0</v>
       </c>
       <c r="M98" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N98" t="n">
         <v>5.0</v>
@@ -11096,8 +11096,8 @@
       <c r="Y98" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z98" t="e">
-        <v>#N/A</v>
+      <c r="Z98" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA98" t="e">
         <v>#N/A</v>
@@ -11165,7 +11165,7 @@
         <v>5.0</v>
       </c>
       <c r="M99" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="N99" t="n">
         <v>5.0</v>
@@ -11203,8 +11203,8 @@
       <c r="Y99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z99" t="e">
-        <v>#N/A</v>
+      <c r="Z99" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA99" t="e">
         <v>#N/A</v>
@@ -11272,7 +11272,7 @@
         <v>3.0</v>
       </c>
       <c r="M100" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N100" t="n">
         <v>5.0</v>
@@ -11310,8 +11310,8 @@
       <c r="Y100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z100" t="e">
-        <v>#N/A</v>
+      <c r="Z100" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA100" t="e">
         <v>#N/A</v>
@@ -11417,8 +11417,8 @@
       <c r="Y101" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z101" t="e">
-        <v>#N/A</v>
+      <c r="Z101" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA101" t="e">
         <v>#N/A</v>
@@ -11524,8 +11524,8 @@
       <c r="Y102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z102" t="e">
-        <v>#N/A</v>
+      <c r="Z102" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA102" t="e">
         <v>#N/A</v>
@@ -11631,8 +11631,8 @@
       <c r="Y103" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z103" t="e">
-        <v>#N/A</v>
+      <c r="Z103" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA103" t="e">
         <v>#N/A</v>
@@ -11738,8 +11738,8 @@
       <c r="Y104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z104" t="e">
-        <v>#N/A</v>
+      <c r="Z104" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA104" t="e">
         <v>#N/A</v>
@@ -11845,8 +11845,8 @@
       <c r="Y105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z105" t="e">
-        <v>#N/A</v>
+      <c r="Z105" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA105" t="e">
         <v>#N/A</v>
@@ -11952,8 +11952,8 @@
       <c r="Y106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z106" t="e">
-        <v>#N/A</v>
+      <c r="Z106" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA106" t="e">
         <v>#N/A</v>
@@ -12059,8 +12059,8 @@
       <c r="Y107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z107" t="e">
-        <v>#N/A</v>
+      <c r="Z107" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA107" t="e">
         <v>#N/A</v>
@@ -12166,8 +12166,8 @@
       <c r="Y108" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z108" t="e">
-        <v>#N/A</v>
+      <c r="Z108" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA108" t="e">
         <v>#N/A</v>
@@ -12273,8 +12273,8 @@
       <c r="Y109" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z109" t="e">
-        <v>#N/A</v>
+      <c r="Z109" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA109" t="e">
         <v>#N/A</v>
@@ -12380,8 +12380,8 @@
       <c r="Y110" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z110" t="e">
-        <v>#N/A</v>
+      <c r="Z110" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA110" t="e">
         <v>#N/A</v>
@@ -12487,8 +12487,8 @@
       <c r="Y111" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z111" t="e">
-        <v>#N/A</v>
+      <c r="Z111" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA111" t="e">
         <v>#N/A</v>
@@ -12594,8 +12594,8 @@
       <c r="Y112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z112" t="e">
-        <v>#N/A</v>
+      <c r="Z112" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA112" t="e">
         <v>#N/A</v>
@@ -12701,8 +12701,8 @@
       <c r="Y113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z113" t="e">
-        <v>#N/A</v>
+      <c r="Z113" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA113" t="e">
         <v>#N/A</v>
@@ -12770,7 +12770,7 @@
         <v>#N/A</v>
       </c>
       <c r="M114" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N114" t="n">
         <v>5.0</v>
@@ -12808,8 +12808,8 @@
       <c r="Y114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z114" t="e">
-        <v>#N/A</v>
+      <c r="Z114" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA114" t="e">
         <v>#N/A</v>
@@ -12877,7 +12877,7 @@
         <v>3.0</v>
       </c>
       <c r="M115" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N115" t="n">
         <v>5.0</v>
@@ -12915,8 +12915,8 @@
       <c r="Y115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z115" t="e">
-        <v>#N/A</v>
+      <c r="Z115" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA115" t="e">
         <v>#N/A</v>
@@ -12984,7 +12984,7 @@
         <v>5.0</v>
       </c>
       <c r="M116" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N116" t="n">
         <v>5.0</v>
@@ -13022,8 +13022,8 @@
       <c r="Y116" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z116" t="e">
-        <v>#N/A</v>
+      <c r="Z116" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA116" t="e">
         <v>#N/A</v>
@@ -13091,7 +13091,7 @@
         <v>5.0</v>
       </c>
       <c r="M117" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N117" t="n">
         <v>5.0</v>
@@ -13129,8 +13129,8 @@
       <c r="Y117" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z117" t="e">
-        <v>#N/A</v>
+      <c r="Z117" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA117" t="e">
         <v>#N/A</v>
@@ -13236,8 +13236,8 @@
       <c r="Y118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z118" t="e">
-        <v>#N/A</v>
+      <c r="Z118" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA118" t="e">
         <v>#N/A</v>
@@ -13343,8 +13343,8 @@
       <c r="Y119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z119" t="e">
-        <v>#N/A</v>
+      <c r="Z119" t="n">
+        <v>5.0</v>
       </c>
       <c r="AA119" t="e">
         <v>#N/A</v>
@@ -13412,7 +13412,7 @@
         <v>5.0</v>
       </c>
       <c r="M120" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N120" t="n">
         <v>5.0</v>
@@ -13450,8 +13450,8 @@
       <c r="Y120" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z120" t="e">
-        <v>#N/A</v>
+      <c r="Z120" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA120" t="e">
         <v>#N/A</v>
@@ -13519,7 +13519,7 @@
         <v>5.0</v>
       </c>
       <c r="M121" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N121" t="n">
         <v>5.0</v>
@@ -13557,8 +13557,8 @@
       <c r="Y121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z121" t="e">
-        <v>#N/A</v>
+      <c r="Z121" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA121" t="e">
         <v>#N/A</v>
@@ -13626,7 +13626,7 @@
         <v>5.0</v>
       </c>
       <c r="M122" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N122" t="n">
         <v>5.0</v>
@@ -13664,8 +13664,8 @@
       <c r="Y122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z122" t="e">
-        <v>#N/A</v>
+      <c r="Z122" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA122" t="e">
         <v>#N/A</v>
@@ -13733,7 +13733,7 @@
         <v>5.0</v>
       </c>
       <c r="M123" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N123" t="n">
         <v>5.0</v>
@@ -13771,8 +13771,8 @@
       <c r="Y123" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z123" t="e">
-        <v>#N/A</v>
+      <c r="Z123" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA123" t="e">
         <v>#N/A</v>
@@ -13840,7 +13840,7 @@
         <v>5.0</v>
       </c>
       <c r="M124" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N124" t="n">
         <v>5.0</v>
@@ -13878,8 +13878,8 @@
       <c r="Y124" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z124" t="e">
-        <v>#N/A</v>
+      <c r="Z124" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA124" t="e">
         <v>#N/A</v>
@@ -13947,7 +13947,7 @@
         <v>5.0</v>
       </c>
       <c r="M125" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N125" t="n">
         <v>5.0</v>
@@ -13985,8 +13985,8 @@
       <c r="Y125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z125" t="e">
-        <v>#N/A</v>
+      <c r="Z125" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA125" t="e">
         <v>#N/A</v>
@@ -14054,7 +14054,7 @@
         <v>5.0</v>
       </c>
       <c r="M126" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N126" t="n">
         <v>5.0</v>
@@ -14092,8 +14092,8 @@
       <c r="Y126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z126" t="e">
-        <v>#N/A</v>
+      <c r="Z126" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA126" t="e">
         <v>#N/A</v>
@@ -14161,7 +14161,7 @@
         <v>5.0</v>
       </c>
       <c r="M127" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N127" t="n">
         <v>5.0</v>
@@ -14199,8 +14199,8 @@
       <c r="Y127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z127" t="e">
-        <v>#N/A</v>
+      <c r="Z127" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA127" t="e">
         <v>#N/A</v>
@@ -14268,7 +14268,7 @@
         <v>5.0</v>
       </c>
       <c r="M128" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N128" t="n">
         <v>5.0</v>
@@ -14306,8 +14306,8 @@
       <c r="Y128" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z128" t="e">
-        <v>#N/A</v>
+      <c r="Z128" t="n">
+        <v>1.0</v>
       </c>
       <c r="AA128" t="e">
         <v>#N/A</v>
@@ -14375,7 +14375,7 @@
         <v>5.0</v>
       </c>
       <c r="M129" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="N129" t="n">
         <v>5.0</v>
@@ -14413,8 +14413,8 @@
       <c r="Y129" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z129" t="e">
-        <v>#N/A</v>
+      <c r="Z129" t="n">
+        <v>3.0</v>
       </c>
       <c r="AA129" t="e">
         <v>#N/A</v>

--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="198">
   <si>
     <t>ReachName</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Confinement_Score</t>
   </si>
   <si>
-    <t>SH_Life_Stage_Sum</t>
+    <t>SH Number of Life Stages</t>
   </si>
   <si>
     <t>HQ_Score</t>
@@ -68,6 +68,9 @@
     <t>Entrainment/Stranding</t>
   </si>
   <si>
+    <t>Floodplain Connectivity</t>
+  </si>
+  <si>
     <t>Flow- Scour</t>
   </si>
   <si>
@@ -83,10 +86,7 @@
     <t>Icing</t>
   </si>
   <si>
-    <t>Off-Channel- Floodplain</t>
-  </si>
-  <si>
-    <t>Off-Channel- Side-Channels</t>
+    <t>Off-Channel/Side-Channels</t>
   </si>
   <si>
     <t>Pool Quantity &amp; Quality</t>
@@ -548,9 +548,6 @@
     <t>Okanogan-Haynes Creek South</t>
   </si>
   <si>
-    <t>Omak Creek-Lower DS</t>
-  </si>
-  <si>
     <t>Omak Creek-Lower US</t>
   </si>
   <si>
@@ -591,6 +588,24 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -756,10 +771,10 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" t="s">
         <v>190</v>
-      </c>
-      <c r="D2" t="s">
-        <v>191</v>
       </c>
       <c r="E2" t="n">
         <v>2.0</v>
@@ -770,8 +785,8 @@
       <c r="G2" t="n">
         <v>5.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>6.0</v>
+      <c r="H2" t="s">
+        <v>192</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -788,8 +803,8 @@
       <c r="M2" t="n">
         <v>3.0</v>
       </c>
-      <c r="N2" t="n">
-        <v>5.0</v>
+      <c r="N2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O2" t="e">
         <v>#N/A</v>
@@ -807,13 +822,13 @@
         <v>5.0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W2" t="n">
         <v>5.0</v>
@@ -824,8 +839,8 @@
       <c r="Y2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z2" t="n">
-        <v>1.0</v>
+      <c r="Z2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA2" t="e">
         <v>#N/A</v>
@@ -863,10 +878,10 @@
         <v>163</v>
       </c>
       <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" t="s">
         <v>190</v>
-      </c>
-      <c r="D3" t="s">
-        <v>191</v>
       </c>
       <c r="E3" t="n">
         <v>2.0</v>
@@ -877,8 +892,8 @@
       <c r="G3" t="n">
         <v>5.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>6.0</v>
+      <c r="H3" t="s">
+        <v>192</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -892,11 +907,11 @@
       <c r="L3" t="n">
         <v>5.0</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5.0</v>
+      <c r="M3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O3" t="e">
         <v>#N/A</v>
@@ -914,13 +929,13 @@
         <v>5.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W3" t="n">
         <v>5.0</v>
@@ -970,11 +985,11 @@
         <v>164</v>
       </c>
       <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
         <v>190</v>
       </c>
-      <c r="D4" t="s">
-        <v>191</v>
-      </c>
       <c r="E4" t="n">
         <v>1.0</v>
       </c>
@@ -984,8 +999,8 @@
       <c r="G4" t="n">
         <v>5.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>6.0</v>
+      <c r="H4" t="s">
+        <v>192</v>
       </c>
       <c r="I4" t="n">
         <v>0.28950341871856905</v>
@@ -1002,8 +1017,8 @@
       <c r="M4" t="n">
         <v>3.0</v>
       </c>
-      <c r="N4" t="n">
-        <v>5.0</v>
+      <c r="N4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O4" t="e">
         <v>#N/A</v>
@@ -1021,13 +1036,13 @@
         <v>5.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W4" t="n">
         <v>5.0</v>
@@ -1077,11 +1092,11 @@
         <v>164</v>
       </c>
       <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" t="s">
         <v>190</v>
       </c>
-      <c r="D5" t="s">
-        <v>191</v>
-      </c>
       <c r="E5" t="n">
         <v>1.0</v>
       </c>
@@ -1091,8 +1106,8 @@
       <c r="G5" t="n">
         <v>1.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>6.0</v>
+      <c r="H5" t="s">
+        <v>192</v>
       </c>
       <c r="I5" t="n">
         <v>0.09920323955957226</v>
@@ -1109,8 +1124,8 @@
       <c r="M5" t="n">
         <v>3.0</v>
       </c>
-      <c r="N5" t="n">
-        <v>5.0</v>
+      <c r="N5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O5" t="e">
         <v>#N/A</v>
@@ -1128,10 +1143,10 @@
         <v>5.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V5" t="n">
         <v>5.0</v>
@@ -1184,11 +1199,11 @@
         <v>164</v>
       </c>
       <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
         <v>190</v>
       </c>
-      <c r="D6" t="s">
-        <v>191</v>
-      </c>
       <c r="E6" t="n">
         <v>1.0</v>
       </c>
@@ -1198,8 +1213,8 @@
       <c r="G6" t="n">
         <v>5.0</v>
       </c>
-      <c r="H6" t="n">
-        <v>6.0</v>
+      <c r="H6" t="s">
+        <v>192</v>
       </c>
       <c r="I6" t="n">
         <v>0.0814431770666794</v>
@@ -1216,8 +1231,8 @@
       <c r="M6" t="n">
         <v>3.0</v>
       </c>
-      <c r="N6" t="n">
-        <v>5.0</v>
+      <c r="N6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O6" t="e">
         <v>#N/A</v>
@@ -1235,10 +1250,10 @@
         <v>5.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U6" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V6" t="n">
         <v>5.0</v>
@@ -1252,8 +1267,8 @@
       <c r="Y6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z6" t="n">
-        <v>5.0</v>
+      <c r="Z6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA6" t="e">
         <v>#N/A</v>
@@ -1291,11 +1306,11 @@
         <v>164</v>
       </c>
       <c r="C7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" t="s">
         <v>190</v>
       </c>
-      <c r="D7" t="s">
-        <v>191</v>
-      </c>
       <c r="E7" t="n">
         <v>1.0</v>
       </c>
@@ -1305,8 +1320,8 @@
       <c r="G7" t="n">
         <v>5.0</v>
       </c>
-      <c r="H7" t="n">
-        <v>6.0</v>
+      <c r="H7" t="s">
+        <v>192</v>
       </c>
       <c r="I7" t="n">
         <v>0.06349152129765878</v>
@@ -1323,8 +1338,8 @@
       <c r="M7" t="n">
         <v>3.0</v>
       </c>
-      <c r="N7" t="n">
-        <v>5.0</v>
+      <c r="N7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O7" t="e">
         <v>#N/A</v>
@@ -1342,10 +1357,10 @@
         <v>5.0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U7" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V7" t="n">
         <v>5.0</v>
@@ -1359,8 +1374,8 @@
       <c r="Y7" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z7" t="n">
-        <v>1.0</v>
+      <c r="Z7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA7" t="e">
         <v>#N/A</v>
@@ -1398,11 +1413,11 @@
         <v>164</v>
       </c>
       <c r="C8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" t="s">
         <v>190</v>
       </c>
-      <c r="D8" t="s">
-        <v>191</v>
-      </c>
       <c r="E8" t="n">
         <v>1.0</v>
       </c>
@@ -1412,8 +1427,8 @@
       <c r="G8" t="n">
         <v>5.0</v>
       </c>
-      <c r="H8" t="n">
-        <v>6.0</v>
+      <c r="H8" t="s">
+        <v>192</v>
       </c>
       <c r="I8" t="n">
         <v>0.09475057900380908</v>
@@ -1430,8 +1445,8 @@
       <c r="M8" t="n">
         <v>3.0</v>
       </c>
-      <c r="N8" t="n">
-        <v>5.0</v>
+      <c r="N8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O8" t="e">
         <v>#N/A</v>
@@ -1449,10 +1464,10 @@
         <v>5.0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V8" t="n">
         <v>5.0</v>
@@ -1466,8 +1481,8 @@
       <c r="Y8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z8" t="n">
-        <v>5.0</v>
+      <c r="Z8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA8" t="e">
         <v>#N/A</v>
@@ -1505,11 +1520,11 @@
         <v>164</v>
       </c>
       <c r="C9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" t="s">
         <v>190</v>
       </c>
-      <c r="D9" t="s">
-        <v>191</v>
-      </c>
       <c r="E9" t="n">
         <v>1.0</v>
       </c>
@@ -1519,8 +1534,8 @@
       <c r="G9" t="n">
         <v>5.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>6.0</v>
+      <c r="H9" t="s">
+        <v>192</v>
       </c>
       <c r="I9" t="n">
         <v>0.05474758409735947</v>
@@ -1537,8 +1552,8 @@
       <c r="M9" t="n">
         <v>3.0</v>
       </c>
-      <c r="N9" t="n">
-        <v>5.0</v>
+      <c r="N9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O9" t="e">
         <v>#N/A</v>
@@ -1556,10 +1571,10 @@
         <v>5.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V9" t="n">
         <v>5.0</v>
@@ -1573,8 +1588,8 @@
       <c r="Y9" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z9" t="n">
-        <v>5.0</v>
+      <c r="Z9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA9" t="e">
         <v>#N/A</v>
@@ -1612,10 +1627,10 @@
         <v>165</v>
       </c>
       <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
         <v>190</v>
-      </c>
-      <c r="D10" t="s">
-        <v>191</v>
       </c>
       <c r="E10" t="n">
         <v>2.0</v>
@@ -1626,8 +1641,8 @@
       <c r="G10" t="n">
         <v>5.0</v>
       </c>
-      <c r="H10" t="n">
-        <v>6.0</v>
+      <c r="H10" t="s">
+        <v>192</v>
       </c>
       <c r="I10" t="n">
         <v>0.3862562604391875</v>
@@ -1644,8 +1659,8 @@
       <c r="M10" t="n">
         <v>3.0</v>
       </c>
-      <c r="N10" t="n">
-        <v>5.0</v>
+      <c r="N10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O10" t="e">
         <v>#N/A</v>
@@ -1663,10 +1678,10 @@
         <v>5.0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U10" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
         <v>5.0</v>
@@ -1719,11 +1734,11 @@
         <v>166</v>
       </c>
       <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
         <v>190</v>
       </c>
-      <c r="D11" t="s">
-        <v>191</v>
-      </c>
       <c r="E11" t="e">
         <v>#N/A</v>
       </c>
@@ -1733,8 +1748,8 @@
       <c r="G11" t="n">
         <v>5.0</v>
       </c>
-      <c r="H11" t="n">
-        <v>2.0</v>
+      <c r="H11" t="s">
+        <v>193</v>
       </c>
       <c r="I11" t="e">
         <v>#N/A</v>
@@ -1751,8 +1766,8 @@
       <c r="M11" t="n">
         <v>3.0</v>
       </c>
-      <c r="N11" t="n">
-        <v>5.0</v>
+      <c r="N11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O11" t="e">
         <v>#N/A</v>
@@ -1766,14 +1781,14 @@
       <c r="R11" t="n">
         <v>5.0</v>
       </c>
-      <c r="S11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.0</v>
+      <c r="S11" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="U11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V11" t="n">
         <v>5.0</v>
@@ -1826,10 +1841,10 @@
         <v>167</v>
       </c>
       <c r="C12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
         <v>190</v>
-      </c>
-      <c r="D12" t="s">
-        <v>191</v>
       </c>
       <c r="E12" t="n">
         <v>1.0</v>
@@ -1840,8 +1855,8 @@
       <c r="G12" t="n">
         <v>5.0</v>
       </c>
-      <c r="H12" t="n">
-        <v>6.0</v>
+      <c r="H12" t="s">
+        <v>192</v>
       </c>
       <c r="I12" t="n">
         <v>0.0</v>
@@ -1858,8 +1873,8 @@
       <c r="M12" t="n">
         <v>3.0</v>
       </c>
-      <c r="N12" t="n">
-        <v>5.0</v>
+      <c r="N12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O12" t="e">
         <v>#N/A</v>
@@ -1877,10 +1892,10 @@
         <v>5.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U12" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V12" t="n">
         <v>5.0</v>
@@ -1889,7 +1904,7 @@
         <v>5.0</v>
       </c>
       <c r="X12" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y12" t="e">
         <v>#N/A</v>
@@ -1933,10 +1948,10 @@
         <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" t="n">
         <v>1.0</v>
@@ -1947,8 +1962,8 @@
       <c r="G13" t="n">
         <v>5.0</v>
       </c>
-      <c r="H13" t="n">
-        <v>0.0</v>
+      <c r="H13" t="s">
+        <v>194</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -1965,8 +1980,8 @@
       <c r="M13" t="n">
         <v>3.0</v>
       </c>
-      <c r="N13" t="n">
-        <v>5.0</v>
+      <c r="N13" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O13" t="e">
         <v>#N/A</v>
@@ -1984,13 +1999,13 @@
         <v>5.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W13" t="n">
         <v>5.0</v>
@@ -2040,10 +2055,10 @@
         <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" t="n">
         <v>1.0</v>
@@ -2054,8 +2069,8 @@
       <c r="G14" t="n">
         <v>5.0</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.0</v>
+      <c r="H14" t="s">
+        <v>194</v>
       </c>
       <c r="I14" t="n">
         <v>0.0</v>
@@ -2072,8 +2087,8 @@
       <c r="M14" t="n">
         <v>3.0</v>
       </c>
-      <c r="N14" t="n">
-        <v>5.0</v>
+      <c r="N14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O14" t="e">
         <v>#N/A</v>
@@ -2091,10 +2106,10 @@
         <v>5.0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U14" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V14" t="n">
         <v>5.0</v>
@@ -2108,8 +2123,8 @@
       <c r="Y14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z14" t="n">
-        <v>5.0</v>
+      <c r="Z14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA14" t="e">
         <v>#N/A</v>
@@ -2147,10 +2162,10 @@
         <v>167</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" t="n">
         <v>1.0</v>
@@ -2161,8 +2176,8 @@
       <c r="G15" t="n">
         <v>5.0</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.0</v>
+      <c r="H15" t="s">
+        <v>194</v>
       </c>
       <c r="I15" t="n">
         <v>0.0</v>
@@ -2179,8 +2194,8 @@
       <c r="M15" t="n">
         <v>1.0</v>
       </c>
-      <c r="N15" t="n">
-        <v>5.0</v>
+      <c r="N15" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O15" t="e">
         <v>#N/A</v>
@@ -2198,13 +2213,13 @@
         <v>5.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V15" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W15" t="n">
         <v>5.0</v>
@@ -2254,10 +2269,10 @@
         <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E16" t="n">
         <v>1.0</v>
@@ -2268,8 +2283,8 @@
       <c r="G16" t="n">
         <v>5.0</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.0</v>
+      <c r="H16" t="s">
+        <v>194</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -2286,8 +2301,8 @@
       <c r="M16" t="n">
         <v>3.0</v>
       </c>
-      <c r="N16" t="n">
-        <v>5.0</v>
+      <c r="N16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O16" t="e">
         <v>#N/A</v>
@@ -2305,25 +2320,25 @@
         <v>5.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W16" t="n">
         <v>5.0</v>
       </c>
-      <c r="X16" t="e">
-        <v>#N/A</v>
+      <c r="X16" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y16" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z16" t="n">
-        <v>5.0</v>
+      <c r="Z16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA16" t="e">
         <v>#N/A</v>
@@ -2361,10 +2376,10 @@
         <v>167</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E17" t="n">
         <v>1.0</v>
@@ -2375,8 +2390,8 @@
       <c r="G17" t="n">
         <v>5.0</v>
       </c>
-      <c r="H17" t="n">
-        <v>0.0</v>
+      <c r="H17" t="s">
+        <v>194</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -2393,8 +2408,8 @@
       <c r="M17" t="n">
         <v>3.0</v>
       </c>
-      <c r="N17" t="n">
-        <v>5.0</v>
+      <c r="N17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O17" t="e">
         <v>#N/A</v>
@@ -2412,19 +2427,19 @@
         <v>5.0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W17" t="n">
         <v>5.0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y17" t="e">
         <v>#N/A</v>
@@ -2468,10 +2483,10 @@
         <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E18" t="n">
         <v>1.0</v>
@@ -2482,8 +2497,8 @@
       <c r="G18" t="n">
         <v>5.0</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.0</v>
+      <c r="H18" t="s">
+        <v>194</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -2500,8 +2515,8 @@
       <c r="M18" t="n">
         <v>3.0</v>
       </c>
-      <c r="N18" t="n">
-        <v>5.0</v>
+      <c r="N18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O18" t="e">
         <v>#N/A</v>
@@ -2519,10 +2534,10 @@
         <v>5.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U18" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V18" t="n">
         <v>5.0</v>
@@ -2531,7 +2546,7 @@
         <v>5.0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y18" t="e">
         <v>#N/A</v>
@@ -2575,10 +2590,10 @@
         <v>167</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19" t="n">
         <v>1.0</v>
@@ -2589,8 +2604,8 @@
       <c r="G19" t="n">
         <v>5.0</v>
       </c>
-      <c r="H19" t="n">
-        <v>0.0</v>
+      <c r="H19" t="s">
+        <v>194</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -2607,8 +2622,8 @@
       <c r="M19" t="n">
         <v>3.0</v>
       </c>
-      <c r="N19" t="n">
-        <v>5.0</v>
+      <c r="N19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O19" t="e">
         <v>#N/A</v>
@@ -2626,10 +2641,10 @@
         <v>5.0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U19" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V19" t="n">
         <v>5.0</v>
@@ -2638,7 +2653,7 @@
         <v>5.0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y19" t="e">
         <v>#N/A</v>
@@ -2682,10 +2697,10 @@
         <v>167</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E20" t="n">
         <v>1.0</v>
@@ -2696,8 +2711,8 @@
       <c r="G20" t="n">
         <v>5.0</v>
       </c>
-      <c r="H20" t="n">
-        <v>0.0</v>
+      <c r="H20" t="s">
+        <v>194</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -2714,8 +2729,8 @@
       <c r="M20" t="n">
         <v>3.0</v>
       </c>
-      <c r="N20" t="n">
-        <v>5.0</v>
+      <c r="N20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O20" t="e">
         <v>#N/A</v>
@@ -2733,19 +2748,19 @@
         <v>5.0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U20" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="V20" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W20" t="n">
         <v>5.0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y20" t="e">
         <v>#N/A</v>
@@ -2789,11 +2804,11 @@
         <v>168</v>
       </c>
       <c r="C21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" t="s">
         <v>190</v>
       </c>
-      <c r="D21" t="s">
-        <v>191</v>
-      </c>
       <c r="E21" t="n">
         <v>1.0</v>
       </c>
@@ -2803,8 +2818,8 @@
       <c r="G21" t="n">
         <v>5.0</v>
       </c>
-      <c r="H21" t="n">
-        <v>6.0</v>
+      <c r="H21" t="s">
+        <v>192</v>
       </c>
       <c r="I21" t="n">
         <v>0.4138216126098745</v>
@@ -2821,8 +2836,8 @@
       <c r="M21" t="n">
         <v>3.0</v>
       </c>
-      <c r="N21" t="n">
-        <v>5.0</v>
+      <c r="N21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O21" t="e">
         <v>#N/A</v>
@@ -2840,10 +2855,10 @@
         <v>5.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U21" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V21" t="n">
         <v>5.0</v>
@@ -2851,8 +2866,8 @@
       <c r="W21" t="n">
         <v>5.0</v>
       </c>
-      <c r="X21" t="e">
-        <v>#N/A</v>
+      <c r="X21" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y21" t="e">
         <v>#N/A</v>
@@ -2896,11 +2911,11 @@
         <v>168</v>
       </c>
       <c r="C22" t="s">
+        <v>189</v>
+      </c>
+      <c r="D22" t="s">
         <v>190</v>
       </c>
-      <c r="D22" t="s">
-        <v>191</v>
-      </c>
       <c r="E22" t="n">
         <v>1.0</v>
       </c>
@@ -2910,8 +2925,8 @@
       <c r="G22" t="n">
         <v>5.0</v>
       </c>
-      <c r="H22" t="n">
-        <v>6.0</v>
+      <c r="H22" t="s">
+        <v>192</v>
       </c>
       <c r="I22" t="n">
         <v>0.4864045032829818</v>
@@ -2928,8 +2943,8 @@
       <c r="M22" t="n">
         <v>3.0</v>
       </c>
-      <c r="N22" t="n">
-        <v>5.0</v>
+      <c r="N22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O22" t="e">
         <v>#N/A</v>
@@ -2947,10 +2962,10 @@
         <v>5.0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U22" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V22" t="n">
         <v>5.0</v>
@@ -3003,11 +3018,11 @@
         <v>168</v>
       </c>
       <c r="C23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
         <v>190</v>
       </c>
-      <c r="D23" t="s">
-        <v>191</v>
-      </c>
       <c r="E23" t="n">
         <v>1.0</v>
       </c>
@@ -3017,8 +3032,8 @@
       <c r="G23" t="n">
         <v>5.0</v>
       </c>
-      <c r="H23" t="n">
-        <v>6.0</v>
+      <c r="H23" t="s">
+        <v>192</v>
       </c>
       <c r="I23" t="n">
         <v>0.4018347013968203</v>
@@ -3035,8 +3050,8 @@
       <c r="M23" t="n">
         <v>3.0</v>
       </c>
-      <c r="N23" t="n">
-        <v>5.0</v>
+      <c r="N23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O23" t="e">
         <v>#N/A</v>
@@ -3054,10 +3069,10 @@
         <v>5.0</v>
       </c>
       <c r="T23" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U23" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V23" t="n">
         <v>5.0</v>
@@ -3071,8 +3086,8 @@
       <c r="Y23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z23" t="n">
-        <v>5.0</v>
+      <c r="Z23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA23" t="e">
         <v>#N/A</v>
@@ -3110,10 +3125,10 @@
         <v>169</v>
       </c>
       <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
         <v>190</v>
-      </c>
-      <c r="D24" t="s">
-        <v>191</v>
       </c>
       <c r="E24" t="n">
         <v>2.0</v>
@@ -3124,8 +3139,8 @@
       <c r="G24" t="n">
         <v>5.0</v>
       </c>
-      <c r="H24" t="n">
-        <v>6.0</v>
+      <c r="H24" t="s">
+        <v>192</v>
       </c>
       <c r="I24" t="n">
         <v>0.6978993027953038</v>
@@ -3142,8 +3157,8 @@
       <c r="M24" t="n">
         <v>3.0</v>
       </c>
-      <c r="N24" t="n">
-        <v>5.0</v>
+      <c r="N24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O24" t="e">
         <v>#N/A</v>
@@ -3161,10 +3176,10 @@
         <v>5.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U24" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V24" t="n">
         <v>5.0</v>
@@ -3173,7 +3188,7 @@
         <v>5.0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y24" t="e">
         <v>#N/A</v>
@@ -3217,10 +3232,10 @@
         <v>169</v>
       </c>
       <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" t="s">
         <v>190</v>
-      </c>
-      <c r="D25" t="s">
-        <v>191</v>
       </c>
       <c r="E25" t="n">
         <v>2.0</v>
@@ -3231,8 +3246,8 @@
       <c r="G25" t="n">
         <v>5.0</v>
       </c>
-      <c r="H25" t="n">
-        <v>6.0</v>
+      <c r="H25" t="s">
+        <v>192</v>
       </c>
       <c r="I25" t="n">
         <v>0.6733852550862345</v>
@@ -3249,8 +3264,8 @@
       <c r="M25" t="n">
         <v>3.0</v>
       </c>
-      <c r="N25" t="n">
-        <v>5.0</v>
+      <c r="N25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O25" t="e">
         <v>#N/A</v>
@@ -3268,10 +3283,10 @@
         <v>5.0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U25" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V25" t="n">
         <v>5.0</v>
@@ -3285,8 +3300,8 @@
       <c r="Y25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z25" t="n">
-        <v>5.0</v>
+      <c r="Z25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA25" t="e">
         <v>#N/A</v>
@@ -3324,10 +3339,10 @@
         <v>169</v>
       </c>
       <c r="C26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" t="s">
         <v>190</v>
-      </c>
-      <c r="D26" t="s">
-        <v>191</v>
       </c>
       <c r="E26" t="n">
         <v>2.0</v>
@@ -3338,8 +3353,8 @@
       <c r="G26" t="n">
         <v>5.0</v>
       </c>
-      <c r="H26" t="n">
-        <v>6.0</v>
+      <c r="H26" t="s">
+        <v>192</v>
       </c>
       <c r="I26" t="n">
         <v>0.3258978151422804</v>
@@ -3356,8 +3371,8 @@
       <c r="M26" t="n">
         <v>3.0</v>
       </c>
-      <c r="N26" t="n">
-        <v>5.0</v>
+      <c r="N26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O26" t="e">
         <v>#N/A</v>
@@ -3375,13 +3390,13 @@
         <v>5.0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U26" t="n">
         <v>1.0</v>
       </c>
       <c r="V26" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W26" t="n">
         <v>5.0</v>
@@ -3392,8 +3407,8 @@
       <c r="Y26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z26" t="n">
-        <v>1.0</v>
+      <c r="Z26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA26" t="e">
         <v>#N/A</v>
@@ -3431,10 +3446,10 @@
         <v>169</v>
       </c>
       <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" t="s">
         <v>190</v>
-      </c>
-      <c r="D27" t="s">
-        <v>191</v>
       </c>
       <c r="E27" t="n">
         <v>2.0</v>
@@ -3445,8 +3460,8 @@
       <c r="G27" t="n">
         <v>1.0</v>
       </c>
-      <c r="H27" t="n">
-        <v>6.0</v>
+      <c r="H27" t="s">
+        <v>192</v>
       </c>
       <c r="I27" t="n">
         <v>0.5465568866351114</v>
@@ -3463,8 +3478,8 @@
       <c r="M27" t="n">
         <v>3.0</v>
       </c>
-      <c r="N27" t="n">
-        <v>5.0</v>
+      <c r="N27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O27" t="e">
         <v>#N/A</v>
@@ -3482,10 +3497,10 @@
         <v>5.0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U27" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V27" t="n">
         <v>5.0</v>
@@ -3499,8 +3514,8 @@
       <c r="Y27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z27" t="n">
-        <v>5.0</v>
+      <c r="Z27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA27" t="e">
         <v>#N/A</v>
@@ -3538,10 +3553,10 @@
         <v>169</v>
       </c>
       <c r="C28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" t="s">
         <v>190</v>
-      </c>
-      <c r="D28" t="s">
-        <v>191</v>
       </c>
       <c r="E28" t="n">
         <v>2.0</v>
@@ -3552,8 +3567,8 @@
       <c r="G28" t="n">
         <v>1.0</v>
       </c>
-      <c r="H28" t="n">
-        <v>6.0</v>
+      <c r="H28" t="s">
+        <v>192</v>
       </c>
       <c r="I28" t="n">
         <v>0.8164988044197183</v>
@@ -3570,8 +3585,8 @@
       <c r="M28" t="n">
         <v>3.0</v>
       </c>
-      <c r="N28" t="n">
-        <v>5.0</v>
+      <c r="N28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O28" t="e">
         <v>#N/A</v>
@@ -3589,10 +3604,10 @@
         <v>5.0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U28" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V28" t="n">
         <v>5.0</v>
@@ -3606,8 +3621,8 @@
       <c r="Y28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z28" t="n">
-        <v>1.0</v>
+      <c r="Z28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA28" t="e">
         <v>#N/A</v>
@@ -3645,10 +3660,10 @@
         <v>170</v>
       </c>
       <c r="C29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" t="s">
         <v>190</v>
-      </c>
-      <c r="D29" t="s">
-        <v>191</v>
       </c>
       <c r="E29" t="n">
         <v>2.0</v>
@@ -3659,8 +3674,8 @@
       <c r="G29" t="n">
         <v>1.0</v>
       </c>
-      <c r="H29" t="n">
-        <v>5.0</v>
+      <c r="H29" t="s">
+        <v>195</v>
       </c>
       <c r="I29" t="e">
         <v>#N/A</v>
@@ -3677,8 +3692,8 @@
       <c r="M29" t="n">
         <v>1.0</v>
       </c>
-      <c r="N29" t="n">
-        <v>5.0</v>
+      <c r="N29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O29" t="e">
         <v>#N/A</v>
@@ -3695,11 +3710,11 @@
       <c r="S29" t="e">
         <v>#N/A</v>
       </c>
-      <c r="T29" t="n">
-        <v>1.0</v>
+      <c r="T29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="U29" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V29" t="n">
         <v>5.0</v>
@@ -3707,8 +3722,8 @@
       <c r="W29" t="n">
         <v>5.0</v>
       </c>
-      <c r="X29" t="e">
-        <v>#N/A</v>
+      <c r="X29" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y29" t="e">
         <v>#N/A</v>
@@ -3752,10 +3767,10 @@
         <v>171</v>
       </c>
       <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" t="s">
         <v>190</v>
-      </c>
-      <c r="D30" t="s">
-        <v>191</v>
       </c>
       <c r="E30" t="n">
         <v>2.0</v>
@@ -3766,8 +3781,8 @@
       <c r="G30" t="n">
         <v>5.0</v>
       </c>
-      <c r="H30" t="n">
-        <v>4.0</v>
+      <c r="H30" t="s">
+        <v>196</v>
       </c>
       <c r="I30" t="e">
         <v>#N/A</v>
@@ -3784,8 +3799,8 @@
       <c r="M30" t="n">
         <v>1.0</v>
       </c>
-      <c r="N30" t="n">
-        <v>5.0</v>
+      <c r="N30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O30" t="e">
         <v>#N/A</v>
@@ -3803,10 +3818,10 @@
         <v>5.0</v>
       </c>
       <c r="T30" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U30" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V30" t="n">
         <v>5.0</v>
@@ -3815,13 +3830,13 @@
         <v>5.0</v>
       </c>
       <c r="X30" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y30" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z30" t="n">
-        <v>5.0</v>
+      <c r="Z30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA30" t="e">
         <v>#N/A</v>
@@ -3859,10 +3874,10 @@
         <v>172</v>
       </c>
       <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
         <v>190</v>
-      </c>
-      <c r="D31" t="s">
-        <v>191</v>
       </c>
       <c r="E31" t="n">
         <v>2.0</v>
@@ -3873,8 +3888,8 @@
       <c r="G31" t="n">
         <v>5.0</v>
       </c>
-      <c r="H31" t="n">
-        <v>7.0</v>
+      <c r="H31" t="s">
+        <v>197</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -3891,8 +3906,8 @@
       <c r="M31" t="n">
         <v>1.0</v>
       </c>
-      <c r="N31" t="n">
-        <v>5.0</v>
+      <c r="N31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O31" t="e">
         <v>#N/A</v>
@@ -3910,10 +3925,10 @@
         <v>5.0</v>
       </c>
       <c r="T31" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U31" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V31" t="n">
         <v>5.0</v>
@@ -3966,10 +3981,10 @@
         <v>172</v>
       </c>
       <c r="C32" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" t="s">
         <v>190</v>
-      </c>
-      <c r="D32" t="s">
-        <v>191</v>
       </c>
       <c r="E32" t="n">
         <v>2.0</v>
@@ -3980,8 +3995,8 @@
       <c r="G32" t="n">
         <v>5.0</v>
       </c>
-      <c r="H32" t="n">
-        <v>5.0</v>
+      <c r="H32" t="s">
+        <v>195</v>
       </c>
       <c r="I32" t="e">
         <v>#N/A</v>
@@ -3998,8 +4013,8 @@
       <c r="M32" t="n">
         <v>1.0</v>
       </c>
-      <c r="N32" t="n">
-        <v>5.0</v>
+      <c r="N32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O32" t="e">
         <v>#N/A</v>
@@ -4017,10 +4032,10 @@
         <v>5.0</v>
       </c>
       <c r="T32" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U32" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V32" t="n">
         <v>5.0</v>
@@ -4028,8 +4043,8 @@
       <c r="W32" t="n">
         <v>5.0</v>
       </c>
-      <c r="X32" t="e">
-        <v>#N/A</v>
+      <c r="X32" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y32" t="e">
         <v>#N/A</v>
@@ -4073,10 +4088,10 @@
         <v>172</v>
       </c>
       <c r="C33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" t="s">
         <v>190</v>
-      </c>
-      <c r="D33" t="s">
-        <v>191</v>
       </c>
       <c r="E33" t="n">
         <v>2.0</v>
@@ -4087,8 +4102,8 @@
       <c r="G33" t="n">
         <v>5.0</v>
       </c>
-      <c r="H33" t="n">
-        <v>5.0</v>
+      <c r="H33" t="s">
+        <v>195</v>
       </c>
       <c r="I33" t="e">
         <v>#N/A</v>
@@ -4105,8 +4120,8 @@
       <c r="M33" t="n">
         <v>3.0</v>
       </c>
-      <c r="N33" t="n">
-        <v>5.0</v>
+      <c r="N33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O33" t="e">
         <v>#N/A</v>
@@ -4124,10 +4139,10 @@
         <v>5.0</v>
       </c>
       <c r="T33" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U33" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V33" t="n">
         <v>5.0</v>
@@ -4135,8 +4150,8 @@
       <c r="W33" t="n">
         <v>5.0</v>
       </c>
-      <c r="X33" t="e">
-        <v>#N/A</v>
+      <c r="X33" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y33" t="e">
         <v>#N/A</v>
@@ -4180,10 +4195,10 @@
         <v>172</v>
       </c>
       <c r="C34" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" t="s">
         <v>190</v>
-      </c>
-      <c r="D34" t="s">
-        <v>191</v>
       </c>
       <c r="E34" t="n">
         <v>2.0</v>
@@ -4194,8 +4209,8 @@
       <c r="G34" t="n">
         <v>5.0</v>
       </c>
-      <c r="H34" t="n">
-        <v>5.0</v>
+      <c r="H34" t="s">
+        <v>195</v>
       </c>
       <c r="I34" t="e">
         <v>#N/A</v>
@@ -4212,8 +4227,8 @@
       <c r="M34" t="n">
         <v>3.0</v>
       </c>
-      <c r="N34" t="n">
-        <v>5.0</v>
+      <c r="N34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O34" t="e">
         <v>#N/A</v>
@@ -4231,10 +4246,10 @@
         <v>5.0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U34" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V34" t="n">
         <v>5.0</v>
@@ -4287,10 +4302,10 @@
         <v>172</v>
       </c>
       <c r="C35" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" t="s">
         <v>190</v>
-      </c>
-      <c r="D35" t="s">
-        <v>191</v>
       </c>
       <c r="E35" t="n">
         <v>2.0</v>
@@ -4301,8 +4316,8 @@
       <c r="G35" t="n">
         <v>5.0</v>
       </c>
-      <c r="H35" t="n">
-        <v>5.0</v>
+      <c r="H35" t="s">
+        <v>195</v>
       </c>
       <c r="I35" t="e">
         <v>#N/A</v>
@@ -4316,11 +4331,11 @@
       <c r="L35" t="n">
         <v>5.0</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.0</v>
+      <c r="M35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O35" t="e">
         <v>#N/A</v>
@@ -4338,10 +4353,10 @@
         <v>5.0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U35" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V35" t="n">
         <v>5.0</v>
@@ -4349,8 +4364,8 @@
       <c r="W35" t="n">
         <v>5.0</v>
       </c>
-      <c r="X35" t="e">
-        <v>#N/A</v>
+      <c r="X35" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y35" t="e">
         <v>#N/A</v>
@@ -4394,10 +4409,10 @@
         <v>172</v>
       </c>
       <c r="C36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" t="s">
         <v>190</v>
-      </c>
-      <c r="D36" t="s">
-        <v>191</v>
       </c>
       <c r="E36" t="n">
         <v>2.0</v>
@@ -4408,8 +4423,8 @@
       <c r="G36" t="n">
         <v>5.0</v>
       </c>
-      <c r="H36" t="n">
-        <v>5.0</v>
+      <c r="H36" t="s">
+        <v>195</v>
       </c>
       <c r="I36" t="e">
         <v>#N/A</v>
@@ -4426,8 +4441,8 @@
       <c r="M36" t="n">
         <v>1.0</v>
       </c>
-      <c r="N36" t="n">
-        <v>5.0</v>
+      <c r="N36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O36" t="e">
         <v>#N/A</v>
@@ -4445,19 +4460,19 @@
         <v>5.0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U36" t="n">
         <v>1.0</v>
       </c>
       <c r="V36" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W36" t="n">
         <v>5.0</v>
       </c>
       <c r="X36" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y36" t="e">
         <v>#N/A</v>
@@ -4501,10 +4516,10 @@
         <v>173</v>
       </c>
       <c r="C37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D37" t="s">
         <v>190</v>
-      </c>
-      <c r="D37" t="s">
-        <v>191</v>
       </c>
       <c r="E37" t="n">
         <v>2.0</v>
@@ -4515,8 +4530,8 @@
       <c r="G37" t="n">
         <v>5.0</v>
       </c>
-      <c r="H37" t="n">
-        <v>7.0</v>
+      <c r="H37" t="s">
+        <v>197</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -4533,8 +4548,8 @@
       <c r="M37" t="n">
         <v>1.0</v>
       </c>
-      <c r="N37" t="n">
-        <v>1.0</v>
+      <c r="N37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O37" t="e">
         <v>#N/A</v>
@@ -4552,10 +4567,10 @@
         <v>5.0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U37" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V37" t="n">
         <v>5.0</v>
@@ -4563,8 +4578,8 @@
       <c r="W37" t="n">
         <v>5.0</v>
       </c>
-      <c r="X37" t="e">
-        <v>#N/A</v>
+      <c r="X37" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y37" t="e">
         <v>#N/A</v>
@@ -4608,10 +4623,10 @@
         <v>173</v>
       </c>
       <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
         <v>190</v>
-      </c>
-      <c r="D38" t="s">
-        <v>191</v>
       </c>
       <c r="E38" t="n">
         <v>2.0</v>
@@ -4622,8 +4637,8 @@
       <c r="G38" t="n">
         <v>5.0</v>
       </c>
-      <c r="H38" t="n">
-        <v>7.0</v>
+      <c r="H38" t="s">
+        <v>197</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -4640,8 +4655,8 @@
       <c r="M38" t="n">
         <v>3.0</v>
       </c>
-      <c r="N38" t="n">
-        <v>1.0</v>
+      <c r="N38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O38" t="e">
         <v>#N/A</v>
@@ -4659,10 +4674,10 @@
         <v>5.0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U38" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V38" t="n">
         <v>5.0</v>
@@ -4671,13 +4686,13 @@
         <v>5.0</v>
       </c>
       <c r="X38" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y38" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z38" t="n">
-        <v>5.0</v>
+      <c r="Z38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA38" t="e">
         <v>#N/A</v>
@@ -4715,10 +4730,10 @@
         <v>173</v>
       </c>
       <c r="C39" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" t="s">
         <v>190</v>
-      </c>
-      <c r="D39" t="s">
-        <v>191</v>
       </c>
       <c r="E39" t="n">
         <v>2.0</v>
@@ -4729,8 +4744,8 @@
       <c r="G39" t="n">
         <v>5.0</v>
       </c>
-      <c r="H39" t="n">
-        <v>6.0</v>
+      <c r="H39" t="s">
+        <v>192</v>
       </c>
       <c r="I39" t="e">
         <v>#N/A</v>
@@ -4747,8 +4762,8 @@
       <c r="M39" t="n">
         <v>1.0</v>
       </c>
-      <c r="N39" t="n">
-        <v>1.0</v>
+      <c r="N39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O39" t="e">
         <v>#N/A</v>
@@ -4766,10 +4781,10 @@
         <v>5.0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U39" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V39" t="n">
         <v>5.0</v>
@@ -4778,7 +4793,7 @@
         <v>5.0</v>
       </c>
       <c r="X39" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y39" t="e">
         <v>#N/A</v>
@@ -4822,10 +4837,10 @@
         <v>173</v>
       </c>
       <c r="C40" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" t="s">
         <v>190</v>
-      </c>
-      <c r="D40" t="s">
-        <v>191</v>
       </c>
       <c r="E40" t="n">
         <v>2.0</v>
@@ -4836,8 +4851,8 @@
       <c r="G40" t="n">
         <v>5.0</v>
       </c>
-      <c r="H40" t="n">
-        <v>6.0</v>
+      <c r="H40" t="s">
+        <v>192</v>
       </c>
       <c r="I40" t="e">
         <v>#N/A</v>
@@ -4854,8 +4869,8 @@
       <c r="M40" t="n">
         <v>1.0</v>
       </c>
-      <c r="N40" t="n">
-        <v>1.0</v>
+      <c r="N40" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O40" t="e">
         <v>#N/A</v>
@@ -4873,10 +4888,10 @@
         <v>5.0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U40" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V40" t="n">
         <v>5.0</v>
@@ -4929,10 +4944,10 @@
         <v>171</v>
       </c>
       <c r="C41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" t="s">
         <v>190</v>
-      </c>
-      <c r="D41" t="s">
-        <v>191</v>
       </c>
       <c r="E41" t="n">
         <v>2.0</v>
@@ -4943,8 +4958,8 @@
       <c r="G41" t="n">
         <v>5.0</v>
       </c>
-      <c r="H41" t="n">
-        <v>4.0</v>
+      <c r="H41" t="s">
+        <v>196</v>
       </c>
       <c r="I41" t="e">
         <v>#N/A</v>
@@ -4961,8 +4976,8 @@
       <c r="M41" t="n">
         <v>1.0</v>
       </c>
-      <c r="N41" t="n">
-        <v>5.0</v>
+      <c r="N41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O41" t="e">
         <v>#N/A</v>
@@ -4980,10 +4995,10 @@
         <v>5.0</v>
       </c>
       <c r="T41" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V41" t="n">
         <v>5.0</v>
@@ -4997,8 +5012,8 @@
       <c r="Y41" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z41" t="n">
-        <v>5.0</v>
+      <c r="Z41" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA41" t="e">
         <v>#N/A</v>
@@ -5036,10 +5051,10 @@
         <v>173</v>
       </c>
       <c r="C42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
         <v>190</v>
-      </c>
-      <c r="D42" t="s">
-        <v>191</v>
       </c>
       <c r="E42" t="n">
         <v>2.0</v>
@@ -5050,8 +5065,8 @@
       <c r="G42" t="n">
         <v>5.0</v>
       </c>
-      <c r="H42" t="n">
-        <v>7.0</v>
+      <c r="H42" t="s">
+        <v>197</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -5068,8 +5083,8 @@
       <c r="M42" t="n">
         <v>3.0</v>
       </c>
-      <c r="N42" t="n">
-        <v>5.0</v>
+      <c r="N42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O42" t="e">
         <v>#N/A</v>
@@ -5087,19 +5102,19 @@
         <v>5.0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U42" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V42" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W42" t="n">
         <v>5.0</v>
       </c>
-      <c r="X42" t="e">
-        <v>#N/A</v>
+      <c r="X42" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y42" t="e">
         <v>#N/A</v>
@@ -5143,10 +5158,10 @@
         <v>173</v>
       </c>
       <c r="C43" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" t="s">
         <v>190</v>
-      </c>
-      <c r="D43" t="s">
-        <v>191</v>
       </c>
       <c r="E43" t="n">
         <v>2.0</v>
@@ -5157,8 +5172,8 @@
       <c r="G43" t="n">
         <v>5.0</v>
       </c>
-      <c r="H43" t="n">
-        <v>6.0</v>
+      <c r="H43" t="s">
+        <v>192</v>
       </c>
       <c r="I43" t="e">
         <v>#N/A</v>
@@ -5175,8 +5190,8 @@
       <c r="M43" t="n">
         <v>1.0</v>
       </c>
-      <c r="N43" t="n">
-        <v>5.0</v>
+      <c r="N43" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O43" t="e">
         <v>#N/A</v>
@@ -5194,10 +5209,10 @@
         <v>5.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V43" t="n">
         <v>5.0</v>
@@ -5250,10 +5265,10 @@
         <v>173</v>
       </c>
       <c r="C44" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" t="s">
         <v>190</v>
-      </c>
-      <c r="D44" t="s">
-        <v>191</v>
       </c>
       <c r="E44" t="n">
         <v>2.0</v>
@@ -5264,8 +5279,8 @@
       <c r="G44" t="n">
         <v>5.0</v>
       </c>
-      <c r="H44" t="n">
-        <v>6.0</v>
+      <c r="H44" t="s">
+        <v>192</v>
       </c>
       <c r="I44" t="e">
         <v>#N/A</v>
@@ -5280,10 +5295,10 @@
         <v>5.0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O44" t="e">
         <v>#N/A</v>
@@ -5301,10 +5316,10 @@
         <v>5.0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U44" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V44" t="n">
         <v>5.0</v>
@@ -5312,14 +5327,14 @@
       <c r="W44" t="n">
         <v>5.0</v>
       </c>
-      <c r="X44" t="e">
-        <v>#N/A</v>
+      <c r="X44" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y44" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z44" t="n">
-        <v>5.0</v>
+      <c r="Z44" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA44" t="e">
         <v>#N/A</v>
@@ -5357,10 +5372,10 @@
         <v>173</v>
       </c>
       <c r="C45" t="s">
+        <v>189</v>
+      </c>
+      <c r="D45" t="s">
         <v>190</v>
-      </c>
-      <c r="D45" t="s">
-        <v>191</v>
       </c>
       <c r="E45" t="n">
         <v>2.0</v>
@@ -5371,8 +5386,8 @@
       <c r="G45" t="n">
         <v>5.0</v>
       </c>
-      <c r="H45" t="n">
-        <v>6.0</v>
+      <c r="H45" t="s">
+        <v>192</v>
       </c>
       <c r="I45" t="e">
         <v>#N/A</v>
@@ -5389,8 +5404,8 @@
       <c r="M45" t="n">
         <v>1.0</v>
       </c>
-      <c r="N45" t="n">
-        <v>5.0</v>
+      <c r="N45" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O45" t="e">
         <v>#N/A</v>
@@ -5408,10 +5423,10 @@
         <v>5.0</v>
       </c>
       <c r="T45" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U45" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V45" t="n">
         <v>5.0</v>
@@ -5419,8 +5434,8 @@
       <c r="W45" t="n">
         <v>5.0</v>
       </c>
-      <c r="X45" t="e">
-        <v>#N/A</v>
+      <c r="X45" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y45" t="e">
         <v>#N/A</v>
@@ -5464,10 +5479,10 @@
         <v>174</v>
       </c>
       <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
         <v>190</v>
-      </c>
-      <c r="D46" t="s">
-        <v>191</v>
       </c>
       <c r="E46" t="n">
         <v>2.0</v>
@@ -5478,8 +5493,8 @@
       <c r="G46" t="n">
         <v>5.0</v>
       </c>
-      <c r="H46" t="n">
-        <v>7.0</v>
+      <c r="H46" t="s">
+        <v>197</v>
       </c>
       <c r="I46" t="e">
         <v>#N/A</v>
@@ -5496,8 +5511,8 @@
       <c r="M46" t="n">
         <v>1.0</v>
       </c>
-      <c r="N46" t="n">
-        <v>1.0</v>
+      <c r="N46" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O46" t="e">
         <v>#N/A</v>
@@ -5515,10 +5530,10 @@
         <v>5.0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V46" t="n">
         <v>5.0</v>
@@ -5527,7 +5542,7 @@
         <v>5.0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y46" t="e">
         <v>#N/A</v>
@@ -5571,10 +5586,10 @@
         <v>174</v>
       </c>
       <c r="C47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" t="s">
         <v>190</v>
-      </c>
-      <c r="D47" t="s">
-        <v>191</v>
       </c>
       <c r="E47" t="n">
         <v>2.0</v>
@@ -5585,8 +5600,8 @@
       <c r="G47" t="n">
         <v>5.0</v>
       </c>
-      <c r="H47" t="n">
-        <v>7.0</v>
+      <c r="H47" t="s">
+        <v>197</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -5603,8 +5618,8 @@
       <c r="M47" t="n">
         <v>3.0</v>
       </c>
-      <c r="N47" t="n">
-        <v>5.0</v>
+      <c r="N47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O47" t="e">
         <v>#N/A</v>
@@ -5622,10 +5637,10 @@
         <v>5.0</v>
       </c>
       <c r="T47" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U47" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V47" t="n">
         <v>5.0</v>
@@ -5639,8 +5654,8 @@
       <c r="Y47" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z47" t="n">
-        <v>5.0</v>
+      <c r="Z47" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA47" t="e">
         <v>#N/A</v>
@@ -5678,10 +5693,10 @@
         <v>175</v>
       </c>
       <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
         <v>190</v>
-      </c>
-      <c r="D48" t="s">
-        <v>191</v>
       </c>
       <c r="E48" t="n">
         <v>2.0</v>
@@ -5692,8 +5707,8 @@
       <c r="G48" t="n">
         <v>5.0</v>
       </c>
-      <c r="H48" t="n">
-        <v>6.0</v>
+      <c r="H48" t="s">
+        <v>192</v>
       </c>
       <c r="I48" t="e">
         <v>#N/A</v>
@@ -5710,8 +5725,8 @@
       <c r="M48" t="n">
         <v>1.0</v>
       </c>
-      <c r="N48" t="n">
-        <v>5.0</v>
+      <c r="N48" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O48" t="e">
         <v>#N/A</v>
@@ -5729,10 +5744,10 @@
         <v>5.0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U48" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V48" t="n">
         <v>5.0</v>
@@ -5785,10 +5800,10 @@
         <v>175</v>
       </c>
       <c r="C49" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" t="s">
         <v>190</v>
-      </c>
-      <c r="D49" t="s">
-        <v>191</v>
       </c>
       <c r="E49" t="n">
         <v>2.0</v>
@@ -5799,8 +5814,8 @@
       <c r="G49" t="n">
         <v>5.0</v>
       </c>
-      <c r="H49" t="n">
-        <v>6.0</v>
+      <c r="H49" t="s">
+        <v>192</v>
       </c>
       <c r="I49" t="e">
         <v>#N/A</v>
@@ -5815,10 +5830,10 @@
         <v>5.0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O49" t="e">
         <v>#N/A</v>
@@ -5836,10 +5851,10 @@
         <v>5.0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U49" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V49" t="n">
         <v>5.0</v>
@@ -5853,8 +5868,8 @@
       <c r="Y49" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z49" t="n">
-        <v>5.0</v>
+      <c r="Z49" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA49" t="e">
         <v>#N/A</v>
@@ -5892,10 +5907,10 @@
         <v>175</v>
       </c>
       <c r="C50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" t="s">
         <v>190</v>
-      </c>
-      <c r="D50" t="s">
-        <v>191</v>
       </c>
       <c r="E50" t="n">
         <v>2.0</v>
@@ -5906,8 +5921,8 @@
       <c r="G50" t="n">
         <v>5.0</v>
       </c>
-      <c r="H50" t="n">
-        <v>6.0</v>
+      <c r="H50" t="s">
+        <v>192</v>
       </c>
       <c r="I50" t="e">
         <v>#N/A</v>
@@ -5924,8 +5939,8 @@
       <c r="M50" t="n">
         <v>1.0</v>
       </c>
-      <c r="N50" t="n">
-        <v>5.0</v>
+      <c r="N50" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O50" t="e">
         <v>#N/A</v>
@@ -5943,13 +5958,13 @@
         <v>5.0</v>
       </c>
       <c r="T50" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U50" t="n">
         <v>1.0</v>
       </c>
       <c r="V50" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W50" t="n">
         <v>5.0</v>
@@ -5999,10 +6014,10 @@
         <v>175</v>
       </c>
       <c r="C51" t="s">
+        <v>189</v>
+      </c>
+      <c r="D51" t="s">
         <v>190</v>
-      </c>
-      <c r="D51" t="s">
-        <v>191</v>
       </c>
       <c r="E51" t="n">
         <v>2.0</v>
@@ -6013,8 +6028,8 @@
       <c r="G51" t="n">
         <v>5.0</v>
       </c>
-      <c r="H51" t="n">
-        <v>7.0</v>
+      <c r="H51" t="s">
+        <v>197</v>
       </c>
       <c r="I51" t="n">
         <v>0.2401135187079382</v>
@@ -6031,8 +6046,8 @@
       <c r="M51" t="n">
         <v>3.0</v>
       </c>
-      <c r="N51" t="n">
-        <v>5.0</v>
+      <c r="N51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O51" t="e">
         <v>#N/A</v>
@@ -6050,13 +6065,13 @@
         <v>5.0</v>
       </c>
       <c r="T51" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U51" t="n">
         <v>1.0</v>
       </c>
       <c r="V51" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W51" t="n">
         <v>5.0</v>
@@ -6067,8 +6082,8 @@
       <c r="Y51" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z51" t="n">
-        <v>5.0</v>
+      <c r="Z51" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA51" t="e">
         <v>#N/A</v>
@@ -6106,10 +6121,10 @@
         <v>171</v>
       </c>
       <c r="C52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" t="s">
         <v>190</v>
-      </c>
-      <c r="D52" t="s">
-        <v>191</v>
       </c>
       <c r="E52" t="n">
         <v>2.0</v>
@@ -6120,8 +6135,8 @@
       <c r="G52" t="n">
         <v>5.0</v>
       </c>
-      <c r="H52" t="n">
-        <v>4.0</v>
+      <c r="H52" t="s">
+        <v>196</v>
       </c>
       <c r="I52" t="e">
         <v>#N/A</v>
@@ -6138,8 +6153,8 @@
       <c r="M52" t="n">
         <v>1.0</v>
       </c>
-      <c r="N52" t="n">
-        <v>1.0</v>
+      <c r="N52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O52" t="e">
         <v>#N/A</v>
@@ -6157,10 +6172,10 @@
         <v>5.0</v>
       </c>
       <c r="T52" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U52" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V52" t="n">
         <v>5.0</v>
@@ -6168,14 +6183,14 @@
       <c r="W52" t="n">
         <v>5.0</v>
       </c>
-      <c r="X52" t="e">
-        <v>#N/A</v>
+      <c r="X52" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z52" t="n">
-        <v>5.0</v>
+      <c r="Z52" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA52" t="e">
         <v>#N/A</v>
@@ -6213,10 +6228,10 @@
         <v>175</v>
       </c>
       <c r="C53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" t="s">
         <v>190</v>
-      </c>
-      <c r="D53" t="s">
-        <v>191</v>
       </c>
       <c r="E53" t="n">
         <v>2.0</v>
@@ -6227,8 +6242,8 @@
       <c r="G53" t="n">
         <v>5.0</v>
       </c>
-      <c r="H53" t="n">
-        <v>7.0</v>
+      <c r="H53" t="s">
+        <v>197</v>
       </c>
       <c r="I53" t="n">
         <v>0.35466808536046146</v>
@@ -6243,10 +6258,10 @@
         <v>3.0</v>
       </c>
       <c r="M53" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N53" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O53" t="e">
         <v>#N/A</v>
@@ -6264,19 +6279,19 @@
         <v>5.0</v>
       </c>
       <c r="T53" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U53" t="n">
         <v>1.0</v>
       </c>
       <c r="V53" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W53" t="n">
         <v>5.0</v>
       </c>
-      <c r="X53" t="e">
-        <v>#N/A</v>
+      <c r="X53" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y53" t="e">
         <v>#N/A</v>
@@ -6320,10 +6335,10 @@
         <v>175</v>
       </c>
       <c r="C54" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" t="s">
         <v>190</v>
-      </c>
-      <c r="D54" t="s">
-        <v>191</v>
       </c>
       <c r="E54" t="n">
         <v>2.0</v>
@@ -6334,8 +6349,8 @@
       <c r="G54" t="n">
         <v>5.0</v>
       </c>
-      <c r="H54" t="n">
-        <v>7.0</v>
+      <c r="H54" t="s">
+        <v>197</v>
       </c>
       <c r="I54" t="n">
         <v>0.23428253948793523</v>
@@ -6352,8 +6367,8 @@
       <c r="M54" t="n">
         <v>1.0</v>
       </c>
-      <c r="N54" t="n">
-        <v>5.0</v>
+      <c r="N54" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O54" t="e">
         <v>#N/A</v>
@@ -6371,10 +6386,10 @@
         <v>5.0</v>
       </c>
       <c r="T54" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U54" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V54" t="n">
         <v>5.0</v>
@@ -6427,10 +6442,10 @@
         <v>175</v>
       </c>
       <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" t="s">
         <v>190</v>
-      </c>
-      <c r="D55" t="s">
-        <v>191</v>
       </c>
       <c r="E55" t="n">
         <v>2.0</v>
@@ -6441,8 +6456,8 @@
       <c r="G55" t="n">
         <v>5.0</v>
       </c>
-      <c r="H55" t="n">
-        <v>7.0</v>
+      <c r="H55" t="s">
+        <v>197</v>
       </c>
       <c r="I55" t="n">
         <v>0.2478678647451666</v>
@@ -6459,8 +6474,8 @@
       <c r="M55" t="n">
         <v>3.0</v>
       </c>
-      <c r="N55" t="n">
-        <v>5.0</v>
+      <c r="N55" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O55" t="e">
         <v>#N/A</v>
@@ -6481,7 +6496,7 @@
         <v>5.0</v>
       </c>
       <c r="U55" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V55" t="n">
         <v>5.0</v>
@@ -6489,8 +6504,8 @@
       <c r="W55" t="n">
         <v>5.0</v>
       </c>
-      <c r="X55" t="e">
-        <v>#N/A</v>
+      <c r="X55" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y55" t="e">
         <v>#N/A</v>
@@ -6534,10 +6549,10 @@
         <v>175</v>
       </c>
       <c r="C56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" t="s">
         <v>190</v>
-      </c>
-      <c r="D56" t="s">
-        <v>191</v>
       </c>
       <c r="E56" t="n">
         <v>2.0</v>
@@ -6548,8 +6563,8 @@
       <c r="G56" t="n">
         <v>5.0</v>
       </c>
-      <c r="H56" t="n">
-        <v>6.0</v>
+      <c r="H56" t="s">
+        <v>192</v>
       </c>
       <c r="I56" t="e">
         <v>#N/A</v>
@@ -6566,8 +6581,8 @@
       <c r="M56" t="n">
         <v>3.0</v>
       </c>
-      <c r="N56" t="n">
-        <v>5.0</v>
+      <c r="N56" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O56" t="e">
         <v>#N/A</v>
@@ -6585,13 +6600,13 @@
         <v>5.0</v>
       </c>
       <c r="T56" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U56" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V56" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W56" t="n">
         <v>5.0</v>
@@ -6641,10 +6656,10 @@
         <v>176</v>
       </c>
       <c r="C57" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" t="s">
         <v>190</v>
-      </c>
-      <c r="D57" t="s">
-        <v>191</v>
       </c>
       <c r="E57" t="n">
         <v>2.0</v>
@@ -6655,8 +6670,8 @@
       <c r="G57" t="n">
         <v>5.0</v>
       </c>
-      <c r="H57" t="n">
-        <v>5.0</v>
+      <c r="H57" t="s">
+        <v>195</v>
       </c>
       <c r="I57" t="e">
         <v>#N/A</v>
@@ -6670,11 +6685,11 @@
       <c r="L57" t="n">
         <v>5.0</v>
       </c>
-      <c r="M57" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>5.0</v>
+      <c r="M57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N57" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O57" t="e">
         <v>#N/A</v>
@@ -6695,7 +6710,7 @@
         <v>5.0</v>
       </c>
       <c r="U57" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V57" t="n">
         <v>5.0</v>
@@ -6748,10 +6763,10 @@
         <v>176</v>
       </c>
       <c r="C58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" t="s">
         <v>190</v>
-      </c>
-      <c r="D58" t="s">
-        <v>191</v>
       </c>
       <c r="E58" t="n">
         <v>2.0</v>
@@ -6762,8 +6777,8 @@
       <c r="G58" t="n">
         <v>5.0</v>
       </c>
-      <c r="H58" t="n">
-        <v>5.0</v>
+      <c r="H58" t="s">
+        <v>195</v>
       </c>
       <c r="I58" t="e">
         <v>#N/A</v>
@@ -6780,8 +6795,8 @@
       <c r="M58" t="n">
         <v>1.0</v>
       </c>
-      <c r="N58" t="n">
-        <v>5.0</v>
+      <c r="N58" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O58" t="e">
         <v>#N/A</v>
@@ -6802,7 +6817,7 @@
         <v>5.0</v>
       </c>
       <c r="U58" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V58" t="n">
         <v>5.0</v>
@@ -6855,10 +6870,10 @@
         <v>176</v>
       </c>
       <c r="C59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" t="s">
         <v>190</v>
-      </c>
-      <c r="D59" t="s">
-        <v>191</v>
       </c>
       <c r="E59" t="n">
         <v>2.0</v>
@@ -6869,8 +6884,8 @@
       <c r="G59" t="n">
         <v>5.0</v>
       </c>
-      <c r="H59" t="n">
-        <v>5.0</v>
+      <c r="H59" t="s">
+        <v>195</v>
       </c>
       <c r="I59" t="e">
         <v>#N/A</v>
@@ -6887,8 +6902,8 @@
       <c r="M59" t="n">
         <v>1.0</v>
       </c>
-      <c r="N59" t="n">
-        <v>5.0</v>
+      <c r="N59" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O59" t="e">
         <v>#N/A</v>
@@ -6909,10 +6924,10 @@
         <v>5.0</v>
       </c>
       <c r="U59" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="V59" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W59" t="n">
         <v>5.0</v>
@@ -6962,10 +6977,10 @@
         <v>176</v>
       </c>
       <c r="C60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" t="s">
         <v>190</v>
-      </c>
-      <c r="D60" t="s">
-        <v>191</v>
       </c>
       <c r="E60" t="n">
         <v>2.0</v>
@@ -6976,8 +6991,8 @@
       <c r="G60" t="n">
         <v>5.0</v>
       </c>
-      <c r="H60" t="n">
-        <v>5.0</v>
+      <c r="H60" t="s">
+        <v>195</v>
       </c>
       <c r="I60" t="e">
         <v>#N/A</v>
@@ -6992,10 +7007,10 @@
         <v>5.0</v>
       </c>
       <c r="M60" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N60" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O60" t="e">
         <v>#N/A</v>
@@ -7016,7 +7031,7 @@
         <v>5.0</v>
       </c>
       <c r="U60" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V60" t="n">
         <v>5.0</v>
@@ -7024,8 +7039,8 @@
       <c r="W60" t="n">
         <v>5.0</v>
       </c>
-      <c r="X60" t="e">
-        <v>#N/A</v>
+      <c r="X60" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y60" t="e">
         <v>#N/A</v>
@@ -7069,10 +7084,10 @@
         <v>176</v>
       </c>
       <c r="C61" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" t="s">
         <v>190</v>
-      </c>
-      <c r="D61" t="s">
-        <v>191</v>
       </c>
       <c r="E61" t="n">
         <v>2.0</v>
@@ -7083,8 +7098,8 @@
       <c r="G61" t="n">
         <v>5.0</v>
       </c>
-      <c r="H61" t="n">
-        <v>5.0</v>
+      <c r="H61" t="s">
+        <v>195</v>
       </c>
       <c r="I61" t="e">
         <v>#N/A</v>
@@ -7099,10 +7114,10 @@
         <v>5.0</v>
       </c>
       <c r="M61" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N61" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O61" t="e">
         <v>#N/A</v>
@@ -7123,7 +7138,7 @@
         <v>5.0</v>
       </c>
       <c r="U61" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V61" t="n">
         <v>5.0</v>
@@ -7176,10 +7191,10 @@
         <v>176</v>
       </c>
       <c r="C62" t="s">
+        <v>189</v>
+      </c>
+      <c r="D62" t="s">
         <v>190</v>
-      </c>
-      <c r="D62" t="s">
-        <v>191</v>
       </c>
       <c r="E62" t="n">
         <v>2.0</v>
@@ -7190,8 +7205,8 @@
       <c r="G62" t="n">
         <v>5.0</v>
       </c>
-      <c r="H62" t="n">
-        <v>7.0</v>
+      <c r="H62" t="s">
+        <v>197</v>
       </c>
       <c r="I62" t="n">
         <v>0.0</v>
@@ -7206,10 +7221,10 @@
         <v>5.0</v>
       </c>
       <c r="M62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O62" t="e">
         <v>#N/A</v>
@@ -7230,7 +7245,7 @@
         <v>5.0</v>
       </c>
       <c r="U62" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V62" t="n">
         <v>5.0</v>
@@ -7238,14 +7253,14 @@
       <c r="W62" t="n">
         <v>5.0</v>
       </c>
-      <c r="X62" t="e">
-        <v>#N/A</v>
+      <c r="X62" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y62" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z62" t="n">
-        <v>1.0</v>
+      <c r="Z62" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA62" t="e">
         <v>#N/A</v>
@@ -7283,10 +7298,10 @@
         <v>171</v>
       </c>
       <c r="C63" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" t="s">
         <v>190</v>
-      </c>
-      <c r="D63" t="s">
-        <v>191</v>
       </c>
       <c r="E63" t="n">
         <v>2.0</v>
@@ -7297,8 +7312,8 @@
       <c r="G63" t="n">
         <v>5.0</v>
       </c>
-      <c r="H63" t="n">
-        <v>4.0</v>
+      <c r="H63" t="s">
+        <v>196</v>
       </c>
       <c r="I63" t="e">
         <v>#N/A</v>
@@ -7313,10 +7328,10 @@
         <v>5.0</v>
       </c>
       <c r="M63" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N63" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O63" t="e">
         <v>#N/A</v>
@@ -7334,10 +7349,10 @@
         <v>5.0</v>
       </c>
       <c r="T63" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U63" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V63" t="n">
         <v>5.0</v>
@@ -7345,8 +7360,8 @@
       <c r="W63" t="n">
         <v>5.0</v>
       </c>
-      <c r="X63" t="e">
-        <v>#N/A</v>
+      <c r="X63" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y63" t="e">
         <v>#N/A</v>
@@ -7390,10 +7405,10 @@
         <v>176</v>
       </c>
       <c r="C64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" t="s">
         <v>190</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
       </c>
       <c r="E64" t="n">
         <v>2.0</v>
@@ -7404,8 +7419,8 @@
       <c r="G64" t="n">
         <v>5.0</v>
       </c>
-      <c r="H64" t="n">
-        <v>7.0</v>
+      <c r="H64" t="s">
+        <v>197</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
@@ -7422,8 +7437,8 @@
       <c r="M64" t="n">
         <v>1.0</v>
       </c>
-      <c r="N64" t="n">
-        <v>5.0</v>
+      <c r="N64" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O64" t="e">
         <v>#N/A</v>
@@ -7444,7 +7459,7 @@
         <v>5.0</v>
       </c>
       <c r="U64" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V64" t="n">
         <v>5.0</v>
@@ -7453,7 +7468,7 @@
         <v>5.0</v>
       </c>
       <c r="X64" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y64" t="e">
         <v>#N/A</v>
@@ -7497,10 +7512,10 @@
         <v>176</v>
       </c>
       <c r="C65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" t="s">
         <v>190</v>
-      </c>
-      <c r="D65" t="s">
-        <v>191</v>
       </c>
       <c r="E65" t="n">
         <v>2.0</v>
@@ -7511,8 +7526,8 @@
       <c r="G65" t="n">
         <v>5.0</v>
       </c>
-      <c r="H65" t="n">
-        <v>7.0</v>
+      <c r="H65" t="s">
+        <v>197</v>
       </c>
       <c r="I65" t="n">
         <v>0.0</v>
@@ -7529,8 +7544,8 @@
       <c r="M65" t="n">
         <v>1.0</v>
       </c>
-      <c r="N65" t="n">
-        <v>5.0</v>
+      <c r="N65" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O65" t="e">
         <v>#N/A</v>
@@ -7551,7 +7566,7 @@
         <v>5.0</v>
       </c>
       <c r="U65" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V65" t="n">
         <v>5.0</v>
@@ -7560,7 +7575,7 @@
         <v>5.0</v>
       </c>
       <c r="X65" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y65" t="e">
         <v>#N/A</v>
@@ -7604,10 +7619,10 @@
         <v>176</v>
       </c>
       <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
         <v>190</v>
-      </c>
-      <c r="D66" t="s">
-        <v>191</v>
       </c>
       <c r="E66" t="n">
         <v>2.0</v>
@@ -7618,8 +7633,8 @@
       <c r="G66" t="n">
         <v>5.0</v>
       </c>
-      <c r="H66" t="n">
-        <v>5.0</v>
+      <c r="H66" t="s">
+        <v>195</v>
       </c>
       <c r="I66" t="e">
         <v>#N/A</v>
@@ -7636,8 +7651,8 @@
       <c r="M66" t="n">
         <v>1.0</v>
       </c>
-      <c r="N66" t="n">
-        <v>5.0</v>
+      <c r="N66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O66" t="e">
         <v>#N/A</v>
@@ -7658,7 +7673,7 @@
         <v>5.0</v>
       </c>
       <c r="U66" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V66" t="n">
         <v>5.0</v>
@@ -7666,8 +7681,8 @@
       <c r="W66" t="n">
         <v>5.0</v>
       </c>
-      <c r="X66" t="e">
-        <v>#N/A</v>
+      <c r="X66" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y66" t="e">
         <v>#N/A</v>
@@ -7711,10 +7726,10 @@
         <v>177</v>
       </c>
       <c r="C67" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" t="s">
         <v>190</v>
-      </c>
-      <c r="D67" t="s">
-        <v>191</v>
       </c>
       <c r="E67" t="n">
         <v>2.0</v>
@@ -7725,8 +7740,8 @@
       <c r="G67" t="n">
         <v>5.0</v>
       </c>
-      <c r="H67" t="n">
-        <v>7.0</v>
+      <c r="H67" t="s">
+        <v>197</v>
       </c>
       <c r="I67" t="n">
         <v>0.0</v>
@@ -7743,8 +7758,8 @@
       <c r="M67" t="n">
         <v>3.0</v>
       </c>
-      <c r="N67" t="n">
-        <v>5.0</v>
+      <c r="N67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O67" t="e">
         <v>#N/A</v>
@@ -7762,10 +7777,10 @@
         <v>5.0</v>
       </c>
       <c r="T67" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U67" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V67" t="n">
         <v>5.0</v>
@@ -7779,8 +7794,8 @@
       <c r="Y67" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z67" t="n">
-        <v>1.0</v>
+      <c r="Z67" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA67" t="e">
         <v>#N/A</v>
@@ -7818,10 +7833,10 @@
         <v>177</v>
       </c>
       <c r="C68" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" t="s">
         <v>190</v>
-      </c>
-      <c r="D68" t="s">
-        <v>191</v>
       </c>
       <c r="E68" t="n">
         <v>2.0</v>
@@ -7832,8 +7847,8 @@
       <c r="G68" t="n">
         <v>5.0</v>
       </c>
-      <c r="H68" t="n">
-        <v>7.0</v>
+      <c r="H68" t="s">
+        <v>197</v>
       </c>
       <c r="I68" t="n">
         <v>0.0</v>
@@ -7847,11 +7862,11 @@
       <c r="L68" t="n">
         <v>5.0</v>
       </c>
-      <c r="M68" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1.0</v>
+      <c r="M68" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O68" t="e">
         <v>#N/A</v>
@@ -7872,7 +7887,7 @@
         <v>5.0</v>
       </c>
       <c r="U68" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V68" t="n">
         <v>5.0</v>
@@ -7925,10 +7940,10 @@
         <v>177</v>
       </c>
       <c r="C69" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" t="s">
         <v>190</v>
-      </c>
-      <c r="D69" t="s">
-        <v>191</v>
       </c>
       <c r="E69" t="n">
         <v>2.0</v>
@@ -7939,8 +7954,8 @@
       <c r="G69" t="n">
         <v>5.0</v>
       </c>
-      <c r="H69" t="n">
-        <v>7.0</v>
+      <c r="H69" t="s">
+        <v>197</v>
       </c>
       <c r="I69" t="n">
         <v>0.0</v>
@@ -7957,8 +7972,8 @@
       <c r="M69" t="n">
         <v>1.0</v>
       </c>
-      <c r="N69" t="n">
-        <v>1.0</v>
+      <c r="N69" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O69" t="e">
         <v>#N/A</v>
@@ -7982,13 +7997,13 @@
         <v>3.0</v>
       </c>
       <c r="V69" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W69" t="n">
         <v>5.0</v>
       </c>
-      <c r="X69" t="e">
-        <v>#N/A</v>
+      <c r="X69" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y69" t="e">
         <v>#N/A</v>
@@ -8032,10 +8047,10 @@
         <v>170</v>
       </c>
       <c r="C70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s">
         <v>190</v>
-      </c>
-      <c r="D70" t="s">
-        <v>191</v>
       </c>
       <c r="E70" t="n">
         <v>2.0</v>
@@ -8046,8 +8061,8 @@
       <c r="G70" t="n">
         <v>5.0</v>
       </c>
-      <c r="H70" t="n">
-        <v>5.0</v>
+      <c r="H70" t="s">
+        <v>195</v>
       </c>
       <c r="I70" t="e">
         <v>#N/A</v>
@@ -8064,8 +8079,8 @@
       <c r="M70" t="n">
         <v>1.0</v>
       </c>
-      <c r="N70" t="n">
-        <v>5.0</v>
+      <c r="N70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O70" t="e">
         <v>#N/A</v>
@@ -8079,14 +8094,14 @@
       <c r="R70" t="n">
         <v>5.0</v>
       </c>
-      <c r="S70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T70" t="n">
-        <v>1.0</v>
+      <c r="S70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T70" t="e">
+        <v>#N/A</v>
       </c>
       <c r="U70" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V70" t="n">
         <v>5.0</v>
@@ -8139,10 +8154,10 @@
         <v>170</v>
       </c>
       <c r="C71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s">
         <v>190</v>
-      </c>
-      <c r="D71" t="s">
-        <v>191</v>
       </c>
       <c r="E71" t="n">
         <v>2.0</v>
@@ -8153,8 +8168,8 @@
       <c r="G71" t="n">
         <v>1.0</v>
       </c>
-      <c r="H71" t="n">
-        <v>5.0</v>
+      <c r="H71" t="s">
+        <v>195</v>
       </c>
       <c r="I71" t="e">
         <v>#N/A</v>
@@ -8171,8 +8186,8 @@
       <c r="M71" t="n">
         <v>1.0</v>
       </c>
-      <c r="N71" t="n">
-        <v>5.0</v>
+      <c r="N71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O71" t="e">
         <v>#N/A</v>
@@ -8189,11 +8204,11 @@
       <c r="S71" t="e">
         <v>#N/A</v>
       </c>
-      <c r="T71" t="n">
-        <v>5.0</v>
+      <c r="T71" t="e">
+        <v>#N/A</v>
       </c>
       <c r="U71" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V71" t="n">
         <v>5.0</v>
@@ -8201,8 +8216,8 @@
       <c r="W71" t="n">
         <v>5.0</v>
       </c>
-      <c r="X71" t="e">
-        <v>#N/A</v>
+      <c r="X71" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y71" t="e">
         <v>#N/A</v>
@@ -8246,10 +8261,10 @@
         <v>171</v>
       </c>
       <c r="C72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" t="s">
         <v>190</v>
-      </c>
-      <c r="D72" t="s">
-        <v>191</v>
       </c>
       <c r="E72" t="n">
         <v>2.0</v>
@@ -8260,8 +8275,8 @@
       <c r="G72" t="n">
         <v>5.0</v>
       </c>
-      <c r="H72" t="n">
-        <v>4.0</v>
+      <c r="H72" t="s">
+        <v>196</v>
       </c>
       <c r="I72" t="e">
         <v>#N/A</v>
@@ -8276,10 +8291,10 @@
         <v>5.0</v>
       </c>
       <c r="M72" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O72" t="e">
         <v>#N/A</v>
@@ -8297,10 +8312,10 @@
         <v>5.0</v>
       </c>
       <c r="T72" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U72" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V72" t="n">
         <v>5.0</v>
@@ -8314,8 +8329,8 @@
       <c r="Y72" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z72" t="n">
-        <v>1.0</v>
+      <c r="Z72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA72" t="e">
         <v>#N/A</v>
@@ -8353,10 +8368,10 @@
         <v>171</v>
       </c>
       <c r="C73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" t="s">
         <v>190</v>
-      </c>
-      <c r="D73" t="s">
-        <v>191</v>
       </c>
       <c r="E73" t="n">
         <v>2.0</v>
@@ -8367,8 +8382,8 @@
       <c r="G73" t="n">
         <v>5.0</v>
       </c>
-      <c r="H73" t="n">
-        <v>4.0</v>
+      <c r="H73" t="s">
+        <v>196</v>
       </c>
       <c r="I73" t="e">
         <v>#N/A</v>
@@ -8383,10 +8398,10 @@
         <v>5.0</v>
       </c>
       <c r="M73" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O73" t="e">
         <v>#N/A</v>
@@ -8404,10 +8419,10 @@
         <v>5.0</v>
       </c>
       <c r="T73" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U73" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V73" t="n">
         <v>5.0</v>
@@ -8415,14 +8430,14 @@
       <c r="W73" t="n">
         <v>5.0</v>
       </c>
-      <c r="X73" t="e">
-        <v>#N/A</v>
+      <c r="X73" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y73" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z73" t="n">
-        <v>1.0</v>
+      <c r="Z73" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA73" t="e">
         <v>#N/A</v>
@@ -8460,10 +8475,10 @@
         <v>171</v>
       </c>
       <c r="C74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" t="s">
         <v>190</v>
-      </c>
-      <c r="D74" t="s">
-        <v>191</v>
       </c>
       <c r="E74" t="n">
         <v>2.0</v>
@@ -8474,8 +8489,8 @@
       <c r="G74" t="n">
         <v>5.0</v>
       </c>
-      <c r="H74" t="n">
-        <v>4.0</v>
+      <c r="H74" t="s">
+        <v>196</v>
       </c>
       <c r="I74" t="e">
         <v>#N/A</v>
@@ -8490,10 +8505,10 @@
         <v>5.0</v>
       </c>
       <c r="M74" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O74" t="e">
         <v>#N/A</v>
@@ -8511,10 +8526,10 @@
         <v>5.0</v>
       </c>
       <c r="T74" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U74" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V74" t="n">
         <v>5.0</v>
@@ -8528,8 +8543,8 @@
       <c r="Y74" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z74" t="n">
-        <v>1.0</v>
+      <c r="Z74" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA74" t="e">
         <v>#N/A</v>
@@ -8567,10 +8582,10 @@
         <v>171</v>
       </c>
       <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
         <v>190</v>
-      </c>
-      <c r="D75" t="s">
-        <v>191</v>
       </c>
       <c r="E75" t="n">
         <v>2.0</v>
@@ -8581,8 +8596,8 @@
       <c r="G75" t="n">
         <v>5.0</v>
       </c>
-      <c r="H75" t="n">
-        <v>4.0</v>
+      <c r="H75" t="s">
+        <v>196</v>
       </c>
       <c r="I75" t="e">
         <v>#N/A</v>
@@ -8599,8 +8614,8 @@
       <c r="M75" t="n">
         <v>1.0</v>
       </c>
-      <c r="N75" t="n">
-        <v>5.0</v>
+      <c r="N75" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O75" t="e">
         <v>#N/A</v>
@@ -8621,7 +8636,7 @@
         <v>5.0</v>
       </c>
       <c r="U75" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V75" t="n">
         <v>5.0</v>
@@ -8674,10 +8689,10 @@
         <v>172</v>
       </c>
       <c r="C76" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" t="s">
         <v>190</v>
-      </c>
-      <c r="D76" t="s">
-        <v>191</v>
       </c>
       <c r="E76" t="n">
         <v>2.0</v>
@@ -8688,8 +8703,8 @@
       <c r="G76" t="n">
         <v>5.0</v>
       </c>
-      <c r="H76" t="n">
-        <v>5.0</v>
+      <c r="H76" t="s">
+        <v>195</v>
       </c>
       <c r="I76" t="e">
         <v>#N/A</v>
@@ -8706,8 +8721,8 @@
       <c r="M76" t="n">
         <v>3.0</v>
       </c>
-      <c r="N76" t="n">
-        <v>5.0</v>
+      <c r="N76" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O76" t="e">
         <v>#N/A</v>
@@ -8725,10 +8740,10 @@
         <v>5.0</v>
       </c>
       <c r="T76" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U76" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V76" t="n">
         <v>5.0</v>
@@ -8781,10 +8796,10 @@
         <v>177</v>
       </c>
       <c r="C77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" t="s">
         <v>190</v>
-      </c>
-      <c r="D77" t="s">
-        <v>191</v>
       </c>
       <c r="E77" t="n">
         <v>2.0</v>
@@ -8795,8 +8810,8 @@
       <c r="G77" t="n">
         <v>5.0</v>
       </c>
-      <c r="H77" t="n">
-        <v>5.0</v>
+      <c r="H77" t="s">
+        <v>195</v>
       </c>
       <c r="I77" t="e">
         <v>#N/A</v>
@@ -8810,11 +8825,11 @@
       <c r="L77" t="n">
         <v>5.0</v>
       </c>
-      <c r="M77" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>1.0</v>
+      <c r="M77" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N77" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O77" t="e">
         <v>#N/A</v>
@@ -8832,10 +8847,10 @@
         <v>5.0</v>
       </c>
       <c r="T77" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U77" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="V77" t="n">
         <v>5.0</v>
@@ -8849,8 +8864,8 @@
       <c r="Y77" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z77" t="n">
-        <v>5.0</v>
+      <c r="Z77" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA77" t="e">
         <v>#N/A</v>
@@ -8888,11 +8903,11 @@
         <v>178</v>
       </c>
       <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
         <v>190</v>
       </c>
-      <c r="D78" t="s">
-        <v>191</v>
-      </c>
       <c r="E78" t="n">
         <v>1.0</v>
       </c>
@@ -8902,8 +8917,8 @@
       <c r="G78" t="n">
         <v>5.0</v>
       </c>
-      <c r="H78" t="n">
-        <v>6.0</v>
+      <c r="H78" t="s">
+        <v>192</v>
       </c>
       <c r="I78" t="n">
         <v>0.13145274065325843</v>
@@ -8920,8 +8935,8 @@
       <c r="M78" t="n">
         <v>3.0</v>
       </c>
-      <c r="N78" t="n">
-        <v>1.0</v>
+      <c r="N78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O78" t="e">
         <v>#N/A</v>
@@ -8939,10 +8954,10 @@
         <v>5.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U78" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V78" t="n">
         <v>5.0</v>
@@ -8951,7 +8966,7 @@
         <v>5.0</v>
       </c>
       <c r="X78" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y78" t="e">
         <v>#N/A</v>
@@ -8992,14 +9007,14 @@
         <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" t="s">
         <v>190</v>
       </c>
-      <c r="D79" t="s">
-        <v>191</v>
-      </c>
       <c r="E79" t="n">
         <v>1.0</v>
       </c>
@@ -9009,8 +9024,8 @@
       <c r="G79" t="n">
         <v>1.0</v>
       </c>
-      <c r="H79" t="n">
-        <v>6.0</v>
+      <c r="H79" t="s">
+        <v>192</v>
       </c>
       <c r="I79" t="n">
         <v>0.0</v>
@@ -9027,8 +9042,8 @@
       <c r="M79" t="n">
         <v>3.0</v>
       </c>
-      <c r="N79" t="n">
-        <v>5.0</v>
+      <c r="N79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O79" t="e">
         <v>#N/A</v>
@@ -9046,10 +9061,10 @@
         <v>5.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U79" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V79" t="n">
         <v>5.0</v>
@@ -9063,8 +9078,8 @@
       <c r="Y79" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z79" t="n">
-        <v>1.0</v>
+      <c r="Z79" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA79" t="e">
         <v>#N/A</v>
@@ -9099,13 +9114,13 @@
         <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" t="s">
         <v>190</v>
-      </c>
-      <c r="D80" t="s">
-        <v>191</v>
       </c>
       <c r="E80" t="n">
         <v>2.0</v>
@@ -9116,8 +9131,8 @@
       <c r="G80" t="n">
         <v>5.0</v>
       </c>
-      <c r="H80" t="n">
-        <v>6.0</v>
+      <c r="H80" t="s">
+        <v>192</v>
       </c>
       <c r="I80" t="n">
         <v>0.0</v>
@@ -9134,8 +9149,8 @@
       <c r="M80" t="n">
         <v>3.0</v>
       </c>
-      <c r="N80" t="n">
-        <v>5.0</v>
+      <c r="N80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O80" t="e">
         <v>#N/A</v>
@@ -9153,10 +9168,10 @@
         <v>5.0</v>
       </c>
       <c r="T80" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U80" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V80" t="n">
         <v>5.0</v>
@@ -9170,8 +9185,8 @@
       <c r="Y80" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z80" t="n">
-        <v>5.0</v>
+      <c r="Z80" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA80" t="e">
         <v>#N/A</v>
@@ -9206,13 +9221,13 @@
         <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" t="s">
         <v>190</v>
-      </c>
-      <c r="D81" t="s">
-        <v>191</v>
       </c>
       <c r="E81" t="n">
         <v>2.0</v>
@@ -9223,8 +9238,8 @@
       <c r="G81" t="n">
         <v>5.0</v>
       </c>
-      <c r="H81" t="n">
-        <v>6.0</v>
+      <c r="H81" t="s">
+        <v>192</v>
       </c>
       <c r="I81" t="n">
         <v>0.0</v>
@@ -9239,10 +9254,10 @@
         <v>5.0</v>
       </c>
       <c r="M81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N81" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O81" t="e">
         <v>#N/A</v>
@@ -9260,10 +9275,10 @@
         <v>5.0</v>
       </c>
       <c r="T81" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U81" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V81" t="n">
         <v>5.0</v>
@@ -9277,8 +9292,8 @@
       <c r="Y81" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z81" t="n">
-        <v>1.0</v>
+      <c r="Z81" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA81" t="e">
         <v>#N/A</v>
@@ -9313,13 +9328,13 @@
         <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" t="s">
         <v>190</v>
-      </c>
-      <c r="D82" t="s">
-        <v>191</v>
       </c>
       <c r="E82" t="n">
         <v>2.0</v>
@@ -9330,8 +9345,8 @@
       <c r="G82" t="n">
         <v>5.0</v>
       </c>
-      <c r="H82" t="n">
-        <v>6.0</v>
+      <c r="H82" t="s">
+        <v>192</v>
       </c>
       <c r="I82" t="n">
         <v>0.0</v>
@@ -9348,8 +9363,8 @@
       <c r="M82" t="n">
         <v>1.0</v>
       </c>
-      <c r="N82" t="n">
-        <v>5.0</v>
+      <c r="N82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O82" t="e">
         <v>#N/A</v>
@@ -9367,10 +9382,10 @@
         <v>5.0</v>
       </c>
       <c r="T82" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U82" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V82" t="n">
         <v>5.0</v>
@@ -9384,8 +9399,8 @@
       <c r="Y82" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z82" t="n">
-        <v>5.0</v>
+      <c r="Z82" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA82" t="e">
         <v>#N/A</v>
@@ -9420,13 +9435,13 @@
         <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" t="s">
         <v>190</v>
-      </c>
-      <c r="D83" t="s">
-        <v>191</v>
       </c>
       <c r="E83" t="n">
         <v>2.0</v>
@@ -9437,8 +9452,8 @@
       <c r="G83" t="n">
         <v>5.0</v>
       </c>
-      <c r="H83" t="n">
-        <v>6.0</v>
+      <c r="H83" t="s">
+        <v>192</v>
       </c>
       <c r="I83" t="n">
         <v>0.0</v>
@@ -9453,10 +9468,10 @@
         <v>5.0</v>
       </c>
       <c r="M83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N83" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O83" t="e">
         <v>#N/A</v>
@@ -9474,10 +9489,10 @@
         <v>5.0</v>
       </c>
       <c r="T83" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U83" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V83" t="n">
         <v>5.0</v>
@@ -9527,13 +9542,13 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C84" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" t="s">
         <v>190</v>
-      </c>
-      <c r="D84" t="s">
-        <v>191</v>
       </c>
       <c r="E84" t="n">
         <v>2.0</v>
@@ -9544,8 +9559,8 @@
       <c r="G84" t="n">
         <v>5.0</v>
       </c>
-      <c r="H84" t="n">
-        <v>6.0</v>
+      <c r="H84" t="s">
+        <v>192</v>
       </c>
       <c r="I84" t="n">
         <v>0.0</v>
@@ -9560,10 +9575,10 @@
         <v>5.0</v>
       </c>
       <c r="M84" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O84" t="e">
         <v>#N/A</v>
@@ -9581,10 +9596,10 @@
         <v>5.0</v>
       </c>
       <c r="T84" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U84" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V84" t="n">
         <v>5.0</v>
@@ -9598,8 +9613,8 @@
       <c r="Y84" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z84" t="n">
-        <v>1.0</v>
+      <c r="Z84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA84" t="e">
         <v>#N/A</v>
@@ -9634,13 +9649,13 @@
         <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" t="s">
         <v>190</v>
-      </c>
-      <c r="D85" t="s">
-        <v>191</v>
       </c>
       <c r="E85" t="n">
         <v>2.0</v>
@@ -9651,8 +9666,8 @@
       <c r="G85" t="n">
         <v>5.0</v>
       </c>
-      <c r="H85" t="n">
-        <v>6.0</v>
+      <c r="H85" t="s">
+        <v>192</v>
       </c>
       <c r="I85" t="n">
         <v>0.0</v>
@@ -9669,8 +9684,8 @@
       <c r="M85" t="n">
         <v>3.0</v>
       </c>
-      <c r="N85" t="n">
-        <v>5.0</v>
+      <c r="N85" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O85" t="e">
         <v>#N/A</v>
@@ -9688,13 +9703,13 @@
         <v>5.0</v>
       </c>
       <c r="T85" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U85" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="V85" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W85" t="n">
         <v>5.0</v>
@@ -9741,13 +9756,13 @@
         <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C86" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" t="s">
         <v>190</v>
-      </c>
-      <c r="D86" t="s">
-        <v>191</v>
       </c>
       <c r="E86" t="n">
         <v>2.0</v>
@@ -9758,8 +9773,8 @@
       <c r="G86" t="n">
         <v>5.0</v>
       </c>
-      <c r="H86" t="n">
-        <v>6.0</v>
+      <c r="H86" t="s">
+        <v>192</v>
       </c>
       <c r="I86" t="n">
         <v>0.0</v>
@@ -9776,8 +9791,8 @@
       <c r="M86" t="n">
         <v>3.0</v>
       </c>
-      <c r="N86" t="n">
-        <v>5.0</v>
+      <c r="N86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O86" t="e">
         <v>#N/A</v>
@@ -9795,10 +9810,10 @@
         <v>5.0</v>
       </c>
       <c r="T86" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U86" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V86" t="n">
         <v>5.0</v>
@@ -9812,8 +9827,8 @@
       <c r="Y86" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z86" t="n">
-        <v>5.0</v>
+      <c r="Z86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA86" t="e">
         <v>#N/A</v>
@@ -9851,11 +9866,11 @@
         <v>178</v>
       </c>
       <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" t="s">
         <v>190</v>
       </c>
-      <c r="D87" t="s">
-        <v>191</v>
-      </c>
       <c r="E87" t="n">
         <v>1.0</v>
       </c>
@@ -9865,8 +9880,8 @@
       <c r="G87" t="n">
         <v>5.0</v>
       </c>
-      <c r="H87" t="n">
-        <v>6.0</v>
+      <c r="H87" t="s">
+        <v>192</v>
       </c>
       <c r="I87" t="n">
         <v>0.19295574844949473</v>
@@ -9883,8 +9898,8 @@
       <c r="M87" t="n">
         <v>3.0</v>
       </c>
-      <c r="N87" t="n">
-        <v>5.0</v>
+      <c r="N87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O87" t="e">
         <v>#N/A</v>
@@ -9898,14 +9913,14 @@
       <c r="R87" t="n">
         <v>5.0</v>
       </c>
-      <c r="S87" t="n">
-        <v>5.0</v>
+      <c r="S87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="T87" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U87" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V87" t="n">
         <v>5.0</v>
@@ -9913,14 +9928,14 @@
       <c r="W87" t="n">
         <v>5.0</v>
       </c>
-      <c r="X87" t="e">
-        <v>#N/A</v>
+      <c r="X87" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y87" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z87" t="n">
-        <v>1.0</v>
+      <c r="Z87" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA87" t="e">
         <v>#N/A</v>
@@ -9958,11 +9973,11 @@
         <v>178</v>
       </c>
       <c r="C88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88" t="s">
         <v>190</v>
       </c>
-      <c r="D88" t="s">
-        <v>191</v>
-      </c>
       <c r="E88" t="n">
         <v>1.0</v>
       </c>
@@ -9972,8 +9987,8 @@
       <c r="G88" t="n">
         <v>5.0</v>
       </c>
-      <c r="H88" t="n">
-        <v>6.0</v>
+      <c r="H88" t="s">
+        <v>192</v>
       </c>
       <c r="I88" t="n">
         <v>0.20590925466775356</v>
@@ -9990,8 +10005,8 @@
       <c r="M88" t="n">
         <v>3.0</v>
       </c>
-      <c r="N88" t="n">
-        <v>5.0</v>
+      <c r="N88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O88" t="e">
         <v>#N/A</v>
@@ -10009,25 +10024,25 @@
         <v>5.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U88" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="V88" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W88" t="n">
         <v>5.0</v>
       </c>
-      <c r="X88" t="e">
-        <v>#N/A</v>
+      <c r="X88" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y88" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z88" t="n">
-        <v>5.0</v>
+      <c r="Z88" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA88" t="e">
         <v>#N/A</v>
@@ -10065,11 +10080,11 @@
         <v>178</v>
       </c>
       <c r="C89" t="s">
+        <v>189</v>
+      </c>
+      <c r="D89" t="s">
         <v>190</v>
       </c>
-      <c r="D89" t="s">
-        <v>191</v>
-      </c>
       <c r="E89" t="n">
         <v>1.0</v>
       </c>
@@ -10079,8 +10094,8 @@
       <c r="G89" t="n">
         <v>5.0</v>
       </c>
-      <c r="H89" t="n">
-        <v>6.0</v>
+      <c r="H89" t="s">
+        <v>192</v>
       </c>
       <c r="I89" t="n">
         <v>0.2334430075895929</v>
@@ -10097,8 +10112,8 @@
       <c r="M89" t="n">
         <v>3.0</v>
       </c>
-      <c r="N89" t="n">
-        <v>5.0</v>
+      <c r="N89" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O89" t="e">
         <v>#N/A</v>
@@ -10116,10 +10131,10 @@
         <v>5.0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U89" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V89" t="n">
         <v>5.0</v>
@@ -10127,8 +10142,8 @@
       <c r="W89" t="n">
         <v>5.0</v>
       </c>
-      <c r="X89" t="e">
-        <v>#N/A</v>
+      <c r="X89" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y89" t="e">
         <v>#N/A</v>
@@ -10169,14 +10184,14 @@
         <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" t="s">
         <v>190</v>
       </c>
-      <c r="D90" t="s">
-        <v>191</v>
-      </c>
       <c r="E90" t="n">
         <v>1.0</v>
       </c>
@@ -10186,8 +10201,8 @@
       <c r="G90" t="n">
         <v>5.0</v>
       </c>
-      <c r="H90" t="n">
-        <v>6.0</v>
+      <c r="H90" t="s">
+        <v>192</v>
       </c>
       <c r="I90" t="n">
         <v>0.0</v>
@@ -10204,8 +10219,8 @@
       <c r="M90" t="n">
         <v>3.0</v>
       </c>
-      <c r="N90" t="n">
-        <v>5.0</v>
+      <c r="N90" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O90" t="e">
         <v>#N/A</v>
@@ -10223,10 +10238,10 @@
         <v>5.0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U90" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V90" t="n">
         <v>5.0</v>
@@ -10276,14 +10291,14 @@
         <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91" t="s">
         <v>190</v>
       </c>
-      <c r="D91" t="s">
-        <v>191</v>
-      </c>
       <c r="E91" t="n">
         <v>1.0</v>
       </c>
@@ -10293,8 +10308,8 @@
       <c r="G91" t="n">
         <v>5.0</v>
       </c>
-      <c r="H91" t="n">
-        <v>6.0</v>
+      <c r="H91" t="s">
+        <v>192</v>
       </c>
       <c r="I91" t="n">
         <v>0.0</v>
@@ -10311,8 +10326,8 @@
       <c r="M91" t="n">
         <v>3.0</v>
       </c>
-      <c r="N91" t="n">
-        <v>5.0</v>
+      <c r="N91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O91" t="e">
         <v>#N/A</v>
@@ -10330,10 +10345,10 @@
         <v>5.0</v>
       </c>
       <c r="T91" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U91" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V91" t="n">
         <v>5.0</v>
@@ -10347,8 +10362,8 @@
       <c r="Y91" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z91" t="n">
-        <v>1.0</v>
+      <c r="Z91" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA91" t="e">
         <v>#N/A</v>
@@ -10383,14 +10398,14 @@
         <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" t="s">
         <v>190</v>
       </c>
-      <c r="D92" t="s">
-        <v>191</v>
-      </c>
       <c r="E92" t="n">
         <v>1.0</v>
       </c>
@@ -10400,8 +10415,8 @@
       <c r="G92" t="n">
         <v>5.0</v>
       </c>
-      <c r="H92" t="n">
-        <v>6.0</v>
+      <c r="H92" t="s">
+        <v>192</v>
       </c>
       <c r="I92" t="n">
         <v>0.0</v>
@@ -10418,8 +10433,8 @@
       <c r="M92" t="n">
         <v>3.0</v>
       </c>
-      <c r="N92" t="n">
-        <v>5.0</v>
+      <c r="N92" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O92" t="e">
         <v>#N/A</v>
@@ -10437,10 +10452,10 @@
         <v>5.0</v>
       </c>
       <c r="T92" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U92" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V92" t="n">
         <v>5.0</v>
@@ -10448,8 +10463,8 @@
       <c r="W92" t="n">
         <v>5.0</v>
       </c>
-      <c r="X92" t="e">
-        <v>#N/A</v>
+      <c r="X92" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y92" t="e">
         <v>#N/A</v>
@@ -10490,14 +10505,14 @@
         <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" t="s">
         <v>190</v>
       </c>
-      <c r="D93" t="s">
-        <v>191</v>
-      </c>
       <c r="E93" t="n">
         <v>1.0</v>
       </c>
@@ -10507,8 +10522,8 @@
       <c r="G93" t="n">
         <v>5.0</v>
       </c>
-      <c r="H93" t="n">
-        <v>6.0</v>
+      <c r="H93" t="s">
+        <v>192</v>
       </c>
       <c r="I93" t="n">
         <v>0.0</v>
@@ -10525,8 +10540,8 @@
       <c r="M93" t="n">
         <v>3.0</v>
       </c>
-      <c r="N93" t="n">
-        <v>5.0</v>
+      <c r="N93" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O93" t="e">
         <v>#N/A</v>
@@ -10544,10 +10559,10 @@
         <v>5.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U93" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V93" t="n">
         <v>5.0</v>
@@ -10597,14 +10612,14 @@
         <v>127</v>
       </c>
       <c r="B94" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C94" t="s">
+        <v>189</v>
+      </c>
+      <c r="D94" t="s">
         <v>190</v>
       </c>
-      <c r="D94" t="s">
-        <v>191</v>
-      </c>
       <c r="E94" t="n">
         <v>1.0</v>
       </c>
@@ -10614,8 +10629,8 @@
       <c r="G94" t="n">
         <v>5.0</v>
       </c>
-      <c r="H94" t="n">
-        <v>6.0</v>
+      <c r="H94" t="s">
+        <v>192</v>
       </c>
       <c r="I94" t="n">
         <v>0.0</v>
@@ -10632,8 +10647,8 @@
       <c r="M94" t="n">
         <v>3.0</v>
       </c>
-      <c r="N94" t="n">
-        <v>5.0</v>
+      <c r="N94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O94" t="e">
         <v>#N/A</v>
@@ -10651,10 +10666,10 @@
         <v>5.0</v>
       </c>
       <c r="T94" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U94" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V94" t="n">
         <v>5.0</v>
@@ -10662,14 +10677,14 @@
       <c r="W94" t="n">
         <v>5.0</v>
       </c>
-      <c r="X94" t="e">
-        <v>#N/A</v>
+      <c r="X94" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y94" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z94" t="n">
-        <v>5.0</v>
+      <c r="Z94" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA94" t="e">
         <v>#N/A</v>
@@ -10704,14 +10719,14 @@
         <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C95" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" t="s">
         <v>190</v>
       </c>
-      <c r="D95" t="s">
-        <v>191</v>
-      </c>
       <c r="E95" t="n">
         <v>1.0</v>
       </c>
@@ -10721,8 +10736,8 @@
       <c r="G95" t="n">
         <v>5.0</v>
       </c>
-      <c r="H95" t="n">
-        <v>6.0</v>
+      <c r="H95" t="s">
+        <v>192</v>
       </c>
       <c r="I95" t="n">
         <v>0.05815697795035625</v>
@@ -10739,8 +10754,8 @@
       <c r="M95" t="n">
         <v>3.0</v>
       </c>
-      <c r="N95" t="n">
-        <v>5.0</v>
+      <c r="N95" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O95" t="e">
         <v>#N/A</v>
@@ -10758,10 +10773,10 @@
         <v>5.0</v>
       </c>
       <c r="T95" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U95" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V95" t="n">
         <v>5.0</v>
@@ -10811,14 +10826,14 @@
         <v>129</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" t="s">
         <v>190</v>
       </c>
-      <c r="D96" t="s">
-        <v>191</v>
-      </c>
       <c r="E96" t="n">
         <v>1.0</v>
       </c>
@@ -10828,8 +10843,8 @@
       <c r="G96" t="n">
         <v>5.0</v>
       </c>
-      <c r="H96" t="n">
-        <v>6.0</v>
+      <c r="H96" t="s">
+        <v>192</v>
       </c>
       <c r="I96" t="n">
         <v>0.6266179214205709</v>
@@ -10846,8 +10861,8 @@
       <c r="M96" t="n">
         <v>3.0</v>
       </c>
-      <c r="N96" t="n">
-        <v>5.0</v>
+      <c r="N96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O96" t="e">
         <v>#N/A</v>
@@ -10862,28 +10877,28 @@
         <v>5.0</v>
       </c>
       <c r="S96" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="T96" t="n">
         <v>1.0</v>
       </c>
       <c r="U96" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="V96" t="e">
-        <v>#N/A</v>
+        <v>1.0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>3.0</v>
       </c>
       <c r="W96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="X96" t="n">
-        <v>5.0</v>
+      <c r="X96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="Y96" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z96" t="n">
-        <v>5.0</v>
+      <c r="Z96" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA96" t="e">
         <v>#N/A</v>
@@ -10918,14 +10933,14 @@
         <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C97" t="s">
+        <v>189</v>
+      </c>
+      <c r="D97" t="s">
         <v>190</v>
       </c>
-      <c r="D97" t="s">
-        <v>191</v>
-      </c>
       <c r="E97" t="n">
         <v>1.0</v>
       </c>
@@ -10935,8 +10950,8 @@
       <c r="G97" t="n">
         <v>5.0</v>
       </c>
-      <c r="H97" t="n">
-        <v>6.0</v>
+      <c r="H97" t="s">
+        <v>192</v>
       </c>
       <c r="I97" t="n">
         <v>0.872302720070069</v>
@@ -10953,8 +10968,8 @@
       <c r="M97" t="n">
         <v>3.0</v>
       </c>
-      <c r="N97" t="n">
-        <v>5.0</v>
+      <c r="N97" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O97" t="e">
         <v>#N/A</v>
@@ -10972,10 +10987,10 @@
         <v>5.0</v>
       </c>
       <c r="T97" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U97" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V97" t="n">
         <v>5.0</v>
@@ -10989,8 +11004,8 @@
       <c r="Y97" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z97" t="n">
-        <v>1.0</v>
+      <c r="Z97" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA97" t="e">
         <v>#N/A</v>
@@ -11025,14 +11040,14 @@
         <v>131</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
+        <v>189</v>
+      </c>
+      <c r="D98" t="s">
         <v>190</v>
       </c>
-      <c r="D98" t="s">
-        <v>191</v>
-      </c>
       <c r="E98" t="n">
         <v>1.0</v>
       </c>
@@ -11042,8 +11057,8 @@
       <c r="G98" t="n">
         <v>1.0</v>
       </c>
-      <c r="H98" t="n">
-        <v>6.0</v>
+      <c r="H98" t="s">
+        <v>192</v>
       </c>
       <c r="I98" t="n">
         <v>0.43658472227490314</v>
@@ -11060,8 +11075,8 @@
       <c r="M98" t="n">
         <v>3.0</v>
       </c>
-      <c r="N98" t="n">
-        <v>5.0</v>
+      <c r="N98" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O98" t="e">
         <v>#N/A</v>
@@ -11079,13 +11094,13 @@
         <v>5.0</v>
       </c>
       <c r="T98" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U98" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V98" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W98" t="n">
         <v>5.0</v>
@@ -11132,14 +11147,14 @@
         <v>132</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
+        <v>189</v>
+      </c>
+      <c r="D99" t="s">
         <v>190</v>
       </c>
-      <c r="D99" t="s">
-        <v>191</v>
-      </c>
       <c r="E99" t="n">
         <v>1.0</v>
       </c>
@@ -11149,8 +11164,8 @@
       <c r="G99" t="n">
         <v>5.0</v>
       </c>
-      <c r="H99" t="n">
-        <v>6.0</v>
+      <c r="H99" t="s">
+        <v>192</v>
       </c>
       <c r="I99" t="n">
         <v>0.6542803770568443</v>
@@ -11165,10 +11180,10 @@
         <v>5.0</v>
       </c>
       <c r="M99" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="N99" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="N99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O99" t="e">
         <v>#N/A</v>
@@ -11183,13 +11198,13 @@
         <v>5.0</v>
       </c>
       <c r="S99" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="T99" t="n">
         <v>1.0</v>
       </c>
       <c r="U99" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V99" t="n">
         <v>5.0</v>
@@ -11203,8 +11218,8 @@
       <c r="Y99" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z99" t="n">
-        <v>1.0</v>
+      <c r="Z99" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA99" t="e">
         <v>#N/A</v>
@@ -11239,14 +11254,14 @@
         <v>133</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C100" t="s">
+        <v>189</v>
+      </c>
+      <c r="D100" t="s">
         <v>190</v>
       </c>
-      <c r="D100" t="s">
-        <v>191</v>
-      </c>
       <c r="E100" t="n">
         <v>1.0</v>
       </c>
@@ -11256,8 +11271,8 @@
       <c r="G100" t="n">
         <v>1.0</v>
       </c>
-      <c r="H100" t="n">
-        <v>6.0</v>
+      <c r="H100" t="s">
+        <v>192</v>
       </c>
       <c r="I100" t="n">
         <v>0.04208469405198125</v>
@@ -11274,8 +11289,8 @@
       <c r="M100" t="n">
         <v>3.0</v>
       </c>
-      <c r="N100" t="n">
-        <v>5.0</v>
+      <c r="N100" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O100" t="e">
         <v>#N/A</v>
@@ -11293,13 +11308,13 @@
         <v>5.0</v>
       </c>
       <c r="T100" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U100" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V100" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W100" t="n">
         <v>5.0</v>
@@ -11310,8 +11325,8 @@
       <c r="Y100" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z100" t="n">
-        <v>1.0</v>
+      <c r="Z100" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA100" t="e">
         <v>#N/A</v>
@@ -11346,14 +11361,14 @@
         <v>134</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D101" t="s">
         <v>190</v>
       </c>
-      <c r="D101" t="s">
-        <v>191</v>
-      </c>
       <c r="E101" t="n">
         <v>1.0</v>
       </c>
@@ -11363,8 +11378,8 @@
       <c r="G101" t="n">
         <v>5.0</v>
       </c>
-      <c r="H101" t="n">
-        <v>6.0</v>
+      <c r="H101" t="s">
+        <v>192</v>
       </c>
       <c r="I101" t="n">
         <v>0.045998287969587444</v>
@@ -11381,8 +11396,8 @@
       <c r="M101" t="n">
         <v>3.0</v>
       </c>
-      <c r="N101" t="n">
-        <v>5.0</v>
+      <c r="N101" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O101" t="e">
         <v>#N/A</v>
@@ -11397,13 +11412,13 @@
         <v>5.0</v>
       </c>
       <c r="S101" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T101" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U101" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V101" t="n">
         <v>5.0</v>
@@ -11453,14 +11468,14 @@
         <v>135</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" t="s">
         <v>190</v>
       </c>
-      <c r="D102" t="s">
-        <v>191</v>
-      </c>
       <c r="E102" t="n">
         <v>1.0</v>
       </c>
@@ -11470,8 +11485,8 @@
       <c r="G102" t="n">
         <v>5.0</v>
       </c>
-      <c r="H102" t="n">
-        <v>6.0</v>
+      <c r="H102" t="s">
+        <v>192</v>
       </c>
       <c r="I102" t="n">
         <v>0.678840842271688</v>
@@ -11488,8 +11503,8 @@
       <c r="M102" t="n">
         <v>3.0</v>
       </c>
-      <c r="N102" t="n">
-        <v>5.0</v>
+      <c r="N102" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O102" t="e">
         <v>#N/A</v>
@@ -11507,10 +11522,10 @@
         <v>5.0</v>
       </c>
       <c r="T102" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U102" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V102" t="n">
         <v>5.0</v>
@@ -11524,8 +11539,8 @@
       <c r="Y102" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z102" t="n">
-        <v>5.0</v>
+      <c r="Z102" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA102" t="e">
         <v>#N/A</v>
@@ -11560,14 +11575,14 @@
         <v>136</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103" t="s">
+        <v>189</v>
+      </c>
+      <c r="D103" t="s">
         <v>190</v>
       </c>
-      <c r="D103" t="s">
-        <v>191</v>
-      </c>
       <c r="E103" t="n">
         <v>1.0</v>
       </c>
@@ -11577,8 +11592,8 @@
       <c r="G103" t="n">
         <v>5.0</v>
       </c>
-      <c r="H103" t="n">
-        <v>6.0</v>
+      <c r="H103" t="s">
+        <v>192</v>
       </c>
       <c r="I103" t="n">
         <v>0.681008576206181</v>
@@ -11595,8 +11610,8 @@
       <c r="M103" t="n">
         <v>3.0</v>
       </c>
-      <c r="N103" t="n">
-        <v>5.0</v>
+      <c r="N103" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O103" t="e">
         <v>#N/A</v>
@@ -11614,10 +11629,10 @@
         <v>5.0</v>
       </c>
       <c r="T103" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U103" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V103" t="n">
         <v>5.0</v>
@@ -11667,14 +11682,14 @@
         <v>137</v>
       </c>
       <c r="B104" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C104" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" t="s">
         <v>190</v>
       </c>
-      <c r="D104" t="s">
-        <v>191</v>
-      </c>
       <c r="E104" t="n">
         <v>1.0</v>
       </c>
@@ -11684,8 +11699,8 @@
       <c r="G104" t="n">
         <v>5.0</v>
       </c>
-      <c r="H104" t="n">
-        <v>6.0</v>
+      <c r="H104" t="s">
+        <v>192</v>
       </c>
       <c r="I104" t="n">
         <v>0.7830164640163568</v>
@@ -11702,8 +11717,8 @@
       <c r="M104" t="n">
         <v>3.0</v>
       </c>
-      <c r="N104" t="n">
-        <v>5.0</v>
+      <c r="N104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O104" t="e">
         <v>#N/A</v>
@@ -11721,10 +11736,10 @@
         <v>5.0</v>
       </c>
       <c r="T104" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U104" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V104" t="n">
         <v>5.0</v>
@@ -11738,8 +11753,8 @@
       <c r="Y104" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z104" t="n">
-        <v>5.0</v>
+      <c r="Z104" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA104" t="e">
         <v>#N/A</v>
@@ -11774,14 +11789,14 @@
         <v>138</v>
       </c>
       <c r="B105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C105" t="s">
+        <v>189</v>
+      </c>
+      <c r="D105" t="s">
         <v>190</v>
       </c>
-      <c r="D105" t="s">
-        <v>191</v>
-      </c>
       <c r="E105" t="n">
         <v>1.0</v>
       </c>
@@ -11791,8 +11806,8 @@
       <c r="G105" t="n">
         <v>5.0</v>
       </c>
-      <c r="H105" t="n">
-        <v>6.0</v>
+      <c r="H105" t="s">
+        <v>192</v>
       </c>
       <c r="I105" t="n">
         <v>0.5280329377860712</v>
@@ -11809,8 +11824,8 @@
       <c r="M105" t="n">
         <v>3.0</v>
       </c>
-      <c r="N105" t="n">
-        <v>5.0</v>
+      <c r="N105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O105" t="e">
         <v>#N/A</v>
@@ -11828,10 +11843,10 @@
         <v>5.0</v>
       </c>
       <c r="T105" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U105" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V105" t="n">
         <v>5.0</v>
@@ -11845,8 +11860,8 @@
       <c r="Y105" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z105" t="n">
-        <v>5.0</v>
+      <c r="Z105" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA105" t="e">
         <v>#N/A</v>
@@ -11881,14 +11896,14 @@
         <v>139</v>
       </c>
       <c r="B106" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106" t="s">
         <v>190</v>
       </c>
-      <c r="D106" t="s">
-        <v>191</v>
-      </c>
       <c r="E106" t="n">
         <v>1.0</v>
       </c>
@@ -11898,8 +11913,8 @@
       <c r="G106" t="n">
         <v>5.0</v>
       </c>
-      <c r="H106" t="n">
-        <v>6.0</v>
+      <c r="H106" t="s">
+        <v>192</v>
       </c>
       <c r="I106" t="n">
         <v>0.6988250208433527</v>
@@ -11916,8 +11931,8 @@
       <c r="M106" t="n">
         <v>3.0</v>
       </c>
-      <c r="N106" t="n">
-        <v>5.0</v>
+      <c r="N106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O106" t="e">
         <v>#N/A</v>
@@ -11935,10 +11950,10 @@
         <v>5.0</v>
       </c>
       <c r="T106" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U106" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V106" t="n">
         <v>5.0</v>
@@ -11952,8 +11967,8 @@
       <c r="Y106" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z106" t="n">
-        <v>5.0</v>
+      <c r="Z106" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA106" t="e">
         <v>#N/A</v>
@@ -11988,14 +12003,14 @@
         <v>140</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107" t="s">
         <v>190</v>
       </c>
-      <c r="D107" t="s">
-        <v>191</v>
-      </c>
       <c r="E107" t="n">
         <v>1.0</v>
       </c>
@@ -12005,8 +12020,8 @@
       <c r="G107" t="n">
         <v>5.0</v>
       </c>
-      <c r="H107" t="n">
-        <v>6.0</v>
+      <c r="H107" t="s">
+        <v>192</v>
       </c>
       <c r="I107" t="n">
         <v>0.7892917935080431</v>
@@ -12023,8 +12038,8 @@
       <c r="M107" t="n">
         <v>3.0</v>
       </c>
-      <c r="N107" t="n">
-        <v>5.0</v>
+      <c r="N107" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O107" t="e">
         <v>#N/A</v>
@@ -12042,10 +12057,10 @@
         <v>5.0</v>
       </c>
       <c r="T107" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U107" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V107" t="n">
         <v>5.0</v>
@@ -12059,8 +12074,8 @@
       <c r="Y107" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z107" t="n">
-        <v>5.0</v>
+      <c r="Z107" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA107" t="e">
         <v>#N/A</v>
@@ -12095,14 +12110,14 @@
         <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" t="s">
         <v>190</v>
       </c>
-      <c r="D108" t="s">
-        <v>191</v>
-      </c>
       <c r="E108" t="n">
         <v>1.0</v>
       </c>
@@ -12112,8 +12127,8 @@
       <c r="G108" t="n">
         <v>5.0</v>
       </c>
-      <c r="H108" t="n">
-        <v>7.0</v>
+      <c r="H108" t="s">
+        <v>197</v>
       </c>
       <c r="I108" t="n">
         <v>0.28993782984447225</v>
@@ -12130,8 +12145,8 @@
       <c r="M108" t="n">
         <v>1.0</v>
       </c>
-      <c r="N108" t="n">
-        <v>5.0</v>
+      <c r="N108" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O108" t="e">
         <v>#N/A</v>
@@ -12149,10 +12164,10 @@
         <v>5.0</v>
       </c>
       <c r="T108" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U108" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V108" t="n">
         <v>5.0</v>
@@ -12160,8 +12175,8 @@
       <c r="W108" t="n">
         <v>5.0</v>
       </c>
-      <c r="X108" t="e">
-        <v>#N/A</v>
+      <c r="X108" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y108" t="e">
         <v>#N/A</v>
@@ -12202,14 +12217,14 @@
         <v>142</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" t="s">
         <v>190</v>
       </c>
-      <c r="D109" t="s">
-        <v>191</v>
-      </c>
       <c r="E109" t="n">
         <v>1.0</v>
       </c>
@@ -12219,8 +12234,8 @@
       <c r="G109" t="n">
         <v>5.0</v>
       </c>
-      <c r="H109" t="n">
-        <v>7.0</v>
+      <c r="H109" t="s">
+        <v>197</v>
       </c>
       <c r="I109" t="n">
         <v>0.3922267177160267</v>
@@ -12237,8 +12252,8 @@
       <c r="M109" t="n">
         <v>1.0</v>
       </c>
-      <c r="N109" t="n">
-        <v>1.0</v>
+      <c r="N109" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O109" t="e">
         <v>#N/A</v>
@@ -12256,19 +12271,19 @@
         <v>5.0</v>
       </c>
       <c r="T109" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U109" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V109" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W109" t="n">
         <v>5.0</v>
       </c>
-      <c r="X109" t="e">
-        <v>#N/A</v>
+      <c r="X109" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y109" t="e">
         <v>#N/A</v>
@@ -12309,14 +12324,14 @@
         <v>143</v>
       </c>
       <c r="B110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110" t="s">
+        <v>189</v>
+      </c>
+      <c r="D110" t="s">
         <v>190</v>
       </c>
-      <c r="D110" t="s">
-        <v>191</v>
-      </c>
       <c r="E110" t="n">
         <v>1.0</v>
       </c>
@@ -12326,8 +12341,8 @@
       <c r="G110" t="n">
         <v>5.0</v>
       </c>
-      <c r="H110" t="n">
-        <v>7.0</v>
+      <c r="H110" t="s">
+        <v>197</v>
       </c>
       <c r="I110" t="n">
         <v>0.512291200709168</v>
@@ -12344,8 +12359,8 @@
       <c r="M110" t="n">
         <v>3.0</v>
       </c>
-      <c r="N110" t="n">
-        <v>5.0</v>
+      <c r="N110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O110" t="e">
         <v>#N/A</v>
@@ -12363,25 +12378,25 @@
         <v>5.0</v>
       </c>
       <c r="T110" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U110" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="V110" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W110" t="n">
         <v>5.0</v>
       </c>
       <c r="X110" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y110" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z110" t="n">
-        <v>5.0</v>
+      <c r="Z110" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA110" t="e">
         <v>#N/A</v>
@@ -12416,14 +12431,14 @@
         <v>144</v>
       </c>
       <c r="B111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C111" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111" t="s">
         <v>190</v>
       </c>
-      <c r="D111" t="s">
-        <v>191</v>
-      </c>
       <c r="E111" t="n">
         <v>1.0</v>
       </c>
@@ -12433,8 +12448,8 @@
       <c r="G111" t="n">
         <v>5.0</v>
       </c>
-      <c r="H111" t="n">
-        <v>7.0</v>
+      <c r="H111" t="s">
+        <v>197</v>
       </c>
       <c r="I111" t="n">
         <v>0.5033511462569658</v>
@@ -12451,8 +12466,8 @@
       <c r="M111" t="n">
         <v>1.0</v>
       </c>
-      <c r="N111" t="n">
-        <v>5.0</v>
+      <c r="N111" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O111" t="e">
         <v>#N/A</v>
@@ -12470,10 +12485,10 @@
         <v>5.0</v>
       </c>
       <c r="T111" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U111" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V111" t="n">
         <v>5.0</v>
@@ -12482,7 +12497,7 @@
         <v>5.0</v>
       </c>
       <c r="X111" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y111" t="e">
         <v>#N/A</v>
@@ -12523,14 +12538,14 @@
         <v>145</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C112" t="s">
+        <v>189</v>
+      </c>
+      <c r="D112" t="s">
         <v>190</v>
       </c>
-      <c r="D112" t="s">
-        <v>191</v>
-      </c>
       <c r="E112" t="n">
         <v>1.0</v>
       </c>
@@ -12540,8 +12555,8 @@
       <c r="G112" t="n">
         <v>5.0</v>
       </c>
-      <c r="H112" t="n">
-        <v>7.0</v>
+      <c r="H112" t="s">
+        <v>197</v>
       </c>
       <c r="I112" t="n">
         <v>0.6292740558041172</v>
@@ -12558,8 +12573,8 @@
       <c r="M112" t="n">
         <v>3.0</v>
       </c>
-      <c r="N112" t="n">
-        <v>5.0</v>
+      <c r="N112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O112" t="e">
         <v>#N/A</v>
@@ -12577,10 +12592,10 @@
         <v>5.0</v>
       </c>
       <c r="T112" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U112" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V112" t="n">
         <v>5.0</v>
@@ -12594,8 +12609,8 @@
       <c r="Y112" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z112" t="n">
-        <v>5.0</v>
+      <c r="Z112" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA112" t="e">
         <v>#N/A</v>
@@ -12630,14 +12645,14 @@
         <v>146</v>
       </c>
       <c r="B113" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C113" t="s">
+        <v>189</v>
+      </c>
+      <c r="D113" t="s">
         <v>190</v>
       </c>
-      <c r="D113" t="s">
-        <v>191</v>
-      </c>
       <c r="E113" t="n">
         <v>1.0</v>
       </c>
@@ -12647,8 +12662,8 @@
       <c r="G113" t="n">
         <v>1.0</v>
       </c>
-      <c r="H113" t="n">
-        <v>7.0</v>
+      <c r="H113" t="s">
+        <v>197</v>
       </c>
       <c r="I113" t="n">
         <v>0.5178166248792694</v>
@@ -12665,8 +12680,8 @@
       <c r="M113" t="n">
         <v>3.0</v>
       </c>
-      <c r="N113" t="n">
-        <v>5.0</v>
+      <c r="N113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O113" t="e">
         <v>#N/A</v>
@@ -12684,10 +12699,10 @@
         <v>5.0</v>
       </c>
       <c r="T113" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U113" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V113" t="n">
         <v>5.0</v>
@@ -12701,8 +12716,8 @@
       <c r="Y113" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z113" t="n">
-        <v>5.0</v>
+      <c r="Z113" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA113" t="e">
         <v>#N/A</v>
@@ -12737,13 +12752,13 @@
         <v>147</v>
       </c>
       <c r="B114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E114" t="n">
         <v>3.0</v>
@@ -12754,8 +12769,8 @@
       <c r="G114" t="n">
         <v>5.0</v>
       </c>
-      <c r="H114" t="n">
-        <v>0.0</v>
+      <c r="H114" t="s">
+        <v>194</v>
       </c>
       <c r="I114" t="e">
         <v>#N/A</v>
@@ -12772,8 +12787,8 @@
       <c r="M114" t="n">
         <v>3.0</v>
       </c>
-      <c r="N114" t="n">
-        <v>5.0</v>
+      <c r="N114" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O114" t="e">
         <v>#N/A</v>
@@ -12787,14 +12802,14 @@
       <c r="R114" t="n">
         <v>5.0</v>
       </c>
-      <c r="S114" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T114" t="n">
-        <v>1.0</v>
+      <c r="S114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T114" t="e">
+        <v>#N/A</v>
       </c>
       <c r="U114" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V114" t="n">
         <v>5.0</v>
@@ -12808,8 +12823,8 @@
       <c r="Y114" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z114" t="n">
-        <v>1.0</v>
+      <c r="Z114" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA114" t="e">
         <v>#N/A</v>
@@ -12844,13 +12859,13 @@
         <v>148</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
+        <v>189</v>
+      </c>
+      <c r="D115" t="s">
         <v>190</v>
-      </c>
-      <c r="D115" t="s">
-        <v>191</v>
       </c>
       <c r="E115" t="n">
         <v>2.0</v>
@@ -12861,8 +12876,8 @@
       <c r="G115" t="n">
         <v>5.0</v>
       </c>
-      <c r="H115" t="n">
-        <v>5.0</v>
+      <c r="H115" t="s">
+        <v>195</v>
       </c>
       <c r="I115" t="n">
         <v>0.0</v>
@@ -12879,8 +12894,8 @@
       <c r="M115" t="n">
         <v>3.0</v>
       </c>
-      <c r="N115" t="n">
-        <v>5.0</v>
+      <c r="N115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O115" t="e">
         <v>#N/A</v>
@@ -12895,16 +12910,16 @@
         <v>5.0</v>
       </c>
       <c r="S115" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T115" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U115" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="V115" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W115" t="n">
         <v>5.0</v>
@@ -12915,8 +12930,8 @@
       <c r="Y115" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z115" t="n">
-        <v>5.0</v>
+      <c r="Z115" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA115" t="e">
         <v>#N/A</v>
@@ -12951,13 +12966,13 @@
         <v>149</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C116" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116" t="s">
         <v>190</v>
-      </c>
-      <c r="D116" t="s">
-        <v>191</v>
       </c>
       <c r="E116" t="n">
         <v>2.0</v>
@@ -12968,8 +12983,8 @@
       <c r="G116" t="n">
         <v>5.0</v>
       </c>
-      <c r="H116" t="n">
-        <v>5.0</v>
+      <c r="H116" t="s">
+        <v>195</v>
       </c>
       <c r="I116" t="n">
         <v>0.0</v>
@@ -12986,8 +13001,8 @@
       <c r="M116" t="n">
         <v>3.0</v>
       </c>
-      <c r="N116" t="n">
-        <v>5.0</v>
+      <c r="N116" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O116" t="e">
         <v>#N/A</v>
@@ -13005,10 +13020,10 @@
         <v>5.0</v>
       </c>
       <c r="T116" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U116" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="V116" t="n">
         <v>5.0</v>
@@ -13058,13 +13073,13 @@
         <v>150</v>
       </c>
       <c r="B117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
+        <v>189</v>
+      </c>
+      <c r="D117" t="s">
         <v>190</v>
-      </c>
-      <c r="D117" t="s">
-        <v>191</v>
       </c>
       <c r="E117" t="n">
         <v>2.0</v>
@@ -13075,8 +13090,8 @@
       <c r="G117" t="n">
         <v>5.0</v>
       </c>
-      <c r="H117" t="n">
-        <v>5.0</v>
+      <c r="H117" t="s">
+        <v>195</v>
       </c>
       <c r="I117" t="n">
         <v>0.0</v>
@@ -13093,8 +13108,8 @@
       <c r="M117" t="n">
         <v>3.0</v>
       </c>
-      <c r="N117" t="n">
-        <v>5.0</v>
+      <c r="N117" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O117" t="e">
         <v>#N/A</v>
@@ -13112,10 +13127,10 @@
         <v>5.0</v>
       </c>
       <c r="T117" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U117" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V117" t="n">
         <v>5.0</v>
@@ -13165,13 +13180,13 @@
         <v>151</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C118" t="s">
+        <v>189</v>
+      </c>
+      <c r="D118" t="s">
         <v>190</v>
-      </c>
-      <c r="D118" t="s">
-        <v>191</v>
       </c>
       <c r="E118" t="n">
         <v>2.0</v>
@@ -13182,8 +13197,8 @@
       <c r="G118" t="n">
         <v>5.0</v>
       </c>
-      <c r="H118" t="n">
-        <v>6.0</v>
+      <c r="H118" t="s">
+        <v>192</v>
       </c>
       <c r="I118" t="n">
         <v>0.2873809654869016</v>
@@ -13200,8 +13215,8 @@
       <c r="M118" t="n">
         <v>3.0</v>
       </c>
-      <c r="N118" t="n">
-        <v>5.0</v>
+      <c r="N118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O118" t="e">
         <v>#N/A</v>
@@ -13219,10 +13234,10 @@
         <v>5.0</v>
       </c>
       <c r="T118" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U118" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V118" t="n">
         <v>5.0</v>
@@ -13236,8 +13251,8 @@
       <c r="Y118" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z118" t="n">
-        <v>5.0</v>
+      <c r="Z118" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA118" t="e">
         <v>#N/A</v>
@@ -13272,13 +13287,13 @@
         <v>152</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C119" t="s">
+        <v>189</v>
+      </c>
+      <c r="D119" t="s">
         <v>190</v>
-      </c>
-      <c r="D119" t="s">
-        <v>191</v>
       </c>
       <c r="E119" t="n">
         <v>2.0</v>
@@ -13289,8 +13304,8 @@
       <c r="G119" t="n">
         <v>5.0</v>
       </c>
-      <c r="H119" t="n">
-        <v>6.0</v>
+      <c r="H119" t="s">
+        <v>192</v>
       </c>
       <c r="I119" t="n">
         <v>1.0</v>
@@ -13307,8 +13322,8 @@
       <c r="M119" t="n">
         <v>3.0</v>
       </c>
-      <c r="N119" t="n">
-        <v>5.0</v>
+      <c r="N119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O119" t="e">
         <v>#N/A</v>
@@ -13326,10 +13341,10 @@
         <v>5.0</v>
       </c>
       <c r="T119" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U119" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V119" t="n">
         <v>5.0</v>
@@ -13343,8 +13358,8 @@
       <c r="Y119" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z119" t="n">
-        <v>5.0</v>
+      <c r="Z119" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA119" t="e">
         <v>#N/A</v>
@@ -13379,13 +13394,13 @@
         <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C120" t="s">
+        <v>189</v>
+      </c>
+      <c r="D120" t="s">
         <v>190</v>
-      </c>
-      <c r="D120" t="s">
-        <v>191</v>
       </c>
       <c r="E120" t="n">
         <v>2.0</v>
@@ -13396,8 +13411,8 @@
       <c r="G120" t="n">
         <v>5.0</v>
       </c>
-      <c r="H120" t="n">
-        <v>5.0</v>
+      <c r="H120" t="s">
+        <v>195</v>
       </c>
       <c r="I120" t="n">
         <v>0.0</v>
@@ -13414,8 +13429,8 @@
       <c r="M120" t="n">
         <v>3.0</v>
       </c>
-      <c r="N120" t="n">
-        <v>5.0</v>
+      <c r="N120" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O120" t="e">
         <v>#N/A</v>
@@ -13430,16 +13445,16 @@
         <v>5.0</v>
       </c>
       <c r="S120" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T120" t="n">
         <v>3.0</v>
       </c>
       <c r="U120" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V120" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="W120" t="n">
         <v>5.0</v>
@@ -13486,13 +13501,13 @@
         <v>154</v>
       </c>
       <c r="B121" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C121" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" t="s">
         <v>190</v>
-      </c>
-      <c r="D121" t="s">
-        <v>191</v>
       </c>
       <c r="E121" t="n">
         <v>3.0</v>
@@ -13503,8 +13518,8 @@
       <c r="G121" t="n">
         <v>5.0</v>
       </c>
-      <c r="H121" t="n">
-        <v>6.0</v>
+      <c r="H121" t="s">
+        <v>192</v>
       </c>
       <c r="I121" t="n">
         <v>0.0</v>
@@ -13521,8 +13536,8 @@
       <c r="M121" t="n">
         <v>3.0</v>
       </c>
-      <c r="N121" t="n">
-        <v>5.0</v>
+      <c r="N121" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O121" t="e">
         <v>#N/A</v>
@@ -13540,10 +13555,10 @@
         <v>5.0</v>
       </c>
       <c r="T121" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U121" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V121" t="n">
         <v>5.0</v>
@@ -13557,8 +13572,8 @@
       <c r="Y121" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z121" t="n">
-        <v>1.0</v>
+      <c r="Z121" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA121" t="e">
         <v>#N/A</v>
@@ -13593,13 +13608,13 @@
         <v>155</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C122" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122" t="s">
         <v>190</v>
-      </c>
-      <c r="D122" t="s">
-        <v>191</v>
       </c>
       <c r="E122" t="n">
         <v>3.0</v>
@@ -13610,8 +13625,8 @@
       <c r="G122" t="n">
         <v>5.0</v>
       </c>
-      <c r="H122" t="n">
-        <v>7.0</v>
+      <c r="H122" t="s">
+        <v>197</v>
       </c>
       <c r="I122" t="n">
         <v>0.06269462436560191</v>
@@ -13628,8 +13643,8 @@
       <c r="M122" t="n">
         <v>3.0</v>
       </c>
-      <c r="N122" t="n">
-        <v>5.0</v>
+      <c r="N122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O122" t="e">
         <v>#N/A</v>
@@ -13647,10 +13662,10 @@
         <v>5.0</v>
       </c>
       <c r="T122" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U122" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V122" t="n">
         <v>5.0</v>
@@ -13658,14 +13673,14 @@
       <c r="W122" t="n">
         <v>5.0</v>
       </c>
-      <c r="X122" t="e">
-        <v>#N/A</v>
+      <c r="X122" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y122" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z122" t="n">
-        <v>1.0</v>
+      <c r="Z122" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA122" t="e">
         <v>#N/A</v>
@@ -13700,13 +13715,13 @@
         <v>156</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C123" t="s">
+        <v>189</v>
+      </c>
+      <c r="D123" t="s">
         <v>190</v>
-      </c>
-      <c r="D123" t="s">
-        <v>191</v>
       </c>
       <c r="E123" t="n">
         <v>3.0</v>
@@ -13717,8 +13732,8 @@
       <c r="G123" t="n">
         <v>5.0</v>
       </c>
-      <c r="H123" t="n">
-        <v>7.0</v>
+      <c r="H123" t="s">
+        <v>197</v>
       </c>
       <c r="I123" t="n">
         <v>0.02925068295131168</v>
@@ -13735,8 +13750,8 @@
       <c r="M123" t="n">
         <v>3.0</v>
       </c>
-      <c r="N123" t="n">
-        <v>5.0</v>
+      <c r="N123" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O123" t="e">
         <v>#N/A</v>
@@ -13754,10 +13769,10 @@
         <v>5.0</v>
       </c>
       <c r="T123" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U123" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V123" t="n">
         <v>5.0</v>
@@ -13765,8 +13780,8 @@
       <c r="W123" t="n">
         <v>5.0</v>
       </c>
-      <c r="X123" t="e">
-        <v>#N/A</v>
+      <c r="X123" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y123" t="e">
         <v>#N/A</v>
@@ -13807,13 +13822,13 @@
         <v>157</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C124" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124" t="s">
         <v>190</v>
-      </c>
-      <c r="D124" t="s">
-        <v>191</v>
       </c>
       <c r="E124" t="n">
         <v>3.0</v>
@@ -13824,8 +13839,8 @@
       <c r="G124" t="n">
         <v>5.0</v>
       </c>
-      <c r="H124" t="n">
-        <v>7.0</v>
+      <c r="H124" t="s">
+        <v>197</v>
       </c>
       <c r="I124" t="n">
         <v>0.03340771279965227</v>
@@ -13842,8 +13857,8 @@
       <c r="M124" t="n">
         <v>3.0</v>
       </c>
-      <c r="N124" t="n">
-        <v>5.0</v>
+      <c r="N124" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O124" t="e">
         <v>#N/A</v>
@@ -13858,13 +13873,13 @@
         <v>5.0</v>
       </c>
       <c r="S124" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="T124" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="U124" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V124" t="n">
         <v>5.0</v>
@@ -13914,13 +13929,13 @@
         <v>158</v>
       </c>
       <c r="B125" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E125" t="n">
         <v>3.0</v>
@@ -13931,8 +13946,8 @@
       <c r="G125" t="n">
         <v>5.0</v>
       </c>
-      <c r="H125" t="n">
-        <v>0.0</v>
+      <c r="H125" t="s">
+        <v>194</v>
       </c>
       <c r="I125" t="e">
         <v>#N/A</v>
@@ -13949,8 +13964,8 @@
       <c r="M125" t="n">
         <v>3.0</v>
       </c>
-      <c r="N125" t="n">
-        <v>5.0</v>
+      <c r="N125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O125" t="e">
         <v>#N/A</v>
@@ -13968,10 +13983,10 @@
         <v>5.0</v>
       </c>
       <c r="T125" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U125" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V125" t="n">
         <v>5.0</v>
@@ -13979,14 +13994,14 @@
       <c r="W125" t="n">
         <v>5.0</v>
       </c>
-      <c r="X125" t="e">
-        <v>#N/A</v>
+      <c r="X125" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y125" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z125" t="n">
-        <v>1.0</v>
+      <c r="Z125" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA125" t="e">
         <v>#N/A</v>
@@ -14021,13 +14036,13 @@
         <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D126" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E126" t="n">
         <v>3.0</v>
@@ -14038,8 +14053,8 @@
       <c r="G126" t="n">
         <v>1.0</v>
       </c>
-      <c r="H126" t="n">
-        <v>0.0</v>
+      <c r="H126" t="s">
+        <v>194</v>
       </c>
       <c r="I126" t="e">
         <v>#N/A</v>
@@ -14056,8 +14071,8 @@
       <c r="M126" t="n">
         <v>3.0</v>
       </c>
-      <c r="N126" t="n">
-        <v>5.0</v>
+      <c r="N126" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O126" t="e">
         <v>#N/A</v>
@@ -14075,10 +14090,10 @@
         <v>5.0</v>
       </c>
       <c r="T126" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U126" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="V126" t="n">
         <v>5.0</v>
@@ -14086,14 +14101,14 @@
       <c r="W126" t="n">
         <v>5.0</v>
       </c>
-      <c r="X126" t="e">
-        <v>#N/A</v>
+      <c r="X126" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y126" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z126" t="n">
-        <v>1.0</v>
+      <c r="Z126" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA126" t="e">
         <v>#N/A</v>
@@ -14128,13 +14143,13 @@
         <v>160</v>
       </c>
       <c r="B127" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C127" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D127" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E127" t="n">
         <v>3.0</v>
@@ -14145,62 +14160,62 @@
       <c r="G127" t="n">
         <v>5.0</v>
       </c>
-      <c r="H127" t="n">
+      <c r="H127" t="s">
+        <v>194</v>
+      </c>
+      <c r="I127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P127" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U127" t="n">
         <v>0.0</v>
       </c>
-      <c r="I127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J127" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="M127" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="N127" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="O127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="P127" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="R127" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="S127" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="T127" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="U127" t="n">
-        <v>5.0</v>
-      </c>
       <c r="V127" t="n">
         <v>5.0</v>
       </c>
       <c r="W127" t="n">
         <v>5.0</v>
       </c>
-      <c r="X127" t="e">
-        <v>#N/A</v>
+      <c r="X127" t="n">
+        <v>5.0</v>
       </c>
       <c r="Y127" t="e">
         <v>#N/A</v>
       </c>
-      <c r="Z127" t="n">
-        <v>1.0</v>
+      <c r="Z127" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AA127" t="e">
         <v>#N/A</v>
@@ -14235,14 +14250,14 @@
         <v>161</v>
       </c>
       <c r="B128" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" t="s">
         <v>189</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>190</v>
       </c>
-      <c r="D128" t="s">
-        <v>191</v>
-      </c>
       <c r="E128" t="n">
         <v>3.0</v>
       </c>
@@ -14252,8 +14267,8 @@
       <c r="G128" t="n">
         <v>5.0</v>
       </c>
-      <c r="H128" t="n">
-        <v>7.0</v>
+      <c r="H128" t="s">
+        <v>197</v>
       </c>
       <c r="I128" t="n">
         <v>0.0</v>
@@ -14270,8 +14285,8 @@
       <c r="M128" t="n">
         <v>3.0</v>
       </c>
-      <c r="N128" t="n">
-        <v>5.0</v>
+      <c r="N128" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O128" t="e">
         <v>#N/A</v>
@@ -14289,10 +14304,10 @@
         <v>5.0</v>
       </c>
       <c r="T128" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U128" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="V128" t="n">
         <v>5.0</v>
@@ -14342,14 +14357,14 @@
         <v>162</v>
       </c>
       <c r="B129" t="s">
+        <v>188</v>
+      </c>
+      <c r="C129" t="s">
         <v>189</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>190</v>
       </c>
-      <c r="D129" t="s">
-        <v>191</v>
-      </c>
       <c r="E129" t="n">
         <v>3.0</v>
       </c>
@@ -14359,8 +14374,8 @@
       <c r="G129" t="n">
         <v>1.0</v>
       </c>
-      <c r="H129" t="n">
-        <v>7.0</v>
+      <c r="H129" t="s">
+        <v>197</v>
       </c>
       <c r="I129" t="n">
         <v>0.0</v>
@@ -14377,8 +14392,8 @@
       <c r="M129" t="n">
         <v>3.0</v>
       </c>
-      <c r="N129" t="n">
-        <v>5.0</v>
+      <c r="N129" t="e">
+        <v>#N/A</v>
       </c>
       <c r="O129" t="e">
         <v>#N/A</v>
@@ -14396,13 +14411,13 @@
         <v>5.0</v>
       </c>
       <c r="T129" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="U129" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="V129" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="W129" t="n">
         <v>5.0</v>

--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -932,7 +932,7 @@
         <v>5.0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V3" t="n">
         <v>1.0</v>
@@ -1681,7 +1681,7 @@
         <v>5.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="V10" t="n">
         <v>5.0</v>
@@ -1895,7 +1895,7 @@
         <v>5.0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V12" t="n">
         <v>5.0</v>
@@ -2002,7 +2002,7 @@
         <v>5.0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V13" t="n">
         <v>3.0</v>
@@ -2109,7 +2109,7 @@
         <v>5.0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V14" t="n">
         <v>5.0</v>
@@ -2216,7 +2216,7 @@
         <v>5.0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V15" t="n">
         <v>1.0</v>
@@ -2323,7 +2323,7 @@
         <v>5.0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V16" t="n">
         <v>1.0</v>
@@ -2430,7 +2430,7 @@
         <v>5.0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V17" t="n">
         <v>3.0</v>
@@ -2537,7 +2537,7 @@
         <v>5.0</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V18" t="n">
         <v>5.0</v>
@@ -2644,7 +2644,7 @@
         <v>5.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V19" t="n">
         <v>5.0</v>
@@ -2751,7 +2751,7 @@
         <v>5.0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V20" t="n">
         <v>3.0</v>
@@ -3072,7 +3072,7 @@
         <v>5.0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V23" t="n">
         <v>5.0</v>
@@ -3607,7 +3607,7 @@
         <v>5.0</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V28" t="n">
         <v>5.0</v>
@@ -3821,7 +3821,7 @@
         <v>5.0</v>
       </c>
       <c r="U30" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V30" t="n">
         <v>5.0</v>
@@ -3928,7 +3928,7 @@
         <v>5.0</v>
       </c>
       <c r="U31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V31" t="n">
         <v>5.0</v>
@@ -4035,7 +4035,7 @@
         <v>5.0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V32" t="n">
         <v>5.0</v>
@@ -4142,7 +4142,7 @@
         <v>5.0</v>
       </c>
       <c r="U33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V33" t="n">
         <v>5.0</v>
@@ -4249,7 +4249,7 @@
         <v>5.0</v>
       </c>
       <c r="U34" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V34" t="n">
         <v>5.0</v>
@@ -4356,7 +4356,7 @@
         <v>5.0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V35" t="n">
         <v>5.0</v>
@@ -4998,7 +4998,7 @@
         <v>5.0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V41" t="n">
         <v>5.0</v>
@@ -5426,7 +5426,7 @@
         <v>5.0</v>
       </c>
       <c r="U45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V45" t="n">
         <v>5.0</v>
@@ -5640,7 +5640,7 @@
         <v>5.0</v>
       </c>
       <c r="U47" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V47" t="n">
         <v>5.0</v>
@@ -6175,7 +6175,7 @@
         <v>5.0</v>
       </c>
       <c r="U52" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V52" t="n">
         <v>5.0</v>
@@ -6496,7 +6496,7 @@
         <v>5.0</v>
       </c>
       <c r="U55" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V55" t="n">
         <v>5.0</v>
@@ -6603,7 +6603,7 @@
         <v>5.0</v>
       </c>
       <c r="U56" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V56" t="n">
         <v>1.0</v>
@@ -6710,7 +6710,7 @@
         <v>5.0</v>
       </c>
       <c r="U57" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V57" t="n">
         <v>5.0</v>
@@ -6817,7 +6817,7 @@
         <v>5.0</v>
       </c>
       <c r="U58" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V58" t="n">
         <v>5.0</v>
@@ -6924,7 +6924,7 @@
         <v>5.0</v>
       </c>
       <c r="U59" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V59" t="n">
         <v>1.0</v>
@@ -7031,7 +7031,7 @@
         <v>5.0</v>
       </c>
       <c r="U60" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V60" t="n">
         <v>5.0</v>
@@ -7138,7 +7138,7 @@
         <v>5.0</v>
       </c>
       <c r="U61" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V61" t="n">
         <v>5.0</v>
@@ -7245,7 +7245,7 @@
         <v>5.0</v>
       </c>
       <c r="U62" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V62" t="n">
         <v>5.0</v>
@@ -7352,7 +7352,7 @@
         <v>5.0</v>
       </c>
       <c r="U63" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V63" t="n">
         <v>5.0</v>
@@ -7459,7 +7459,7 @@
         <v>5.0</v>
       </c>
       <c r="U64" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V64" t="n">
         <v>5.0</v>
@@ -7566,7 +7566,7 @@
         <v>5.0</v>
       </c>
       <c r="U65" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V65" t="n">
         <v>5.0</v>
@@ -7673,7 +7673,7 @@
         <v>5.0</v>
       </c>
       <c r="U66" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V66" t="n">
         <v>5.0</v>
@@ -7887,7 +7887,7 @@
         <v>5.0</v>
       </c>
       <c r="U68" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V68" t="n">
         <v>5.0</v>
@@ -7994,7 +7994,7 @@
         <v>5.0</v>
       </c>
       <c r="U69" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V69" t="n">
         <v>3.0</v>
@@ -8101,7 +8101,7 @@
         <v>#N/A</v>
       </c>
       <c r="U70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V70" t="n">
         <v>5.0</v>
@@ -8208,7 +8208,7 @@
         <v>#N/A</v>
       </c>
       <c r="U71" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V71" t="n">
         <v>5.0</v>
@@ -8315,7 +8315,7 @@
         <v>5.0</v>
       </c>
       <c r="U72" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V72" t="n">
         <v>5.0</v>
@@ -8422,7 +8422,7 @@
         <v>5.0</v>
       </c>
       <c r="U73" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V73" t="n">
         <v>5.0</v>
@@ -8529,7 +8529,7 @@
         <v>5.0</v>
       </c>
       <c r="U74" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V74" t="n">
         <v>5.0</v>
@@ -8636,7 +8636,7 @@
         <v>5.0</v>
       </c>
       <c r="U75" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="V75" t="n">
         <v>5.0</v>
@@ -8743,7 +8743,7 @@
         <v>5.0</v>
       </c>
       <c r="U76" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V76" t="n">
         <v>5.0</v>
@@ -9064,7 +9064,7 @@
         <v>5.0</v>
       </c>
       <c r="U79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V79" t="n">
         <v>5.0</v>
@@ -9171,7 +9171,7 @@
         <v>5.0</v>
       </c>
       <c r="U80" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="V80" t="n">
         <v>5.0</v>
@@ -9278,7 +9278,7 @@
         <v>5.0</v>
       </c>
       <c r="U81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V81" t="n">
         <v>5.0</v>
@@ -9385,7 +9385,7 @@
         <v>5.0</v>
       </c>
       <c r="U82" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="V82" t="n">
         <v>5.0</v>
@@ -9492,7 +9492,7 @@
         <v>5.0</v>
       </c>
       <c r="U83" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="V83" t="n">
         <v>5.0</v>
@@ -9599,7 +9599,7 @@
         <v>5.0</v>
       </c>
       <c r="U84" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="V84" t="n">
         <v>5.0</v>
@@ -9706,7 +9706,7 @@
         <v>5.0</v>
       </c>
       <c r="U85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V85" t="n">
         <v>3.0</v>
@@ -9813,7 +9813,7 @@
         <v>5.0</v>
       </c>
       <c r="U86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V86" t="n">
         <v>5.0</v>
@@ -10027,7 +10027,7 @@
         <v>5.0</v>
       </c>
       <c r="U88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V88" t="n">
         <v>3.0</v>
@@ -10134,7 +10134,7 @@
         <v>5.0</v>
       </c>
       <c r="U89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V89" t="n">
         <v>5.0</v>
@@ -10241,7 +10241,7 @@
         <v>5.0</v>
       </c>
       <c r="U90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V90" t="n">
         <v>5.0</v>
@@ -10348,7 +10348,7 @@
         <v>5.0</v>
       </c>
       <c r="U91" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V91" t="n">
         <v>5.0</v>
@@ -10455,7 +10455,7 @@
         <v>5.0</v>
       </c>
       <c r="U92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V92" t="n">
         <v>5.0</v>
@@ -10562,7 +10562,7 @@
         <v>5.0</v>
       </c>
       <c r="U93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V93" t="n">
         <v>5.0</v>
@@ -10669,7 +10669,7 @@
         <v>5.0</v>
       </c>
       <c r="U94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V94" t="n">
         <v>5.0</v>
@@ -12916,7 +12916,7 @@
         <v>3.0</v>
       </c>
       <c r="U115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V115" t="n">
         <v>3.0</v>
@@ -13023,7 +13023,7 @@
         <v>5.0</v>
       </c>
       <c r="U116" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="V116" t="n">
         <v>5.0</v>
@@ -13130,7 +13130,7 @@
         <v>5.0</v>
       </c>
       <c r="U117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V117" t="n">
         <v>5.0</v>
@@ -13344,7 +13344,7 @@
         <v>5.0</v>
       </c>
       <c r="U119" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="V119" t="n">
         <v>5.0</v>
@@ -13451,7 +13451,7 @@
         <v>3.0</v>
       </c>
       <c r="U120" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="V120" t="n">
         <v>1.0</v>
@@ -13558,7 +13558,7 @@
         <v>5.0</v>
       </c>
       <c r="U121" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V121" t="n">
         <v>5.0</v>
@@ -13665,7 +13665,7 @@
         <v>5.0</v>
       </c>
       <c r="U122" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V122" t="n">
         <v>5.0</v>
@@ -13772,7 +13772,7 @@
         <v>5.0</v>
       </c>
       <c r="U123" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V123" t="n">
         <v>5.0</v>
@@ -13879,7 +13879,7 @@
         <v>3.0</v>
       </c>
       <c r="U124" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V124" t="n">
         <v>5.0</v>
@@ -14200,7 +14200,7 @@
         <v>5.0</v>
       </c>
       <c r="U127" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V127" t="n">
         <v>5.0</v>
@@ -14307,7 +14307,7 @@
         <v>5.0</v>
       </c>
       <c r="U128" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V128" t="n">
         <v>5.0</v>
@@ -14414,7 +14414,7 @@
         <v>5.0</v>
       </c>
       <c r="U129" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V129" t="n">
         <v>3.0</v>

--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -1087,9 +1087,7 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q2"/>
       <c r="R2" t="n">
         <v>5</v>
       </c>
@@ -1111,7 +1109,9 @@
       <c r="X2" t="n">
         <v>5</v>
       </c>
-      <c r="Y2"/>
+      <c r="Y2" t="n">
+        <v>5</v>
+      </c>
       <c r="Z2"/>
       <c r="AA2"/>
       <c r="AB2" t="n">
@@ -1165,9 +1165,7 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
+      <c r="J3"/>
       <c r="K3" t="n">
         <v>5</v>
       </c>
@@ -1179,7 +1177,7 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
@@ -1203,9 +1201,7 @@
         <v>5</v>
       </c>
       <c r="Y3"/>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z3"/>
       <c r="AA3"/>
       <c r="AB3" t="n">
         <v>5</v>
@@ -1259,7 +1255,7 @@
         <v>0.289503418718569</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -1268,14 +1264,12 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4"/>
       <c r="R4" t="n">
         <v>5</v>
       </c>
@@ -1297,10 +1291,10 @@
       <c r="X4" t="n">
         <v>5</v>
       </c>
-      <c r="Y4"/>
-      <c r="Z4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z4"/>
       <c r="AA4"/>
       <c r="AB4" t="n">
         <v>5</v>
@@ -1363,14 +1357,12 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5"/>
       <c r="R5" t="n">
         <v>5</v>
       </c>
@@ -1392,10 +1384,10 @@
       <c r="X5" t="n">
         <v>5</v>
       </c>
-      <c r="Y5"/>
-      <c r="Z5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5"/>
       <c r="AA5"/>
       <c r="AB5" t="n">
         <v>5</v>
@@ -1458,13 +1450,13 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>5</v>
@@ -1542,7 +1534,7 @@
         <v>0.0634915212976588</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
@@ -1551,14 +1543,12 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7"/>
       <c r="R7" t="n">
         <v>5</v>
       </c>
@@ -1634,24 +1624,18 @@
       <c r="I8" t="n">
         <v>0.0947505790038091</v>
       </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
+      <c r="J8"/>
       <c r="K8" t="n">
         <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
+      <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8"/>
       <c r="R8" t="n">
         <v>5</v>
       </c>
@@ -1673,7 +1657,9 @@
       <c r="X8" t="n">
         <v>5</v>
       </c>
-      <c r="Y8"/>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
       <c r="Z8"/>
       <c r="AA8"/>
       <c r="AB8" t="n">
@@ -1728,7 +1714,7 @@
         <v>0.0547475840973595</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -1742,9 +1728,7 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q9"/>
       <c r="R9" t="n">
         <v>5</v>
       </c>
@@ -1766,7 +1750,9 @@
       <c r="X9" t="n">
         <v>5</v>
       </c>
-      <c r="Y9"/>
+      <c r="Y9" t="n">
+        <v>5</v>
+      </c>
       <c r="Z9"/>
       <c r="AA9"/>
       <c r="AB9" t="n">
@@ -1820,23 +1806,19 @@
       <c r="I10" t="n">
         <v>0.386256260439187</v>
       </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10"/>
       <c r="K10" t="n">
         <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
+      <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
@@ -1859,10 +1841,10 @@
       <c r="X10" t="n">
         <v>5</v>
       </c>
-      <c r="Y10"/>
-      <c r="Z10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z10"/>
       <c r="AA10"/>
       <c r="AB10" t="n">
         <v>5</v>
@@ -1909,16 +1891,20 @@
         <v>52</v>
       </c>
       <c r="I11"/>
-      <c r="J11"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
-      <c r="Q11"/>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" t="n">
         <v>5</v>
       </c>
@@ -1938,10 +1924,10 @@
       <c r="X11" t="n">
         <v>5</v>
       </c>
-      <c r="Y11"/>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z11"/>
       <c r="AA11"/>
       <c r="AB11" t="n">
         <v>5</v>
@@ -1994,18 +1980,14 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
+      <c r="J12"/>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
+      <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -2016,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>5</v>
@@ -2033,10 +2015,10 @@
       <c r="X12" t="n">
         <v>5</v>
       </c>
-      <c r="Y12"/>
-      <c r="Z12" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12"/>
       <c r="AA12"/>
       <c r="AB12" t="n">
         <v>5</v>
@@ -2089,24 +2071,18 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
+      <c r="J13"/>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
+      <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q13"/>
       <c r="R13" t="n">
         <v>5</v>
       </c>
@@ -2128,10 +2104,10 @@
       <c r="X13" t="n">
         <v>5</v>
       </c>
-      <c r="Y13"/>
-      <c r="Z13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13"/>
       <c r="AA13"/>
       <c r="AB13" t="n">
         <v>5</v>
@@ -2184,24 +2160,18 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>3</v>
-      </c>
+      <c r="J14"/>
       <c r="K14" t="n">
         <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
+      <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14"/>
       <c r="R14" t="n">
         <v>5</v>
       </c>
@@ -2277,24 +2247,18 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J15"/>
       <c r="K15" t="n">
         <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
+      <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15"/>
       <c r="R15" t="n">
         <v>5</v>
       </c>
@@ -2317,9 +2281,7 @@
         <v>5</v>
       </c>
       <c r="Y15"/>
-      <c r="Z15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z15"/>
       <c r="AA15"/>
       <c r="AB15" t="n">
         <v>5</v>
@@ -2372,29 +2334,23 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
+      <c r="J16"/>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
+      <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16"/>
       <c r="R16" t="n">
         <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
         <v>5</v>
@@ -2465,29 +2421,23 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17"/>
       <c r="K17" t="n">
         <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
+      <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17"/>
       <c r="R17" t="n">
         <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
         <v>5</v>
@@ -2505,9 +2455,7 @@
         <v>5</v>
       </c>
       <c r="Y17"/>
-      <c r="Z17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z17"/>
       <c r="AA17"/>
       <c r="AB17" t="n">
         <v>5</v>
@@ -2560,29 +2508,23 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18"/>
       <c r="K18" t="n">
         <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
+      <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q18"/>
       <c r="R18" t="n">
         <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>5</v>
@@ -2600,9 +2542,7 @@
         <v>5</v>
       </c>
       <c r="Y18"/>
-      <c r="Z18" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z18"/>
       <c r="AA18"/>
       <c r="AB18" t="n">
         <v>5</v>
@@ -2655,29 +2595,23 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
+      <c r="J19"/>
       <c r="K19" t="n">
         <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
-      <c r="M19" t="n">
-        <v>3</v>
-      </c>
+      <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19"/>
       <c r="R19" t="n">
         <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>5</v>
@@ -2695,9 +2629,7 @@
         <v>5</v>
       </c>
       <c r="Y19"/>
-      <c r="Z19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z19"/>
       <c r="AA19"/>
       <c r="AB19" t="n">
         <v>5</v>
@@ -2750,29 +2682,23 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20"/>
       <c r="K20" t="n">
         <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
+      <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q20"/>
       <c r="R20" t="n">
         <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>5</v>
@@ -2790,9 +2716,7 @@
         <v>5</v>
       </c>
       <c r="Y20"/>
-      <c r="Z20" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z20"/>
       <c r="AA20"/>
       <c r="AB20" t="n">
         <v>5</v>
@@ -2855,19 +2779,17 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q21"/>
       <c r="R21" t="n">
         <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
         <v>5</v>
@@ -2884,10 +2806,10 @@
       <c r="X21" t="n">
         <v>5</v>
       </c>
-      <c r="Y21"/>
-      <c r="Z21" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z21"/>
       <c r="AA21"/>
       <c r="AB21" t="n">
         <v>5</v>
@@ -2955,9 +2877,7 @@
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q22"/>
       <c r="R22" t="n">
         <v>5</v>
       </c>
@@ -2979,10 +2899,10 @@
       <c r="X22" t="n">
         <v>5</v>
       </c>
-      <c r="Y22"/>
-      <c r="Z22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22" t="n">
         <v>5</v>
@@ -3036,7 +2956,7 @@
         <v>0.40183470139682</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>5</v>
@@ -3050,9 +2970,7 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q23"/>
       <c r="R23" t="n">
         <v>5</v>
       </c>
@@ -3074,7 +2992,9 @@
       <c r="X23" t="n">
         <v>5</v>
       </c>
-      <c r="Y23"/>
+      <c r="Y23" t="n">
+        <v>3</v>
+      </c>
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23" t="n">
@@ -3138,19 +3058,19 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
         <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>5</v>
@@ -3167,10 +3087,10 @@
       <c r="X24" t="n">
         <v>5</v>
       </c>
-      <c r="Y24"/>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z24"/>
       <c r="AA24"/>
       <c r="AB24" t="n">
         <v>5</v>
@@ -3223,23 +3143,19 @@
       <c r="I25" t="n">
         <v>0.673385255086234</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25"/>
       <c r="K25" t="n">
         <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>5</v>
       </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
+      <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>5</v>
@@ -3262,7 +3178,9 @@
       <c r="X25" t="n">
         <v>5</v>
       </c>
-      <c r="Y25"/>
+      <c r="Y25" t="n">
+        <v>3</v>
+      </c>
       <c r="Z25"/>
       <c r="AA25"/>
       <c r="AB25" t="n">
@@ -3317,7 +3235,7 @@
         <v>0.32589781514228</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
@@ -3332,7 +3250,7 @@
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
         <v>5</v>
@@ -3355,7 +3273,9 @@
       <c r="X26" t="n">
         <v>5</v>
       </c>
-      <c r="Y26"/>
+      <c r="Y26" t="n">
+        <v>5</v>
+      </c>
       <c r="Z26"/>
       <c r="AA26"/>
       <c r="AB26" t="n">
@@ -3410,7 +3330,7 @@
         <v>0.546556886635111</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
@@ -3419,14 +3339,12 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q27"/>
       <c r="R27" t="n">
         <v>5</v>
       </c>
@@ -3448,7 +3366,9 @@
       <c r="X27" t="n">
         <v>5</v>
       </c>
-      <c r="Y27"/>
+      <c r="Y27" t="n">
+        <v>5</v>
+      </c>
       <c r="Z27"/>
       <c r="AA27"/>
       <c r="AB27" t="n">
@@ -3502,24 +3422,18 @@
       <c r="I28" t="n">
         <v>0.816498804419718</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28"/>
       <c r="K28" t="n">
         <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>5</v>
       </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
+      <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q28"/>
       <c r="R28" t="n">
         <v>5</v>
       </c>
@@ -3596,9 +3510,7 @@
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
+      <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
@@ -3621,9 +3533,7 @@
         <v>5</v>
       </c>
       <c r="Y29"/>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z29"/>
       <c r="AA29"/>
       <c r="AB29" t="n">
         <v>5</v>
@@ -3666,29 +3576,23 @@
         <v>80</v>
       </c>
       <c r="I30"/>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
+      <c r="J30"/>
       <c r="K30" t="n">
         <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
+      <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30"/>
       <c r="R30" t="n">
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
         <v>5</v>
@@ -3759,24 +3663,18 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
+      <c r="J31"/>
       <c r="K31" t="n">
         <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
+      <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31"/>
       <c r="R31" t="n">
         <v>5</v>
       </c>
@@ -3798,10 +3696,10 @@
       <c r="X31" t="n">
         <v>5</v>
       </c>
-      <c r="Y31"/>
-      <c r="Z31" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z31"/>
       <c r="AA31"/>
       <c r="AB31" t="n">
         <v>5</v>
@@ -3852,29 +3750,25 @@
         <v>77</v>
       </c>
       <c r="I32"/>
-      <c r="J32" t="n">
-        <v>5</v>
-      </c>
+      <c r="J32"/>
       <c r="K32" t="n">
         <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>5</v>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
+      <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
         <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
         <v>5</v>
@@ -3892,9 +3786,7 @@
         <v>5</v>
       </c>
       <c r="Y32"/>
-      <c r="Z32" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z32"/>
       <c r="AA32"/>
       <c r="AB32" t="n">
         <v>5</v>
@@ -3946,7 +3838,7 @@
       </c>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
@@ -3955,19 +3847,17 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33"/>
       <c r="R33" t="n">
         <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
@@ -3984,10 +3874,10 @@
       <c r="X33" t="n">
         <v>5</v>
       </c>
-      <c r="Y33"/>
-      <c r="Z33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z33"/>
       <c r="AA33"/>
       <c r="AB33" t="n">
         <v>5</v>
@@ -4038,23 +3928,19 @@
         <v>77</v>
       </c>
       <c r="I34"/>
-      <c r="J34" t="n">
-        <v>5</v>
-      </c>
+      <c r="J34"/>
       <c r="K34" t="n">
         <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>5</v>
       </c>
-      <c r="M34" t="n">
-        <v>3</v>
-      </c>
+      <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>5</v>
@@ -4079,7 +3965,7 @@
       </c>
       <c r="Y34"/>
       <c r="Z34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA34"/>
       <c r="AB34" t="n">
@@ -4131,9 +4017,7 @@
         <v>77</v>
       </c>
       <c r="I35"/>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35"/>
       <c r="K35" t="n">
         <v>5</v>
       </c>
@@ -4151,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
         <v>5</v>
@@ -4168,10 +4052,10 @@
       <c r="X35" t="n">
         <v>5</v>
       </c>
-      <c r="Y35"/>
-      <c r="Z35" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z35"/>
       <c r="AA35"/>
       <c r="AB35" t="n">
         <v>5</v>
@@ -4222,29 +4106,23 @@
         <v>77</v>
       </c>
       <c r="I36"/>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
+      <c r="J36"/>
       <c r="K36" t="n">
         <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>5</v>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
+      <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q36"/>
       <c r="R36" t="n">
         <v>5</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>5</v>
@@ -4262,9 +4140,7 @@
         <v>5</v>
       </c>
       <c r="Y36"/>
-      <c r="Z36" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z36"/>
       <c r="AA36"/>
       <c r="AB36" t="n">
         <v>5</v>
@@ -4318,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>5</v>
@@ -4327,19 +4203,19 @@
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
         <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
         <v>5</v>
@@ -4356,10 +4232,10 @@
       <c r="X37" t="n">
         <v>5</v>
       </c>
-      <c r="Y37"/>
-      <c r="Z37" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z37"/>
       <c r="AA37"/>
       <c r="AB37" t="n">
         <v>5</v>
@@ -4422,19 +4298,17 @@
         <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q38"/>
       <c r="R38" t="n">
         <v>5</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T38" t="n">
         <v>5</v>
@@ -4451,7 +4325,9 @@
       <c r="X38" t="n">
         <v>5</v>
       </c>
-      <c r="Y38"/>
+      <c r="Y38" t="n">
+        <v>5</v>
+      </c>
       <c r="Z38"/>
       <c r="AA38"/>
       <c r="AB38" t="n">
@@ -4504,7 +4380,7 @@
       </c>
       <c r="I39"/>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -4513,19 +4389,19 @@
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
         <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>5</v>
@@ -4542,10 +4418,10 @@
       <c r="X39" t="n">
         <v>5</v>
       </c>
-      <c r="Y39"/>
-      <c r="Z39" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z39"/>
       <c r="AA39"/>
       <c r="AB39" t="n">
         <v>5</v>
@@ -4606,14 +4482,12 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q40"/>
       <c r="R40" t="n">
         <v>5</v>
       </c>
@@ -4635,10 +4509,10 @@
       <c r="X40" t="n">
         <v>5</v>
       </c>
-      <c r="Y40"/>
-      <c r="Z40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40" t="n">
         <v>5</v>
@@ -4689,24 +4563,18 @@
         <v>80</v>
       </c>
       <c r="I41"/>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
+      <c r="J41"/>
       <c r="K41" t="n">
         <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>5</v>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
+      <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q41"/>
       <c r="R41" t="n">
         <v>5</v>
       </c>
@@ -4783,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -4792,19 +4660,19 @@
         <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
         <v>5</v>
@@ -4822,9 +4690,7 @@
         <v>5</v>
       </c>
       <c r="Y42"/>
-      <c r="Z42" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z42"/>
       <c r="AA42"/>
       <c r="AB42" t="n">
         <v>5</v>
@@ -4875,24 +4741,18 @@
         <v>39</v>
       </c>
       <c r="I43"/>
-      <c r="J43" t="n">
-        <v>5</v>
-      </c>
+      <c r="J43"/>
       <c r="K43" t="n">
         <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>5</v>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
+      <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q43"/>
       <c r="R43" t="n">
         <v>5</v>
       </c>
@@ -4914,10 +4774,10 @@
       <c r="X43" t="n">
         <v>5</v>
       </c>
-      <c r="Y43"/>
-      <c r="Z43" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z43"/>
       <c r="AA43"/>
       <c r="AB43" t="n">
         <v>5</v>
@@ -4968,29 +4828,23 @@
         <v>39</v>
       </c>
       <c r="I44"/>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
         <v>5</v>
       </c>
       <c r="L44" t="n">
         <v>5</v>
       </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
+      <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q44"/>
       <c r="R44" t="n">
         <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
         <v>5</v>
@@ -5007,7 +4861,9 @@
       <c r="X44" t="n">
         <v>5</v>
       </c>
-      <c r="Y44"/>
+      <c r="Y44" t="n">
+        <v>3</v>
+      </c>
       <c r="Z44"/>
       <c r="AA44"/>
       <c r="AB44" t="n">
@@ -5059,29 +4915,25 @@
         <v>39</v>
       </c>
       <c r="I45"/>
-      <c r="J45" t="n">
-        <v>5</v>
-      </c>
+      <c r="J45"/>
       <c r="K45" t="n">
         <v>5</v>
       </c>
       <c r="L45" t="n">
         <v>5</v>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
+      <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
         <v>5</v>
@@ -5099,9 +4951,7 @@
         <v>5</v>
       </c>
       <c r="Y45"/>
-      <c r="Z45" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z45"/>
       <c r="AA45"/>
       <c r="AB45" t="n">
         <v>5</v>
@@ -5152,29 +5002,23 @@
         <v>83</v>
       </c>
       <c r="I46"/>
-      <c r="J46" t="n">
-        <v>5</v>
-      </c>
+      <c r="J46"/>
       <c r="K46" t="n">
         <v>3</v>
       </c>
       <c r="L46" t="n">
         <v>3</v>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
+      <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q46"/>
       <c r="R46" t="n">
         <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>5</v>
@@ -5191,7 +5035,9 @@
       <c r="X46" t="n">
         <v>5</v>
       </c>
-      <c r="Y46"/>
+      <c r="Y46" t="n">
+        <v>3</v>
+      </c>
       <c r="Z46" t="n">
         <v>1</v>
       </c>
@@ -5248,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -5257,13 +5103,13 @@
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
         <v>5</v>
@@ -5286,8 +5132,12 @@
       <c r="X47" t="n">
         <v>5</v>
       </c>
-      <c r="Y47"/>
-      <c r="Z47"/>
+      <c r="Y47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
       <c r="AA47"/>
       <c r="AB47" t="n">
         <v>5</v>
@@ -5338,24 +5188,18 @@
         <v>39</v>
       </c>
       <c r="I48"/>
-      <c r="J48" t="n">
-        <v>5</v>
-      </c>
+      <c r="J48"/>
       <c r="K48" t="n">
         <v>5</v>
       </c>
       <c r="L48" t="n">
         <v>5</v>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
+      <c r="M48"/>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q48"/>
       <c r="R48" t="n">
         <v>5</v>
       </c>
@@ -5431,23 +5275,19 @@
         <v>39</v>
       </c>
       <c r="I49"/>
-      <c r="J49" t="n">
-        <v>5</v>
-      </c>
+      <c r="J49"/>
       <c r="K49" t="n">
         <v>5</v>
       </c>
       <c r="L49" t="n">
         <v>5</v>
       </c>
-      <c r="M49" t="n">
-        <v>3</v>
-      </c>
+      <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
         <v>5</v>
@@ -5470,7 +5310,9 @@
       <c r="X49" t="n">
         <v>5</v>
       </c>
-      <c r="Y49"/>
+      <c r="Y49" t="n">
+        <v>5</v>
+      </c>
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49" t="n">
@@ -5522,24 +5364,18 @@
         <v>39</v>
       </c>
       <c r="I50"/>
-      <c r="J50" t="n">
-        <v>3</v>
-      </c>
+      <c r="J50"/>
       <c r="K50" t="n">
         <v>3</v>
       </c>
       <c r="L50" t="n">
         <v>3</v>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
+      <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q50"/>
       <c r="R50" t="n">
         <v>5</v>
       </c>
@@ -5562,9 +5398,7 @@
         <v>5</v>
       </c>
       <c r="Y50"/>
-      <c r="Z50" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50" t="n">
         <v>5</v>
@@ -5618,7 +5452,7 @@
         <v>0.240113518707938</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>3</v>
@@ -5627,14 +5461,12 @@
         <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q51"/>
       <c r="R51" t="n">
         <v>5</v>
       </c>
@@ -5656,8 +5488,12 @@
       <c r="X51" t="n">
         <v>5</v>
       </c>
-      <c r="Y51"/>
-      <c r="Z51"/>
+      <c r="Y51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1</v>
+      </c>
       <c r="AA51"/>
       <c r="AB51" t="n">
         <v>5</v>
@@ -5708,29 +5544,23 @@
         <v>80</v>
       </c>
       <c r="I52"/>
-      <c r="J52" t="n">
-        <v>5</v>
-      </c>
+      <c r="J52"/>
       <c r="K52" t="n">
         <v>5</v>
       </c>
       <c r="L52" t="n">
         <v>5</v>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
+      <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q52"/>
       <c r="R52" t="n">
         <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52" t="n">
         <v>5</v>
@@ -5801,29 +5631,25 @@
       <c r="I53" t="n">
         <v>0.354668085360461</v>
       </c>
-      <c r="J53" t="n">
-        <v>3</v>
-      </c>
+      <c r="J53"/>
       <c r="K53" t="n">
         <v>3</v>
       </c>
       <c r="L53" t="n">
         <v>3</v>
       </c>
-      <c r="M53" t="n">
-        <v>3</v>
-      </c>
+      <c r="M53"/>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
         <v>5</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T53" t="n">
         <v>5</v>
@@ -5840,10 +5666,10 @@
       <c r="X53" t="n">
         <v>5</v>
       </c>
-      <c r="Y53"/>
-      <c r="Z53" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z53"/>
       <c r="AA53"/>
       <c r="AB53" t="n">
         <v>5</v>
@@ -5896,24 +5722,18 @@
       <c r="I54" t="n">
         <v>0.234282539487935</v>
       </c>
-      <c r="J54" t="n">
-        <v>5</v>
-      </c>
+      <c r="J54"/>
       <c r="K54" t="n">
         <v>5</v>
       </c>
       <c r="L54" t="n">
         <v>5</v>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
+      <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q54"/>
       <c r="R54" t="n">
         <v>5</v>
       </c>
@@ -5935,10 +5755,10 @@
       <c r="X54" t="n">
         <v>5</v>
       </c>
-      <c r="Y54"/>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z54"/>
       <c r="AA54"/>
       <c r="AB54" t="n">
         <v>5</v>
@@ -5992,7 +5812,7 @@
         <v>0.247867864745167</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
         <v>3</v>
@@ -6001,7 +5821,7 @@
         <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -6013,7 +5833,7 @@
         <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T55" t="n">
         <v>5</v>
@@ -6030,10 +5850,10 @@
       <c r="X55" t="n">
         <v>5</v>
       </c>
-      <c r="Y55"/>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z55"/>
       <c r="AA55"/>
       <c r="AB55" t="n">
         <v>5</v>
@@ -6100,7 +5920,7 @@
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
         <v>5</v>
@@ -6124,9 +5944,7 @@
         <v>5</v>
       </c>
       <c r="Y56"/>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z56"/>
       <c r="AA56"/>
       <c r="AB56" t="n">
         <v>5</v>
@@ -6177,9 +5995,7 @@
         <v>77</v>
       </c>
       <c r="I57"/>
-      <c r="J57" t="n">
-        <v>3</v>
-      </c>
+      <c r="J57"/>
       <c r="K57" t="n">
         <v>5</v>
       </c>
@@ -6190,9 +6006,7 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q57"/>
       <c r="R57" t="n">
         <v>5</v>
       </c>
@@ -6215,9 +6029,7 @@
         <v>5</v>
       </c>
       <c r="Y57"/>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z57"/>
       <c r="AA57"/>
       <c r="AB57" t="n">
         <v>5</v>
@@ -6268,24 +6080,18 @@
         <v>77</v>
       </c>
       <c r="I58"/>
-      <c r="J58" t="n">
-        <v>3</v>
-      </c>
+      <c r="J58"/>
       <c r="K58" t="n">
         <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
+      <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q58"/>
       <c r="R58" t="n">
         <v>5</v>
       </c>
@@ -6308,9 +6114,7 @@
         <v>5</v>
       </c>
       <c r="Y58"/>
-      <c r="Z58" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z58"/>
       <c r="AA58"/>
       <c r="AB58" t="n">
         <v>5</v>
@@ -6361,24 +6165,18 @@
         <v>77</v>
       </c>
       <c r="I59"/>
-      <c r="J59" t="n">
-        <v>5</v>
-      </c>
+      <c r="J59"/>
       <c r="K59" t="n">
         <v>5</v>
       </c>
       <c r="L59" t="n">
         <v>5</v>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
+      <c r="M59"/>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q59"/>
       <c r="R59" t="n">
         <v>5</v>
       </c>
@@ -6401,9 +6199,7 @@
         <v>5</v>
       </c>
       <c r="Y59"/>
-      <c r="Z59" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z59"/>
       <c r="AA59"/>
       <c r="AB59" t="n">
         <v>5</v>
@@ -6454,29 +6250,25 @@
         <v>77</v>
       </c>
       <c r="I60"/>
-      <c r="J60" t="n">
-        <v>5</v>
-      </c>
+      <c r="J60"/>
       <c r="K60" t="n">
         <v>5</v>
       </c>
       <c r="L60" t="n">
         <v>5</v>
       </c>
-      <c r="M60" t="n">
-        <v>3</v>
-      </c>
+      <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
         <v>5</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T60" t="n">
         <v>5</v>
@@ -6494,9 +6286,7 @@
         <v>5</v>
       </c>
       <c r="Y60"/>
-      <c r="Z60" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z60"/>
       <c r="AA60"/>
       <c r="AB60" t="n">
         <v>5</v>
@@ -6547,24 +6337,18 @@
         <v>77</v>
       </c>
       <c r="I61"/>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
+      <c r="J61"/>
       <c r="K61" t="n">
         <v>5</v>
       </c>
       <c r="L61" t="n">
         <v>5</v>
       </c>
-      <c r="M61" t="n">
-        <v>3</v>
-      </c>
+      <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q61"/>
       <c r="R61" t="n">
         <v>5</v>
       </c>
@@ -6586,10 +6370,10 @@
       <c r="X61" t="n">
         <v>5</v>
       </c>
-      <c r="Y61"/>
-      <c r="Z61" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z61"/>
       <c r="AA61"/>
       <c r="AB61" t="n">
         <v>5</v>
@@ -6642,29 +6426,23 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62"/>
       <c r="K62" t="n">
         <v>5</v>
       </c>
       <c r="L62" t="n">
         <v>5</v>
       </c>
-      <c r="M62" t="n">
-        <v>3</v>
-      </c>
+      <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q62"/>
       <c r="R62" t="n">
         <v>5</v>
       </c>
       <c r="S62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T62" t="n">
         <v>5</v>
@@ -6681,7 +6459,9 @@
       <c r="X62" t="n">
         <v>5</v>
       </c>
-      <c r="Y62"/>
+      <c r="Y62" t="n">
+        <v>5</v>
+      </c>
       <c r="Z62"/>
       <c r="AA62"/>
       <c r="AB62" t="n">
@@ -6733,29 +6513,23 @@
         <v>80</v>
       </c>
       <c r="I63"/>
-      <c r="J63" t="n">
-        <v>5</v>
-      </c>
+      <c r="J63"/>
       <c r="K63" t="n">
         <v>5</v>
       </c>
       <c r="L63" t="n">
         <v>5</v>
       </c>
-      <c r="M63" t="n">
-        <v>3</v>
-      </c>
+      <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q63"/>
       <c r="R63" t="n">
         <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T63" t="n">
         <v>5</v>
@@ -6773,9 +6547,7 @@
         <v>5</v>
       </c>
       <c r="Y63"/>
-      <c r="Z63" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z63"/>
       <c r="AA63"/>
       <c r="AB63" t="n">
         <v>5</v>
@@ -6828,29 +6600,23 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
+      <c r="J64"/>
       <c r="K64" t="n">
         <v>5</v>
       </c>
       <c r="L64" t="n">
         <v>5</v>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
+      <c r="M64"/>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q64"/>
       <c r="R64" t="n">
         <v>5</v>
       </c>
       <c r="S64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
         <v>5</v>
@@ -6867,10 +6633,10 @@
       <c r="X64" t="n">
         <v>5</v>
       </c>
-      <c r="Y64"/>
-      <c r="Z64" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z64"/>
       <c r="AA64"/>
       <c r="AB64" t="n">
         <v>5</v>
@@ -6924,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
         <v>5</v>
@@ -6933,19 +6699,17 @@
         <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q65"/>
       <c r="R65" t="n">
         <v>5</v>
       </c>
       <c r="S65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
         <v>5</v>
@@ -6962,10 +6726,10 @@
       <c r="X65" t="n">
         <v>5</v>
       </c>
-      <c r="Y65"/>
-      <c r="Z65" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z65"/>
       <c r="AA65"/>
       <c r="AB65" t="n">
         <v>5</v>
@@ -7016,29 +6780,23 @@
         <v>77</v>
       </c>
       <c r="I66"/>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66"/>
       <c r="K66" t="n">
         <v>5</v>
       </c>
       <c r="L66" t="n">
         <v>5</v>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
+      <c r="M66"/>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
-      <c r="Q66" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q66"/>
       <c r="R66" t="n">
         <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T66" t="n">
         <v>5</v>
@@ -7055,10 +6813,10 @@
       <c r="X66" t="n">
         <v>5</v>
       </c>
-      <c r="Y66"/>
-      <c r="Z66" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z66"/>
       <c r="AA66"/>
       <c r="AB66" t="n">
         <v>5</v>
@@ -7112,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>3</v>
@@ -7121,14 +6879,12 @@
         <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
-      <c r="Q67" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q67"/>
       <c r="R67" t="n">
         <v>5</v>
       </c>
@@ -7150,7 +6906,9 @@
       <c r="X67" t="n">
         <v>5</v>
       </c>
-      <c r="Y67"/>
+      <c r="Y67" t="n">
+        <v>5</v>
+      </c>
       <c r="Z67"/>
       <c r="AA67"/>
       <c r="AB67" t="n">
@@ -7205,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>5</v>
@@ -7213,12 +6971,14 @@
       <c r="L68" t="n">
         <v>5</v>
       </c>
-      <c r="M68"/>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
         <v>5</v>
@@ -7241,9 +7001,11 @@
       <c r="X68" t="n">
         <v>5</v>
       </c>
-      <c r="Y68"/>
+      <c r="Y68" t="n">
+        <v>5</v>
+      </c>
       <c r="Z68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA68"/>
       <c r="AB68" t="n">
@@ -7298,7 +7060,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>5</v>
@@ -7307,19 +7069,19 @@
         <v>5</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
         <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T69" t="n">
         <v>5</v>
@@ -7336,10 +7098,10 @@
       <c r="X69" t="n">
         <v>5</v>
       </c>
-      <c r="Y69"/>
-      <c r="Z69" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z69"/>
       <c r="AA69"/>
       <c r="AB69" t="n">
         <v>5</v>
@@ -7393,9 +7155,7 @@
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
+      <c r="M70"/>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
@@ -7420,9 +7180,7 @@
         <v>5</v>
       </c>
       <c r="Y70"/>
-      <c r="Z70" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z70"/>
       <c r="AA70"/>
       <c r="AB70" t="n">
         <v>5</v>
@@ -7476,9 +7234,7 @@
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
+      <c r="M71"/>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
@@ -7501,9 +7257,7 @@
         <v>5</v>
       </c>
       <c r="Y71"/>
-      <c r="Z71" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z71"/>
       <c r="AA71"/>
       <c r="AB71" t="n">
         <v>5</v>
@@ -7554,24 +7308,18 @@
         <v>80</v>
       </c>
       <c r="I72"/>
-      <c r="J72" t="n">
-        <v>5</v>
-      </c>
+      <c r="J72"/>
       <c r="K72" t="n">
         <v>5</v>
       </c>
       <c r="L72" t="n">
         <v>5</v>
       </c>
-      <c r="M72" t="n">
-        <v>3</v>
-      </c>
+      <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
-      <c r="Q72" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q72"/>
       <c r="R72" t="n">
         <v>5</v>
       </c>
@@ -7645,29 +7393,23 @@
         <v>80</v>
       </c>
       <c r="I73"/>
-      <c r="J73" t="n">
-        <v>5</v>
-      </c>
+      <c r="J73"/>
       <c r="K73" t="n">
         <v>5</v>
       </c>
       <c r="L73" t="n">
         <v>5</v>
       </c>
-      <c r="M73" t="n">
-        <v>3</v>
-      </c>
+      <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
-      <c r="Q73" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q73"/>
       <c r="R73" t="n">
         <v>5</v>
       </c>
       <c r="S73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T73" t="n">
         <v>5</v>
@@ -7736,24 +7478,18 @@
         <v>80</v>
       </c>
       <c r="I74"/>
-      <c r="J74" t="n">
-        <v>5</v>
-      </c>
+      <c r="J74"/>
       <c r="K74" t="n">
         <v>5</v>
       </c>
       <c r="L74" t="n">
         <v>5</v>
       </c>
-      <c r="M74" t="n">
-        <v>3</v>
-      </c>
+      <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
-      <c r="Q74" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q74"/>
       <c r="R74" t="n">
         <v>5</v>
       </c>
@@ -7828,7 +7564,7 @@
       </c>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>5</v>
@@ -7837,13 +7573,13 @@
         <v>5</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R75" t="n">
         <v>5</v>
@@ -7866,10 +7602,10 @@
       <c r="X75" t="n">
         <v>5</v>
       </c>
-      <c r="Y75"/>
-      <c r="Z75" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z75"/>
       <c r="AA75"/>
       <c r="AB75" t="n">
         <v>5</v>
@@ -7920,24 +7656,18 @@
         <v>77</v>
       </c>
       <c r="I76"/>
-      <c r="J76" t="n">
-        <v>5</v>
-      </c>
+      <c r="J76"/>
       <c r="K76" t="n">
         <v>5</v>
       </c>
       <c r="L76" t="n">
         <v>5</v>
       </c>
-      <c r="M76" t="n">
-        <v>3</v>
-      </c>
+      <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
-      <c r="Q76" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q76"/>
       <c r="R76" t="n">
         <v>5</v>
       </c>
@@ -7960,9 +7690,7 @@
         <v>5</v>
       </c>
       <c r="Y76"/>
-      <c r="Z76" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z76"/>
       <c r="AA76"/>
       <c r="AB76" t="n">
         <v>5</v>
@@ -8013,9 +7741,7 @@
         <v>77</v>
       </c>
       <c r="I77"/>
-      <c r="J77" t="n">
-        <v>5</v>
-      </c>
+      <c r="J77"/>
       <c r="K77" t="n">
         <v>5</v>
       </c>
@@ -8026,9 +7752,7 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
-      <c r="Q77" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q77"/>
       <c r="R77" t="n">
         <v>5</v>
       </c>
@@ -8050,7 +7774,9 @@
       <c r="X77" t="n">
         <v>5</v>
       </c>
-      <c r="Y77"/>
+      <c r="Y77" t="n">
+        <v>5</v>
+      </c>
       <c r="Z77"/>
       <c r="AA77"/>
       <c r="AB77" t="n">
@@ -8103,7 +7829,7 @@
         <v>0.131452740653258</v>
       </c>
       <c r="J78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K78" t="n">
         <v>5</v>
@@ -8112,19 +7838,19 @@
         <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R78" t="n">
         <v>5</v>
       </c>
       <c r="S78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
         <v>5</v>
@@ -8141,10 +7867,10 @@
       <c r="X78" t="n">
         <v>5</v>
       </c>
-      <c r="Y78"/>
-      <c r="Z78" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z78"/>
       <c r="AA78"/>
       <c r="AB78" t="n">
         <v>5</v>
@@ -8207,14 +7933,12 @@
         <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
-      <c r="Q79" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q79"/>
       <c r="R79" t="n">
         <v>5</v>
       </c>
@@ -8236,7 +7960,9 @@
       <c r="X79" t="n">
         <v>5</v>
       </c>
-      <c r="Y79"/>
+      <c r="Y79" t="n">
+        <v>5</v>
+      </c>
       <c r="Z79"/>
       <c r="AA79"/>
       <c r="AB79" t="n">
@@ -8300,14 +8026,12 @@
         <v>5</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
-      <c r="Q80" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q80"/>
       <c r="R80" t="n">
         <v>5</v>
       </c>
@@ -8329,7 +8053,9 @@
       <c r="X80" t="n">
         <v>5</v>
       </c>
-      <c r="Y80"/>
+      <c r="Y80" t="n">
+        <v>5</v>
+      </c>
       <c r="Z80"/>
       <c r="AA80"/>
       <c r="AB80" t="n">
@@ -8393,14 +8119,12 @@
         <v>5</v>
       </c>
       <c r="M81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
-      <c r="Q81" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q81"/>
       <c r="R81" t="n">
         <v>5</v>
       </c>
@@ -8422,7 +8146,9 @@
       <c r="X81" t="n">
         <v>5</v>
       </c>
-      <c r="Y81"/>
+      <c r="Y81" t="n">
+        <v>5</v>
+      </c>
       <c r="Z81"/>
       <c r="AA81"/>
       <c r="AB81" t="n">
@@ -8486,14 +8212,12 @@
         <v>5</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
-      <c r="Q82" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q82"/>
       <c r="R82" t="n">
         <v>5</v>
       </c>
@@ -8515,7 +8239,9 @@
       <c r="X82" t="n">
         <v>5</v>
       </c>
-      <c r="Y82"/>
+      <c r="Y82" t="n">
+        <v>5</v>
+      </c>
       <c r="Z82"/>
       <c r="AA82"/>
       <c r="AB82" t="n">
@@ -8584,9 +8310,7 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
-      <c r="Q83" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q83"/>
       <c r="R83" t="n">
         <v>5</v>
       </c>
@@ -8608,10 +8332,10 @@
       <c r="X83" t="n">
         <v>5</v>
       </c>
-      <c r="Y83"/>
-      <c r="Z83" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z83"/>
       <c r="AA83"/>
       <c r="AB83" t="n">
         <v>5</v>
@@ -8679,9 +8403,7 @@
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q84"/>
       <c r="R84" t="n">
         <v>5</v>
       </c>
@@ -8772,9 +8494,7 @@
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
-      <c r="Q85" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q85"/>
       <c r="R85" t="n">
         <v>5</v>
       </c>
@@ -8796,10 +8516,10 @@
       <c r="X85" t="n">
         <v>5</v>
       </c>
-      <c r="Y85"/>
-      <c r="Z85" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z85"/>
       <c r="AA85"/>
       <c r="AB85" t="n">
         <v>5</v>
@@ -8853,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
         <v>5</v>
@@ -8862,14 +8582,12 @@
         <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
-      <c r="Q86" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q86"/>
       <c r="R86" t="n">
         <v>5</v>
       </c>
@@ -8891,7 +8609,9 @@
       <c r="X86" t="n">
         <v>5</v>
       </c>
-      <c r="Y86"/>
+      <c r="Y86" t="n">
+        <v>3</v>
+      </c>
       <c r="Z86"/>
       <c r="AA86"/>
       <c r="AB86" t="n">
@@ -8955,18 +8675,18 @@
         <v>5</v>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
-      <c r="Q87" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q87"/>
       <c r="R87" t="n">
         <v>5</v>
       </c>
-      <c r="S87"/>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
       <c r="T87" t="n">
         <v>5</v>
       </c>
@@ -8982,7 +8702,9 @@
       <c r="X87" t="n">
         <v>5</v>
       </c>
-      <c r="Y87"/>
+      <c r="Y87" t="n">
+        <v>3</v>
+      </c>
       <c r="Z87"/>
       <c r="AA87"/>
       <c r="AB87" t="n">
@@ -9037,7 +8759,7 @@
         <v>0.205909254667754</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>5</v>
@@ -9046,19 +8768,17 @@
         <v>5</v>
       </c>
       <c r="M88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
-      <c r="Q88" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q88"/>
       <c r="R88" t="n">
         <v>5</v>
       </c>
       <c r="S88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T88" t="n">
         <v>5</v>
@@ -9075,7 +8795,9 @@
       <c r="X88" t="n">
         <v>5</v>
       </c>
-      <c r="Y88"/>
+      <c r="Y88" t="n">
+        <v>5</v>
+      </c>
       <c r="Z88"/>
       <c r="AA88"/>
       <c r="AB88" t="n">
@@ -9130,7 +8852,7 @@
         <v>0.233443007589593</v>
       </c>
       <c r="J89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>5</v>
@@ -9144,14 +8866,12 @@
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
-      <c r="Q89" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q89"/>
       <c r="R89" t="n">
         <v>5</v>
       </c>
       <c r="S89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T89" t="n">
         <v>5</v>
@@ -9168,10 +8888,10 @@
       <c r="X89" t="n">
         <v>5</v>
       </c>
-      <c r="Y89"/>
-      <c r="Z89" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z89"/>
       <c r="AA89"/>
       <c r="AB89" t="n">
         <v>5</v>
@@ -9224,24 +8944,18 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90"/>
       <c r="K90" t="n">
         <v>5</v>
       </c>
       <c r="L90" t="n">
         <v>5</v>
       </c>
-      <c r="M90" t="n">
-        <v>3</v>
-      </c>
+      <c r="M90"/>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
-      <c r="Q90" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q90"/>
       <c r="R90" t="n">
         <v>5</v>
       </c>
@@ -9263,10 +8977,10 @@
       <c r="X90" t="n">
         <v>5</v>
       </c>
-      <c r="Y90"/>
-      <c r="Z90" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z90"/>
       <c r="AA90"/>
       <c r="AB90" t="n">
         <v>5</v>
@@ -9319,24 +9033,18 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>3</v>
-      </c>
+      <c r="J91"/>
       <c r="K91" t="n">
         <v>5</v>
       </c>
       <c r="L91" t="n">
         <v>5</v>
       </c>
-      <c r="M91" t="n">
-        <v>3</v>
-      </c>
+      <c r="M91"/>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
-      <c r="Q91" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q91"/>
       <c r="R91" t="n">
         <v>5</v>
       </c>
@@ -9358,7 +9066,9 @@
       <c r="X91" t="n">
         <v>5</v>
       </c>
-      <c r="Y91"/>
+      <c r="Y91" t="n">
+        <v>3</v>
+      </c>
       <c r="Z91"/>
       <c r="AA91"/>
       <c r="AB91" t="n">
@@ -9427,14 +9137,12 @@
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
-      <c r="Q92" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q92"/>
       <c r="R92" t="n">
         <v>5</v>
       </c>
       <c r="S92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T92" t="n">
         <v>5</v>
@@ -9451,10 +9159,10 @@
       <c r="X92" t="n">
         <v>5</v>
       </c>
-      <c r="Y92"/>
-      <c r="Z92" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z92"/>
       <c r="AA92"/>
       <c r="AB92" t="n">
         <v>5</v>
@@ -9517,13 +9225,13 @@
         <v>5</v>
       </c>
       <c r="M93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R93" t="n">
         <v>5</v>
@@ -9546,10 +9254,10 @@
       <c r="X93" t="n">
         <v>5</v>
       </c>
-      <c r="Y93"/>
-      <c r="Z93" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z93"/>
       <c r="AA93"/>
       <c r="AB93" t="n">
         <v>5</v>
@@ -9612,19 +9320,19 @@
         <v>5</v>
       </c>
       <c r="M94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R94" t="n">
         <v>5</v>
       </c>
       <c r="S94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T94" t="n">
         <v>5</v>
@@ -9641,7 +9349,9 @@
       <c r="X94" t="n">
         <v>5</v>
       </c>
-      <c r="Y94"/>
+      <c r="Y94" t="n">
+        <v>5</v>
+      </c>
       <c r="Z94"/>
       <c r="AA94"/>
       <c r="AB94" t="n">
@@ -9695,23 +9405,19 @@
       <c r="I95" t="n">
         <v>0.0581569779503563</v>
       </c>
-      <c r="J95" t="n">
-        <v>5</v>
-      </c>
+      <c r="J95"/>
       <c r="K95" t="n">
         <v>5</v>
       </c>
       <c r="L95" t="n">
         <v>5</v>
       </c>
-      <c r="M95" t="n">
-        <v>3</v>
-      </c>
+      <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R95" t="n">
         <v>5</v>
@@ -9734,10 +9440,10 @@
       <c r="X95" t="n">
         <v>5</v>
       </c>
-      <c r="Y95"/>
-      <c r="Z95" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z95"/>
       <c r="AA95"/>
       <c r="AB95" t="n">
         <v>5</v>
@@ -9790,24 +9496,18 @@
       <c r="I96" t="n">
         <v>0.626617921420571</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96"/>
       <c r="K96" t="n">
         <v>5</v>
       </c>
       <c r="L96" t="n">
         <v>5</v>
       </c>
-      <c r="M96" t="n">
-        <v>3</v>
-      </c>
+      <c r="M96"/>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
-      <c r="Q96" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q96"/>
       <c r="R96" t="n">
         <v>5</v>
       </c>
@@ -9825,7 +9525,9 @@
       </c>
       <c r="W96"/>
       <c r="X96"/>
-      <c r="Y96"/>
+      <c r="Y96" t="n">
+        <v>5</v>
+      </c>
       <c r="Z96"/>
       <c r="AA96"/>
       <c r="AB96" t="n">
@@ -9887,14 +9589,12 @@
         <v>5</v>
       </c>
       <c r="M97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
-      <c r="Q97" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q97"/>
       <c r="R97" t="n">
         <v>5</v>
       </c>
@@ -9916,7 +9616,9 @@
       <c r="X97" t="n">
         <v>5</v>
       </c>
-      <c r="Y97"/>
+      <c r="Y97" t="n">
+        <v>5</v>
+      </c>
       <c r="Z97"/>
       <c r="AA97"/>
       <c r="AB97" t="n">
@@ -9985,9 +9687,7 @@
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
-      <c r="Q98" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q98"/>
       <c r="R98" t="n">
         <v>5</v>
       </c>
@@ -10009,10 +9709,10 @@
       <c r="X98" t="n">
         <v>5</v>
       </c>
-      <c r="Y98"/>
-      <c r="Z98" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z98"/>
       <c r="AA98"/>
       <c r="AB98" t="n">
         <v>5</v>
@@ -10065,24 +9765,18 @@
       <c r="I99" t="n">
         <v>0.654280377056844</v>
       </c>
-      <c r="J99" t="n">
-        <v>5</v>
-      </c>
+      <c r="J99"/>
       <c r="K99" t="n">
         <v>5</v>
       </c>
       <c r="L99" t="n">
         <v>5</v>
       </c>
-      <c r="M99" t="n">
-        <v>3</v>
-      </c>
+      <c r="M99"/>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
-      <c r="Q99" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q99"/>
       <c r="R99" t="n">
         <v>5</v>
       </c>
@@ -10104,7 +9798,9 @@
       <c r="X99" t="n">
         <v>5</v>
       </c>
-      <c r="Y99"/>
+      <c r="Y99" t="n">
+        <v>5</v>
+      </c>
       <c r="Z99"/>
       <c r="AA99"/>
       <c r="AB99" t="n">
@@ -10158,24 +9854,18 @@
       <c r="I100" t="n">
         <v>0.0420846940519813</v>
       </c>
-      <c r="J100" t="n">
-        <v>5</v>
-      </c>
+      <c r="J100"/>
       <c r="K100" t="n">
         <v>3</v>
       </c>
       <c r="L100" t="n">
         <v>3</v>
       </c>
-      <c r="M100" t="n">
-        <v>3</v>
-      </c>
+      <c r="M100"/>
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
-      <c r="Q100" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q100"/>
       <c r="R100" t="n">
         <v>5</v>
       </c>
@@ -10197,7 +9887,9 @@
       <c r="X100" t="n">
         <v>5</v>
       </c>
-      <c r="Y100"/>
+      <c r="Y100" t="n">
+        <v>5</v>
+      </c>
       <c r="Z100"/>
       <c r="AA100"/>
       <c r="AB100" t="n">
@@ -10261,14 +9953,12 @@
         <v>5</v>
       </c>
       <c r="M101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
-      <c r="Q101" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q101"/>
       <c r="R101" t="n">
         <v>5</v>
       </c>
@@ -10290,10 +9980,10 @@
       <c r="X101" t="n">
         <v>5</v>
       </c>
-      <c r="Y101"/>
-      <c r="Z101" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z101"/>
       <c r="AA101"/>
       <c r="AB101" t="n">
         <v>5</v>
@@ -10356,7 +10046,7 @@
         <v>5</v>
       </c>
       <c r="M102" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
@@ -10385,7 +10075,9 @@
       <c r="X102" t="n">
         <v>5</v>
       </c>
-      <c r="Y102"/>
+      <c r="Y102" t="n">
+        <v>5</v>
+      </c>
       <c r="Z102"/>
       <c r="AA102"/>
       <c r="AB102" t="n">
@@ -10440,7 +10132,7 @@
         <v>0.681008576206181</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
         <v>5</v>
@@ -10449,13 +10141,13 @@
         <v>5</v>
       </c>
       <c r="M103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
       <c r="Q103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R103" t="n">
         <v>5</v>
@@ -10478,10 +10170,10 @@
       <c r="X103" t="n">
         <v>5</v>
       </c>
-      <c r="Y103"/>
-      <c r="Z103" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z103"/>
       <c r="AA103"/>
       <c r="AB103" t="n">
         <v>5</v>
@@ -10544,13 +10236,13 @@
         <v>5</v>
       </c>
       <c r="M104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104"/>
       <c r="Q104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R104" t="n">
         <v>5</v>
@@ -10573,7 +10265,9 @@
       <c r="X104" t="n">
         <v>5</v>
       </c>
-      <c r="Y104"/>
+      <c r="Y104" t="n">
+        <v>5</v>
+      </c>
       <c r="Z104"/>
       <c r="AA104"/>
       <c r="AB104" t="n">
@@ -10637,14 +10331,12 @@
         <v>5</v>
       </c>
       <c r="M105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105"/>
-      <c r="Q105" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q105"/>
       <c r="R105" t="n">
         <v>5</v>
       </c>
@@ -10666,7 +10358,9 @@
       <c r="X105" t="n">
         <v>5</v>
       </c>
-      <c r="Y105"/>
+      <c r="Y105" t="n">
+        <v>5</v>
+      </c>
       <c r="Z105"/>
       <c r="AA105"/>
       <c r="AB105" t="n">
@@ -10720,18 +10414,14 @@
       <c r="I106" t="n">
         <v>0.698825020843353</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106"/>
       <c r="K106" t="n">
         <v>5</v>
       </c>
       <c r="L106" t="n">
         <v>5</v>
       </c>
-      <c r="M106" t="n">
-        <v>3</v>
-      </c>
+      <c r="M106"/>
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106"/>
@@ -10759,7 +10449,9 @@
       <c r="X106" t="n">
         <v>5</v>
       </c>
-      <c r="Y106"/>
+      <c r="Y106" t="n">
+        <v>5</v>
+      </c>
       <c r="Z106"/>
       <c r="AA106"/>
       <c r="AB106" t="n">
@@ -10814,7 +10506,7 @@
         <v>0.789291793508043</v>
       </c>
       <c r="J107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K107" t="n">
         <v>5</v>
@@ -10823,7 +10515,7 @@
         <v>5</v>
       </c>
       <c r="M107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -10852,7 +10544,9 @@
       <c r="X107" t="n">
         <v>5</v>
       </c>
-      <c r="Y107"/>
+      <c r="Y107" t="n">
+        <v>5</v>
+      </c>
       <c r="Z107"/>
       <c r="AA107"/>
       <c r="AB107" t="n">
@@ -10906,29 +10600,25 @@
       <c r="I108" t="n">
         <v>0.289937829844472</v>
       </c>
-      <c r="J108" t="n">
-        <v>5</v>
-      </c>
+      <c r="J108"/>
       <c r="K108" t="n">
         <v>5</v>
       </c>
       <c r="L108" t="n">
         <v>5</v>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
+      <c r="M108"/>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108"/>
       <c r="Q108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R108" t="n">
         <v>5</v>
       </c>
       <c r="S108" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T108" t="n">
         <v>5</v>
@@ -10945,10 +10635,10 @@
       <c r="X108" t="n">
         <v>5</v>
       </c>
-      <c r="Y108"/>
-      <c r="Z108" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z108"/>
       <c r="AA108"/>
       <c r="AB108" t="n">
         <v>5</v>
@@ -11001,18 +10691,14 @@
       <c r="I109" t="n">
         <v>0.392226717716027</v>
       </c>
-      <c r="J109" t="n">
-        <v>3</v>
-      </c>
+      <c r="J109"/>
       <c r="K109" t="n">
         <v>5</v>
       </c>
       <c r="L109" t="n">
         <v>5</v>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
+      <c r="M109"/>
       <c r="N109"/>
       <c r="O109"/>
       <c r="P109"/>
@@ -11023,7 +10709,7 @@
         <v>5</v>
       </c>
       <c r="S109" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T109" t="n">
         <v>5</v>
@@ -11041,9 +10727,7 @@
         <v>5</v>
       </c>
       <c r="Y109"/>
-      <c r="Z109" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z109"/>
       <c r="AA109"/>
       <c r="AB109" t="n">
         <v>5</v>
@@ -11097,7 +10781,7 @@
         <v>0.512291200709168</v>
       </c>
       <c r="J110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
@@ -11106,19 +10790,17 @@
         <v>1</v>
       </c>
       <c r="M110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110"/>
-      <c r="Q110" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q110"/>
       <c r="R110" t="n">
         <v>5</v>
       </c>
       <c r="S110" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T110" t="n">
         <v>5</v>
@@ -11135,7 +10817,9 @@
       <c r="X110" t="n">
         <v>5</v>
       </c>
-      <c r="Y110"/>
+      <c r="Y110" t="n">
+        <v>5</v>
+      </c>
       <c r="Z110"/>
       <c r="AA110"/>
       <c r="AB110" t="n">
@@ -11190,7 +10874,7 @@
         <v>0.503351146256966</v>
       </c>
       <c r="J111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>5</v>
@@ -11199,19 +10883,19 @@
         <v>5</v>
       </c>
       <c r="M111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R111" t="n">
         <v>5</v>
       </c>
       <c r="S111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T111" t="n">
         <v>5</v>
@@ -11229,9 +10913,7 @@
         <v>5</v>
       </c>
       <c r="Y111"/>
-      <c r="Z111" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z111"/>
       <c r="AA111"/>
       <c r="AB111" t="n">
         <v>5</v>
@@ -11284,23 +10966,19 @@
       <c r="I112" t="n">
         <v>0.629274055804117</v>
       </c>
-      <c r="J112" t="n">
-        <v>5</v>
-      </c>
+      <c r="J112"/>
       <c r="K112" t="n">
         <v>5</v>
       </c>
       <c r="L112" t="n">
         <v>5</v>
       </c>
-      <c r="M112" t="n">
-        <v>3</v>
-      </c>
+      <c r="M112"/>
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R112" t="n">
         <v>5</v>
@@ -11323,7 +11001,9 @@
       <c r="X112" t="n">
         <v>5</v>
       </c>
-      <c r="Y112"/>
+      <c r="Y112" t="n">
+        <v>3</v>
+      </c>
       <c r="Z112"/>
       <c r="AA112"/>
       <c r="AB112" t="n">
@@ -11377,23 +11057,19 @@
       <c r="I113" t="n">
         <v>0.517816624879269</v>
       </c>
-      <c r="J113" t="n">
-        <v>3</v>
-      </c>
+      <c r="J113"/>
       <c r="K113" t="n">
         <v>5</v>
       </c>
       <c r="L113" t="n">
         <v>5</v>
       </c>
-      <c r="M113" t="n">
-        <v>3</v>
-      </c>
+      <c r="M113"/>
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R113" t="n">
         <v>5</v>
@@ -11416,7 +11092,9 @@
       <c r="X113" t="n">
         <v>5</v>
       </c>
-      <c r="Y113"/>
+      <c r="Y113" t="n">
+        <v>1</v>
+      </c>
       <c r="Z113"/>
       <c r="AA113"/>
       <c r="AB113" t="n">
@@ -11471,9 +11149,7 @@
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
-      <c r="M114" t="n">
-        <v>3</v>
-      </c>
+      <c r="M114"/>
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114"/>
@@ -11552,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
         <v>3</v>
@@ -11561,14 +11237,12 @@
         <v>3</v>
       </c>
       <c r="M115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115"/>
-      <c r="Q115" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q115"/>
       <c r="R115" t="n">
         <v>5</v>
       </c>
@@ -11590,7 +11264,9 @@
       <c r="X115" t="n">
         <v>5</v>
       </c>
-      <c r="Y115"/>
+      <c r="Y115" t="n">
+        <v>5</v>
+      </c>
       <c r="Z115"/>
       <c r="AA115"/>
       <c r="AB115" t="n">
@@ -11645,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
         <v>5</v>
@@ -11654,13 +11330,13 @@
         <v>5</v>
       </c>
       <c r="M116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R116" t="n">
         <v>5</v>
@@ -11683,10 +11359,10 @@
       <c r="X116" t="n">
         <v>5</v>
       </c>
-      <c r="Y116"/>
-      <c r="Z116" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z116"/>
       <c r="AA116"/>
       <c r="AB116" t="n">
         <v>5</v>
@@ -11739,23 +11415,19 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>5</v>
-      </c>
+      <c r="J117"/>
       <c r="K117" t="n">
         <v>5</v>
       </c>
       <c r="L117" t="n">
         <v>5</v>
       </c>
-      <c r="M117" t="n">
-        <v>3</v>
-      </c>
+      <c r="M117"/>
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R117" t="n">
         <v>5</v>
@@ -11778,10 +11450,10 @@
       <c r="X117" t="n">
         <v>5</v>
       </c>
-      <c r="Y117"/>
-      <c r="Z117" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y117" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z117"/>
       <c r="AA117"/>
       <c r="AB117" t="n">
         <v>5</v>
@@ -11834,24 +11506,18 @@
       <c r="I118" t="n">
         <v>0.287380965486902</v>
       </c>
-      <c r="J118" t="n">
-        <v>5</v>
-      </c>
+      <c r="J118"/>
       <c r="K118" t="n">
         <v>5</v>
       </c>
       <c r="L118" t="n">
         <v>5</v>
       </c>
-      <c r="M118" t="n">
-        <v>3</v>
-      </c>
+      <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
-      <c r="Q118" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q118"/>
       <c r="R118" t="n">
         <v>5</v>
       </c>
@@ -11928,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
         <v>5</v>
@@ -11937,14 +11603,12 @@
         <v>5</v>
       </c>
       <c r="M119" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119"/>
-      <c r="Q119" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q119"/>
       <c r="R119" t="n">
         <v>5</v>
       </c>
@@ -11966,7 +11630,9 @@
       <c r="X119" t="n">
         <v>5</v>
       </c>
-      <c r="Y119"/>
+      <c r="Y119" t="n">
+        <v>3</v>
+      </c>
       <c r="Z119"/>
       <c r="AA119"/>
       <c r="AB119" t="n">
@@ -12030,14 +11696,12 @@
         <v>5</v>
       </c>
       <c r="M120" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120"/>
-      <c r="Q120" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q120"/>
       <c r="R120" t="n">
         <v>5</v>
       </c>
@@ -12060,9 +11724,7 @@
         <v>5</v>
       </c>
       <c r="Y120"/>
-      <c r="Z120" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z120"/>
       <c r="AA120"/>
       <c r="AB120" t="n">
         <v>5</v>
@@ -12116,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
         <v>5</v>
@@ -12125,14 +11787,12 @@
         <v>5</v>
       </c>
       <c r="M121" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121"/>
-      <c r="Q121" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q121"/>
       <c r="R121" t="n">
         <v>5</v>
       </c>
@@ -12154,7 +11814,9 @@
       <c r="X121" t="n">
         <v>5</v>
       </c>
-      <c r="Y121"/>
+      <c r="Y121" t="n">
+        <v>5</v>
+      </c>
       <c r="Z121"/>
       <c r="AA121"/>
       <c r="AB121" t="n">
@@ -12230,7 +11892,7 @@
         <v>5</v>
       </c>
       <c r="S122" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T122" t="n">
         <v>5</v>
@@ -12302,7 +11964,7 @@
         <v>0.0292506829513117</v>
       </c>
       <c r="J123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
         <v>5</v>
@@ -12311,19 +11973,19 @@
         <v>5</v>
       </c>
       <c r="M123" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R123" t="n">
         <v>5</v>
       </c>
       <c r="S123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T123" t="n">
         <v>5</v>
@@ -12340,10 +12002,10 @@
       <c r="X123" t="n">
         <v>5</v>
       </c>
-      <c r="Y123"/>
-      <c r="Z123" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z123"/>
       <c r="AA123"/>
       <c r="AB123" t="n">
         <v>5</v>
@@ -12396,18 +12058,14 @@
       <c r="I124" t="n">
         <v>0.0334077127996523</v>
       </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
+      <c r="J124"/>
       <c r="K124" t="n">
         <v>5</v>
       </c>
       <c r="L124" t="n">
         <v>5</v>
       </c>
-      <c r="M124" t="n">
-        <v>3</v>
-      </c>
+      <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
@@ -12435,10 +12093,10 @@
       <c r="X124" t="n">
         <v>5</v>
       </c>
-      <c r="Y124"/>
-      <c r="Z124" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y124" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z124"/>
       <c r="AA124"/>
       <c r="AB124" t="n">
         <v>5</v>
@@ -12489,29 +12147,23 @@
         <v>57</v>
       </c>
       <c r="I125"/>
-      <c r="J125" t="n">
-        <v>5</v>
-      </c>
+      <c r="J125"/>
       <c r="K125" t="n">
         <v>5</v>
       </c>
       <c r="L125" t="n">
         <v>5</v>
       </c>
-      <c r="M125" t="n">
-        <v>3</v>
-      </c>
+      <c r="M125"/>
       <c r="N125"/>
       <c r="O125"/>
       <c r="P125"/>
-      <c r="Q125" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q125"/>
       <c r="R125" t="n">
         <v>5</v>
       </c>
       <c r="S125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T125" t="n">
         <v>5</v>
@@ -12580,29 +12232,23 @@
         <v>57</v>
       </c>
       <c r="I126"/>
-      <c r="J126" t="n">
-        <v>5</v>
-      </c>
+      <c r="J126"/>
       <c r="K126" t="n">
         <v>5</v>
       </c>
       <c r="L126" t="n">
         <v>5</v>
       </c>
-      <c r="M126" t="n">
-        <v>3</v>
-      </c>
+      <c r="M126"/>
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126"/>
-      <c r="Q126" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q126"/>
       <c r="R126" t="n">
         <v>5</v>
       </c>
       <c r="S126" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T126" t="n">
         <v>5</v>
@@ -12671,29 +12317,23 @@
         <v>57</v>
       </c>
       <c r="I127"/>
-      <c r="J127" t="n">
-        <v>5</v>
-      </c>
+      <c r="J127"/>
       <c r="K127" t="n">
         <v>5</v>
       </c>
       <c r="L127" t="n">
         <v>5</v>
       </c>
-      <c r="M127" t="n">
-        <v>3</v>
-      </c>
+      <c r="M127"/>
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127"/>
-      <c r="Q127" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q127"/>
       <c r="R127" t="n">
         <v>5</v>
       </c>
       <c r="S127" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T127" t="n">
         <v>5</v>
@@ -12760,24 +12400,18 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>3</v>
-      </c>
+      <c r="J128"/>
       <c r="K128" t="n">
         <v>5</v>
       </c>
       <c r="L128" t="n">
         <v>5</v>
       </c>
-      <c r="M128" t="n">
-        <v>3</v>
-      </c>
+      <c r="M128"/>
       <c r="N128"/>
       <c r="O128"/>
       <c r="P128"/>
-      <c r="Q128" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q128"/>
       <c r="R128" t="n">
         <v>5</v>
       </c>
@@ -12800,9 +12434,7 @@
         <v>5</v>
       </c>
       <c r="Y128"/>
-      <c r="Z128" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z128"/>
       <c r="AA128"/>
       <c r="AB128" t="n">
         <v>5</v>
@@ -12849,24 +12481,18 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
+      <c r="J129"/>
       <c r="K129" t="n">
         <v>5</v>
       </c>
       <c r="L129" t="n">
         <v>5</v>
       </c>
-      <c r="M129" t="n">
-        <v>3</v>
-      </c>
+      <c r="M129"/>
       <c r="N129"/>
       <c r="O129"/>
       <c r="P129"/>
-      <c r="Q129" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q129"/>
       <c r="R129" t="n">
         <v>5</v>
       </c>
@@ -12889,9 +12515,7 @@
         <v>5</v>
       </c>
       <c r="Y129"/>
-      <c r="Z129" t="n">
-        <v>3</v>
-      </c>
+      <c r="Z129"/>
       <c r="AA129"/>
       <c r="AB129" t="n">
         <v>5</v>

--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -1087,7 +1087,9 @@
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
-      <c r="Q2"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
       <c r="R2" t="n">
         <v>5</v>
       </c>
@@ -1112,7 +1114,9 @@
       <c r="Y2" t="n">
         <v>5</v>
       </c>
-      <c r="Z2"/>
+      <c r="Z2" t="n">
+        <v>5</v>
+      </c>
       <c r="AA2"/>
       <c r="AB2" t="n">
         <v>5</v>
@@ -1201,7 +1205,9 @@
         <v>5</v>
       </c>
       <c r="Y3"/>
-      <c r="Z3"/>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
       <c r="AA3"/>
       <c r="AB3" t="n">
         <v>5</v>
@@ -1294,7 +1300,9 @@
       <c r="Y4" t="n">
         <v>5</v>
       </c>
-      <c r="Z4"/>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
       <c r="AA4"/>
       <c r="AB4" t="n">
         <v>5</v>
@@ -1387,7 +1395,9 @@
       <c r="Y5" t="n">
         <v>1</v>
       </c>
-      <c r="Z5"/>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
       <c r="AA5"/>
       <c r="AB5" t="n">
         <v>5</v>
@@ -1480,7 +1490,9 @@
         <v>5</v>
       </c>
       <c r="Y6"/>
-      <c r="Z6"/>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
       <c r="AA6"/>
       <c r="AB6" t="n">
         <v>5</v>
@@ -1660,7 +1672,9 @@
       <c r="Y8" t="n">
         <v>1</v>
       </c>
-      <c r="Z8"/>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
       <c r="AA8"/>
       <c r="AB8" t="n">
         <v>5</v>
@@ -1753,7 +1767,9 @@
       <c r="Y9" t="n">
         <v>5</v>
       </c>
-      <c r="Z9"/>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
       <c r="AA9"/>
       <c r="AB9" t="n">
         <v>5</v>
@@ -1844,7 +1860,9 @@
       <c r="Y10" t="n">
         <v>5</v>
       </c>
-      <c r="Z10"/>
+      <c r="Z10" t="n">
+        <v>5</v>
+      </c>
       <c r="AA10"/>
       <c r="AB10" t="n">
         <v>5</v>
@@ -1927,7 +1945,9 @@
       <c r="Y11" t="n">
         <v>5</v>
       </c>
-      <c r="Z11"/>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
       <c r="AA11"/>
       <c r="AB11" t="n">
         <v>5</v>
@@ -2018,7 +2038,9 @@
       <c r="Y12" t="n">
         <v>3</v>
       </c>
-      <c r="Z12"/>
+      <c r="Z12" t="n">
+        <v>5</v>
+      </c>
       <c r="AA12"/>
       <c r="AB12" t="n">
         <v>5</v>
@@ -2107,7 +2129,9 @@
       <c r="Y13" t="n">
         <v>1</v>
       </c>
-      <c r="Z13"/>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
       <c r="AA13"/>
       <c r="AB13" t="n">
         <v>5</v>
@@ -2789,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>5</v>
@@ -2809,7 +2833,9 @@
       <c r="Y21" t="n">
         <v>5</v>
       </c>
-      <c r="Z21"/>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
       <c r="AA21"/>
       <c r="AB21" t="n">
         <v>5</v>
@@ -2902,7 +2928,9 @@
       <c r="Y22" t="n">
         <v>5</v>
       </c>
-      <c r="Z22"/>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
       <c r="AA22"/>
       <c r="AB22" t="n">
         <v>5</v>
@@ -2995,7 +3023,9 @@
       <c r="Y23" t="n">
         <v>3</v>
       </c>
-      <c r="Z23"/>
+      <c r="Z23" t="n">
+        <v>5</v>
+      </c>
       <c r="AA23"/>
       <c r="AB23" t="n">
         <v>5</v>
@@ -3090,7 +3120,9 @@
       <c r="Y24" t="n">
         <v>3</v>
       </c>
-      <c r="Z24"/>
+      <c r="Z24" t="n">
+        <v>5</v>
+      </c>
       <c r="AA24"/>
       <c r="AB24" t="n">
         <v>5</v>
@@ -3181,7 +3213,9 @@
       <c r="Y25" t="n">
         <v>3</v>
       </c>
-      <c r="Z25"/>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
       <c r="AA25"/>
       <c r="AB25" t="n">
         <v>5</v>
@@ -3276,7 +3310,9 @@
       <c r="Y26" t="n">
         <v>5</v>
       </c>
-      <c r="Z26"/>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
       <c r="AA26"/>
       <c r="AB26" t="n">
         <v>5</v>
@@ -3369,7 +3405,9 @@
       <c r="Y27" t="n">
         <v>5</v>
       </c>
-      <c r="Z27"/>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
       <c r="AA27"/>
       <c r="AB27" t="n">
         <v>5</v>
@@ -3433,7 +3471,9 @@
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
-      <c r="Q28"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
       <c r="R28" t="n">
         <v>5</v>
       </c>
@@ -3456,7 +3496,9 @@
         <v>5</v>
       </c>
       <c r="Y28"/>
-      <c r="Z28"/>
+      <c r="Z28" t="n">
+        <v>1</v>
+      </c>
       <c r="AA28"/>
       <c r="AB28" t="n">
         <v>5</v>
@@ -3518,7 +3560,9 @@
       <c r="R29" t="n">
         <v>5</v>
       </c>
-      <c r="S29"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
       <c r="T29"/>
       <c r="U29" t="n">
         <v>1</v>
@@ -3674,12 +3718,14 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
       <c r="R31" t="n">
         <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
         <v>5</v>
@@ -3699,7 +3745,9 @@
       <c r="Y31" t="n">
         <v>3</v>
       </c>
-      <c r="Z31"/>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
       <c r="AA31"/>
       <c r="AB31" t="n">
         <v>5</v>
@@ -3786,7 +3834,9 @@
         <v>5</v>
       </c>
       <c r="Y32"/>
-      <c r="Z32"/>
+      <c r="Z32" t="n">
+        <v>1</v>
+      </c>
       <c r="AA32"/>
       <c r="AB32" t="n">
         <v>5</v>
@@ -3852,12 +3902,14 @@
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
       <c r="R33" t="n">
         <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
@@ -3877,7 +3929,9 @@
       <c r="Y33" t="n">
         <v>5</v>
       </c>
-      <c r="Z33"/>
+      <c r="Z33" t="n">
+        <v>1</v>
+      </c>
       <c r="AA33"/>
       <c r="AB33" t="n">
         <v>5</v>
@@ -3946,7 +4000,7 @@
         <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -4035,7 +4089,7 @@
         <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
         <v>5</v>
@@ -4055,7 +4109,9 @@
       <c r="Y35" t="n">
         <v>5</v>
       </c>
-      <c r="Z35"/>
+      <c r="Z35" t="n">
+        <v>1</v>
+      </c>
       <c r="AA35"/>
       <c r="AB35" t="n">
         <v>5</v>
@@ -4117,7 +4173,9 @@
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
-      <c r="Q36"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
       <c r="R36" t="n">
         <v>5</v>
       </c>
@@ -4140,7 +4198,9 @@
         <v>5</v>
       </c>
       <c r="Y36"/>
-      <c r="Z36"/>
+      <c r="Z36" t="n">
+        <v>1</v>
+      </c>
       <c r="AA36"/>
       <c r="AB36" t="n">
         <v>5</v>
@@ -4215,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>5</v>
@@ -4235,7 +4295,9 @@
       <c r="Y37" t="n">
         <v>5</v>
       </c>
-      <c r="Z37"/>
+      <c r="Z37" t="n">
+        <v>1</v>
+      </c>
       <c r="AA37"/>
       <c r="AB37" t="n">
         <v>5</v>
@@ -4303,7 +4365,9 @@
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
-      <c r="Q38"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
@@ -4328,7 +4392,9 @@
       <c r="Y38" t="n">
         <v>5</v>
       </c>
-      <c r="Z38"/>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
       <c r="AA38"/>
       <c r="AB38" t="n">
         <v>5</v>
@@ -4421,7 +4487,9 @@
       <c r="Y39" t="n">
         <v>3</v>
       </c>
-      <c r="Z39"/>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
       <c r="AA39"/>
       <c r="AB39" t="n">
         <v>5</v>
@@ -4487,7 +4555,9 @@
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
-      <c r="Q40"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
       <c r="R40" t="n">
         <v>5</v>
       </c>
@@ -4512,7 +4582,9 @@
       <c r="Y40" t="n">
         <v>1</v>
       </c>
-      <c r="Z40"/>
+      <c r="Z40" t="n">
+        <v>1</v>
+      </c>
       <c r="AA40"/>
       <c r="AB40" t="n">
         <v>5</v>
@@ -4672,7 +4744,7 @@
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
         <v>5</v>
@@ -4690,7 +4762,9 @@
         <v>5</v>
       </c>
       <c r="Y42"/>
-      <c r="Z42"/>
+      <c r="Z42" t="n">
+        <v>1</v>
+      </c>
       <c r="AA42"/>
       <c r="AB42" t="n">
         <v>5</v>
@@ -4752,7 +4826,9 @@
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43"/>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
       <c r="R43" t="n">
         <v>5</v>
       </c>
@@ -4777,7 +4853,9 @@
       <c r="Y43" t="n">
         <v>5</v>
       </c>
-      <c r="Z43"/>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
       <c r="AA43"/>
       <c r="AB43" t="n">
         <v>5</v>
@@ -4839,12 +4917,14 @@
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44"/>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
       <c r="R44" t="n">
         <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
         <v>5</v>
@@ -4864,7 +4944,9 @@
       <c r="Y44" t="n">
         <v>3</v>
       </c>
-      <c r="Z44"/>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
       <c r="AA44"/>
       <c r="AB44" t="n">
         <v>5</v>
@@ -4933,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
         <v>5</v>
@@ -4951,7 +5033,9 @@
         <v>5</v>
       </c>
       <c r="Y45"/>
-      <c r="Z45"/>
+      <c r="Z45" t="n">
+        <v>1</v>
+      </c>
       <c r="AA45"/>
       <c r="AB45" t="n">
         <v>5</v>
@@ -5013,7 +5097,9 @@
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
-      <c r="Q46"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
       <c r="R46" t="n">
         <v>5</v>
       </c>
@@ -5115,7 +5201,7 @@
         <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T47" t="n">
         <v>5</v>
@@ -5199,7 +5285,9 @@
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
-      <c r="Q48"/>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
       <c r="R48" t="n">
         <v>5</v>
       </c>
@@ -5293,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T49" t="n">
         <v>5</v>
@@ -5313,7 +5401,9 @@
       <c r="Y49" t="n">
         <v>5</v>
       </c>
-      <c r="Z49"/>
+      <c r="Z49" t="n">
+        <v>1</v>
+      </c>
       <c r="AA49"/>
       <c r="AB49" t="n">
         <v>5</v>
@@ -5375,12 +5465,14 @@
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
-      <c r="Q50"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
       <c r="R50" t="n">
         <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
         <v>5</v>
@@ -5398,7 +5490,9 @@
         <v>5</v>
       </c>
       <c r="Y50"/>
-      <c r="Z50"/>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
       <c r="AA50"/>
       <c r="AB50" t="n">
         <v>5</v>
@@ -5466,7 +5560,9 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51"/>
-      <c r="Q51"/>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
       <c r="R51" t="n">
         <v>5</v>
       </c>
@@ -5669,7 +5765,9 @@
       <c r="Y53" t="n">
         <v>5</v>
       </c>
-      <c r="Z53"/>
+      <c r="Z53" t="n">
+        <v>1</v>
+      </c>
       <c r="AA53"/>
       <c r="AB53" t="n">
         <v>5</v>
@@ -5733,7 +5831,9 @@
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
-      <c r="Q54"/>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
       <c r="R54" t="n">
         <v>5</v>
       </c>
@@ -5758,7 +5858,9 @@
       <c r="Y54" t="n">
         <v>5</v>
       </c>
-      <c r="Z54"/>
+      <c r="Z54" t="n">
+        <v>1</v>
+      </c>
       <c r="AA54"/>
       <c r="AB54" t="n">
         <v>5</v>
@@ -5833,7 +5935,7 @@
         <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
         <v>5</v>
@@ -5853,7 +5955,9 @@
       <c r="Y55" t="n">
         <v>5</v>
       </c>
-      <c r="Z55"/>
+      <c r="Z55" t="n">
+        <v>1</v>
+      </c>
       <c r="AA55"/>
       <c r="AB55" t="n">
         <v>5</v>
@@ -5926,7 +6030,7 @@
         <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
         <v>5</v>
@@ -5944,7 +6048,9 @@
         <v>5</v>
       </c>
       <c r="Y56"/>
-      <c r="Z56"/>
+      <c r="Z56" t="n">
+        <v>1</v>
+      </c>
       <c r="AA56"/>
       <c r="AB56" t="n">
         <v>5</v>
@@ -6006,12 +6112,14 @@
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57"/>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
       <c r="R57" t="n">
         <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>5</v>
@@ -6029,7 +6137,9 @@
         <v>5</v>
       </c>
       <c r="Y57"/>
-      <c r="Z57"/>
+      <c r="Z57" t="n">
+        <v>1</v>
+      </c>
       <c r="AA57"/>
       <c r="AB57" t="n">
         <v>5</v>
@@ -6091,7 +6201,9 @@
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
-      <c r="Q58"/>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
       <c r="R58" t="n">
         <v>5</v>
       </c>
@@ -6114,7 +6226,9 @@
         <v>5</v>
       </c>
       <c r="Y58"/>
-      <c r="Z58"/>
+      <c r="Z58" t="n">
+        <v>1</v>
+      </c>
       <c r="AA58"/>
       <c r="AB58" t="n">
         <v>5</v>
@@ -6176,12 +6290,14 @@
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
-      <c r="Q59"/>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
       <c r="R59" t="n">
         <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T59" t="n">
         <v>5</v>
@@ -6199,7 +6315,9 @@
         <v>5</v>
       </c>
       <c r="Y59"/>
-      <c r="Z59"/>
+      <c r="Z59" t="n">
+        <v>1</v>
+      </c>
       <c r="AA59"/>
       <c r="AB59" t="n">
         <v>5</v>
@@ -6286,7 +6404,9 @@
         <v>5</v>
       </c>
       <c r="Y60"/>
-      <c r="Z60"/>
+      <c r="Z60" t="n">
+        <v>1</v>
+      </c>
       <c r="AA60"/>
       <c r="AB60" t="n">
         <v>5</v>
@@ -6348,12 +6468,14 @@
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
-      <c r="Q61"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
       <c r="R61" t="n">
         <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T61" t="n">
         <v>5</v>
@@ -6373,7 +6495,9 @@
       <c r="Y61" t="n">
         <v>5</v>
       </c>
-      <c r="Z61"/>
+      <c r="Z61" t="n">
+        <v>1</v>
+      </c>
       <c r="AA61"/>
       <c r="AB61" t="n">
         <v>5</v>
@@ -6437,7 +6561,9 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
-      <c r="Q62"/>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
       <c r="R62" t="n">
         <v>5</v>
       </c>
@@ -6462,7 +6588,9 @@
       <c r="Y62" t="n">
         <v>5</v>
       </c>
-      <c r="Z62"/>
+      <c r="Z62" t="n">
+        <v>1</v>
+      </c>
       <c r="AA62"/>
       <c r="AB62" t="n">
         <v>5</v>
@@ -6611,7 +6739,9 @@
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64"/>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
       <c r="R64" t="n">
         <v>5</v>
       </c>
@@ -6636,7 +6766,9 @@
       <c r="Y64" t="n">
         <v>5</v>
       </c>
-      <c r="Z64"/>
+      <c r="Z64" t="n">
+        <v>1</v>
+      </c>
       <c r="AA64"/>
       <c r="AB64" t="n">
         <v>5</v>
@@ -6704,7 +6836,9 @@
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
-      <c r="Q65"/>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
       <c r="R65" t="n">
         <v>5</v>
       </c>
@@ -6729,7 +6863,9 @@
       <c r="Y65" t="n">
         <v>5</v>
       </c>
-      <c r="Z65"/>
+      <c r="Z65" t="n">
+        <v>1</v>
+      </c>
       <c r="AA65"/>
       <c r="AB65" t="n">
         <v>5</v>
@@ -6791,12 +6927,14 @@
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
-      <c r="Q66"/>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
       <c r="R66" t="n">
         <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
         <v>5</v>
@@ -6816,7 +6954,9 @@
       <c r="Y66" t="n">
         <v>5</v>
       </c>
-      <c r="Z66"/>
+      <c r="Z66" t="n">
+        <v>1</v>
+      </c>
       <c r="AA66"/>
       <c r="AB66" t="n">
         <v>5</v>
@@ -6884,7 +7024,9 @@
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
-      <c r="Q67"/>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
       <c r="R67" t="n">
         <v>5</v>
       </c>
@@ -6909,7 +7051,9 @@
       <c r="Y67" t="n">
         <v>5</v>
       </c>
-      <c r="Z67"/>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
       <c r="AA67"/>
       <c r="AB67" t="n">
         <v>5</v>
@@ -7081,7 +7225,7 @@
         <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
         <v>5</v>
@@ -7101,7 +7245,9 @@
       <c r="Y69" t="n">
         <v>3</v>
       </c>
-      <c r="Z69"/>
+      <c r="Z69" t="n">
+        <v>1</v>
+      </c>
       <c r="AA69"/>
       <c r="AB69" t="n">
         <v>5</v>
@@ -7242,7 +7388,9 @@
       <c r="R71" t="n">
         <v>5</v>
       </c>
-      <c r="S71"/>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
       <c r="T71"/>
       <c r="U71" t="n">
         <v>5</v>
@@ -7585,7 +7733,7 @@
         <v>5</v>
       </c>
       <c r="S75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
         <v>5</v>
@@ -7605,7 +7753,9 @@
       <c r="Y75" t="n">
         <v>5</v>
       </c>
-      <c r="Z75"/>
+      <c r="Z75" t="n">
+        <v>1</v>
+      </c>
       <c r="AA75"/>
       <c r="AB75" t="n">
         <v>5</v>
@@ -7667,7 +7817,9 @@
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
-      <c r="Q76"/>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
       <c r="R76" t="n">
         <v>5</v>
       </c>
@@ -7690,7 +7842,9 @@
         <v>5</v>
       </c>
       <c r="Y76"/>
-      <c r="Z76"/>
+      <c r="Z76" t="n">
+        <v>1</v>
+      </c>
       <c r="AA76"/>
       <c r="AB76" t="n">
         <v>5</v>
@@ -7757,7 +7911,7 @@
         <v>5</v>
       </c>
       <c r="S77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T77" t="n">
         <v>5</v>
@@ -7777,7 +7931,9 @@
       <c r="Y77" t="n">
         <v>5</v>
       </c>
-      <c r="Z77"/>
+      <c r="Z77" t="n">
+        <v>1</v>
+      </c>
       <c r="AA77"/>
       <c r="AB77" t="n">
         <v>5</v>
@@ -7870,7 +8026,9 @@
       <c r="Y78" t="n">
         <v>5</v>
       </c>
-      <c r="Z78"/>
+      <c r="Z78" t="n">
+        <v>1</v>
+      </c>
       <c r="AA78"/>
       <c r="AB78" t="n">
         <v>5</v>
@@ -7938,7 +8096,9 @@
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
-      <c r="Q79"/>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
       <c r="R79" t="n">
         <v>5</v>
       </c>
@@ -7963,7 +8123,9 @@
       <c r="Y79" t="n">
         <v>5</v>
       </c>
-      <c r="Z79"/>
+      <c r="Z79" t="n">
+        <v>5</v>
+      </c>
       <c r="AA79"/>
       <c r="AB79" t="n">
         <v>5</v>
@@ -8031,7 +8193,9 @@
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
-      <c r="Q80"/>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
       <c r="R80" t="n">
         <v>5</v>
       </c>
@@ -8056,7 +8220,9 @@
       <c r="Y80" t="n">
         <v>5</v>
       </c>
-      <c r="Z80"/>
+      <c r="Z80" t="n">
+        <v>1</v>
+      </c>
       <c r="AA80"/>
       <c r="AB80" t="n">
         <v>5</v>
@@ -8124,7 +8290,9 @@
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
-      <c r="Q81"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
       <c r="R81" t="n">
         <v>5</v>
       </c>
@@ -8149,7 +8317,9 @@
       <c r="Y81" t="n">
         <v>5</v>
       </c>
-      <c r="Z81"/>
+      <c r="Z81" t="n">
+        <v>5</v>
+      </c>
       <c r="AA81"/>
       <c r="AB81" t="n">
         <v>5</v>
@@ -8217,7 +8387,9 @@
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
-      <c r="Q82"/>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
       <c r="R82" t="n">
         <v>5</v>
       </c>
@@ -8242,7 +8414,9 @@
       <c r="Y82" t="n">
         <v>5</v>
       </c>
-      <c r="Z82"/>
+      <c r="Z82" t="n">
+        <v>5</v>
+      </c>
       <c r="AA82"/>
       <c r="AB82" t="n">
         <v>5</v>
@@ -8335,7 +8509,9 @@
       <c r="Y83" t="n">
         <v>5</v>
       </c>
-      <c r="Z83"/>
+      <c r="Z83" t="n">
+        <v>1</v>
+      </c>
       <c r="AA83"/>
       <c r="AB83" t="n">
         <v>5</v>
@@ -8403,7 +8579,9 @@
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
       <c r="R84" t="n">
         <v>5</v>
       </c>
@@ -8426,7 +8604,9 @@
         <v>5</v>
       </c>
       <c r="Y84"/>
-      <c r="Z84"/>
+      <c r="Z84" t="n">
+        <v>5</v>
+      </c>
       <c r="AA84"/>
       <c r="AB84" t="n">
         <v>5</v>
@@ -8519,7 +8699,9 @@
       <c r="Y85" t="n">
         <v>1</v>
       </c>
-      <c r="Z85"/>
+      <c r="Z85" t="n">
+        <v>5</v>
+      </c>
       <c r="AA85"/>
       <c r="AB85" t="n">
         <v>5</v>
@@ -8587,7 +8769,9 @@
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
-      <c r="Q86"/>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
       <c r="R86" t="n">
         <v>5</v>
       </c>
@@ -8612,7 +8796,9 @@
       <c r="Y86" t="n">
         <v>3</v>
       </c>
-      <c r="Z86"/>
+      <c r="Z86" t="n">
+        <v>1</v>
+      </c>
       <c r="AA86"/>
       <c r="AB86" t="n">
         <v>5</v>
@@ -8680,7 +8866,9 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
-      <c r="Q87"/>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
       <c r="R87" t="n">
         <v>5</v>
       </c>
@@ -8705,7 +8893,9 @@
       <c r="Y87" t="n">
         <v>3</v>
       </c>
-      <c r="Z87"/>
+      <c r="Z87" t="n">
+        <v>5</v>
+      </c>
       <c r="AA87"/>
       <c r="AB87" t="n">
         <v>5</v>
@@ -8773,7 +8963,9 @@
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
-      <c r="Q88"/>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
       <c r="R88" t="n">
         <v>5</v>
       </c>
@@ -8798,7 +8990,9 @@
       <c r="Y88" t="n">
         <v>5</v>
       </c>
-      <c r="Z88"/>
+      <c r="Z88" t="n">
+        <v>1</v>
+      </c>
       <c r="AA88"/>
       <c r="AB88" t="n">
         <v>5</v>
@@ -8891,7 +9085,9 @@
       <c r="Y89" t="n">
         <v>5</v>
       </c>
-      <c r="Z89"/>
+      <c r="Z89" t="n">
+        <v>1</v>
+      </c>
       <c r="AA89"/>
       <c r="AB89" t="n">
         <v>5</v>
@@ -8980,7 +9176,9 @@
       <c r="Y90" t="n">
         <v>5</v>
       </c>
-      <c r="Z90"/>
+      <c r="Z90" t="n">
+        <v>1</v>
+      </c>
       <c r="AA90"/>
       <c r="AB90" t="n">
         <v>5</v>
@@ -9044,7 +9242,9 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
-      <c r="Q91"/>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
       <c r="R91" t="n">
         <v>5</v>
       </c>
@@ -9069,7 +9269,9 @@
       <c r="Y91" t="n">
         <v>3</v>
       </c>
-      <c r="Z91"/>
+      <c r="Z91" t="n">
+        <v>1</v>
+      </c>
       <c r="AA91"/>
       <c r="AB91" t="n">
         <v>5</v>
@@ -9137,7 +9339,9 @@
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
-      <c r="Q92"/>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
       <c r="R92" t="n">
         <v>5</v>
       </c>
@@ -9162,7 +9366,9 @@
       <c r="Y92" t="n">
         <v>5</v>
       </c>
-      <c r="Z92"/>
+      <c r="Z92" t="n">
+        <v>1</v>
+      </c>
       <c r="AA92"/>
       <c r="AB92" t="n">
         <v>5</v>
@@ -9257,7 +9463,9 @@
       <c r="Y93" t="n">
         <v>5</v>
       </c>
-      <c r="Z93"/>
+      <c r="Z93" t="n">
+        <v>1</v>
+      </c>
       <c r="AA93"/>
       <c r="AB93" t="n">
         <v>5</v>
@@ -9352,7 +9560,9 @@
       <c r="Y94" t="n">
         <v>5</v>
       </c>
-      <c r="Z94"/>
+      <c r="Z94" t="n">
+        <v>5</v>
+      </c>
       <c r="AA94"/>
       <c r="AB94" t="n">
         <v>5</v>
@@ -9443,7 +9653,9 @@
       <c r="Y95" t="n">
         <v>5</v>
       </c>
-      <c r="Z95"/>
+      <c r="Z95" t="n">
+        <v>1</v>
+      </c>
       <c r="AA95"/>
       <c r="AB95" t="n">
         <v>5</v>
@@ -9507,7 +9719,9 @@
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
-      <c r="Q96"/>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
       <c r="R96" t="n">
         <v>5</v>
       </c>
@@ -9528,7 +9742,9 @@
       <c r="Y96" t="n">
         <v>5</v>
       </c>
-      <c r="Z96"/>
+      <c r="Z96" t="n">
+        <v>5</v>
+      </c>
       <c r="AA96"/>
       <c r="AB96" t="n">
         <v>5</v>
@@ -9619,7 +9835,9 @@
       <c r="Y97" t="n">
         <v>5</v>
       </c>
-      <c r="Z97"/>
+      <c r="Z97" t="n">
+        <v>1</v>
+      </c>
       <c r="AA97"/>
       <c r="AB97" t="n">
         <v>5</v>
@@ -9687,7 +9905,9 @@
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
-      <c r="Q98"/>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
       <c r="R98" t="n">
         <v>5</v>
       </c>
@@ -9712,7 +9932,9 @@
       <c r="Y98" t="n">
         <v>5</v>
       </c>
-      <c r="Z98"/>
+      <c r="Z98" t="n">
+        <v>1</v>
+      </c>
       <c r="AA98"/>
       <c r="AB98" t="n">
         <v>5</v>
@@ -9801,7 +10023,9 @@
       <c r="Y99" t="n">
         <v>5</v>
       </c>
-      <c r="Z99"/>
+      <c r="Z99" t="n">
+        <v>1</v>
+      </c>
       <c r="AA99"/>
       <c r="AB99" t="n">
         <v>5</v>
@@ -9865,7 +10089,9 @@
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
-      <c r="Q100"/>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
       <c r="R100" t="n">
         <v>5</v>
       </c>
@@ -9890,7 +10116,9 @@
       <c r="Y100" t="n">
         <v>5</v>
       </c>
-      <c r="Z100"/>
+      <c r="Z100" t="n">
+        <v>1</v>
+      </c>
       <c r="AA100"/>
       <c r="AB100" t="n">
         <v>5</v>
@@ -9958,7 +10186,9 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
-      <c r="Q101"/>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
       <c r="R101" t="n">
         <v>5</v>
       </c>
@@ -9983,7 +10213,9 @@
       <c r="Y101" t="n">
         <v>5</v>
       </c>
-      <c r="Z101"/>
+      <c r="Z101" t="n">
+        <v>1</v>
+      </c>
       <c r="AA101"/>
       <c r="AB101" t="n">
         <v>5</v>
@@ -10078,7 +10310,9 @@
       <c r="Y102" t="n">
         <v>5</v>
       </c>
-      <c r="Z102"/>
+      <c r="Z102" t="n">
+        <v>5</v>
+      </c>
       <c r="AA102"/>
       <c r="AB102" t="n">
         <v>5</v>
@@ -10173,7 +10407,9 @@
       <c r="Y103" t="n">
         <v>3</v>
       </c>
-      <c r="Z103"/>
+      <c r="Z103" t="n">
+        <v>1</v>
+      </c>
       <c r="AA103"/>
       <c r="AB103" t="n">
         <v>5</v>
@@ -10268,7 +10504,9 @@
       <c r="Y104" t="n">
         <v>5</v>
       </c>
-      <c r="Z104"/>
+      <c r="Z104" t="n">
+        <v>1</v>
+      </c>
       <c r="AA104"/>
       <c r="AB104" t="n">
         <v>5</v>
@@ -10336,7 +10574,9 @@
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105"/>
-      <c r="Q105"/>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
       <c r="R105" t="n">
         <v>5</v>
       </c>
@@ -10361,7 +10601,9 @@
       <c r="Y105" t="n">
         <v>5</v>
       </c>
-      <c r="Z105"/>
+      <c r="Z105" t="n">
+        <v>1</v>
+      </c>
       <c r="AA105"/>
       <c r="AB105" t="n">
         <v>5</v>
@@ -10452,7 +10694,9 @@
       <c r="Y106" t="n">
         <v>5</v>
       </c>
-      <c r="Z106"/>
+      <c r="Z106" t="n">
+        <v>5</v>
+      </c>
       <c r="AA106"/>
       <c r="AB106" t="n">
         <v>5</v>
@@ -10547,7 +10791,9 @@
       <c r="Y107" t="n">
         <v>5</v>
       </c>
-      <c r="Z107"/>
+      <c r="Z107" t="n">
+        <v>5</v>
+      </c>
       <c r="AA107"/>
       <c r="AB107" t="n">
         <v>5</v>
@@ -10618,7 +10864,7 @@
         <v>5</v>
       </c>
       <c r="S108" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T108" t="n">
         <v>5</v>
@@ -10638,7 +10884,9 @@
       <c r="Y108" t="n">
         <v>5</v>
       </c>
-      <c r="Z108"/>
+      <c r="Z108" t="n">
+        <v>1</v>
+      </c>
       <c r="AA108"/>
       <c r="AB108" t="n">
         <v>5</v>
@@ -10709,7 +10957,7 @@
         <v>5</v>
       </c>
       <c r="S109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T109" t="n">
         <v>5</v>
@@ -10727,7 +10975,9 @@
         <v>5</v>
       </c>
       <c r="Y109"/>
-      <c r="Z109"/>
+      <c r="Z109" t="n">
+        <v>1</v>
+      </c>
       <c r="AA109"/>
       <c r="AB109" t="n">
         <v>5</v>
@@ -10795,7 +11045,9 @@
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110"/>
-      <c r="Q110"/>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
       <c r="R110" t="n">
         <v>5</v>
       </c>
@@ -10820,7 +11072,9 @@
       <c r="Y110" t="n">
         <v>5</v>
       </c>
-      <c r="Z110"/>
+      <c r="Z110" t="n">
+        <v>1</v>
+      </c>
       <c r="AA110"/>
       <c r="AB110" t="n">
         <v>5</v>
@@ -10913,7 +11167,9 @@
         <v>5</v>
       </c>
       <c r="Y111"/>
-      <c r="Z111"/>
+      <c r="Z111" t="n">
+        <v>1</v>
+      </c>
       <c r="AA111"/>
       <c r="AB111" t="n">
         <v>5</v>
@@ -10984,7 +11240,7 @@
         <v>5</v>
       </c>
       <c r="S112" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T112" t="n">
         <v>5</v>
@@ -11004,7 +11260,9 @@
       <c r="Y112" t="n">
         <v>3</v>
       </c>
-      <c r="Z112"/>
+      <c r="Z112" t="n">
+        <v>1</v>
+      </c>
       <c r="AA112"/>
       <c r="AB112" t="n">
         <v>5</v>
@@ -11095,7 +11353,9 @@
       <c r="Y113" t="n">
         <v>1</v>
       </c>
-      <c r="Z113"/>
+      <c r="Z113" t="n">
+        <v>1</v>
+      </c>
       <c r="AA113"/>
       <c r="AB113" t="n">
         <v>5</v>
@@ -11242,7 +11502,9 @@
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115"/>
-      <c r="Q115"/>
+      <c r="Q115" t="n">
+        <v>3</v>
+      </c>
       <c r="R115" t="n">
         <v>5</v>
       </c>
@@ -11267,7 +11529,9 @@
       <c r="Y115" t="n">
         <v>5</v>
       </c>
-      <c r="Z115"/>
+      <c r="Z115" t="n">
+        <v>1</v>
+      </c>
       <c r="AA115"/>
       <c r="AB115" t="n">
         <v>5</v>
@@ -11362,7 +11626,9 @@
       <c r="Y116" t="n">
         <v>5</v>
       </c>
-      <c r="Z116"/>
+      <c r="Z116" t="n">
+        <v>5</v>
+      </c>
       <c r="AA116"/>
       <c r="AB116" t="n">
         <v>5</v>
@@ -11453,7 +11719,9 @@
       <c r="Y117" t="n">
         <v>1</v>
       </c>
-      <c r="Z117"/>
+      <c r="Z117" t="n">
+        <v>1</v>
+      </c>
       <c r="AA117"/>
       <c r="AB117" t="n">
         <v>5</v>
@@ -11633,7 +11901,9 @@
       <c r="Y119" t="n">
         <v>3</v>
       </c>
-      <c r="Z119"/>
+      <c r="Z119" t="n">
+        <v>5</v>
+      </c>
       <c r="AA119"/>
       <c r="AB119" t="n">
         <v>5</v>
@@ -11724,7 +11994,9 @@
         <v>5</v>
       </c>
       <c r="Y120"/>
-      <c r="Z120"/>
+      <c r="Z120" t="n">
+        <v>1</v>
+      </c>
       <c r="AA120"/>
       <c r="AB120" t="n">
         <v>5</v>
@@ -11792,7 +12064,9 @@
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121"/>
-      <c r="Q121"/>
+      <c r="Q121" t="n">
+        <v>3</v>
+      </c>
       <c r="R121" t="n">
         <v>5</v>
       </c>
@@ -11817,7 +12091,9 @@
       <c r="Y121" t="n">
         <v>5</v>
       </c>
-      <c r="Z121"/>
+      <c r="Z121" t="n">
+        <v>5</v>
+      </c>
       <c r="AA121"/>
       <c r="AB121" t="n">
         <v>5</v>
@@ -11892,7 +12168,7 @@
         <v>5</v>
       </c>
       <c r="S122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T122" t="n">
         <v>5</v>
@@ -11910,7 +12186,9 @@
         <v>5</v>
       </c>
       <c r="Y122"/>
-      <c r="Z122"/>
+      <c r="Z122" t="n">
+        <v>1</v>
+      </c>
       <c r="AA122"/>
       <c r="AB122" t="n">
         <v>5</v>
@@ -12005,7 +12283,9 @@
       <c r="Y123" t="n">
         <v>5</v>
       </c>
-      <c r="Z123"/>
+      <c r="Z123" t="n">
+        <v>1</v>
+      </c>
       <c r="AA123"/>
       <c r="AB123" t="n">
         <v>5</v>
@@ -12096,7 +12376,9 @@
       <c r="Y124" t="n">
         <v>3</v>
       </c>
-      <c r="Z124"/>
+      <c r="Z124" t="n">
+        <v>1</v>
+      </c>
       <c r="AA124"/>
       <c r="AB124" t="n">
         <v>5</v>

--- a/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
+++ b/Output/Habitat_Quality_Scores_Filters_Okanogan.xlsx
@@ -1088,7 +1088,7 @@
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>5</v>
@@ -1111,11 +1111,9 @@
       <c r="X2" t="n">
         <v>5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y2"/>
       <c r="Z2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA2"/>
       <c r="AB2" t="n">
@@ -1124,9 +1122,7 @@
       <c r="AC2" t="n">
         <v>5</v>
       </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD2"/>
       <c r="AE2"/>
       <c r="AF2" t="n">
         <v>5</v>
@@ -1169,19 +1165,23 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3"/>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
       </c>
-      <c r="M3"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
         <v>5</v>
@@ -1215,9 +1215,7 @@
       <c r="AC3" t="n">
         <v>5</v>
       </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD3"/>
       <c r="AE3"/>
       <c r="AF3" t="n">
         <v>5</v>
@@ -1261,7 +1259,7 @@
         <v>0.289503418718569</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -1270,12 +1268,14 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" t="n">
         <v>5</v>
       </c>
@@ -1297,9 +1297,7 @@
       <c r="X4" t="n">
         <v>5</v>
       </c>
-      <c r="Y4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y4"/>
       <c r="Z4" t="n">
         <v>1</v>
       </c>
@@ -1310,9 +1308,7 @@
       <c r="AC4" t="n">
         <v>5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD4"/>
       <c r="AE4"/>
       <c r="AF4" t="n">
         <v>5</v>
@@ -1365,12 +1361,14 @@
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
-      <c r="Q5"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="n">
         <v>5</v>
       </c>
@@ -1392,9 +1390,7 @@
       <c r="X5" t="n">
         <v>5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y5"/>
       <c r="Z5" t="n">
         <v>1</v>
       </c>
@@ -1405,9 +1401,7 @@
       <c r="AC5" t="n">
         <v>5</v>
       </c>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD5"/>
       <c r="AE5"/>
       <c r="AF5" t="n">
         <v>5</v>
@@ -1460,13 +1454,13 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
         <v>5</v>
@@ -1491,7 +1485,7 @@
       </c>
       <c r="Y6"/>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA6"/>
       <c r="AB6" t="n">
@@ -1500,9 +1494,7 @@
       <c r="AC6" t="n">
         <v>5</v>
       </c>
-      <c r="AD6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD6"/>
       <c r="AE6"/>
       <c r="AF6" t="n">
         <v>5</v>
@@ -1546,7 +1538,7 @@
         <v>0.0634915212976588</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
@@ -1555,12 +1547,14 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="n">
         <v>5</v>
       </c>
@@ -1583,7 +1577,9 @@
         <v>5</v>
       </c>
       <c r="Y7"/>
-      <c r="Z7"/>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
       <c r="AA7"/>
       <c r="AB7" t="n">
         <v>5</v>
@@ -1591,9 +1587,7 @@
       <c r="AC7" t="n">
         <v>5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD7"/>
       <c r="AE7"/>
       <c r="AF7" t="n">
         <v>5</v>
@@ -1636,18 +1630,24 @@
       <c r="I8" t="n">
         <v>0.0947505790038091</v>
       </c>
-      <c r="J8"/>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
       <c r="K8" t="n">
         <v>5</v>
       </c>
       <c r="L8" t="n">
         <v>5</v>
       </c>
-      <c r="M8"/>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
       <c r="P8"/>
-      <c r="Q8"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
       <c r="R8" t="n">
         <v>5</v>
       </c>
@@ -1669,11 +1669,9 @@
       <c r="X8" t="n">
         <v>5</v>
       </c>
-      <c r="Y8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y8"/>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA8"/>
       <c r="AB8" t="n">
@@ -1682,9 +1680,7 @@
       <c r="AC8" t="n">
         <v>5</v>
       </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD8"/>
       <c r="AE8"/>
       <c r="AF8" t="n">
         <v>5</v>
@@ -1728,7 +1724,7 @@
         <v>0.0547475840973595</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -1742,7 +1738,9 @@
       <c r="N9"/>
       <c r="O9"/>
       <c r="P9"/>
-      <c r="Q9"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
       <c r="R9" t="n">
         <v>5</v>
       </c>
@@ -1764,11 +1762,9 @@
       <c r="X9" t="n">
         <v>5</v>
       </c>
-      <c r="Y9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y9"/>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA9"/>
       <c r="AB9" t="n">
@@ -1777,9 +1773,7 @@
       <c r="AC9" t="n">
         <v>5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD9"/>
       <c r="AE9"/>
       <c r="AF9" t="n">
         <v>5</v>
@@ -1822,19 +1816,23 @@
       <c r="I10" t="n">
         <v>0.386256260439187</v>
       </c>
-      <c r="J10"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="n">
         <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>3</v>
       </c>
-      <c r="M10"/>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
         <v>5</v>
@@ -1857,11 +1855,9 @@
       <c r="X10" t="n">
         <v>5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y10"/>
       <c r="Z10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA10"/>
       <c r="AB10" t="n">
@@ -1870,9 +1866,7 @@
       <c r="AC10" t="n">
         <v>5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD10"/>
       <c r="AE10"/>
       <c r="AF10" t="n">
         <v>5</v>
@@ -1909,20 +1903,16 @@
         <v>52</v>
       </c>
       <c r="I11"/>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
+      <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11"/>
       <c r="R11" t="n">
         <v>5</v>
       </c>
@@ -1942,9 +1932,7 @@
       <c r="X11" t="n">
         <v>5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y11"/>
       <c r="Z11" t="n">
         <v>1</v>
       </c>
@@ -1955,9 +1943,7 @@
       <c r="AC11" t="n">
         <v>5</v>
       </c>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD11"/>
       <c r="AE11"/>
       <c r="AF11" t="n">
         <v>5</v>
@@ -2000,14 +1986,18 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12"/>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -2035,11 +2025,9 @@
       <c r="X12" t="n">
         <v>5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y12"/>
       <c r="Z12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA12"/>
       <c r="AB12" t="n">
@@ -2048,9 +2036,7 @@
       <c r="AC12" t="n">
         <v>5</v>
       </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD12"/>
       <c r="AE12"/>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2093,18 +2079,24 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13"/>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
       <c r="K13" t="n">
         <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13"/>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
-      <c r="Q13"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" t="n">
         <v>5</v>
       </c>
@@ -2126,11 +2118,9 @@
       <c r="X13" t="n">
         <v>5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y13"/>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA13"/>
       <c r="AB13" t="n">
@@ -2139,9 +2129,7 @@
       <c r="AC13" t="n">
         <v>5</v>
       </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD13"/>
       <c r="AE13"/>
       <c r="AF13" t="n">
         <v>5</v>
@@ -2184,18 +2172,24 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14"/>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
       <c r="K14" t="n">
         <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
-      <c r="M14"/>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="n">
         <v>5</v>
       </c>
@@ -2218,7 +2212,9 @@
         <v>5</v>
       </c>
       <c r="Y14"/>
-      <c r="Z14"/>
+      <c r="Z14" t="n">
+        <v>5</v>
+      </c>
       <c r="AA14"/>
       <c r="AB14" t="n">
         <v>5</v>
@@ -2226,9 +2222,7 @@
       <c r="AC14" t="n">
         <v>5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD14"/>
       <c r="AE14"/>
       <c r="AF14" t="n">
         <v>5</v>
@@ -2271,18 +2265,24 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="n">
         <v>5</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
-      <c r="M15"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
-      <c r="Q15"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="n">
         <v>5</v>
       </c>
@@ -2305,7 +2305,9 @@
         <v>5</v>
       </c>
       <c r="Y15"/>
-      <c r="Z15"/>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
       <c r="AA15"/>
       <c r="AB15" t="n">
         <v>5</v>
@@ -2313,9 +2315,7 @@
       <c r="AC15" t="n">
         <v>5</v>
       </c>
-      <c r="AD15" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD15"/>
       <c r="AE15"/>
       <c r="AF15" t="n">
         <v>5</v>
@@ -2358,18 +2358,24 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16"/>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
       <c r="K16" t="n">
         <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
-      <c r="M16"/>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
       <c r="R16" t="n">
         <v>5</v>
       </c>
@@ -2392,7 +2398,9 @@
         <v>5</v>
       </c>
       <c r="Y16"/>
-      <c r="Z16"/>
+      <c r="Z16" t="n">
+        <v>5</v>
+      </c>
       <c r="AA16"/>
       <c r="AB16" t="n">
         <v>5</v>
@@ -2400,9 +2408,7 @@
       <c r="AC16" t="n">
         <v>5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD16"/>
       <c r="AE16"/>
       <c r="AF16" t="n">
         <v>5</v>
@@ -2445,18 +2451,24 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="n">
         <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>3</v>
       </c>
-      <c r="M17"/>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
-      <c r="Q17"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="n">
         <v>5</v>
       </c>
@@ -2479,7 +2491,9 @@
         <v>5</v>
       </c>
       <c r="Y17"/>
-      <c r="Z17"/>
+      <c r="Z17" t="n">
+        <v>3</v>
+      </c>
       <c r="AA17"/>
       <c r="AB17" t="n">
         <v>5</v>
@@ -2487,9 +2501,7 @@
       <c r="AC17" t="n">
         <v>5</v>
       </c>
-      <c r="AD17" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD17"/>
       <c r="AE17"/>
       <c r="AF17" t="n">
         <v>5</v>
@@ -2532,18 +2544,24 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="n">
         <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
       </c>
-      <c r="M18"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
       <c r="R18" t="n">
         <v>5</v>
       </c>
@@ -2566,7 +2584,9 @@
         <v>5</v>
       </c>
       <c r="Y18"/>
-      <c r="Z18"/>
+      <c r="Z18" t="n">
+        <v>3</v>
+      </c>
       <c r="AA18"/>
       <c r="AB18" t="n">
         <v>5</v>
@@ -2574,9 +2594,7 @@
       <c r="AC18" t="n">
         <v>5</v>
       </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD18"/>
       <c r="AE18"/>
       <c r="AF18" t="n">
         <v>5</v>
@@ -2619,18 +2637,24 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19"/>
+      <c r="J19" t="n">
+        <v>5</v>
+      </c>
       <c r="K19" t="n">
         <v>5</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
-      <c r="M19"/>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
-      <c r="Q19"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
       <c r="R19" t="n">
         <v>5</v>
       </c>
@@ -2653,7 +2677,9 @@
         <v>5</v>
       </c>
       <c r="Y19"/>
-      <c r="Z19"/>
+      <c r="Z19" t="n">
+        <v>3</v>
+      </c>
       <c r="AA19"/>
       <c r="AB19" t="n">
         <v>5</v>
@@ -2661,9 +2687,7 @@
       <c r="AC19" t="n">
         <v>5</v>
       </c>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD19"/>
       <c r="AE19"/>
       <c r="AF19" t="n">
         <v>5</v>
@@ -2706,18 +2730,24 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="n">
         <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>3</v>
       </c>
-      <c r="M20"/>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
-      <c r="Q20"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
       <c r="R20" t="n">
         <v>5</v>
       </c>
@@ -2740,7 +2770,9 @@
         <v>5</v>
       </c>
       <c r="Y20"/>
-      <c r="Z20"/>
+      <c r="Z20" t="n">
+        <v>3</v>
+      </c>
       <c r="AA20"/>
       <c r="AB20" t="n">
         <v>5</v>
@@ -2748,9 +2780,7 @@
       <c r="AC20" t="n">
         <v>5</v>
       </c>
-      <c r="AD20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD20"/>
       <c r="AE20"/>
       <c r="AF20" t="n">
         <v>5</v>
@@ -2803,17 +2833,19 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
       <c r="R21" t="n">
         <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
         <v>5</v>
@@ -2830,11 +2862,9 @@
       <c r="X21" t="n">
         <v>5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y21"/>
       <c r="Z21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA21"/>
       <c r="AB21" t="n">
@@ -2843,9 +2873,7 @@
       <c r="AC21" t="n">
         <v>5</v>
       </c>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD21"/>
       <c r="AE21"/>
       <c r="AF21" t="n">
         <v>5</v>
@@ -2903,7 +2931,9 @@
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
-      <c r="Q22"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
       <c r="R22" t="n">
         <v>5</v>
       </c>
@@ -2925,9 +2955,7 @@
       <c r="X22" t="n">
         <v>5</v>
       </c>
-      <c r="Y22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y22"/>
       <c r="Z22" t="n">
         <v>1</v>
       </c>
@@ -2938,9 +2966,7 @@
       <c r="AC22" t="n">
         <v>5</v>
       </c>
-      <c r="AD22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD22"/>
       <c r="AE22"/>
       <c r="AF22" t="n">
         <v>5</v>
@@ -2984,7 +3010,7 @@
         <v>0.40183470139682</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
         <v>5</v>
@@ -2998,7 +3024,9 @@
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
-      <c r="Q23"/>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
       <c r="R23" t="n">
         <v>5</v>
       </c>
@@ -3020,9 +3048,7 @@
       <c r="X23" t="n">
         <v>5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y23"/>
       <c r="Z23" t="n">
         <v>5</v>
       </c>
@@ -3033,9 +3059,7 @@
       <c r="AC23" t="n">
         <v>5</v>
       </c>
-      <c r="AD23" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD23"/>
       <c r="AE23"/>
       <c r="AF23" t="n">
         <v>5</v>
@@ -3088,13 +3112,13 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
         <v>5</v>
@@ -3117,11 +3141,9 @@
       <c r="X24" t="n">
         <v>5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y24"/>
       <c r="Z24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA24"/>
       <c r="AB24" t="n">
@@ -3130,9 +3152,7 @@
       <c r="AC24" t="n">
         <v>5</v>
       </c>
-      <c r="AD24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD24"/>
       <c r="AE24"/>
       <c r="AF24" t="n">
         <v>5</v>
@@ -3175,19 +3195,23 @@
       <c r="I25" t="n">
         <v>0.673385255086234</v>
       </c>
-      <c r="J25"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="n">
         <v>5</v>
       </c>
       <c r="L25" t="n">
         <v>5</v>
       </c>
-      <c r="M25"/>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25" t="n">
         <v>5</v>
@@ -3210,11 +3234,9 @@
       <c r="X25" t="n">
         <v>5</v>
       </c>
-      <c r="Y25" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y25"/>
       <c r="Z25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA25"/>
       <c r="AB25" t="n">
@@ -3223,9 +3245,7 @@
       <c r="AC25" t="n">
         <v>5</v>
       </c>
-      <c r="AD25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD25"/>
       <c r="AE25"/>
       <c r="AF25" t="n">
         <v>5</v>
@@ -3269,7 +3289,7 @@
         <v>0.32589781514228</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
@@ -3284,7 +3304,7 @@
       <c r="O26"/>
       <c r="P26"/>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
         <v>5</v>
@@ -3307,9 +3327,7 @@
       <c r="X26" t="n">
         <v>5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y26"/>
       <c r="Z26" t="n">
         <v>1</v>
       </c>
@@ -3320,9 +3338,7 @@
       <c r="AC26" t="n">
         <v>5</v>
       </c>
-      <c r="AD26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD26"/>
       <c r="AE26"/>
       <c r="AF26" t="n">
         <v>5</v>
@@ -3366,7 +3382,7 @@
         <v>0.546556886635111</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
@@ -3375,12 +3391,14 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
-      <c r="Q27"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
       <c r="R27" t="n">
         <v>5</v>
       </c>
@@ -3402,11 +3420,9 @@
       <c r="X27" t="n">
         <v>5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y27"/>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA27"/>
       <c r="AB27" t="n">
@@ -3415,9 +3431,7 @@
       <c r="AC27" t="n">
         <v>5</v>
       </c>
-      <c r="AD27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD27"/>
       <c r="AE27"/>
       <c r="AF27" t="n">
         <v>5</v>
@@ -3460,19 +3474,23 @@
       <c r="I28" t="n">
         <v>0.816498804419718</v>
       </c>
-      <c r="J28"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="n">
         <v>5</v>
       </c>
       <c r="L28" t="n">
         <v>5</v>
       </c>
-      <c r="M28"/>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
         <v>5</v>
@@ -3506,9 +3524,7 @@
       <c r="AC28" t="n">
         <v>5</v>
       </c>
-      <c r="AD28" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD28"/>
       <c r="AE28"/>
       <c r="AF28" t="n">
         <v>5</v>
@@ -3552,7 +3568,9 @@
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29"/>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
@@ -3560,9 +3578,7 @@
       <c r="R29" t="n">
         <v>5</v>
       </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29"/>
       <c r="T29"/>
       <c r="U29" t="n">
         <v>1</v>
@@ -3577,7 +3593,9 @@
         <v>5</v>
       </c>
       <c r="Y29"/>
-      <c r="Z29"/>
+      <c r="Z29" t="n">
+        <v>1</v>
+      </c>
       <c r="AA29"/>
       <c r="AB29" t="n">
         <v>5</v>
@@ -3620,18 +3638,24 @@
         <v>80</v>
       </c>
       <c r="I30"/>
-      <c r="J30"/>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
       <c r="K30" t="n">
         <v>5</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
       </c>
-      <c r="M30"/>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
       <c r="R30" t="n">
         <v>5</v>
       </c>
@@ -3654,7 +3678,9 @@
         <v>5</v>
       </c>
       <c r="Y30"/>
-      <c r="Z30"/>
+      <c r="Z30" t="n">
+        <v>5</v>
+      </c>
       <c r="AA30"/>
       <c r="AB30" t="n">
         <v>5</v>
@@ -3662,9 +3688,7 @@
       <c r="AC30" t="n">
         <v>5</v>
       </c>
-      <c r="AD30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD30"/>
       <c r="AE30"/>
       <c r="AF30" t="n">
         <v>5</v>
@@ -3707,14 +3731,18 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="n">
         <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
-      <c r="M31"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
@@ -3725,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
         <v>5</v>
@@ -3742,9 +3770,7 @@
       <c r="X31" t="n">
         <v>5</v>
       </c>
-      <c r="Y31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y31"/>
       <c r="Z31" t="n">
         <v>1</v>
       </c>
@@ -3755,9 +3781,7 @@
       <c r="AC31" t="n">
         <v>5</v>
       </c>
-      <c r="AD31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD31"/>
       <c r="AE31"/>
       <c r="AF31" t="n">
         <v>5</v>
@@ -3798,19 +3822,23 @@
         <v>77</v>
       </c>
       <c r="I32"/>
-      <c r="J32"/>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
       <c r="K32" t="n">
         <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>5</v>
       </c>
-      <c r="M32"/>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>5</v>
@@ -3844,9 +3872,7 @@
       <c r="AC32" t="n">
         <v>5</v>
       </c>
-      <c r="AD32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD32"/>
       <c r="AE32"/>
       <c r="AF32" t="n">
         <v>5</v>
@@ -3888,7 +3914,7 @@
       </c>
       <c r="I33"/>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
@@ -3897,7 +3923,7 @@
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33"/>
       <c r="O33"/>
@@ -3909,7 +3935,7 @@
         <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
         <v>5</v>
@@ -3926,9 +3952,7 @@
       <c r="X33" t="n">
         <v>5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y33"/>
       <c r="Z33" t="n">
         <v>1</v>
       </c>
@@ -3939,9 +3963,7 @@
       <c r="AC33" t="n">
         <v>5</v>
       </c>
-      <c r="AD33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD33"/>
       <c r="AE33"/>
       <c r="AF33" t="n">
         <v>5</v>
@@ -3982,25 +4004,29 @@
         <v>77</v>
       </c>
       <c r="I34"/>
-      <c r="J34"/>
+      <c r="J34" t="n">
+        <v>5</v>
+      </c>
       <c r="K34" t="n">
         <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>5</v>
       </c>
-      <c r="M34"/>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
         <v>5</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
         <v>5</v>
@@ -4019,7 +4045,7 @@
       </c>
       <c r="Y34"/>
       <c r="Z34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA34"/>
       <c r="AB34" t="n">
@@ -4028,9 +4054,7 @@
       <c r="AC34" t="n">
         <v>5</v>
       </c>
-      <c r="AD34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD34"/>
       <c r="AE34"/>
       <c r="AF34" t="n">
         <v>5</v>
@@ -4071,14 +4095,18 @@
         <v>77</v>
       </c>
       <c r="I35"/>
-      <c r="J35"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="n">
         <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>5</v>
       </c>
-      <c r="M35"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
@@ -4089,7 +4117,7 @@
         <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
         <v>5</v>
@@ -4106,9 +4134,7 @@
       <c r="X35" t="n">
         <v>5</v>
       </c>
-      <c r="Y35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y35"/>
       <c r="Z35" t="n">
         <v>1</v>
       </c>
@@ -4119,9 +4145,7 @@
       <c r="AC35" t="n">
         <v>5</v>
       </c>
-      <c r="AD35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD35"/>
       <c r="AE35"/>
       <c r="AF35" t="n">
         <v>5</v>
@@ -4162,14 +4186,18 @@
         <v>77</v>
       </c>
       <c r="I36"/>
-      <c r="J36"/>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
       <c r="K36" t="n">
         <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>5</v>
       </c>
-      <c r="M36"/>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
@@ -4208,9 +4236,7 @@
       <c r="AC36" t="n">
         <v>5</v>
       </c>
-      <c r="AD36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD36"/>
       <c r="AE36"/>
       <c r="AF36" t="n">
         <v>5</v>
@@ -4254,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
         <v>5</v>
@@ -4263,19 +4289,19 @@
         <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R37" t="n">
         <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
         <v>5</v>
@@ -4292,9 +4318,7 @@
       <c r="X37" t="n">
         <v>5</v>
       </c>
-      <c r="Y37" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y37"/>
       <c r="Z37" t="n">
         <v>1</v>
       </c>
@@ -4305,9 +4329,7 @@
       <c r="AC37" t="n">
         <v>5</v>
       </c>
-      <c r="AD37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD37"/>
       <c r="AE37"/>
       <c r="AF37" t="n">
         <v>5</v>
@@ -4360,13 +4382,13 @@
         <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
@@ -4389,11 +4411,9 @@
       <c r="X38" t="n">
         <v>5</v>
       </c>
-      <c r="Y38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y38"/>
       <c r="Z38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA38"/>
       <c r="AB38" t="n">
@@ -4402,9 +4422,7 @@
       <c r="AC38" t="n">
         <v>5</v>
       </c>
-      <c r="AD38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD38"/>
       <c r="AE38"/>
       <c r="AF38" t="n">
         <v>5</v>
@@ -4446,7 +4464,7 @@
       </c>
       <c r="I39"/>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -4455,13 +4473,13 @@
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
         <v>5</v>
@@ -4484,9 +4502,7 @@
       <c r="X39" t="n">
         <v>5</v>
       </c>
-      <c r="Y39" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y39"/>
       <c r="Z39" t="n">
         <v>1</v>
       </c>
@@ -4497,9 +4513,7 @@
       <c r="AC39" t="n">
         <v>5</v>
       </c>
-      <c r="AD39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD39"/>
       <c r="AE39"/>
       <c r="AF39" t="n">
         <v>5</v>
@@ -4550,13 +4564,13 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>5</v>
@@ -4579,9 +4593,7 @@
       <c r="X40" t="n">
         <v>5</v>
       </c>
-      <c r="Y40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y40"/>
       <c r="Z40" t="n">
         <v>1</v>
       </c>
@@ -4592,9 +4604,7 @@
       <c r="AC40" t="n">
         <v>5</v>
       </c>
-      <c r="AD40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD40"/>
       <c r="AE40"/>
       <c r="AF40" t="n">
         <v>5</v>
@@ -4635,18 +4645,24 @@
         <v>80</v>
       </c>
       <c r="I41"/>
-      <c r="J41"/>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
       <c r="K41" t="n">
         <v>5</v>
       </c>
       <c r="L41" t="n">
         <v>5</v>
       </c>
-      <c r="M41"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
-      <c r="Q41"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
       <c r="R41" t="n">
         <v>5</v>
       </c>
@@ -4669,7 +4685,9 @@
         <v>5</v>
       </c>
       <c r="Y41"/>
-      <c r="Z41"/>
+      <c r="Z41" t="n">
+        <v>5</v>
+      </c>
       <c r="AA41"/>
       <c r="AB41" t="n">
         <v>5</v>
@@ -4677,9 +4695,7 @@
       <c r="AC41" t="n">
         <v>5</v>
       </c>
-      <c r="AD41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD41"/>
       <c r="AE41"/>
       <c r="AF41" t="n">
         <v>5</v>
@@ -4723,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
@@ -4732,19 +4748,19 @@
         <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
         <v>5</v>
@@ -4763,7 +4779,7 @@
       </c>
       <c r="Y42"/>
       <c r="Z42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA42"/>
       <c r="AB42" t="n">
@@ -4772,9 +4788,7 @@
       <c r="AC42" t="n">
         <v>5</v>
       </c>
-      <c r="AD42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD42"/>
       <c r="AE42"/>
       <c r="AF42" t="n">
         <v>5</v>
@@ -4815,19 +4829,23 @@
         <v>39</v>
       </c>
       <c r="I43"/>
-      <c r="J43"/>
+      <c r="J43" t="n">
+        <v>5</v>
+      </c>
       <c r="K43" t="n">
         <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>5</v>
       </c>
-      <c r="M43"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
       <c r="Q43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
         <v>5</v>
@@ -4850,9 +4868,7 @@
       <c r="X43" t="n">
         <v>5</v>
       </c>
-      <c r="Y43" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y43"/>
       <c r="Z43" t="n">
         <v>1</v>
       </c>
@@ -4863,9 +4879,7 @@
       <c r="AC43" t="n">
         <v>5</v>
       </c>
-      <c r="AD43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD43"/>
       <c r="AE43"/>
       <c r="AF43" t="n">
         <v>5</v>
@@ -4906,14 +4920,18 @@
         <v>39</v>
       </c>
       <c r="I44"/>
-      <c r="J44"/>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
       <c r="K44" t="n">
         <v>5</v>
       </c>
       <c r="L44" t="n">
         <v>5</v>
       </c>
-      <c r="M44"/>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
@@ -4924,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
         <v>5</v>
@@ -4941,11 +4959,9 @@
       <c r="X44" t="n">
         <v>5</v>
       </c>
-      <c r="Y44" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y44"/>
       <c r="Z44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA44"/>
       <c r="AB44" t="n">
@@ -4954,9 +4970,7 @@
       <c r="AC44" t="n">
         <v>5</v>
       </c>
-      <c r="AD44" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD44"/>
       <c r="AE44"/>
       <c r="AF44" t="n">
         <v>5</v>
@@ -4997,25 +5011,29 @@
         <v>39</v>
       </c>
       <c r="I45"/>
-      <c r="J45"/>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
       <c r="K45" t="n">
         <v>5</v>
       </c>
       <c r="L45" t="n">
         <v>5</v>
       </c>
-      <c r="M45"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
         <v>5</v>
@@ -5043,9 +5061,7 @@
       <c r="AC45" t="n">
         <v>5</v>
       </c>
-      <c r="AD45" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD45"/>
       <c r="AE45"/>
       <c r="AF45" t="n">
         <v>5</v>
@@ -5086,14 +5102,18 @@
         <v>83</v>
       </c>
       <c r="I46"/>
-      <c r="J46"/>
+      <c r="J46" t="n">
+        <v>5</v>
+      </c>
       <c r="K46" t="n">
         <v>3</v>
       </c>
       <c r="L46" t="n">
         <v>3</v>
       </c>
-      <c r="M46"/>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
       <c r="N46"/>
       <c r="O46"/>
       <c r="P46"/>
@@ -5121,9 +5141,7 @@
       <c r="X46" t="n">
         <v>5</v>
       </c>
-      <c r="Y46" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y46"/>
       <c r="Z46" t="n">
         <v>1</v>
       </c>
@@ -5134,9 +5152,7 @@
       <c r="AC46" t="n">
         <v>5</v>
       </c>
-      <c r="AD46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD46"/>
       <c r="AE46"/>
       <c r="AF46" t="n">
         <v>5</v>
@@ -5180,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -5189,19 +5205,19 @@
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T47" t="n">
         <v>5</v>
@@ -5218,11 +5234,9 @@
       <c r="X47" t="n">
         <v>5</v>
       </c>
-      <c r="Y47" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y47"/>
       <c r="Z47" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA47"/>
       <c r="AB47" t="n">
@@ -5231,9 +5245,7 @@
       <c r="AC47" t="n">
         <v>5</v>
       </c>
-      <c r="AD47" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD47"/>
       <c r="AE47"/>
       <c r="AF47" t="n">
         <v>5</v>
@@ -5274,19 +5286,23 @@
         <v>39</v>
       </c>
       <c r="I48"/>
-      <c r="J48"/>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
       <c r="K48" t="n">
         <v>5</v>
       </c>
       <c r="L48" t="n">
         <v>5</v>
       </c>
-      <c r="M48"/>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
       <c r="N48"/>
       <c r="O48"/>
       <c r="P48"/>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R48" t="n">
         <v>5</v>
@@ -5320,9 +5336,7 @@
       <c r="AC48" t="n">
         <v>5</v>
       </c>
-      <c r="AD48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD48"/>
       <c r="AE48"/>
       <c r="AF48" t="n">
         <v>5</v>
@@ -5363,25 +5377,29 @@
         <v>39</v>
       </c>
       <c r="I49"/>
-      <c r="J49"/>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
       <c r="K49" t="n">
         <v>5</v>
       </c>
       <c r="L49" t="n">
         <v>5</v>
       </c>
-      <c r="M49"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
       <c r="N49"/>
       <c r="O49"/>
       <c r="P49"/>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
         <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T49" t="n">
         <v>5</v>
@@ -5398,11 +5416,9 @@
       <c r="X49" t="n">
         <v>5</v>
       </c>
-      <c r="Y49" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y49"/>
       <c r="Z49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA49"/>
       <c r="AB49" t="n">
@@ -5411,9 +5427,7 @@
       <c r="AC49" t="n">
         <v>5</v>
       </c>
-      <c r="AD49" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD49"/>
       <c r="AE49"/>
       <c r="AF49" t="n">
         <v>5</v>
@@ -5454,25 +5468,29 @@
         <v>39</v>
       </c>
       <c r="I50"/>
-      <c r="J50"/>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
       <c r="K50" t="n">
         <v>3</v>
       </c>
       <c r="L50" t="n">
         <v>3</v>
       </c>
-      <c r="M50"/>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
       <c r="N50"/>
       <c r="O50"/>
       <c r="P50"/>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R50" t="n">
         <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T50" t="n">
         <v>5</v>
@@ -5500,9 +5518,7 @@
       <c r="AC50" t="n">
         <v>5</v>
       </c>
-      <c r="AD50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD50"/>
       <c r="AE50"/>
       <c r="AF50" t="n">
         <v>5</v>
@@ -5546,7 +5562,7 @@
         <v>0.240113518707938</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
         <v>3</v>
@@ -5555,7 +5571,7 @@
         <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -5584,11 +5600,9 @@
       <c r="X51" t="n">
         <v>5</v>
       </c>
-      <c r="Y51" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y51"/>
       <c r="Z51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA51"/>
       <c r="AB51" t="n">
@@ -5597,9 +5611,7 @@
       <c r="AC51" t="n">
         <v>3</v>
       </c>
-      <c r="AD51" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD51"/>
       <c r="AE51"/>
       <c r="AF51" t="n">
         <v>5</v>
@@ -5640,18 +5652,24 @@
         <v>80</v>
       </c>
       <c r="I52"/>
-      <c r="J52"/>
+      <c r="J52" t="n">
+        <v>5</v>
+      </c>
       <c r="K52" t="n">
         <v>5</v>
       </c>
       <c r="L52" t="n">
         <v>5</v>
       </c>
-      <c r="M52"/>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
-      <c r="Q52"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
       <c r="R52" t="n">
         <v>5</v>
       </c>
@@ -5674,7 +5692,9 @@
         <v>5</v>
       </c>
       <c r="Y52"/>
-      <c r="Z52"/>
+      <c r="Z52" t="n">
+        <v>5</v>
+      </c>
       <c r="AA52"/>
       <c r="AB52" t="n">
         <v>5</v>
@@ -5682,9 +5702,7 @@
       <c r="AC52" t="n">
         <v>5</v>
       </c>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD52"/>
       <c r="AE52"/>
       <c r="AF52" t="n">
         <v>5</v>
@@ -5727,19 +5745,23 @@
       <c r="I53" t="n">
         <v>0.354668085360461</v>
       </c>
-      <c r="J53"/>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
       <c r="K53" t="n">
         <v>3</v>
       </c>
       <c r="L53" t="n">
         <v>3</v>
       </c>
-      <c r="M53"/>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
       <c r="N53"/>
       <c r="O53"/>
       <c r="P53"/>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>5</v>
@@ -5762,11 +5784,9 @@
       <c r="X53" t="n">
         <v>5</v>
       </c>
-      <c r="Y53" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y53"/>
       <c r="Z53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA53"/>
       <c r="AB53" t="n">
@@ -5775,9 +5795,7 @@
       <c r="AC53" t="n">
         <v>3</v>
       </c>
-      <c r="AD53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD53"/>
       <c r="AE53"/>
       <c r="AF53" t="n">
         <v>5</v>
@@ -5820,19 +5838,23 @@
       <c r="I54" t="n">
         <v>0.234282539487935</v>
       </c>
-      <c r="J54"/>
+      <c r="J54" t="n">
+        <v>5</v>
+      </c>
       <c r="K54" t="n">
         <v>5</v>
       </c>
       <c r="L54" t="n">
         <v>5</v>
       </c>
-      <c r="M54"/>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R54" t="n">
         <v>5</v>
@@ -5855,9 +5877,7 @@
       <c r="X54" t="n">
         <v>5</v>
       </c>
-      <c r="Y54" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y54"/>
       <c r="Z54" t="n">
         <v>1</v>
       </c>
@@ -5868,9 +5888,7 @@
       <c r="AC54" t="n">
         <v>5</v>
       </c>
-      <c r="AD54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD54"/>
       <c r="AE54"/>
       <c r="AF54" t="n">
         <v>5</v>
@@ -5914,7 +5932,7 @@
         <v>0.247867864745167</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55" t="n">
         <v>3</v>
@@ -5923,7 +5941,7 @@
         <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N55"/>
       <c r="O55"/>
@@ -5935,7 +5953,7 @@
         <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T55" t="n">
         <v>5</v>
@@ -5952,9 +5970,7 @@
       <c r="X55" t="n">
         <v>5</v>
       </c>
-      <c r="Y55" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y55"/>
       <c r="Z55" t="n">
         <v>1</v>
       </c>
@@ -5965,9 +5981,7 @@
       <c r="AC55" t="n">
         <v>5</v>
       </c>
-      <c r="AD55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD55"/>
       <c r="AE55"/>
       <c r="AF55" t="n">
         <v>5</v>
@@ -6024,13 +6038,13 @@
       <c r="O56"/>
       <c r="P56"/>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
         <v>5</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T56" t="n">
         <v>5</v>
@@ -6058,9 +6072,7 @@
       <c r="AC56" t="n">
         <v>5</v>
       </c>
-      <c r="AD56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD56"/>
       <c r="AE56"/>
       <c r="AF56" t="n">
         <v>5</v>
@@ -6101,25 +6113,29 @@
         <v>77</v>
       </c>
       <c r="I57"/>
-      <c r="J57"/>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
       <c r="K57" t="n">
         <v>5</v>
       </c>
       <c r="L57" t="n">
         <v>5</v>
       </c>
-      <c r="M57"/>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
         <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="n">
         <v>5</v>
@@ -6147,9 +6163,7 @@
       <c r="AC57" t="n">
         <v>5</v>
       </c>
-      <c r="AD57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD57"/>
       <c r="AE57"/>
       <c r="AF57" t="n">
         <v>5</v>
@@ -6190,14 +6204,18 @@
         <v>77</v>
       </c>
       <c r="I58"/>
-      <c r="J58"/>
+      <c r="J58" t="n">
+        <v>3</v>
+      </c>
       <c r="K58" t="n">
         <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
-      <c r="M58"/>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
       <c r="N58"/>
       <c r="O58"/>
       <c r="P58"/>
@@ -6236,9 +6254,7 @@
       <c r="AC58" t="n">
         <v>5</v>
       </c>
-      <c r="AD58" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD58"/>
       <c r="AE58"/>
       <c r="AF58" t="n">
         <v>5</v>
@@ -6279,25 +6295,29 @@
         <v>77</v>
       </c>
       <c r="I59"/>
-      <c r="J59"/>
+      <c r="J59" t="n">
+        <v>5</v>
+      </c>
       <c r="K59" t="n">
         <v>5</v>
       </c>
       <c r="L59" t="n">
         <v>5</v>
       </c>
-      <c r="M59"/>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
       <c r="N59"/>
       <c r="O59"/>
       <c r="P59"/>
       <c r="Q59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
         <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T59" t="n">
         <v>5</v>
@@ -6325,9 +6345,7 @@
       <c r="AC59" t="n">
         <v>5</v>
       </c>
-      <c r="AD59" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD59"/>
       <c r="AE59"/>
       <c r="AF59" t="n">
         <v>5</v>
@@ -6368,19 +6386,23 @@
         <v>77</v>
       </c>
       <c r="I60"/>
-      <c r="J60"/>
+      <c r="J60" t="n">
+        <v>5</v>
+      </c>
       <c r="K60" t="n">
         <v>5</v>
       </c>
       <c r="L60" t="n">
         <v>5</v>
       </c>
-      <c r="M60"/>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
         <v>5</v>
@@ -6405,7 +6427,7 @@
       </c>
       <c r="Y60"/>
       <c r="Z60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA60"/>
       <c r="AB60" t="n">
@@ -6414,9 +6436,7 @@
       <c r="AC60" t="n">
         <v>5</v>
       </c>
-      <c r="AD60" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD60"/>
       <c r="AE60"/>
       <c r="AF60" t="n">
         <v>5</v>
@@ -6457,14 +6477,18 @@
         <v>77</v>
       </c>
       <c r="I61"/>
-      <c r="J61"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="n">
         <v>5</v>
       </c>
       <c r="L61" t="n">
         <v>5</v>
       </c>
-      <c r="M61"/>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
@@ -6475,7 +6499,7 @@
         <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T61" t="n">
         <v>5</v>
@@ -6492,11 +6516,9 @@
       <c r="X61" t="n">
         <v>5</v>
       </c>
-      <c r="Y61" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y61"/>
       <c r="Z61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA61"/>
       <c r="AB61" t="n">
@@ -6505,9 +6527,7 @@
       <c r="AC61" t="n">
         <v>5</v>
       </c>
-      <c r="AD61" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD61"/>
       <c r="AE61"/>
       <c r="AF61" t="n">
         <v>5</v>
@@ -6550,19 +6570,23 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="n">
         <v>5</v>
       </c>
       <c r="L62" t="n">
         <v>5</v>
       </c>
-      <c r="M62"/>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R62" t="n">
         <v>5</v>
@@ -6585,9 +6609,7 @@
       <c r="X62" t="n">
         <v>5</v>
       </c>
-      <c r="Y62" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y62"/>
       <c r="Z62" t="n">
         <v>1</v>
       </c>
@@ -6598,9 +6620,7 @@
       <c r="AC62" t="n">
         <v>5</v>
       </c>
-      <c r="AD62" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD62"/>
       <c r="AE62"/>
       <c r="AF62" t="n">
         <v>5</v>
@@ -6641,18 +6661,24 @@
         <v>80</v>
       </c>
       <c r="I63"/>
-      <c r="J63"/>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
       <c r="K63" t="n">
         <v>5</v>
       </c>
       <c r="L63" t="n">
         <v>5</v>
       </c>
-      <c r="M63"/>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
       <c r="N63"/>
       <c r="O63"/>
       <c r="P63"/>
-      <c r="Q63"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
       <c r="R63" t="n">
         <v>5</v>
       </c>
@@ -6675,7 +6701,9 @@
         <v>5</v>
       </c>
       <c r="Y63"/>
-      <c r="Z63"/>
+      <c r="Z63" t="n">
+        <v>3</v>
+      </c>
       <c r="AA63"/>
       <c r="AB63" t="n">
         <v>5</v>
@@ -6683,9 +6711,7 @@
       <c r="AC63" t="n">
         <v>5</v>
       </c>
-      <c r="AD63" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD63"/>
       <c r="AE63"/>
       <c r="AF63" t="n">
         <v>5</v>
@@ -6728,14 +6754,18 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="n">
         <v>5</v>
       </c>
       <c r="L64" t="n">
         <v>5</v>
       </c>
-      <c r="M64"/>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
       <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
@@ -6763,9 +6793,7 @@
       <c r="X64" t="n">
         <v>5</v>
       </c>
-      <c r="Y64" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y64"/>
       <c r="Z64" t="n">
         <v>1</v>
       </c>
@@ -6776,9 +6804,7 @@
       <c r="AC64" t="n">
         <v>5</v>
       </c>
-      <c r="AD64" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD64"/>
       <c r="AE64"/>
       <c r="AF64" t="n">
         <v>5</v>
@@ -6822,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65" t="n">
         <v>5</v>
@@ -6831,13 +6857,13 @@
         <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N65"/>
       <c r="O65"/>
       <c r="P65"/>
       <c r="Q65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R65" t="n">
         <v>5</v>
@@ -6860,9 +6886,7 @@
       <c r="X65" t="n">
         <v>5</v>
       </c>
-      <c r="Y65" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y65"/>
       <c r="Z65" t="n">
         <v>1</v>
       </c>
@@ -6873,9 +6897,7 @@
       <c r="AC65" t="n">
         <v>5</v>
       </c>
-      <c r="AD65" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD65"/>
       <c r="AE65"/>
       <c r="AF65" t="n">
         <v>5</v>
@@ -6916,25 +6938,29 @@
         <v>77</v>
       </c>
       <c r="I66"/>
-      <c r="J66"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="n">
         <v>5</v>
       </c>
       <c r="L66" t="n">
         <v>5</v>
       </c>
-      <c r="M66"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
       <c r="N66"/>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R66" t="n">
         <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T66" t="n">
         <v>5</v>
@@ -6951,9 +6977,7 @@
       <c r="X66" t="n">
         <v>5</v>
       </c>
-      <c r="Y66" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y66"/>
       <c r="Z66" t="n">
         <v>1</v>
       </c>
@@ -6964,9 +6988,7 @@
       <c r="AC66" t="n">
         <v>5</v>
       </c>
-      <c r="AD66" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD66"/>
       <c r="AE66"/>
       <c r="AF66" t="n">
         <v>5</v>
@@ -7010,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
         <v>3</v>
@@ -7019,13 +7041,13 @@
         <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R67" t="n">
         <v>5</v>
@@ -7048,9 +7070,7 @@
       <c r="X67" t="n">
         <v>5</v>
       </c>
-      <c r="Y67" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y67"/>
       <c r="Z67" t="n">
         <v>1</v>
       </c>
@@ -7061,9 +7081,7 @@
       <c r="AC67" t="n">
         <v>5</v>
       </c>
-      <c r="AD67" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD67"/>
       <c r="AE67"/>
       <c r="AF67" t="n">
         <v>5</v>
@@ -7107,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
         <v>5</v>
@@ -7116,13 +7134,13 @@
         <v>5</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N68"/>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R68" t="n">
         <v>5</v>
@@ -7145,11 +7163,9 @@
       <c r="X68" t="n">
         <v>5</v>
       </c>
-      <c r="Y68" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y68"/>
       <c r="Z68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA68"/>
       <c r="AB68" t="n">
@@ -7158,9 +7174,7 @@
       <c r="AC68" t="n">
         <v>5</v>
       </c>
-      <c r="AD68" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD68"/>
       <c r="AE68"/>
       <c r="AF68" t="n">
         <v>5</v>
@@ -7204,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K69" t="n">
         <v>5</v>
@@ -7213,19 +7227,19 @@
         <v>5</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R69" t="n">
         <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T69" t="n">
         <v>5</v>
@@ -7242,9 +7256,7 @@
       <c r="X69" t="n">
         <v>5</v>
       </c>
-      <c r="Y69" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y69"/>
       <c r="Z69" t="n">
         <v>1</v>
       </c>
@@ -7255,9 +7267,7 @@
       <c r="AC69" t="n">
         <v>5</v>
       </c>
-      <c r="AD69" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD69"/>
       <c r="AE69"/>
       <c r="AF69" t="n">
         <v>5</v>
@@ -7301,7 +7311,9 @@
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
-      <c r="M70"/>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
@@ -7326,7 +7338,9 @@
         <v>5</v>
       </c>
       <c r="Y70"/>
-      <c r="Z70"/>
+      <c r="Z70" t="n">
+        <v>1</v>
+      </c>
       <c r="AA70"/>
       <c r="AB70" t="n">
         <v>5</v>
@@ -7334,9 +7348,7 @@
       <c r="AC70" t="n">
         <v>5</v>
       </c>
-      <c r="AD70" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD70"/>
       <c r="AE70"/>
       <c r="AF70" t="n">
         <v>5</v>
@@ -7380,7 +7392,9 @@
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="M71"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
       <c r="N71"/>
       <c r="O71"/>
       <c r="P71"/>
@@ -7388,9 +7402,7 @@
       <c r="R71" t="n">
         <v>5</v>
       </c>
-      <c r="S71" t="n">
-        <v>5</v>
-      </c>
+      <c r="S71"/>
       <c r="T71"/>
       <c r="U71" t="n">
         <v>5</v>
@@ -7405,7 +7417,9 @@
         <v>5</v>
       </c>
       <c r="Y71"/>
-      <c r="Z71"/>
+      <c r="Z71" t="n">
+        <v>1</v>
+      </c>
       <c r="AA71"/>
       <c r="AB71" t="n">
         <v>5</v>
@@ -7413,9 +7427,7 @@
       <c r="AC71" t="n">
         <v>5</v>
       </c>
-      <c r="AD71" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD71"/>
       <c r="AE71"/>
       <c r="AF71" t="n">
         <v>5</v>
@@ -7456,18 +7468,24 @@
         <v>80</v>
       </c>
       <c r="I72"/>
-      <c r="J72"/>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
       <c r="K72" t="n">
         <v>5</v>
       </c>
       <c r="L72" t="n">
         <v>5</v>
       </c>
-      <c r="M72"/>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
       <c r="N72"/>
       <c r="O72"/>
       <c r="P72"/>
-      <c r="Q72"/>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
       <c r="R72" t="n">
         <v>5</v>
       </c>
@@ -7490,7 +7508,9 @@
         <v>5</v>
       </c>
       <c r="Y72"/>
-      <c r="Z72"/>
+      <c r="Z72" t="n">
+        <v>1</v>
+      </c>
       <c r="AA72"/>
       <c r="AB72" t="n">
         <v>5</v>
@@ -7498,9 +7518,7 @@
       <c r="AC72" t="n">
         <v>5</v>
       </c>
-      <c r="AD72" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD72"/>
       <c r="AE72"/>
       <c r="AF72" t="n">
         <v>5</v>
@@ -7541,18 +7559,24 @@
         <v>80</v>
       </c>
       <c r="I73"/>
-      <c r="J73"/>
+      <c r="J73" t="n">
+        <v>5</v>
+      </c>
       <c r="K73" t="n">
         <v>5</v>
       </c>
       <c r="L73" t="n">
         <v>5</v>
       </c>
-      <c r="M73"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
-      <c r="Q73"/>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
       <c r="R73" t="n">
         <v>5</v>
       </c>
@@ -7575,7 +7599,9 @@
         <v>5</v>
       </c>
       <c r="Y73"/>
-      <c r="Z73"/>
+      <c r="Z73" t="n">
+        <v>1</v>
+      </c>
       <c r="AA73"/>
       <c r="AB73" t="n">
         <v>5</v>
@@ -7583,9 +7609,7 @@
       <c r="AC73" t="n">
         <v>5</v>
       </c>
-      <c r="AD73" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD73"/>
       <c r="AE73"/>
       <c r="AF73" t="n">
         <v>5</v>
@@ -7626,18 +7650,24 @@
         <v>80</v>
       </c>
       <c r="I74"/>
-      <c r="J74"/>
+      <c r="J74" t="n">
+        <v>5</v>
+      </c>
       <c r="K74" t="n">
         <v>5</v>
       </c>
       <c r="L74" t="n">
         <v>5</v>
       </c>
-      <c r="M74"/>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
-      <c r="Q74"/>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
       <c r="R74" t="n">
         <v>5</v>
       </c>
@@ -7660,7 +7690,9 @@
         <v>5</v>
       </c>
       <c r="Y74"/>
-      <c r="Z74"/>
+      <c r="Z74" t="n">
+        <v>1</v>
+      </c>
       <c r="AA74"/>
       <c r="AB74" t="n">
         <v>5</v>
@@ -7668,9 +7700,7 @@
       <c r="AC74" t="n">
         <v>5</v>
       </c>
-      <c r="AD74" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD74"/>
       <c r="AE74"/>
       <c r="AF74" t="n">
         <v>5</v>
@@ -7712,7 +7742,7 @@
       </c>
       <c r="I75"/>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
         <v>5</v>
@@ -7721,19 +7751,19 @@
         <v>5</v>
       </c>
       <c r="M75" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R75" t="n">
         <v>5</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T75" t="n">
         <v>5</v>
@@ -7750,9 +7780,7 @@
       <c r="X75" t="n">
         <v>5</v>
       </c>
-      <c r="Y75" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y75"/>
       <c r="Z75" t="n">
         <v>1</v>
       </c>
@@ -7763,9 +7791,7 @@
       <c r="AC75" t="n">
         <v>5</v>
       </c>
-      <c r="AD75" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD75"/>
       <c r="AE75"/>
       <c r="AF75" t="n">
         <v>5</v>
@@ -7806,19 +7832,23 @@
         <v>77</v>
       </c>
       <c r="I76"/>
-      <c r="J76"/>
+      <c r="J76" t="n">
+        <v>5</v>
+      </c>
       <c r="K76" t="n">
         <v>5</v>
       </c>
       <c r="L76" t="n">
         <v>5</v>
       </c>
-      <c r="M76"/>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R76" t="n">
         <v>5</v>
@@ -7852,9 +7882,7 @@
       <c r="AC76" t="n">
         <v>5</v>
       </c>
-      <c r="AD76" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD76"/>
       <c r="AE76"/>
       <c r="AF76" t="n">
         <v>5</v>
@@ -7895,23 +7923,29 @@
         <v>77</v>
       </c>
       <c r="I77"/>
-      <c r="J77"/>
+      <c r="J77" t="n">
+        <v>5</v>
+      </c>
       <c r="K77" t="n">
         <v>5</v>
       </c>
       <c r="L77" t="n">
         <v>5</v>
       </c>
-      <c r="M77"/>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
-      <c r="Q77"/>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
       <c r="R77" t="n">
         <v>5</v>
       </c>
       <c r="S77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T77" t="n">
         <v>5</v>
@@ -7928,11 +7962,9 @@
       <c r="X77" t="n">
         <v>5</v>
       </c>
-      <c r="Y77" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y77"/>
       <c r="Z77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA77"/>
       <c r="AB77" t="n">
@@ -7985,7 +8017,7 @@
         <v>0.131452740653258</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K78" t="n">
         <v>5</v>
@@ -7994,13 +8026,13 @@
         <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R78" t="n">
         <v>5</v>
@@ -8023,9 +8055,7 @@
       <c r="X78" t="n">
         <v>5</v>
       </c>
-      <c r="Y78" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y78"/>
       <c r="Z78" t="n">
         <v>1</v>
       </c>
@@ -8036,9 +8066,7 @@
       <c r="AC78" t="n">
         <v>5</v>
       </c>
-      <c r="AD78" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD78"/>
       <c r="AE78"/>
       <c r="AF78" t="n">
         <v>5</v>
@@ -8091,13 +8119,13 @@
         <v>5</v>
       </c>
       <c r="M79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R79" t="n">
         <v>5</v>
@@ -8120,11 +8148,9 @@
       <c r="X79" t="n">
         <v>5</v>
       </c>
-      <c r="Y79" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y79"/>
       <c r="Z79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA79"/>
       <c r="AB79" t="n">
@@ -8133,9 +8159,7 @@
       <c r="AC79" t="n">
         <v>5</v>
       </c>
-      <c r="AD79" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD79"/>
       <c r="AE79"/>
       <c r="AF79" t="n">
         <v>5</v>
@@ -8188,13 +8212,13 @@
         <v>5</v>
       </c>
       <c r="M80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R80" t="n">
         <v>5</v>
@@ -8217,11 +8241,9 @@
       <c r="X80" t="n">
         <v>5</v>
       </c>
-      <c r="Y80" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y80"/>
       <c r="Z80" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA80"/>
       <c r="AB80" t="n">
@@ -8230,9 +8252,7 @@
       <c r="AC80" t="n">
         <v>5</v>
       </c>
-      <c r="AD80" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD80"/>
       <c r="AE80"/>
       <c r="AF80" t="n">
         <v>5</v>
@@ -8285,7 +8305,7 @@
         <v>5</v>
       </c>
       <c r="M81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N81"/>
       <c r="O81"/>
@@ -8314,11 +8334,9 @@
       <c r="X81" t="n">
         <v>5</v>
       </c>
-      <c r="Y81" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y81"/>
       <c r="Z81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA81"/>
       <c r="AB81" t="n">
@@ -8327,9 +8345,7 @@
       <c r="AC81" t="n">
         <v>5</v>
       </c>
-      <c r="AD81" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD81"/>
       <c r="AE81"/>
       <c r="AF81" t="n">
         <v>5</v>
@@ -8382,13 +8398,13 @@
         <v>5</v>
       </c>
       <c r="M82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R82" t="n">
         <v>5</v>
@@ -8411,9 +8427,7 @@
       <c r="X82" t="n">
         <v>5</v>
       </c>
-      <c r="Y82" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y82"/>
       <c r="Z82" t="n">
         <v>5</v>
       </c>
@@ -8424,9 +8438,7 @@
       <c r="AC82" t="n">
         <v>5</v>
       </c>
-      <c r="AD82" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD82"/>
       <c r="AE82"/>
       <c r="AF82" t="n">
         <v>5</v>
@@ -8479,12 +8491,14 @@
         <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
-      <c r="Q83"/>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
       <c r="R83" t="n">
         <v>5</v>
       </c>
@@ -8506,11 +8520,9 @@
       <c r="X83" t="n">
         <v>5</v>
       </c>
-      <c r="Y83" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y83"/>
       <c r="Z83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA83"/>
       <c r="AB83" t="n">
@@ -8519,9 +8531,7 @@
       <c r="AC83" t="n">
         <v>5</v>
       </c>
-      <c r="AD83" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD83"/>
       <c r="AE83"/>
       <c r="AF83" t="n">
         <v>5</v>
@@ -8574,7 +8584,7 @@
         <v>5</v>
       </c>
       <c r="M84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N84"/>
       <c r="O84"/>
@@ -8605,7 +8615,7 @@
       </c>
       <c r="Y84"/>
       <c r="Z84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA84"/>
       <c r="AB84" t="n">
@@ -8614,9 +8624,7 @@
       <c r="AC84" t="n">
         <v>5</v>
       </c>
-      <c r="AD84" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD84"/>
       <c r="AE84"/>
       <c r="AF84" t="n">
         <v>5</v>
@@ -8674,7 +8682,9 @@
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
-      <c r="Q85"/>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
       <c r="R85" t="n">
         <v>5</v>
       </c>
@@ -8696,11 +8706,9 @@
       <c r="X85" t="n">
         <v>5</v>
       </c>
-      <c r="Y85" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y85"/>
       <c r="Z85" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA85"/>
       <c r="AB85" t="n">
@@ -8709,9 +8717,7 @@
       <c r="AC85" t="n">
         <v>5</v>
       </c>
-      <c r="AD85" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD85"/>
       <c r="AE85"/>
       <c r="AF85" t="n">
         <v>5</v>
@@ -8755,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K86" t="n">
         <v>5</v>
@@ -8764,7 +8770,7 @@
         <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
@@ -8793,11 +8799,9 @@
       <c r="X86" t="n">
         <v>5</v>
       </c>
-      <c r="Y86" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y86"/>
       <c r="Z86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA86"/>
       <c r="AB86" t="n">
@@ -8806,9 +8810,7 @@
       <c r="AC86" t="n">
         <v>5</v>
       </c>
-      <c r="AD86" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD86"/>
       <c r="AE86"/>
       <c r="AF86" t="n">
         <v>5</v>
@@ -8861,13 +8863,13 @@
         <v>5</v>
       </c>
       <c r="M87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R87" t="n">
         <v>5</v>
@@ -8890,11 +8892,9 @@
       <c r="X87" t="n">
         <v>5</v>
       </c>
-      <c r="Y87" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y87"/>
       <c r="Z87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA87"/>
       <c r="AB87" t="n">
@@ -8903,9 +8903,7 @@
       <c r="AC87" t="n">
         <v>5</v>
       </c>
-      <c r="AD87" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD87"/>
       <c r="AE87"/>
       <c r="AF87" t="n">
         <v>5</v>
@@ -8949,7 +8947,7 @@
         <v>0.205909254667754</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
         <v>5</v>
@@ -8958,13 +8956,13 @@
         <v>5</v>
       </c>
       <c r="M88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R88" t="n">
         <v>5</v>
@@ -8987,11 +8985,9 @@
       <c r="X88" t="n">
         <v>5</v>
       </c>
-      <c r="Y88" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y88"/>
       <c r="Z88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA88"/>
       <c r="AB88" t="n">
@@ -9000,9 +8996,7 @@
       <c r="AC88" t="n">
         <v>5</v>
       </c>
-      <c r="AD88" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD88"/>
       <c r="AE88"/>
       <c r="AF88" t="n">
         <v>5</v>
@@ -9046,7 +9040,7 @@
         <v>0.233443007589593</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K89" t="n">
         <v>5</v>
@@ -9060,7 +9054,9 @@
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
-      <c r="Q89"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
       <c r="R89" t="n">
         <v>5</v>
       </c>
@@ -9082,9 +9078,7 @@
       <c r="X89" t="n">
         <v>5</v>
       </c>
-      <c r="Y89" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y89"/>
       <c r="Z89" t="n">
         <v>1</v>
       </c>
@@ -9095,9 +9089,7 @@
       <c r="AC89" t="n">
         <v>5</v>
       </c>
-      <c r="AD89" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD89"/>
       <c r="AE89"/>
       <c r="AF89" t="n">
         <v>5</v>
@@ -9140,18 +9132,24 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="n">
         <v>5</v>
       </c>
       <c r="L90" t="n">
         <v>5</v>
       </c>
-      <c r="M90"/>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
-      <c r="Q90"/>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
       <c r="R90" t="n">
         <v>5</v>
       </c>
@@ -9173,11 +9171,9 @@
       <c r="X90" t="n">
         <v>5</v>
       </c>
-      <c r="Y90" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y90"/>
       <c r="Z90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA90"/>
       <c r="AB90" t="n">
@@ -9186,9 +9182,7 @@
       <c r="AC90" t="n">
         <v>5</v>
       </c>
-      <c r="AD90" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD90"/>
       <c r="AE90"/>
       <c r="AF90" t="n">
         <v>5</v>
@@ -9231,19 +9225,23 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91"/>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
       <c r="K91" t="n">
         <v>5</v>
       </c>
       <c r="L91" t="n">
         <v>5</v>
       </c>
-      <c r="M91"/>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R91" t="n">
         <v>5</v>
@@ -9266,9 +9264,7 @@
       <c r="X91" t="n">
         <v>5</v>
       </c>
-      <c r="Y91" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y91"/>
       <c r="Z91" t="n">
         <v>1</v>
       </c>
@@ -9279,9 +9275,7 @@
       <c r="AC91" t="n">
         <v>5</v>
       </c>
-      <c r="AD91" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD91"/>
       <c r="AE91"/>
       <c r="AF91" t="n">
         <v>5</v>
@@ -9340,7 +9334,7 @@
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R92" t="n">
         <v>5</v>
@@ -9363,9 +9357,7 @@
       <c r="X92" t="n">
         <v>5</v>
       </c>
-      <c r="Y92" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y92"/>
       <c r="Z92" t="n">
         <v>1</v>
       </c>
@@ -9376,9 +9368,7 @@
       <c r="AC92" t="n">
         <v>5</v>
       </c>
-      <c r="AD92" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD92"/>
       <c r="AE92"/>
       <c r="AF92" t="n">
         <v>5</v>
@@ -9431,13 +9421,13 @@
         <v>5</v>
       </c>
       <c r="M93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N93"/>
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R93" t="n">
         <v>5</v>
@@ -9460,11 +9450,9 @@
       <c r="X93" t="n">
         <v>5</v>
       </c>
-      <c r="Y93" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y93"/>
       <c r="Z93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA93"/>
       <c r="AB93" t="n">
@@ -9473,9 +9461,7 @@
       <c r="AC93" t="n">
         <v>5</v>
       </c>
-      <c r="AD93" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD93"/>
       <c r="AE93"/>
       <c r="AF93" t="n">
         <v>5</v>
@@ -9528,13 +9514,13 @@
         <v>5</v>
       </c>
       <c r="M94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
       <c r="Q94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R94" t="n">
         <v>5</v>
@@ -9557,9 +9543,7 @@
       <c r="X94" t="n">
         <v>5</v>
       </c>
-      <c r="Y94" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y94"/>
       <c r="Z94" t="n">
         <v>5</v>
       </c>
@@ -9570,9 +9554,7 @@
       <c r="AC94" t="n">
         <v>5</v>
       </c>
-      <c r="AD94" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD94"/>
       <c r="AE94"/>
       <c r="AF94" t="n">
         <v>5</v>
@@ -9615,19 +9597,23 @@
       <c r="I95" t="n">
         <v>0.0581569779503563</v>
       </c>
-      <c r="J95"/>
+      <c r="J95" t="n">
+        <v>5</v>
+      </c>
       <c r="K95" t="n">
         <v>5</v>
       </c>
       <c r="L95" t="n">
         <v>5</v>
       </c>
-      <c r="M95"/>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
       <c r="N95"/>
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R95" t="n">
         <v>5</v>
@@ -9650,9 +9636,7 @@
       <c r="X95" t="n">
         <v>5</v>
       </c>
-      <c r="Y95" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y95"/>
       <c r="Z95" t="n">
         <v>1</v>
       </c>
@@ -9663,9 +9647,7 @@
       <c r="AC95" t="n">
         <v>5</v>
       </c>
-      <c r="AD95" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD95"/>
       <c r="AE95"/>
       <c r="AF95" t="n">
         <v>5</v>
@@ -9708,19 +9690,23 @@
       <c r="I96" t="n">
         <v>0.626617921420571</v>
       </c>
-      <c r="J96"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="n">
         <v>5</v>
       </c>
       <c r="L96" t="n">
         <v>5</v>
       </c>
-      <c r="M96"/>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
       <c r="N96"/>
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R96" t="n">
         <v>5</v>
@@ -9739,9 +9725,7 @@
       </c>
       <c r="W96"/>
       <c r="X96"/>
-      <c r="Y96" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y96"/>
       <c r="Z96" t="n">
         <v>5</v>
       </c>
@@ -9752,9 +9736,7 @@
       <c r="AC96" t="n">
         <v>5</v>
       </c>
-      <c r="AD96" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD96"/>
       <c r="AE96"/>
       <c r="AF96"/>
       <c r="AG96" t="n">
@@ -9805,12 +9787,14 @@
         <v>5</v>
       </c>
       <c r="M97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N97"/>
       <c r="O97"/>
       <c r="P97"/>
-      <c r="Q97"/>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
       <c r="R97" t="n">
         <v>5</v>
       </c>
@@ -9832,9 +9816,7 @@
       <c r="X97" t="n">
         <v>5</v>
       </c>
-      <c r="Y97" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y97"/>
       <c r="Z97" t="n">
         <v>1</v>
       </c>
@@ -9845,9 +9827,7 @@
       <c r="AC97" t="n">
         <v>5</v>
       </c>
-      <c r="AD97" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD97"/>
       <c r="AE97"/>
       <c r="AF97" t="n">
         <v>5</v>
@@ -9906,7 +9886,7 @@
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R98" t="n">
         <v>5</v>
@@ -9929,11 +9909,9 @@
       <c r="X98" t="n">
         <v>5</v>
       </c>
-      <c r="Y98" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y98"/>
       <c r="Z98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA98"/>
       <c r="AB98" t="n">
@@ -9942,9 +9920,7 @@
       <c r="AC98" t="n">
         <v>5</v>
       </c>
-      <c r="AD98" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD98"/>
       <c r="AE98"/>
       <c r="AF98" t="n">
         <v>5</v>
@@ -9987,18 +9963,24 @@
       <c r="I99" t="n">
         <v>0.654280377056844</v>
       </c>
-      <c r="J99"/>
+      <c r="J99" t="n">
+        <v>5</v>
+      </c>
       <c r="K99" t="n">
         <v>5</v>
       </c>
       <c r="L99" t="n">
         <v>5</v>
       </c>
-      <c r="M99"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
-      <c r="Q99"/>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
       <c r="R99" t="n">
         <v>5</v>
       </c>
@@ -10020,9 +10002,7 @@
       <c r="X99" t="n">
         <v>5</v>
       </c>
-      <c r="Y99" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y99"/>
       <c r="Z99" t="n">
         <v>1</v>
       </c>
@@ -10033,9 +10013,7 @@
       <c r="AC99" t="n">
         <v>5</v>
       </c>
-      <c r="AD99" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD99"/>
       <c r="AE99"/>
       <c r="AF99" t="n">
         <v>5</v>
@@ -10078,14 +10056,18 @@
       <c r="I100" t="n">
         <v>0.0420846940519813</v>
       </c>
-      <c r="J100"/>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
       <c r="K100" t="n">
         <v>3</v>
       </c>
       <c r="L100" t="n">
         <v>3</v>
       </c>
-      <c r="M100"/>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
@@ -10113,9 +10095,7 @@
       <c r="X100" t="n">
         <v>5</v>
       </c>
-      <c r="Y100" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y100"/>
       <c r="Z100" t="n">
         <v>1</v>
       </c>
@@ -10126,9 +10106,7 @@
       <c r="AC100" t="n">
         <v>5</v>
       </c>
-      <c r="AD100" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD100"/>
       <c r="AE100"/>
       <c r="AF100" t="n">
         <v>5</v>
@@ -10181,13 +10159,13 @@
         <v>5</v>
       </c>
       <c r="M101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R101" t="n">
         <v>5</v>
@@ -10210,11 +10188,9 @@
       <c r="X101" t="n">
         <v>5</v>
       </c>
-      <c r="Y101" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y101"/>
       <c r="Z101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA101"/>
       <c r="AB101" t="n">
@@ -10223,9 +10199,7 @@
       <c r="AC101" t="n">
         <v>5</v>
       </c>
-      <c r="AD101" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD101"/>
       <c r="AE101"/>
       <c r="AF101" t="n">
         <v>5</v>
@@ -10278,7 +10252,7 @@
         <v>5</v>
       </c>
       <c r="M102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N102"/>
       <c r="O102"/>
@@ -10307,9 +10281,7 @@
       <c r="X102" t="n">
         <v>5</v>
       </c>
-      <c r="Y102" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y102"/>
       <c r="Z102" t="n">
         <v>5</v>
       </c>
@@ -10320,9 +10292,7 @@
       <c r="AC102" t="n">
         <v>5</v>
       </c>
-      <c r="AD102" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD102"/>
       <c r="AE102"/>
       <c r="AF102" t="n">
         <v>5</v>
@@ -10366,7 +10336,7 @@
         <v>0.681008576206181</v>
       </c>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
         <v>5</v>
@@ -10375,13 +10345,13 @@
         <v>5</v>
       </c>
       <c r="M103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
       <c r="Q103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R103" t="n">
         <v>5</v>
@@ -10404,11 +10374,9 @@
       <c r="X103" t="n">
         <v>5</v>
       </c>
-      <c r="Y103" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y103"/>
       <c r="Z103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA103"/>
       <c r="AB103" t="n">
@@ -10417,9 +10385,7 @@
       <c r="AC103" t="n">
         <v>5</v>
       </c>
-      <c r="AD103" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD103"/>
       <c r="AE103"/>
       <c r="AF103" t="n">
         <v>5</v>
@@ -10472,13 +10438,13 @@
         <v>5</v>
       </c>
       <c r="M104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104"/>
       <c r="Q104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R104" t="n">
         <v>5</v>
@@ -10501,11 +10467,9 @@
       <c r="X104" t="n">
         <v>5</v>
       </c>
-      <c r="Y104" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y104"/>
       <c r="Z104" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA104"/>
       <c r="AB104" t="n">
@@ -10514,9 +10478,7 @@
       <c r="AC104" t="n">
         <v>5</v>
       </c>
-      <c r="AD104" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD104"/>
       <c r="AE104"/>
       <c r="AF104" t="n">
         <v>5</v>
@@ -10569,13 +10531,13 @@
         <v>5</v>
       </c>
       <c r="M105" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N105"/>
       <c r="O105"/>
       <c r="P105"/>
       <c r="Q105" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R105" t="n">
         <v>5</v>
@@ -10598,11 +10560,9 @@
       <c r="X105" t="n">
         <v>5</v>
       </c>
-      <c r="Y105" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y105"/>
       <c r="Z105" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA105"/>
       <c r="AB105" t="n">
@@ -10611,9 +10571,7 @@
       <c r="AC105" t="n">
         <v>5</v>
       </c>
-      <c r="AD105" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD105"/>
       <c r="AE105"/>
       <c r="AF105" t="n">
         <v>5</v>
@@ -10656,14 +10614,18 @@
       <c r="I106" t="n">
         <v>0.698825020843353</v>
       </c>
-      <c r="J106"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="n">
         <v>5</v>
       </c>
       <c r="L106" t="n">
         <v>5</v>
       </c>
-      <c r="M106"/>
+      <c r="M106" t="n">
+        <v>3</v>
+      </c>
       <c r="N106"/>
       <c r="O106"/>
       <c r="P106"/>
@@ -10691,9 +10653,7 @@
       <c r="X106" t="n">
         <v>5</v>
       </c>
-      <c r="Y106" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y106"/>
       <c r="Z106" t="n">
         <v>5</v>
       </c>
@@ -10704,9 +10664,7 @@
       <c r="AC106" t="n">
         <v>5</v>
       </c>
-      <c r="AD106" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD106"/>
       <c r="AE106"/>
       <c r="AF106" t="n">
         <v>5</v>
@@ -10750,7 +10708,7 @@
         <v>0.789291793508043</v>
       </c>
       <c r="J107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>5</v>
@@ -10759,7 +10717,7 @@
         <v>5</v>
       </c>
       <c r="M107" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N107"/>
       <c r="O107"/>
@@ -10788,9 +10746,7 @@
       <c r="X107" t="n">
         <v>5</v>
       </c>
-      <c r="Y107" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y107"/>
       <c r="Z107" t="n">
         <v>5</v>
       </c>
@@ -10801,9 +10757,7 @@
       <c r="AC107" t="n">
         <v>5</v>
       </c>
-      <c r="AD107" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD107"/>
       <c r="AE107"/>
       <c r="AF107" t="n">
         <v>5</v>
@@ -10846,25 +10800,29 @@
       <c r="I108" t="n">
         <v>0.289937829844472</v>
       </c>
-      <c r="J108"/>
+      <c r="J108" t="n">
+        <v>5</v>
+      </c>
       <c r="K108" t="n">
         <v>5</v>
       </c>
       <c r="L108" t="n">
         <v>5</v>
       </c>
-      <c r="M108"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
       <c r="N108"/>
       <c r="O108"/>
       <c r="P108"/>
       <c r="Q108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R108" t="n">
         <v>5</v>
       </c>
       <c r="S108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T108" t="n">
         <v>5</v>
@@ -10881,9 +10839,7 @@
       <c r="X108" t="n">
         <v>5</v>
       </c>
-      <c r="Y108" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y108"/>
       <c r="Z108" t="n">
         <v>1</v>
       </c>
@@ -10894,9 +10850,7 @@
       <c r="AC108" t="n">
         <v>5</v>
       </c>
-      <c r="AD108" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD108"/>
       <c r="AE108"/>
       <c r="AF108" t="n">
         <v>5</v>
@@ -10939,14 +10893,18 @@
       <c r="I109" t="n">
         <v>0.392226717716027</v>
       </c>
-      <c r="J109"/>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
       <c r="K109" t="n">
         <v>5</v>
       </c>
       <c r="L109" t="n">
         <v>5</v>
       </c>
-      <c r="M109"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
       <c r="N109"/>
       <c r="O109"/>
       <c r="P109"/>
@@ -10957,7 +10915,7 @@
         <v>5</v>
       </c>
       <c r="S109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T109" t="n">
         <v>5</v>
@@ -10985,9 +10943,7 @@
       <c r="AC109" t="n">
         <v>5</v>
       </c>
-      <c r="AD109" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD109"/>
       <c r="AE109"/>
       <c r="AF109" t="n">
         <v>5</v>
@@ -11031,7 +10987,7 @@
         <v>0.512291200709168</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K110" t="n">
         <v>1</v>
@@ -11040,13 +10996,13 @@
         <v>1</v>
       </c>
       <c r="M110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N110"/>
       <c r="O110"/>
       <c r="P110"/>
       <c r="Q110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R110" t="n">
         <v>5</v>
@@ -11069,11 +11025,9 @@
       <c r="X110" t="n">
         <v>5</v>
       </c>
-      <c r="Y110" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y110"/>
       <c r="Z110" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA110"/>
       <c r="AB110" t="n">
@@ -11082,9 +11036,7 @@
       <c r="AC110" t="n">
         <v>5</v>
       </c>
-      <c r="AD110" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD110"/>
       <c r="AE110"/>
       <c r="AF110" t="n">
         <v>5</v>
@@ -11128,7 +11080,7 @@
         <v>0.503351146256966</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K111" t="n">
         <v>5</v>
@@ -11137,13 +11089,13 @@
         <v>5</v>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N111"/>
       <c r="O111"/>
       <c r="P111"/>
       <c r="Q111" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R111" t="n">
         <v>5</v>
@@ -11177,9 +11129,7 @@
       <c r="AC111" t="n">
         <v>5</v>
       </c>
-      <c r="AD111" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD111"/>
       <c r="AE111"/>
       <c r="AF111" t="n">
         <v>5</v>
@@ -11222,25 +11172,29 @@
       <c r="I112" t="n">
         <v>0.629274055804117</v>
       </c>
-      <c r="J112"/>
+      <c r="J112" t="n">
+        <v>5</v>
+      </c>
       <c r="K112" t="n">
         <v>5</v>
       </c>
       <c r="L112" t="n">
         <v>5</v>
       </c>
-      <c r="M112"/>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
       <c r="N112"/>
       <c r="O112"/>
       <c r="P112"/>
       <c r="Q112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R112" t="n">
         <v>5</v>
       </c>
       <c r="S112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T112" t="n">
         <v>5</v>
@@ -11257,11 +11211,9 @@
       <c r="X112" t="n">
         <v>5</v>
       </c>
-      <c r="Y112" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y112"/>
       <c r="Z112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA112"/>
       <c r="AB112" t="n">
@@ -11270,9 +11222,7 @@
       <c r="AC112" t="n">
         <v>5</v>
       </c>
-      <c r="AD112" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD112"/>
       <c r="AE112"/>
       <c r="AF112" t="n">
         <v>5</v>
@@ -11315,19 +11265,23 @@
       <c r="I113" t="n">
         <v>0.517816624879269</v>
       </c>
-      <c r="J113"/>
+      <c r="J113" t="n">
+        <v>3</v>
+      </c>
       <c r="K113" t="n">
         <v>5</v>
       </c>
       <c r="L113" t="n">
         <v>5</v>
       </c>
-      <c r="M113"/>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
       <c r="Q113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R113" t="n">
         <v>5</v>
@@ -11350,11 +11304,9 @@
       <c r="X113" t="n">
         <v>5</v>
       </c>
-      <c r="Y113" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y113"/>
       <c r="Z113" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA113"/>
       <c r="AB113" t="n">
@@ -11363,9 +11315,7 @@
       <c r="AC113" t="n">
         <v>5</v>
       </c>
-      <c r="AD113" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD113"/>
       <c r="AE113"/>
       <c r="AF113" t="n">
         <v>5</v>
@@ -11409,7 +11359,9 @@
       <c r="J114"/>
       <c r="K114"/>
       <c r="L114"/>
-      <c r="M114"/>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114"/>
@@ -11434,7 +11386,9 @@
         <v>5</v>
       </c>
       <c r="Y114"/>
-      <c r="Z114"/>
+      <c r="Z114" t="n">
+        <v>1</v>
+      </c>
       <c r="AA114"/>
       <c r="AB114" t="n">
         <v>5</v>
@@ -11442,9 +11396,7 @@
       <c r="AC114" t="n">
         <v>5</v>
       </c>
-      <c r="AD114" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD114"/>
       <c r="AE114"/>
       <c r="AF114" t="n">
         <v>5</v>
@@ -11488,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K115" t="n">
         <v>3</v>
@@ -11497,13 +11449,13 @@
         <v>3</v>
       </c>
       <c r="M115" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115"/>
       <c r="Q115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R115" t="n">
         <v>5</v>
@@ -11526,11 +11478,9 @@
       <c r="X115" t="n">
         <v>5</v>
       </c>
-      <c r="Y115" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y115"/>
       <c r="Z115" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA115"/>
       <c r="AB115" t="n">
@@ -11539,9 +11489,7 @@
       <c r="AC115" t="n">
         <v>5</v>
       </c>
-      <c r="AD115" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD115"/>
       <c r="AE115"/>
       <c r="AF115" t="n">
         <v>5</v>
@@ -11585,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K116" t="n">
         <v>5</v>
@@ -11594,13 +11542,13 @@
         <v>5</v>
       </c>
       <c r="M116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N116"/>
       <c r="O116"/>
       <c r="P116"/>
       <c r="Q116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R116" t="n">
         <v>5</v>
@@ -11623,11 +11571,9 @@
       <c r="X116" t="n">
         <v>5</v>
       </c>
-      <c r="Y116" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y116"/>
       <c r="Z116" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA116"/>
       <c r="AB116" t="n">
@@ -11636,9 +11582,7 @@
       <c r="AC116" t="n">
         <v>5</v>
       </c>
-      <c r="AD116" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD116"/>
       <c r="AE116"/>
       <c r="AF116" t="n">
         <v>5</v>
@@ -11681,19 +11625,23 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117"/>
+      <c r="J117" t="n">
+        <v>5</v>
+      </c>
       <c r="K117" t="n">
         <v>5</v>
       </c>
       <c r="L117" t="n">
         <v>5</v>
       </c>
-      <c r="M117"/>
+      <c r="M117" t="n">
+        <v>3</v>
+      </c>
       <c r="N117"/>
       <c r="O117"/>
       <c r="P117"/>
       <c r="Q117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R117" t="n">
         <v>5</v>
@@ -11716,11 +11664,9 @@
       <c r="X117" t="n">
         <v>5</v>
       </c>
-      <c r="Y117" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y117"/>
       <c r="Z117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA117"/>
       <c r="AB117" t="n">
@@ -11729,9 +11675,7 @@
       <c r="AC117" t="n">
         <v>5</v>
       </c>
-      <c r="AD117" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD117"/>
       <c r="AE117"/>
       <c r="AF117" t="n">
         <v>5</v>
@@ -11774,18 +11718,24 @@
       <c r="I118" t="n">
         <v>0.287380965486902</v>
       </c>
-      <c r="J118"/>
+      <c r="J118" t="n">
+        <v>5</v>
+      </c>
       <c r="K118" t="n">
         <v>5</v>
       </c>
       <c r="L118" t="n">
         <v>5</v>
       </c>
-      <c r="M118"/>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
-      <c r="Q118"/>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
       <c r="R118" t="n">
         <v>5</v>
       </c>
@@ -11808,7 +11758,9 @@
         <v>5</v>
       </c>
       <c r="Y118"/>
-      <c r="Z118"/>
+      <c r="Z118" t="n">
+        <v>5</v>
+      </c>
       <c r="AA118"/>
       <c r="AB118" t="n">
         <v>5</v>
@@ -11816,9 +11768,7 @@
       <c r="AC118" t="n">
         <v>5</v>
       </c>
-      <c r="AD118" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD118"/>
       <c r="AE118"/>
       <c r="AF118" t="n">
         <v>5</v>
@@ -11862,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K119" t="n">
         <v>5</v>
@@ -11871,12 +11821,14 @@
         <v>5</v>
       </c>
       <c r="M119" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119"/>
-      <c r="Q119"/>
+      <c r="Q119" t="n">
+        <v>3</v>
+      </c>
       <c r="R119" t="n">
         <v>5</v>
       </c>
@@ -11898,9 +11850,7 @@
       <c r="X119" t="n">
         <v>5</v>
       </c>
-      <c r="Y119" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y119"/>
       <c r="Z119" t="n">
         <v>5</v>
       </c>
@@ -11911,9 +11861,7 @@
       <c r="AC119" t="n">
         <v>5</v>
       </c>
-      <c r="AD119" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD119"/>
       <c r="AE119"/>
       <c r="AF119" t="n">
         <v>5</v>
@@ -11966,12 +11914,14 @@
         <v>5</v>
       </c>
       <c r="M120" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120"/>
-      <c r="Q120"/>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
       <c r="R120" t="n">
         <v>5</v>
       </c>
@@ -12004,9 +11954,7 @@
       <c r="AC120" t="n">
         <v>5</v>
       </c>
-      <c r="AD120" t="n">
-        <v>3</v>
-      </c>
+      <c r="AD120"/>
       <c r="AE120"/>
       <c r="AF120" t="n">
         <v>5</v>
@@ -12050,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K121" t="n">
         <v>5</v>
@@ -12059,13 +12007,13 @@
         <v>5</v>
       </c>
       <c r="M121" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R121" t="n">
         <v>5</v>
@@ -12088,11 +12036,9 @@
       <c r="X121" t="n">
         <v>5</v>
       </c>
-      <c r="Y121" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y121"/>
       <c r="Z121" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AA121"/>
       <c r="AB121" t="n">
@@ -12101,9 +12047,7 @@
       <c r="AC121" t="n">
         <v>5</v>
       </c>
-      <c r="AD121" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD121"/>
       <c r="AE121"/>
       <c r="AF121" t="n">
         <v>5</v>
@@ -12168,7 +12112,7 @@
         <v>5</v>
       </c>
       <c r="S122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T122" t="n">
         <v>5</v>
@@ -12196,9 +12140,7 @@
       <c r="AC122" t="n">
         <v>5</v>
       </c>
-      <c r="AD122" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD122"/>
       <c r="AE122"/>
       <c r="AF122" t="n">
         <v>5</v>
@@ -12242,7 +12184,7 @@
         <v>0.0292506829513117</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K123" t="n">
         <v>5</v>
@@ -12251,13 +12193,13 @@
         <v>5</v>
       </c>
       <c r="M123" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N123"/>
       <c r="O123"/>
       <c r="P123"/>
       <c r="Q123" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R123" t="n">
         <v>5</v>
@@ -12280,9 +12222,7 @@
       <c r="X123" t="n">
         <v>5</v>
       </c>
-      <c r="Y123" t="n">
-        <v>5</v>
-      </c>
+      <c r="Y123"/>
       <c r="Z123" t="n">
         <v>1</v>
       </c>
@@ -12293,9 +12233,7 @@
       <c r="AC123" t="n">
         <v>5</v>
       </c>
-      <c r="AD123" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD123"/>
       <c r="AE123"/>
       <c r="AF123" t="n">
         <v>5</v>
@@ -12338,14 +12276,18 @@
       <c r="I124" t="n">
         <v>0.0334077127996523</v>
       </c>
-      <c r="J124"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="n">
         <v>5</v>
       </c>
       <c r="L124" t="n">
         <v>5</v>
       </c>
-      <c r="M124"/>
+      <c r="M124" t="n">
+        <v>3</v>
+      </c>
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
@@ -12373,11 +12315,9 @@
       <c r="X124" t="n">
         <v>5</v>
       </c>
-      <c r="Y124" t="n">
-        <v>3</v>
-      </c>
+      <c r="Y124"/>
       <c r="Z124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA124"/>
       <c r="AB124" t="n">
@@ -12386,9 +12326,7 @@
       <c r="AC124" t="n">
         <v>5</v>
       </c>
-      <c r="AD124" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD124"/>
       <c r="AE124"/>
       <c r="AF124" t="n">
         <v>5</v>
@@ -12429,18 +12367,24 @@
         <v>57</v>
       </c>
       <c r="I125"/>
-      <c r="J125"/>
+      <c r="J125" t="n">
+        <v>5</v>
+      </c>
       <c r="K125" t="n">
         <v>5</v>
       </c>
       <c r="L125" t="n">
         <v>5</v>
       </c>
-      <c r="M125"/>
+      <c r="M125" t="n">
+        <v>3</v>
+      </c>
       <c r="N125"/>
       <c r="O125"/>
       <c r="P125"/>
-      <c r="Q125"/>
+      <c r="Q125" t="n">
+        <v>5</v>
+      </c>
       <c r="R125" t="n">
         <v>5</v>
       </c>
@@ -12463,7 +12407,9 @@
         <v>5</v>
       </c>
       <c r="Y125"/>
-      <c r="Z125"/>
+      <c r="Z125" t="n">
+        <v>1</v>
+      </c>
       <c r="AA125"/>
       <c r="AB125" t="n">
         <v>5</v>
@@ -12471,9 +12417,7 @@
       <c r="AC125" t="n">
         <v>5</v>
       </c>
-      <c r="AD125" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD125"/>
       <c r="AE125"/>
       <c r="AF125" t="n">
         <v>5</v>
@@ -12514,18 +12458,24 @@
         <v>57</v>
       </c>
       <c r="I126"/>
-      <c r="J126"/>
+      <c r="J126" t="n">
+        <v>5</v>
+      </c>
       <c r="K126" t="n">
         <v>5</v>
       </c>
       <c r="L126" t="n">
         <v>5</v>
       </c>
-      <c r="M126"/>
+      <c r="M126" t="n">
+        <v>3</v>
+      </c>
       <c r="N126"/>
       <c r="O126"/>
       <c r="P126"/>
-      <c r="Q126"/>
+      <c r="Q126" t="n">
+        <v>5</v>
+      </c>
       <c r="R126" t="n">
         <v>5</v>
       </c>
@@ -12548,7 +12498,9 @@
         <v>5</v>
       </c>
       <c r="Y126"/>
-      <c r="Z126"/>
+      <c r="Z126" t="n">
+        <v>1</v>
+      </c>
       <c r="AA126"/>
       <c r="AB126" t="n">
         <v>5</v>
@@ -12556,9 +12508,7 @@
       <c r="AC126" t="n">
         <v>5</v>
       </c>
-      <c r="AD126" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD126"/>
       <c r="AE126"/>
       <c r="AF126" t="n">
         <v>5</v>
@@ -12599,18 +12549,24 @@
         <v>57</v>
       </c>
       <c r="I127"/>
-      <c r="J127"/>
+      <c r="J127" t="n">
+        <v>5</v>
+      </c>
       <c r="K127" t="n">
         <v>5</v>
       </c>
       <c r="L127" t="n">
         <v>5</v>
       </c>
-      <c r="M127"/>
+      <c r="M127" t="n">
+        <v>3</v>
+      </c>
       <c r="N127"/>
       <c r="O127"/>
       <c r="P127"/>
-      <c r="Q127"/>
+      <c r="Q127" t="n">
+        <v>5</v>
+      </c>
       <c r="R127" t="n">
         <v>5</v>
       </c>
@@ -12633,7 +12589,9 @@
         <v>5</v>
       </c>
       <c r="Y127"/>
-      <c r="Z127"/>
+      <c r="Z127" t="n">
+        <v>1</v>
+      </c>
       <c r="AA127"/>
       <c r="AB127" t="n">
         <v>5</v>
@@ -12641,9 +12599,7 @@
       <c r="AC127" t="n">
         <v>5</v>
       </c>
-      <c r="AD127" t="n">
-        <v>1</v>
-      </c>
+      <c r="AD127"/>
       <c r="AE127"/>
       <c r="AF127" t="n">
         <v>5</v>
@@ -12682,18 +12638,24 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128"/>
+      <c r="J128" t="n">
+        <v>3</v>
+      </c>
       <c r="K128" t="n">
         <v>5</v>
       </c>
       <c r="L128" t="n">
         <v>5</v>
       </c>
-      <c r="M128"/>
+      <c r="M128" t="n">
+        <v>3</v>
+      </c>
       <c r="N128"/>
       <c r="O128"/>
       <c r="P128"/>
-      <c r="Q128"/>
+      <c r="Q128" t="n">
+        <v>5</v>
+      </c>
       <c r="R128" t="n">
         <v>5</v>
       </c>
@@ -12716,7 +12678,9 @@
         <v>5</v>
       </c>
       <c r="Y128"/>
-      <c r="Z128"/>
+      <c r="Z128" t="n">
+        <v>1</v>
+      </c>
       <c r="AA128"/>
       <c r="AB128" t="n">
         <v>5</v>
@@ -12763,18 +12727,24 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="n">
         <v>5</v>
       </c>
       <c r="L129" t="n">
         <v>5</v>
       </c>
-      <c r="M129"/>
+      <c r="M129" t="n">
+        <v>3</v>
+      </c>
       <c r="N129"/>
       <c r="O129"/>
       <c r="P129"/>
-      <c r="Q129"/>
+      <c r="Q129" t="n">
+        <v>5</v>
+      </c>
       <c r="R129" t="n">
         <v>5</v>
       </c>
@@ -12797,7 +12767,9 @@
         <v>5</v>
       </c>
       <c r="Y129"/>
-      <c r="Z129"/>
+      <c r="Z129" t="n">
+        <v>3</v>
+      </c>
       <c r="AA129"/>
       <c r="AB129" t="n">
         <v>5</v>
